--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$V$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$W$286</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="71">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -242,16 +242,19 @@
     <t>Table 6.7 Gross Domestic Capital Formation in Durable Equipment, by Major Type of Equipment</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -681,14 +684,14 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="22" width="11.1796875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.81640625" style="1"/>
+    <col min="2" max="23" width="11.1796875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.25">
@@ -703,7 +706,7 @@
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
@@ -713,7 +716,7 @@
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
@@ -746,6 +749,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -813,6 +817,9 @@
       </c>
       <c r="V10" s="6">
         <v>2020</v>
+      </c>
+      <c r="W10" s="6">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:95" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -885,7 +892,9 @@
       <c r="V12" s="8">
         <v>170338.9222315033</v>
       </c>
-      <c r="W12" s="9"/>
+      <c r="W12" s="8">
+        <v>204891.76883147511</v>
+      </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -1026,7 +1035,9 @@
       <c r="V13" s="11">
         <v>11679.429310440948</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="11">
+        <v>17868.588722490174</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -1167,7 +1178,9 @@
       <c r="V14" s="11">
         <v>25210.260051531895</v>
       </c>
-      <c r="W14" s="9"/>
+      <c r="W14" s="11">
+        <v>36241.417738594319</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -1308,7 +1321,9 @@
       <c r="V15" s="11">
         <v>2212.8525587880013</v>
       </c>
-      <c r="W15" s="9"/>
+      <c r="W15" s="11">
+        <v>2393.4738678435306</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -1449,7 +1464,9 @@
       <c r="V16" s="11">
         <v>3130.2412804835162</v>
       </c>
-      <c r="W16" s="9"/>
+      <c r="W16" s="11">
+        <v>1752.9474134332438</v>
+      </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -1590,7 +1607,9 @@
       <c r="V17" s="11">
         <v>11069.281177426712</v>
       </c>
-      <c r="W17" s="9"/>
+      <c r="W17" s="11">
+        <v>12350.742692073194</v>
+      </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -1731,7 +1750,9 @@
       <c r="V18" s="11">
         <v>87446.066903465689</v>
       </c>
-      <c r="W18" s="9"/>
+      <c r="W18" s="11">
+        <v>95993.359902731085</v>
+      </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -1872,7 +1893,9 @@
       <c r="V19" s="11">
         <v>5021.5505045211576</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="11">
+        <v>4487.9842542150609</v>
+      </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -2013,7 +2036,9 @@
       <c r="V20" s="11">
         <v>24569.240444845367</v>
       </c>
-      <c r="W20" s="9"/>
+      <c r="W20" s="11">
+        <v>33803.254240094509</v>
+      </c>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
@@ -2154,7 +2179,9 @@
       <c r="V21" s="8">
         <v>180027.2250005668</v>
       </c>
-      <c r="W21" s="9"/>
+      <c r="W21" s="8">
+        <v>182355.1408158759</v>
+      </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -2295,7 +2322,9 @@
       <c r="V22" s="11">
         <v>31266.801271482171</v>
       </c>
-      <c r="W22" s="9"/>
+      <c r="W22" s="11">
+        <v>32038.408187885692</v>
+      </c>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
@@ -2436,7 +2465,9 @@
       <c r="V23" s="11">
         <v>18382.602078682736</v>
       </c>
-      <c r="W23" s="9"/>
+      <c r="W23" s="11">
+        <v>20311.437306567528</v>
+      </c>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
@@ -2577,7 +2608,9 @@
       <c r="V24" s="11">
         <v>53558.071026919832</v>
       </c>
-      <c r="W24" s="9"/>
+      <c r="W24" s="11">
+        <v>54081.788272041937</v>
+      </c>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
@@ -2718,7 +2751,9 @@
       <c r="V25" s="11">
         <v>76819.750623482047</v>
       </c>
-      <c r="W25" s="9"/>
+      <c r="W25" s="11">
+        <v>75923.507049380758</v>
+      </c>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
@@ -2859,7 +2894,9 @@
       <c r="V26" s="8">
         <v>407692.46202364721</v>
       </c>
-      <c r="W26" s="9"/>
+      <c r="W26" s="8">
+        <v>468854.00907381979</v>
+      </c>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
@@ -3000,7 +3037,9 @@
       <c r="V27" s="11">
         <v>377456.35298962833</v>
       </c>
-      <c r="W27" s="9"/>
+      <c r="W27" s="11">
+        <v>421717.98100607039</v>
+      </c>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
@@ -3141,7 +3180,9 @@
       <c r="V28" s="11">
         <v>2026.3481789187992</v>
       </c>
-      <c r="W28" s="9"/>
+      <c r="W28" s="11">
+        <v>6433.7406796165033</v>
+      </c>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
@@ -3282,7 +3323,9 @@
       <c r="V29" s="11">
         <v>21709.603266907667</v>
       </c>
-      <c r="W29" s="9"/>
+      <c r="W29" s="11">
+        <v>29573.126800970502</v>
+      </c>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
@@ -3423,7 +3466,9 @@
       <c r="V30" s="11">
         <v>6500.1575881923818</v>
       </c>
-      <c r="W30" s="9"/>
+      <c r="W30" s="11">
+        <v>11129.160587162354</v>
+      </c>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
@@ -3564,7 +3609,9 @@
       <c r="V31" s="8">
         <v>185757.99081642187</v>
       </c>
-      <c r="W31" s="9"/>
+      <c r="W31" s="8">
+        <v>213881.7228413049</v>
+      </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -3705,7 +3752,9 @@
       <c r="V32" s="11">
         <v>18848.727834687219</v>
       </c>
-      <c r="W32" s="9"/>
+      <c r="W32" s="11">
+        <v>19152.002974833096</v>
+      </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -3846,7 +3895,9 @@
       <c r="V33" s="11">
         <v>28970.845060702912</v>
       </c>
-      <c r="W33" s="9"/>
+      <c r="W33" s="11">
+        <v>34519.296091942611</v>
+      </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -3987,7 +4038,9 @@
       <c r="V34" s="11">
         <v>97997.261662150675</v>
       </c>
-      <c r="W34" s="9"/>
+      <c r="W34" s="11">
+        <v>111063.22950796713</v>
+      </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -4128,7 +4181,9 @@
       <c r="V35" s="11">
         <v>39941.15625888107</v>
       </c>
-      <c r="W35" s="9"/>
+      <c r="W35" s="11">
+        <v>49147.194266562074</v>
+      </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -4365,7 +4420,9 @@
       <c r="V37" s="13">
         <v>943816.60007213918</v>
       </c>
-      <c r="W37" s="9"/>
+      <c r="W37" s="13">
+        <v>1069982.6415624758</v>
+      </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -4462,6 +4519,7 @@
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
       <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
     </row>
     <row r="39" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
@@ -4672,7 +4730,7 @@
     </row>
     <row r="44" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:95" x14ac:dyDescent="0.25">
@@ -4682,7 +4740,7 @@
     </row>
     <row r="47" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:95" x14ac:dyDescent="0.25">
@@ -4715,6 +4773,7 @@
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
     </row>
     <row r="51" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
@@ -4782,6 +4841,9 @@
       </c>
       <c r="V51" s="16">
         <v>2020</v>
+      </c>
+      <c r="W51" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="52" spans="1:95" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4854,7 +4916,9 @@
       <c r="V53" s="8">
         <v>176746.23959947677</v>
       </c>
-      <c r="W53" s="9"/>
+      <c r="W53" s="8">
+        <v>204765.94875208114</v>
+      </c>
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
@@ -4995,7 +5059,9 @@
       <c r="V54" s="11">
         <v>13970.571047918909</v>
       </c>
-      <c r="W54" s="9"/>
+      <c r="W54" s="11">
+        <v>18221.250998202042</v>
+      </c>
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
@@ -5136,7 +5202,9 @@
       <c r="V55" s="11">
         <v>25840.902847413065</v>
       </c>
-      <c r="W55" s="9"/>
+      <c r="W55" s="11">
+        <v>36740.138362234888</v>
+      </c>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
@@ -5277,7 +5345,9 @@
       <c r="V56" s="11">
         <v>2247.1814113263308</v>
       </c>
-      <c r="W56" s="9"/>
+      <c r="W56" s="11">
+        <v>2270.248998998768</v>
+      </c>
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
@@ -5418,7 +5488,9 @@
       <c r="V57" s="11">
         <v>2850.2984802504275</v>
       </c>
-      <c r="W57" s="9"/>
+      <c r="W57" s="11">
+        <v>1648.0785104584893</v>
+      </c>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
@@ -5559,7 +5631,9 @@
       <c r="V58" s="11">
         <v>11153.003394280062</v>
       </c>
-      <c r="W58" s="9"/>
+      <c r="W58" s="11">
+        <v>11843.376834905897</v>
+      </c>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
@@ -5700,7 +5774,9 @@
       <c r="V59" s="11">
         <v>89359.796338697401</v>
       </c>
-      <c r="W59" s="9"/>
+      <c r="W59" s="11">
+        <v>97104.830996350298</v>
+      </c>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
@@ -5841,7 +5917,9 @@
       <c r="V60" s="11">
         <v>5781.4237108497273</v>
       </c>
-      <c r="W60" s="9"/>
+      <c r="W60" s="11">
+        <v>5035.7487668122521</v>
+      </c>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
@@ -5982,7 +6060,9 @@
       <c r="V61" s="11">
         <v>25543.062368740841</v>
       </c>
-      <c r="W61" s="9"/>
+      <c r="W61" s="11">
+        <v>31902.275284118488</v>
+      </c>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -6123,7 +6203,9 @@
       <c r="V62" s="8">
         <v>183935.80224736748</v>
       </c>
-      <c r="W62" s="9"/>
+      <c r="W62" s="8">
+        <v>185981.3447923506</v>
+      </c>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -6264,7 +6346,9 @@
       <c r="V63" s="11">
         <v>32348.056103422186</v>
       </c>
-      <c r="W63" s="9"/>
+      <c r="W63" s="11">
+        <v>31898.420945546935</v>
+      </c>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -6405,7 +6489,9 @@
       <c r="V64" s="11">
         <v>18952.010904281029</v>
       </c>
-      <c r="W64" s="9"/>
+      <c r="W64" s="11">
+        <v>20345.752079567981</v>
+      </c>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -6546,7 +6632,9 @@
       <c r="V65" s="11">
         <v>54441.968749510233</v>
       </c>
-      <c r="W65" s="9"/>
+      <c r="W65" s="11">
+        <v>54136.519398725657</v>
+      </c>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
@@ -6687,7 +6775,9 @@
       <c r="V66" s="11">
         <v>78193.766490154027</v>
       </c>
-      <c r="W66" s="9"/>
+      <c r="W66" s="11">
+        <v>79600.65236851004</v>
+      </c>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
@@ -6828,7 +6918,9 @@
       <c r="V67" s="8">
         <v>454473.44765315868</v>
       </c>
-      <c r="W67" s="9"/>
+      <c r="W67" s="8">
+        <v>506308.79477684671</v>
+      </c>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
@@ -6969,7 +7061,9 @@
       <c r="V68" s="11">
         <v>423927.03445179085</v>
       </c>
-      <c r="W68" s="9"/>
+      <c r="W68" s="11">
+        <v>460438.32351227314</v>
+      </c>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
@@ -7110,7 +7204,9 @@
       <c r="V69" s="11">
         <v>2048.4783257197755</v>
       </c>
-      <c r="W69" s="9"/>
+      <c r="W69" s="11">
+        <v>6220.5604270232216</v>
+      </c>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
@@ -7251,7 +7347,9 @@
       <c r="V70" s="11">
         <v>21107.572288778774</v>
       </c>
-      <c r="W70" s="9"/>
+      <c r="W70" s="11">
+        <v>29072.801188445763</v>
+      </c>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
@@ -7392,7 +7490,9 @@
       <c r="V71" s="11">
         <v>7390.3625868692707</v>
       </c>
-      <c r="W71" s="9"/>
+      <c r="W71" s="11">
+        <v>10577.109649104594</v>
+      </c>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
@@ -7533,7 +7633,9 @@
       <c r="V72" s="8">
         <v>186296.65229546389</v>
       </c>
-      <c r="W72" s="9"/>
+      <c r="W72" s="8">
+        <v>223602.78279574547</v>
+      </c>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
@@ -7674,7 +7776,9 @@
       <c r="V73" s="11">
         <v>15880.294337258216</v>
       </c>
-      <c r="W73" s="9"/>
+      <c r="W73" s="11">
+        <v>19359.896237098899</v>
+      </c>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
@@ -7815,7 +7919,9 @@
       <c r="V74" s="11">
         <v>30440.39693734749</v>
       </c>
-      <c r="W74" s="9"/>
+      <c r="W74" s="11">
+        <v>37796.581066607294</v>
+      </c>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
@@ -7956,7 +8062,9 @@
       <c r="V75" s="11">
         <v>98212.125247995544</v>
       </c>
-      <c r="W75" s="9"/>
+      <c r="W75" s="11">
+        <v>114797.3347129281</v>
+      </c>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
@@ -8097,7 +8205,9 @@
       <c r="V76" s="11">
         <v>41763.835772862665</v>
       </c>
-      <c r="W76" s="9"/>
+      <c r="W76" s="11">
+        <v>51648.970779111158</v>
+      </c>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
@@ -8334,7 +8444,9 @@
       <c r="V78" s="13">
         <v>1001452.1417954669</v>
       </c>
-      <c r="W78" s="9"/>
+      <c r="W78" s="13">
+        <v>1120658.871117024</v>
+      </c>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
@@ -8431,6 +8543,7 @@
       <c r="T79" s="14"/>
       <c r="U79" s="14"/>
       <c r="V79" s="14"/>
+      <c r="W79" s="14"/>
     </row>
     <row r="80" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
@@ -8643,7 +8756,7 @@
     </row>
     <row r="85" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:95" x14ac:dyDescent="0.25">
@@ -8653,7 +8766,7 @@
     </row>
     <row r="88" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:95" x14ac:dyDescent="0.25">
@@ -8685,6 +8798,8 @@
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
     </row>
     <row r="92" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
@@ -8748,8 +8863,12 @@
         <v>34</v>
       </c>
       <c r="U92" s="16" t="s">
-        <v>68</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="V92" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="W92" s="16"/>
     </row>
     <row r="93" spans="1:95" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
@@ -8818,7 +8937,10 @@
       <c r="U94" s="19">
         <v>-28.623664340648986</v>
       </c>
-      <c r="W94" s="9"/>
+      <c r="V94" s="19">
+        <v>20.284762958058366</v>
+      </c>
+      <c r="W94" s="19"/>
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
@@ -8950,7 +9072,10 @@
       <c r="U95" s="19">
         <v>-18.708862093933959</v>
       </c>
-      <c r="W95" s="9"/>
+      <c r="V95" s="19">
+        <v>52.991967736954081</v>
+      </c>
+      <c r="W95" s="19"/>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
@@ -9082,7 +9207,10 @@
       <c r="U96" s="19">
         <v>-46.259770640586282</v>
       </c>
-      <c r="W96" s="9"/>
+      <c r="V96" s="19">
+        <v>43.756619981363968</v>
+      </c>
+      <c r="W96" s="19"/>
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
@@ -9214,7 +9342,10 @@
       <c r="U97" s="19">
         <v>-42.158834233312234</v>
       </c>
-      <c r="W97" s="9"/>
+      <c r="V97" s="19">
+        <v>8.1623743226009253</v>
+      </c>
+      <c r="W97" s="19"/>
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
@@ -9346,7 +9477,10 @@
       <c r="U98" s="19">
         <v>-12.586815294235635</v>
       </c>
-      <c r="W98" s="9"/>
+      <c r="V98" s="19">
+        <v>-43.999607175250311</v>
+      </c>
+      <c r="W98" s="19"/>
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
@@ -9478,7 +9612,10 @@
       <c r="U99" s="19">
         <v>-34.79656918089627</v>
       </c>
-      <c r="W99" s="9"/>
+      <c r="V99" s="19">
+        <v>11.576736502635171</v>
+      </c>
+      <c r="W99" s="19"/>
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
       <c r="Z99" s="9"/>
@@ -9610,7 +9747,10 @@
       <c r="U100" s="19">
         <v>-17.98007235224128</v>
       </c>
-      <c r="W100" s="9"/>
+      <c r="V100" s="19">
+        <v>9.7743595589050472</v>
+      </c>
+      <c r="W100" s="19"/>
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
@@ -9742,7 +9882,10 @@
       <c r="U101" s="19">
         <v>-40.02963327548256</v>
       </c>
-      <c r="W101" s="9"/>
+      <c r="V101" s="19">
+        <v>-10.625527908674812</v>
+      </c>
+      <c r="W101" s="19"/>
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
       <c r="Z101" s="9"/>
@@ -9874,7 +10017,10 @@
       <c r="U102" s="19">
         <v>-35.340710676264749</v>
       </c>
-      <c r="W102" s="9"/>
+      <c r="V102" s="19">
+        <v>37.583635586856076</v>
+      </c>
+      <c r="W102" s="19"/>
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
       <c r="Z102" s="9"/>
@@ -10006,7 +10152,10 @@
       <c r="U103" s="19">
         <v>-29.126586263845752</v>
       </c>
-      <c r="W103" s="9"/>
+      <c r="V103" s="19">
+        <v>1.2930909840451932</v>
+      </c>
+      <c r="W103" s="19"/>
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
       <c r="Z103" s="9"/>
@@ -10138,7 +10287,10 @@
       <c r="U104" s="19">
         <v>-25.5806220186183</v>
       </c>
-      <c r="W104" s="9"/>
+      <c r="V104" s="19">
+        <v>2.4678153345583524</v>
+      </c>
+      <c r="W104" s="19"/>
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
       <c r="Z104" s="9"/>
@@ -10270,7 +10422,10 @@
       <c r="U105" s="19">
         <v>-39.95204035781137</v>
       </c>
-      <c r="W105" s="9"/>
+      <c r="V105" s="19">
+        <v>10.492721430996738</v>
+      </c>
+      <c r="W105" s="19"/>
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
       <c r="Z105" s="9"/>
@@ -10402,7 +10557,10 @@
       <c r="U106" s="19">
         <v>-33.794569640191199</v>
       </c>
-      <c r="W106" s="9"/>
+      <c r="V106" s="19">
+        <v>0.97784934199529516</v>
+      </c>
+      <c r="W106" s="19"/>
       <c r="X106" s="9"/>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
@@ -10534,7 +10692,10 @@
       <c r="U107" s="19">
         <v>-23.553331562805113</v>
       </c>
-      <c r="W107" s="9"/>
+      <c r="V107" s="19">
+        <v>-1.16668378486942</v>
+      </c>
+      <c r="W107" s="19"/>
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
@@ -10666,7 +10827,10 @@
       <c r="U108" s="19">
         <v>-41.75989011183627</v>
       </c>
-      <c r="W108" s="9"/>
+      <c r="V108" s="19">
+        <v>15.001883220157524</v>
+      </c>
+      <c r="W108" s="19"/>
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
@@ -10798,7 +10962,10 @@
       <c r="U109" s="19">
         <v>-39.395861571950718</v>
       </c>
-      <c r="W109" s="9"/>
+      <c r="V109" s="19">
+        <v>11.726290381886415</v>
+      </c>
+      <c r="W109" s="19"/>
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
@@ -10930,7 +11097,10 @@
       <c r="U110" s="19">
         <v>225.44412601559469</v>
       </c>
-      <c r="W110" s="9"/>
+      <c r="V110" s="19">
+        <v>217.50420517807368</v>
+      </c>
+      <c r="W110" s="19"/>
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
@@ -11062,7 +11232,10 @@
       <c r="U111" s="19">
         <v>-68.130493654973407</v>
       </c>
-      <c r="W111" s="9"/>
+      <c r="V111" s="19">
+        <v>36.221405971288959</v>
+      </c>
+      <c r="W111" s="19"/>
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
@@ -11194,7 +11367,10 @@
       <c r="U112" s="19">
         <v>-23.115096276631036</v>
       </c>
-      <c r="W112" s="9"/>
+      <c r="V112" s="19">
+        <v>71.213704224319343</v>
+      </c>
+      <c r="W112" s="19"/>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
@@ -11326,7 +11502,10 @@
       <c r="U113" s="19">
         <v>-28.357080254313914</v>
       </c>
-      <c r="W113" s="9"/>
+      <c r="V113" s="19">
+        <v>15.139985042515207</v>
+      </c>
+      <c r="W113" s="19"/>
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
@@ -11458,7 +11637,10 @@
       <c r="U114" s="19">
         <v>-4.4061544080336716</v>
       </c>
-      <c r="W114" s="9"/>
+      <c r="V114" s="19">
+        <v>1.6089952744065954</v>
+      </c>
+      <c r="W114" s="19"/>
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
@@ -11590,7 +11772,10 @@
       <c r="U115" s="19">
         <v>-30.650036096859054</v>
       </c>
-      <c r="W115" s="9"/>
+      <c r="V115" s="19">
+        <v>19.151843930040613</v>
+      </c>
+      <c r="W115" s="19"/>
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
@@ -11722,7 +11907,10 @@
       <c r="U116" s="19">
         <v>-31.267025807768647</v>
       </c>
-      <c r="W116" s="9"/>
+      <c r="V116" s="19">
+        <v>13.332992804290683</v>
+      </c>
+      <c r="W116" s="19"/>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
@@ -11854,7 +12042,10 @@
       <c r="U117" s="19">
         <v>-27.661135033255078</v>
       </c>
-      <c r="W117" s="9"/>
+      <c r="V117" s="19">
+        <v>23.049002257249398</v>
+      </c>
+      <c r="W117" s="19"/>
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
@@ -11943,6 +12134,7 @@
       <c r="S118" s="9"/>
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
+      <c r="V118" s="9"/>
       <c r="W118" s="9"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
@@ -12075,7 +12267,10 @@
       <c r="U119" s="20">
         <v>-34.997269932331719</v>
       </c>
-      <c r="W119" s="9"/>
+      <c r="V119" s="20">
+        <v>13.367643828334153</v>
+      </c>
+      <c r="W119" s="20"/>
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
@@ -12165,6 +12360,8 @@
       <c r="S120" s="14"/>
       <c r="T120" s="14"/>
       <c r="U120" s="14"/>
+      <c r="V120" s="14"/>
+      <c r="W120" s="14"/>
     </row>
     <row r="121" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -12195,6 +12392,7 @@
       <c r="S122" s="9"/>
       <c r="T122" s="9"/>
       <c r="U122" s="9"/>
+      <c r="V122" s="9"/>
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
       <c r="Y122" s="9"/>
@@ -12284,6 +12482,7 @@
       <c r="S123" s="9"/>
       <c r="T123" s="9"/>
       <c r="U123" s="9"/>
+      <c r="V123" s="9"/>
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
@@ -12364,7 +12563,7 @@
     </row>
     <row r="126" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" spans="1:89" x14ac:dyDescent="0.25">
@@ -12374,7 +12573,7 @@
     </row>
     <row r="129" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:89" x14ac:dyDescent="0.25">
@@ -12406,6 +12605,8 @@
       <c r="S132" s="5"/>
       <c r="T132" s="5"/>
       <c r="U132" s="5"/>
+      <c r="V132" s="5"/>
+      <c r="W132" s="5"/>
     </row>
     <row r="133" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
@@ -12469,8 +12670,12 @@
         <v>34</v>
       </c>
       <c r="U133" s="21" t="s">
-        <v>68</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="V133" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="W133" s="21"/>
     </row>
     <row r="134" spans="1:89" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
@@ -12539,7 +12744,10 @@
       <c r="U135" s="19">
         <v>-23.745364410665076</v>
       </c>
-      <c r="W135" s="9"/>
+      <c r="V135" s="19">
+        <v>15.853072300774045</v>
+      </c>
+      <c r="W135" s="19"/>
       <c r="X135" s="9"/>
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
@@ -12671,7 +12879,10 @@
       <c r="U136" s="19">
         <v>3.7050315089629748E-2</v>
       </c>
-      <c r="W136" s="9"/>
+      <c r="V136" s="19">
+        <v>30.425957075794173</v>
+      </c>
+      <c r="W136" s="19"/>
       <c r="X136" s="9"/>
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
@@ -12803,7 +13014,10 @@
       <c r="U137" s="19">
         <v>-43.33740541965885</v>
       </c>
-      <c r="W137" s="9"/>
+      <c r="V137" s="19">
+        <v>42.178230300931403</v>
+      </c>
+      <c r="W137" s="19"/>
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
@@ -12935,7 +13149,10 @@
       <c r="U138" s="19">
         <v>-39.947435851334035</v>
       </c>
-      <c r="W138" s="9"/>
+      <c r="V138" s="19">
+        <v>1.0265120366415914</v>
+      </c>
+      <c r="W138" s="19"/>
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
@@ -13067,7 +13284,10 @@
       <c r="U139" s="19">
         <v>-18.201817348894153</v>
       </c>
-      <c r="W139" s="9"/>
+      <c r="V139" s="19">
+        <v>-42.178739459114858</v>
+      </c>
+      <c r="W139" s="19"/>
       <c r="X139" s="9"/>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
@@ -13199,7 +13419,10 @@
       <c r="U140" s="19">
         <v>-32.439543993652094</v>
       </c>
-      <c r="W140" s="9"/>
+      <c r="V140" s="19">
+        <v>6.190022689134139</v>
+      </c>
+      <c r="W140" s="19"/>
       <c r="X140" s="9"/>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
@@ -13331,7 +13554,10 @@
       <c r="U141" s="19">
         <v>-13.460748424312172</v>
       </c>
-      <c r="W141" s="9"/>
+      <c r="V141" s="19">
+        <v>8.6672474367523762</v>
+      </c>
+      <c r="W141" s="19"/>
       <c r="X141" s="9"/>
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
@@ -13463,7 +13689,10 @@
       <c r="U142" s="19">
         <v>-28.983506955458267</v>
       </c>
-      <c r="W142" s="9"/>
+      <c r="V142" s="19">
+        <v>-12.897773651118186</v>
+      </c>
+      <c r="W142" s="19"/>
       <c r="X142" s="9"/>
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
@@ -13595,7 +13824,10 @@
       <c r="U143" s="19">
         <v>-31.111793889517884</v>
       </c>
-      <c r="W143" s="9"/>
+      <c r="V143" s="19">
+        <v>24.896047402522669</v>
+      </c>
+      <c r="W143" s="19"/>
       <c r="X143" s="9"/>
       <c r="Y143" s="9"/>
       <c r="Z143" s="9"/>
@@ -13727,7 +13959,10 @@
       <c r="U144" s="19">
         <v>-26.324808420696613</v>
       </c>
-      <c r="W144" s="9"/>
+      <c r="V144" s="19">
+        <v>1.1120959160697623</v>
+      </c>
+      <c r="W144" s="19"/>
       <c r="X144" s="9"/>
       <c r="Y144" s="9"/>
       <c r="Z144" s="9"/>
@@ -13859,7 +14094,10 @@
       <c r="U145" s="19">
         <v>-21.70000643936018</v>
       </c>
-      <c r="W145" s="9"/>
+      <c r="V145" s="19">
+        <v>-1.3899912762537951</v>
+      </c>
+      <c r="W145" s="19"/>
       <c r="X145" s="9"/>
       <c r="Y145" s="9"/>
       <c r="Z145" s="9"/>
@@ -13991,7 +14229,10 @@
       <c r="U146" s="19">
         <v>-36.930040415574403</v>
       </c>
-      <c r="W146" s="9"/>
+      <c r="V146" s="19">
+        <v>7.3540543128967926</v>
+      </c>
+      <c r="W146" s="19"/>
       <c r="X146" s="9"/>
       <c r="Y146" s="9"/>
       <c r="Z146" s="9"/>
@@ -14123,7 +14364,10 @@
       <c r="U147" s="19">
         <v>-31.361091626630241</v>
       </c>
-      <c r="W147" s="9"/>
+      <c r="V147" s="19">
+        <v>-0.56105493206896995</v>
+      </c>
+      <c r="W147" s="19"/>
       <c r="X147" s="9"/>
       <c r="Y147" s="9"/>
       <c r="Z147" s="9"/>
@@ -14255,7 +14499,10 @@
       <c r="U148" s="19">
         <v>-20.999697220506448</v>
       </c>
-      <c r="W148" s="9"/>
+      <c r="V148" s="19">
+        <v>1.7992302219297329</v>
+      </c>
+      <c r="W148" s="19"/>
       <c r="X148" s="9"/>
       <c r="Y148" s="9"/>
       <c r="Z148" s="9"/>
@@ -14387,7 +14634,10 @@
       <c r="U149" s="19">
         <v>-34.378452556691158</v>
       </c>
-      <c r="W149" s="9"/>
+      <c r="V149" s="19">
+        <v>11.405583184531238</v>
+      </c>
+      <c r="W149" s="19"/>
       <c r="X149" s="9"/>
       <c r="Y149" s="9"/>
       <c r="Z149" s="9"/>
@@ -14519,7 +14769,10 @@
       <c r="U150" s="19">
         <v>-31.433694081063322</v>
       </c>
-      <c r="W150" s="9"/>
+      <c r="V150" s="19">
+        <v>8.6126352162696094</v>
+      </c>
+      <c r="W150" s="19"/>
       <c r="X150" s="9"/>
       <c r="Y150" s="9"/>
       <c r="Z150" s="9"/>
@@ -14651,7 +14904,10 @@
       <c r="U151" s="19">
         <v>242.31606803277742</v>
       </c>
-      <c r="W151" s="9"/>
+      <c r="V151" s="19">
+        <v>203.66737831299719</v>
+      </c>
+      <c r="W151" s="19"/>
       <c r="X151" s="9"/>
       <c r="Y151" s="9"/>
       <c r="Z151" s="9"/>
@@ -14783,7 +15039,10 @@
       <c r="U152" s="19">
         <v>-67.770281548190155</v>
       </c>
-      <c r="W152" s="9"/>
+      <c r="V152" s="19">
+        <v>37.736357316191544</v>
+      </c>
+      <c r="W152" s="19"/>
       <c r="X152" s="9"/>
       <c r="Y152" s="9"/>
       <c r="Z152" s="9"/>
@@ -14915,7 +15174,10 @@
       <c r="U153" s="19">
         <v>-9.9269065723759553</v>
       </c>
-      <c r="W153" s="9"/>
+      <c r="V153" s="19">
+        <v>43.120307356736902</v>
+      </c>
+      <c r="W153" s="19"/>
       <c r="X153" s="9"/>
       <c r="Y153" s="9"/>
       <c r="Z153" s="9"/>
@@ -15047,7 +15309,10 @@
       <c r="U154" s="19">
         <v>-25.634709105896349</v>
       </c>
-      <c r="W154" s="9"/>
+      <c r="V154" s="19">
+        <v>20.02512124647015</v>
+      </c>
+      <c r="W154" s="19"/>
       <c r="X154" s="9"/>
       <c r="Y154" s="9"/>
       <c r="Z154" s="9"/>
@@ -15179,7 +15444,10 @@
       <c r="U155" s="19">
         <v>-16.054753947627802</v>
       </c>
-      <c r="W155" s="9"/>
+      <c r="V155" s="19">
+        <v>21.911444624026075</v>
+      </c>
+      <c r="W155" s="19"/>
       <c r="X155" s="9"/>
       <c r="Y155" s="9"/>
       <c r="Z155" s="9"/>
@@ -15311,7 +15579,10 @@
       <c r="U156" s="19">
         <v>-25.100484990466057</v>
       </c>
-      <c r="W156" s="9"/>
+      <c r="V156" s="19">
+        <v>24.165861386105831</v>
+      </c>
+      <c r="W156" s="19"/>
       <c r="X156" s="9"/>
       <c r="Y156" s="9"/>
       <c r="Z156" s="9"/>
@@ -15443,7 +15714,10 @@
       <c r="U157" s="19">
         <v>-28.685710199847193</v>
       </c>
-      <c r="W157" s="9"/>
+      <c r="V157" s="19">
+        <v>16.887130202154992</v>
+      </c>
+      <c r="W157" s="19"/>
       <c r="X157" s="9"/>
       <c r="Y157" s="9"/>
       <c r="Z157" s="9"/>
@@ -15575,7 +15849,10 @@
       <c r="U158" s="19">
         <v>-21.554337683782407</v>
       </c>
-      <c r="W158" s="9"/>
+      <c r="V158" s="19">
+        <v>23.669126226838728</v>
+      </c>
+      <c r="W158" s="19"/>
       <c r="X158" s="9"/>
       <c r="Y158" s="9"/>
       <c r="Z158" s="9"/>
@@ -15664,6 +15941,7 @@
       <c r="S159" s="9"/>
       <c r="T159" s="9"/>
       <c r="U159" s="9"/>
+      <c r="V159" s="9"/>
       <c r="W159" s="9"/>
       <c r="X159" s="9"/>
       <c r="Y159" s="9"/>
@@ -15796,7 +16074,10 @@
       <c r="U160" s="20">
         <v>-29.699221888565603</v>
       </c>
-      <c r="W160" s="9"/>
+      <c r="V160" s="20">
+        <v>11.903387525622122</v>
+      </c>
+      <c r="W160" s="20"/>
       <c r="X160" s="9"/>
       <c r="Y160" s="9"/>
       <c r="Z160" s="9"/>
@@ -15886,6 +16167,8 @@
       <c r="S161" s="14"/>
       <c r="T161" s="14"/>
       <c r="U161" s="14"/>
+      <c r="V161" s="14"/>
+      <c r="W161" s="14"/>
     </row>
     <row r="162" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -16088,7 +16371,7 @@
     </row>
     <row r="166" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="168" spans="1:95" x14ac:dyDescent="0.25">
@@ -16098,7 +16381,7 @@
     </row>
     <row r="169" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="170" spans="1:95" x14ac:dyDescent="0.25">
@@ -16131,6 +16414,7 @@
       <c r="T172" s="5"/>
       <c r="U172" s="5"/>
       <c r="V172" s="5"/>
+      <c r="W172" s="5"/>
     </row>
     <row r="173" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
@@ -16198,6 +16482,9 @@
       </c>
       <c r="V173" s="16">
         <v>2020</v>
+      </c>
+      <c r="W173" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="174" spans="1:95" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16270,7 +16557,9 @@
       <c r="V175" s="17">
         <v>96.374849398497503</v>
       </c>
-      <c r="W175" s="9"/>
+      <c r="W175" s="17">
+        <v>100.06144580198064</v>
+      </c>
       <c r="X175" s="9"/>
       <c r="Y175" s="9"/>
       <c r="Z175" s="9"/>
@@ -16411,7 +16700,9 @@
       <c r="V176" s="17">
         <v>83.60022844005897</v>
       </c>
-      <c r="W176" s="9"/>
+      <c r="W176" s="17">
+        <v>98.064555086000055</v>
+      </c>
       <c r="X176" s="9"/>
       <c r="Y176" s="9"/>
       <c r="Z176" s="9"/>
@@ -16552,7 +16843,9 @@
       <c r="V177" s="17">
         <v>97.559517174748009</v>
       </c>
-      <c r="W177" s="9"/>
+      <c r="W177" s="17">
+        <v>98.642572821246631</v>
+      </c>
       <c r="X177" s="9"/>
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
@@ -16693,7 +16986,9 @@
       <c r="V178" s="17">
         <v>98.472359536025706</v>
       </c>
-      <c r="W178" s="9"/>
+      <c r="W178" s="17">
+        <v>105.42781293589856</v>
+      </c>
       <c r="X178" s="9"/>
       <c r="Y178" s="9"/>
       <c r="Z178" s="9"/>
@@ -16834,7 +17129,9 @@
       <c r="V179" s="17">
         <v>109.82152578660789</v>
       </c>
-      <c r="W179" s="9"/>
+      <c r="W179" s="17">
+        <v>106.36310116959054</v>
+      </c>
       <c r="X179" s="9"/>
       <c r="Y179" s="9"/>
       <c r="Z179" s="9"/>
@@ -16975,7 +17272,9 @@
       <c r="V180" s="17">
         <v>99.249330302398292</v>
       </c>
-      <c r="W180" s="9"/>
+      <c r="W180" s="17">
+        <v>104.28396279405669</v>
+      </c>
       <c r="X180" s="9"/>
       <c r="Y180" s="9"/>
       <c r="Z180" s="9"/>
@@ -17116,7 +17415,9 @@
       <c r="V181" s="17">
         <v>97.858399958770974</v>
       </c>
-      <c r="W181" s="9"/>
+      <c r="W181" s="17">
+        <v>98.855390527726698</v>
+      </c>
       <c r="X181" s="9"/>
       <c r="Y181" s="9"/>
       <c r="Z181" s="9"/>
@@ -17257,7 +17558,9 @@
       <c r="V182" s="17">
         <v>86.856642164065036</v>
       </c>
-      <c r="W182" s="9"/>
+      <c r="W182" s="17">
+        <v>89.122481323786545</v>
+      </c>
       <c r="X182" s="9"/>
       <c r="Y182" s="9"/>
       <c r="Z182" s="9"/>
@@ -17398,7 +17701,9 @@
       <c r="V183" s="17">
         <v>96.18752869238098</v>
       </c>
-      <c r="W183" s="9"/>
+      <c r="W183" s="17">
+        <v>105.95875666875196</v>
+      </c>
       <c r="X183" s="9"/>
       <c r="Y183" s="9"/>
       <c r="Z183" s="9"/>
@@ -17539,7 +17844,9 @@
       <c r="V184" s="17">
         <v>97.875031832277983</v>
       </c>
-      <c r="W184" s="9"/>
+      <c r="W184" s="17">
+        <v>98.050232414157776</v>
+      </c>
       <c r="X184" s="9"/>
       <c r="Y184" s="9"/>
       <c r="Z184" s="9"/>
@@ -17680,7 +17987,9 @@
       <c r="V185" s="17">
         <v>96.657434905877921</v>
       </c>
-      <c r="W185" s="9"/>
+      <c r="W185" s="17">
+        <v>100.43885320398063</v>
+      </c>
       <c r="X185" s="9"/>
       <c r="Y185" s="9"/>
       <c r="Z185" s="9"/>
@@ -17821,7 +18130,9 @@
       <c r="V186" s="17">
         <v>96.995522910607491</v>
       </c>
-      <c r="W186" s="9"/>
+      <c r="W186" s="17">
+        <v>99.831341830637399</v>
+      </c>
       <c r="X186" s="9"/>
       <c r="Y186" s="9"/>
       <c r="Z186" s="9"/>
@@ -17962,7 +18273,9 @@
       <c r="V187" s="17">
         <v>98.376440560668826</v>
       </c>
-      <c r="W187" s="9"/>
+      <c r="W187" s="17">
+        <v>99.898901652171958</v>
+      </c>
       <c r="X187" s="9"/>
       <c r="Y187" s="9"/>
       <c r="Z187" s="9"/>
@@ -18103,7 +18416,9 @@
       <c r="V188" s="17">
         <v>98.242806391932803</v>
       </c>
-      <c r="W188" s="9"/>
+      <c r="W188" s="17">
+        <v>95.380508564042927</v>
+      </c>
       <c r="X188" s="9"/>
       <c r="Y188" s="9"/>
       <c r="Z188" s="9"/>
@@ -18244,7 +18559,9 @@
       <c r="V189" s="17">
         <v>89.706552523347099</v>
       </c>
-      <c r="W189" s="9"/>
+      <c r="W189" s="17">
+        <v>92.602382954944531</v>
+      </c>
       <c r="X189" s="9"/>
       <c r="Y189" s="9"/>
       <c r="Z189" s="9"/>
@@ -18385,7 +18702,9 @@
       <c r="V190" s="17">
         <v>89.038047190772602</v>
       </c>
-      <c r="W190" s="9"/>
+      <c r="W190" s="17">
+        <v>91.590547413421234</v>
+      </c>
       <c r="X190" s="9"/>
       <c r="Y190" s="9"/>
       <c r="Z190" s="9"/>
@@ -18526,7 +18845,9 @@
       <c r="V191" s="17">
         <v>98.919678742844383</v>
       </c>
-      <c r="W191" s="9"/>
+      <c r="W191" s="17">
+        <v>103.42702647284301</v>
+      </c>
       <c r="X191" s="9"/>
       <c r="Y191" s="9"/>
       <c r="Z191" s="9"/>
@@ -18667,7 +18988,9 @@
       <c r="V192" s="17">
         <v>102.85220379630748</v>
       </c>
-      <c r="W192" s="9"/>
+      <c r="W192" s="17">
+        <v>101.72094050821488</v>
+      </c>
       <c r="X192" s="9"/>
       <c r="Y192" s="9"/>
       <c r="Z192" s="9"/>
@@ -18808,7 +19131,9 @@
       <c r="V193" s="17">
         <v>87.954515245861558</v>
       </c>
-      <c r="W193" s="9"/>
+      <c r="W193" s="17">
+        <v>105.21929862100366</v>
+      </c>
       <c r="X193" s="9"/>
       <c r="Y193" s="9"/>
       <c r="Z193" s="9"/>
@@ -18949,7 +19274,9 @@
       <c r="V194" s="17">
         <v>99.710858207914697</v>
       </c>
-      <c r="W194" s="9"/>
+      <c r="W194" s="17">
+        <v>95.652531765080724</v>
+      </c>
       <c r="X194" s="9"/>
       <c r="Y194" s="9"/>
       <c r="Z194" s="9"/>
@@ -19090,7 +19417,9 @@
       <c r="V195" s="17">
         <v>118.69255968678421</v>
       </c>
-      <c r="W195" s="9"/>
+      <c r="W195" s="17">
+        <v>98.926165410600589</v>
+      </c>
       <c r="X195" s="9"/>
       <c r="Y195" s="9"/>
       <c r="Z195" s="9"/>
@@ -19231,7 +19560,9 @@
       <c r="V196" s="17">
         <v>95.172362963369977</v>
       </c>
-      <c r="W196" s="9"/>
+      <c r="W196" s="17">
+        <v>91.329149668618797</v>
+      </c>
       <c r="X196" s="9"/>
       <c r="Y196" s="9"/>
       <c r="Z196" s="9"/>
@@ -19372,7 +19703,9 @@
       <c r="V197" s="17">
         <v>99.781224991005629</v>
       </c>
-      <c r="W197" s="9"/>
+      <c r="W197" s="17">
+        <v>96.747219598522221</v>
+      </c>
       <c r="X197" s="9"/>
       <c r="Y197" s="9"/>
       <c r="Z197" s="9"/>
@@ -19513,7 +19846,9 @@
       <c r="V198" s="17">
         <v>95.635746860287355</v>
       </c>
-      <c r="W198" s="9"/>
+      <c r="W198" s="17">
+        <v>95.156192902180919</v>
+      </c>
       <c r="X198" s="9"/>
       <c r="Y198" s="9"/>
       <c r="Z198" s="9"/>
@@ -19750,7 +20085,9 @@
       <c r="V200" s="20">
         <v>94.244803189496892</v>
       </c>
-      <c r="W200" s="9"/>
+      <c r="W200" s="20">
+        <v>95.477996840908759</v>
+      </c>
       <c r="X200" s="9"/>
       <c r="Y200" s="9"/>
       <c r="Z200" s="9"/>
@@ -19847,6 +20184,7 @@
       <c r="T201" s="14"/>
       <c r="U201" s="14"/>
       <c r="V201" s="14"/>
+      <c r="W201" s="14"/>
     </row>
     <row r="202" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
@@ -20057,7 +20395,7 @@
     </row>
     <row r="207" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:95" x14ac:dyDescent="0.25">
@@ -20067,7 +20405,7 @@
     </row>
     <row r="210" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:95" x14ac:dyDescent="0.25">
@@ -20100,6 +20438,7 @@
       <c r="T213" s="5"/>
       <c r="U213" s="5"/>
       <c r="V213" s="5"/>
+      <c r="W213" s="5"/>
     </row>
     <row r="214" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
@@ -20167,6 +20506,9 @@
       </c>
       <c r="V214" s="16">
         <v>2020</v>
+      </c>
+      <c r="W214" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="215" spans="1:95" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20239,7 +20581,9 @@
       <c r="V216" s="20">
         <v>18.047883690378374</v>
       </c>
-      <c r="W216" s="9"/>
+      <c r="W216" s="20">
+        <v>19.149074094536285</v>
+      </c>
       <c r="X216" s="9"/>
       <c r="Y216" s="9"/>
       <c r="Z216" s="9"/>
@@ -20380,7 +20724,9 @@
       <c r="V217" s="20">
         <v>1.2374680959784188</v>
       </c>
-      <c r="W217" s="9"/>
+      <c r="W217" s="20">
+        <v>1.6699886548063065</v>
+      </c>
       <c r="X217" s="9"/>
       <c r="Y217" s="9"/>
       <c r="Z217" s="9"/>
@@ -20521,7 +20867,9 @@
       <c r="V218" s="20">
         <v>2.6710973349700557</v>
       </c>
-      <c r="W218" s="9"/>
+      <c r="W218" s="20">
+        <v>3.3871033352159476</v>
+      </c>
       <c r="X218" s="9"/>
       <c r="Y218" s="9"/>
       <c r="Z218" s="9"/>
@@ -20662,7 +21010,9 @@
       <c r="V219" s="20">
         <v>0.23445789771221076</v>
       </c>
-      <c r="W219" s="9"/>
+      <c r="W219" s="20">
+        <v>0.22369277545927149</v>
+      </c>
       <c r="X219" s="9"/>
       <c r="Y219" s="9"/>
       <c r="Z219" s="9"/>
@@ -20803,7 +21153,9 @@
       <c r="V220" s="20">
         <v>0.33165779032115572</v>
       </c>
-      <c r="W220" s="9"/>
+      <c r="W220" s="20">
+        <v>0.16382951884840366</v>
+      </c>
       <c r="X220" s="9"/>
       <c r="Y220" s="9"/>
       <c r="Z220" s="9"/>
@@ -20944,7 +21296,9 @@
       <c r="V221" s="20">
         <v>1.1728212002819878</v>
       </c>
-      <c r="W221" s="9"/>
+      <c r="W221" s="20">
+        <v>1.1542937438721095</v>
+      </c>
       <c r="X221" s="9"/>
       <c r="Y221" s="9"/>
       <c r="Z221" s="9"/>
@@ -21085,7 +21439,9 @@
       <c r="V222" s="20">
         <v>9.2651545752407714</v>
       </c>
-      <c r="W222" s="9"/>
+      <c r="W222" s="20">
+        <v>8.9714875899812494</v>
+      </c>
       <c r="X222" s="9"/>
       <c r="Y222" s="9"/>
       <c r="Z222" s="9"/>
@@ -21226,7 +21582,9 @@
       <c r="V223" s="20">
         <v>0.53204727530087337</v>
       </c>
-      <c r="W223" s="9"/>
+      <c r="W223" s="20">
+        <v>0.41944458534965962</v>
+      </c>
       <c r="X223" s="9"/>
       <c r="Y223" s="9"/>
       <c r="Z223" s="9"/>
@@ -21367,7 +21725,9 @@
       <c r="V224" s="20">
         <v>2.6031795205729011</v>
       </c>
-      <c r="W224" s="9"/>
+      <c r="W224" s="20">
+        <v>3.1592338910033386</v>
+      </c>
       <c r="X224" s="9"/>
       <c r="Y224" s="9"/>
       <c r="Z224" s="9"/>
@@ -21508,7 +21868,9 @@
       <c r="V225" s="20">
         <v>19.074386378328871</v>
       </c>
-      <c r="W225" s="9"/>
+      <c r="W225" s="20">
+        <v>17.04281300765647</v>
+      </c>
       <c r="X225" s="9"/>
       <c r="Y225" s="9"/>
       <c r="Z225" s="9"/>
@@ -21649,7 +22011,9 @@
       <c r="V226" s="20">
         <v>3.3128047619730721</v>
       </c>
-      <c r="W226" s="9"/>
+      <c r="W226" s="20">
+        <v>2.9942923317990093</v>
+      </c>
       <c r="X226" s="9"/>
       <c r="Y226" s="9"/>
       <c r="Z226" s="9"/>
@@ -21790,7 +22154,9 @@
       <c r="V227" s="20">
         <v>1.9476879382369083</v>
       </c>
-      <c r="W227" s="9"/>
+      <c r="W227" s="20">
+        <v>1.8982959645875295</v>
+      </c>
       <c r="X227" s="9"/>
       <c r="Y227" s="9"/>
       <c r="Z227" s="9"/>
@@ -21931,7 +22297,9 @@
       <c r="V228" s="20">
         <v>5.6746269373547999</v>
       </c>
-      <c r="W228" s="9"/>
+      <c r="W228" s="20">
+        <v>5.0544547333092531</v>
+      </c>
       <c r="X228" s="9"/>
       <c r="Y228" s="9"/>
       <c r="Z228" s="9"/>
@@ -22072,7 +22440,9 @@
       <c r="V229" s="20">
         <v>8.1392667407640893</v>
       </c>
-      <c r="W229" s="9"/>
+      <c r="W229" s="20">
+        <v>7.0957699779606767</v>
+      </c>
       <c r="X229" s="9"/>
       <c r="Y229" s="9"/>
       <c r="Z229" s="9"/>
@@ -22213,7 +22583,9 @@
       <c r="V230" s="20">
         <v>43.196152938238832</v>
       </c>
-      <c r="W230" s="9"/>
+      <c r="W230" s="20">
+        <v>43.818842555161545</v>
+      </c>
       <c r="X230" s="9"/>
       <c r="Y230" s="9"/>
       <c r="Z230" s="9"/>
@@ -22354,7 +22726,9 @@
       <c r="V231" s="20">
         <v>39.9925528922439</v>
       </c>
-      <c r="W231" s="9"/>
+      <c r="W231" s="20">
+        <v>39.413534820550304</v>
+      </c>
       <c r="X231" s="9"/>
       <c r="Y231" s="9"/>
       <c r="Z231" s="9"/>
@@ -22495,7 +22869,9 @@
       <c r="V232" s="20">
         <v>0.21469723871819149</v>
       </c>
-      <c r="W232" s="9"/>
+      <c r="W232" s="20">
+        <v>0.60129393035960199</v>
+      </c>
       <c r="X232" s="9"/>
       <c r="Y232" s="9"/>
       <c r="Z232" s="9"/>
@@ -22636,7 +23012,9 @@
       <c r="V233" s="20">
         <v>2.3001929893210531</v>
       </c>
-      <c r="W233" s="9"/>
+      <c r="W233" s="20">
+        <v>2.7638884643759654</v>
+      </c>
       <c r="X233" s="9"/>
       <c r="Y233" s="9"/>
       <c r="Z233" s="9"/>
@@ -22777,7 +23155,9 @@
       <c r="V234" s="20">
         <v>0.68870981795568675</v>
       </c>
-      <c r="W234" s="9"/>
+      <c r="W234" s="20">
+        <v>1.0401253398756682</v>
+      </c>
       <c r="X234" s="9"/>
       <c r="Y234" s="9"/>
       <c r="Z234" s="9"/>
@@ -22918,7 +23298,9 @@
       <c r="V235" s="20">
         <v>19.68157699305392</v>
       </c>
-      <c r="W235" s="9"/>
+      <c r="W235" s="20">
+        <v>19.989270342645689</v>
+      </c>
       <c r="X235" s="9"/>
       <c r="Y235" s="9"/>
       <c r="Z235" s="9"/>
@@ -23059,7 +23441,9 @@
       <c r="V236" s="20">
         <v>1.9970752615758764</v>
       </c>
-      <c r="W236" s="9"/>
+      <c r="W236" s="20">
+        <v>1.7899358579187583</v>
+      </c>
       <c r="X236" s="9"/>
       <c r="Y236" s="9"/>
       <c r="Z236" s="9"/>
@@ -23200,7 +23584,9 @@
       <c r="V237" s="20">
         <v>3.0695418006515851</v>
       </c>
-      <c r="W237" s="9"/>
+      <c r="W237" s="20">
+        <v>3.2261547758882072</v>
+      </c>
       <c r="X237" s="9"/>
       <c r="Y237" s="9"/>
       <c r="Z237" s="9"/>
@@ -23341,7 +23727,9 @@
       <c r="V238" s="20">
         <v>10.383083075108066</v>
       </c>
-      <c r="W238" s="9"/>
+      <c r="W238" s="20">
+        <v>10.379909467109069</v>
+      </c>
       <c r="X238" s="9"/>
       <c r="Y238" s="9"/>
       <c r="Z238" s="9"/>
@@ -23482,7 +23870,9 @@
       <c r="V239" s="20">
         <v>4.2318768557183919</v>
       </c>
-      <c r="W239" s="9"/>
+      <c r="W239" s="20">
+        <v>4.5932702417296545</v>
+      </c>
       <c r="X239" s="9"/>
       <c r="Y239" s="9"/>
       <c r="Z239" s="9"/>
@@ -23719,7 +24109,9 @@
       <c r="V241" s="20">
         <v>100</v>
       </c>
-      <c r="W241" s="9"/>
+      <c r="W241" s="20">
+        <v>100</v>
+      </c>
       <c r="X241" s="9"/>
       <c r="Y241" s="9"/>
       <c r="Z241" s="9"/>
@@ -23816,6 +24208,7 @@
       <c r="T242" s="14"/>
       <c r="U242" s="14"/>
       <c r="V242" s="14"/>
+      <c r="W242" s="14"/>
     </row>
     <row r="243" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
@@ -24026,7 +24419,7 @@
     </row>
     <row r="248" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="250" spans="1:95" x14ac:dyDescent="0.25">
@@ -24036,7 +24429,7 @@
     </row>
     <row r="251" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="252" spans="1:95" x14ac:dyDescent="0.25">
@@ -24069,6 +24462,7 @@
       <c r="T254" s="5"/>
       <c r="U254" s="5"/>
       <c r="V254" s="5"/>
+      <c r="W254" s="5"/>
     </row>
     <row r="255" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
@@ -24136,6 +24530,9 @@
       </c>
       <c r="V255" s="16">
         <v>2020</v>
+      </c>
+      <c r="W255" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="256" spans="1:95" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24208,7 +24605,9 @@
       <c r="V257" s="20">
         <v>17.648995116491029</v>
       </c>
-      <c r="W257" s="9"/>
+      <c r="W257" s="20">
+        <v>18.271925028173769</v>
+      </c>
       <c r="X257" s="9"/>
       <c r="Y257" s="9"/>
       <c r="Z257" s="9"/>
@@ -24349,7 +24748,9 @@
       <c r="V258" s="20">
         <v>1.3950313215039496</v>
       </c>
-      <c r="W258" s="9"/>
+      <c r="W258" s="20">
+        <v>1.6259409056424006</v>
+      </c>
       <c r="X258" s="9"/>
       <c r="Y258" s="9"/>
       <c r="Z258" s="9"/>
@@ -24490,7 +24891,9 @@
       <c r="V259" s="20">
         <v>2.5803432604461616</v>
       </c>
-      <c r="W259" s="9"/>
+      <c r="W259" s="20">
+        <v>3.2784408627055188</v>
+      </c>
       <c r="X259" s="9"/>
       <c r="Y259" s="9"/>
       <c r="Z259" s="9"/>
@@ -24631,7 +25034,9 @@
       <c r="V260" s="20">
         <v>0.22439229170726438</v>
       </c>
-      <c r="W260" s="9"/>
+      <c r="W260" s="20">
+        <v>0.20258162921031292</v>
+      </c>
       <c r="X260" s="9"/>
       <c r="Y260" s="9"/>
       <c r="Z260" s="9"/>
@@ -24772,7 +25177,9 @@
       <c r="V261" s="20">
         <v>0.28461654444517259</v>
       </c>
-      <c r="W261" s="9"/>
+      <c r="W261" s="20">
+        <v>0.14706335290200812</v>
+      </c>
       <c r="X261" s="9"/>
       <c r="Y261" s="9"/>
       <c r="Z261" s="9"/>
@@ -24913,7 +25320,9 @@
       <c r="V262" s="20">
         <v>1.113683113631796</v>
       </c>
-      <c r="W262" s="9"/>
+      <c r="W262" s="20">
+        <v>1.0568226549709041</v>
+      </c>
       <c r="X262" s="9"/>
       <c r="Y262" s="9"/>
       <c r="Z262" s="9"/>
@@ -25054,7 +25463,9 @@
       <c r="V263" s="20">
         <v>8.9230221404776771</v>
       </c>
-      <c r="W263" s="9"/>
+      <c r="W263" s="20">
+        <v>8.6649767827706938</v>
+      </c>
       <c r="X263" s="9"/>
       <c r="Y263" s="9"/>
       <c r="Z263" s="9"/>
@@ -25195,7 +25606,9 @@
       <c r="V264" s="20">
         <v>0.57730404375434508</v>
       </c>
-      <c r="W264" s="9"/>
+      <c r="W264" s="20">
+        <v>0.44935607941003824</v>
+      </c>
       <c r="X264" s="9"/>
       <c r="Y264" s="9"/>
       <c r="Z264" s="9"/>
@@ -25336,7 +25749,9 @@
       <c r="V265" s="20">
         <v>2.5506024005246637</v>
       </c>
-      <c r="W265" s="9"/>
+      <c r="W265" s="20">
+        <v>2.8467427605618907</v>
+      </c>
       <c r="X265" s="9"/>
       <c r="Y265" s="9"/>
       <c r="Z265" s="9"/>
@@ -25477,7 +25892,9 @@
       <c r="V266" s="20">
         <v>18.366908868714958</v>
       </c>
-      <c r="W266" s="9"/>
+      <c r="W266" s="20">
+        <v>16.59571432357221</v>
+      </c>
       <c r="X266" s="9"/>
       <c r="Y266" s="9"/>
       <c r="Z266" s="9"/>
@@ -25618,7 +26035,9 @@
       <c r="V267" s="20">
         <v>3.230115025309801</v>
       </c>
-      <c r="W267" s="9"/>
+      <c r="W267" s="20">
+        <v>2.8463988255187753</v>
+      </c>
       <c r="X267" s="9"/>
       <c r="Y267" s="9"/>
       <c r="Z267" s="9"/>
@@ -25759,7 +26178,9 @@
       <c r="V268" s="20">
         <v>1.8924529803593673</v>
       </c>
-      <c r="W268" s="9"/>
+      <c r="W268" s="20">
+        <v>1.8155169788008925</v>
+      </c>
       <c r="X268" s="9"/>
       <c r="Y268" s="9"/>
       <c r="Z268" s="9"/>
@@ -25900,7 +26321,9 @@
       <c r="V269" s="20">
         <v>5.4363025927432957</v>
       </c>
-      <c r="W269" s="9"/>
+      <c r="W269" s="20">
+        <v>4.8307759652823457</v>
+      </c>
       <c r="X269" s="9"/>
       <c r="Y269" s="9"/>
       <c r="Z269" s="9"/>
@@ -26041,7 +26464,9 @@
       <c r="V270" s="20">
         <v>7.8080382703024922</v>
       </c>
-      <c r="W270" s="9"/>
+      <c r="W270" s="20">
+        <v>7.1030225539701997</v>
+      </c>
       <c r="X270" s="9"/>
       <c r="Y270" s="9"/>
       <c r="Z270" s="9"/>
@@ -26182,7 +26607,9 @@
       <c r="V271" s="20">
         <v>45.381444473057883</v>
       </c>
-      <c r="W271" s="9"/>
+      <c r="W271" s="20">
+        <v>45.179564256889357</v>
+      </c>
       <c r="X271" s="9"/>
       <c r="Y271" s="9"/>
       <c r="Z271" s="9"/>
@@ -26323,7 +26750,9 @@
       <c r="V272" s="20">
         <v>42.331232493222053</v>
       </c>
-      <c r="W272" s="9"/>
+      <c r="W272" s="20">
+        <v>41.086394386306715</v>
+      </c>
       <c r="X272" s="9"/>
       <c r="Y272" s="9"/>
       <c r="Z272" s="9"/>
@@ -26464,7 +26893,9 @@
       <c r="V273" s="20">
         <v>0.20455079581208283</v>
       </c>
-      <c r="W273" s="9"/>
+      <c r="W273" s="20">
+        <v>0.55508063937626595</v>
+      </c>
       <c r="X273" s="9"/>
       <c r="Y273" s="9"/>
       <c r="Z273" s="9"/>
@@ -26605,7 +27036,9 @@
       <c r="V274" s="20">
         <v>2.1076965546187538</v>
       </c>
-      <c r="W274" s="9"/>
+      <c r="W274" s="20">
+        <v>2.5942596750666205</v>
+      </c>
       <c r="X274" s="9"/>
       <c r="Y274" s="9"/>
       <c r="Z274" s="9"/>
@@ -26746,7 +27179,9 @@
       <c r="V275" s="20">
         <v>0.73796462940499186</v>
       </c>
-      <c r="W275" s="9"/>
+      <c r="W275" s="20">
+        <v>0.94382955613975472</v>
+      </c>
       <c r="X275" s="9"/>
       <c r="Y275" s="9"/>
       <c r="Z275" s="9"/>
@@ -26887,7 +27322,9 @@
       <c r="V276" s="20">
         <v>18.60265154173613</v>
       </c>
-      <c r="W276" s="9"/>
+      <c r="W276" s="20">
+        <v>19.952796391364657</v>
+      </c>
       <c r="X276" s="9"/>
       <c r="Y276" s="9"/>
       <c r="Z276" s="9"/>
@@ -27028,7 +27465,9 @@
       <c r="V277" s="20">
         <v>1.5857267336596852</v>
       </c>
-      <c r="W277" s="9"/>
+      <c r="W277" s="20">
+        <v>1.7275458871620581</v>
+      </c>
       <c r="X277" s="9"/>
       <c r="Y277" s="9"/>
       <c r="Z277" s="9"/>
@@ -27169,7 +27608,9 @@
       <c r="V278" s="20">
         <v>3.0396257261751938</v>
       </c>
-      <c r="W278" s="9"/>
+      <c r="W278" s="20">
+        <v>3.3727106473474224</v>
+      </c>
       <c r="X278" s="9"/>
       <c r="Y278" s="9"/>
       <c r="Z278" s="9"/>
@@ -27310,7 +27751,9 @@
       <c r="V279" s="20">
         <v>9.8069714117256392</v>
       </c>
-      <c r="W279" s="9"/>
+      <c r="W279" s="20">
+        <v>10.243735865714704</v>
+      </c>
       <c r="X279" s="9"/>
       <c r="Y279" s="9"/>
       <c r="Z279" s="9"/>
@@ -27451,7 +27894,9 @@
       <c r="V280" s="20">
         <v>4.1703276701756122</v>
       </c>
-      <c r="W280" s="9"/>
+      <c r="W280" s="20">
+        <v>4.6088039911404719</v>
+      </c>
       <c r="X280" s="9"/>
       <c r="Y280" s="9"/>
       <c r="Z280" s="9"/>
@@ -27688,7 +28133,9 @@
       <c r="V282" s="20">
         <v>100</v>
       </c>
-      <c r="W282" s="9"/>
+      <c r="W282" s="20">
+        <v>100</v>
+      </c>
       <c r="X282" s="9"/>
       <c r="Y282" s="9"/>
       <c r="Z282" s="9"/>
@@ -27785,6 +28232,7 @@
       <c r="T283" s="14"/>
       <c r="U283" s="14"/>
       <c r="V283" s="14"/>
+      <c r="W283" s="14"/>
     </row>
     <row r="284" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
@@ -27976,12 +28424,12 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="41" max="21" man="1"/>
-    <brk id="82" max="21" man="1"/>
-    <brk id="123" max="21" man="1"/>
-    <brk id="164" max="21" man="1"/>
-    <brk id="204" max="21" man="1"/>
-    <brk id="245" max="21" man="1"/>
+    <brk id="41" max="22" man="1"/>
+    <brk id="82" max="22" man="1"/>
+    <brk id="123" max="22" man="1"/>
+    <brk id="164" max="22" man="1"/>
+    <brk id="204" max="22" man="1"/>
+    <brk id="245" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482CE0C8-6F60-47CE-949A-71EE517B8BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="1" r:id="rId1"/>
@@ -248,19 +249,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -384,7 +385,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,7 +675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -684,7 +685,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -706,7 +707,7 @@
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
@@ -716,7 +717,7 @@
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
@@ -893,7 +894,7 @@
         <v>170338.9222315033</v>
       </c>
       <c r="W12" s="8">
-        <v>204891.76883147511</v>
+        <v>205318.68020001351</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -1036,7 +1037,7 @@
         <v>11679.429310440948</v>
       </c>
       <c r="W13" s="11">
-        <v>17868.588722490174</v>
+        <v>18032.444579501385</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -1179,7 +1180,7 @@
         <v>25210.260051531895</v>
       </c>
       <c r="W14" s="11">
-        <v>36241.417738594319</v>
+        <v>36575.646967153079</v>
       </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
@@ -1322,7 +1323,7 @@
         <v>2212.8525587880013</v>
       </c>
       <c r="W15" s="11">
-        <v>2393.4738678435306</v>
+        <v>2329.8318291783062</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
@@ -1465,7 +1466,7 @@
         <v>3130.2412804835162</v>
       </c>
       <c r="W16" s="11">
-        <v>1752.9474134332438</v>
+        <v>1742.1442369072447</v>
       </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
@@ -1608,7 +1609,7 @@
         <v>11069.281177426712</v>
       </c>
       <c r="W17" s="11">
-        <v>12350.742692073194</v>
+        <v>12380.745501841688</v>
       </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
@@ -1751,7 +1752,7 @@
         <v>87446.066903465689</v>
       </c>
       <c r="W18" s="11">
-        <v>95993.359902731085</v>
+        <v>96089.349084185174</v>
       </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
@@ -1894,7 +1895,7 @@
         <v>5021.5505045211576</v>
       </c>
       <c r="W19" s="11">
-        <v>4487.9842542150609</v>
+        <v>4504.6966770582194</v>
       </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
@@ -2037,7 +2038,7 @@
         <v>24569.240444845367</v>
       </c>
       <c r="W20" s="11">
-        <v>33803.254240094509</v>
+        <v>33663.821324188415</v>
       </c>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
@@ -2180,7 +2181,7 @@
         <v>180027.2250005668</v>
       </c>
       <c r="W21" s="8">
-        <v>182355.1408158759</v>
+        <v>183537.64485921705</v>
       </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
@@ -2323,7 +2324,7 @@
         <v>31266.801271482171</v>
       </c>
       <c r="W22" s="11">
-        <v>32038.408187885692</v>
+        <v>32331.279368829804</v>
       </c>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
@@ -2466,7 +2467,7 @@
         <v>18382.602078682736</v>
       </c>
       <c r="W23" s="11">
-        <v>20311.437306567528</v>
+        <v>20415.053926613371</v>
       </c>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
@@ -2609,7 +2610,7 @@
         <v>53558.071026919832</v>
       </c>
       <c r="W24" s="11">
-        <v>54081.788272041937</v>
+        <v>54430.856976498326</v>
       </c>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
@@ -2752,7 +2753,7 @@
         <v>76819.750623482047</v>
       </c>
       <c r="W25" s="11">
-        <v>75923.507049380758</v>
+        <v>76360.454587275555</v>
       </c>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
@@ -2895,7 +2896,7 @@
         <v>407692.46202364721</v>
       </c>
       <c r="W26" s="8">
-        <v>468854.00907381979</v>
+        <v>467027.15305865934</v>
       </c>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
@@ -3038,7 +3039,7 @@
         <v>377456.35298962833</v>
       </c>
       <c r="W27" s="11">
-        <v>421717.98100607039</v>
+        <v>419548.48559260275</v>
       </c>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
@@ -3181,7 +3182,7 @@
         <v>2026.3481789187992</v>
       </c>
       <c r="W28" s="11">
-        <v>6433.7406796165033</v>
+        <v>6435.4496009412369</v>
       </c>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
@@ -3324,7 +3325,7 @@
         <v>21709.603266907667</v>
       </c>
       <c r="W29" s="11">
-        <v>29573.126800970502</v>
+        <v>29787.629055614765</v>
       </c>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
@@ -3467,7 +3468,7 @@
         <v>6500.1575881923818</v>
       </c>
       <c r="W30" s="11">
-        <v>11129.160587162354</v>
+        <v>11255.588809500638</v>
       </c>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
@@ -3607,10 +3608,10 @@
         <v>259283.11056530764</v>
       </c>
       <c r="V31" s="8">
-        <v>185757.99081642187</v>
+        <v>185869.40506090454</v>
       </c>
       <c r="W31" s="8">
-        <v>213881.7228413049</v>
+        <v>217063.29640972841</v>
       </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
@@ -3753,7 +3754,7 @@
         <v>18848.727834687219</v>
       </c>
       <c r="W32" s="11">
-        <v>19152.002974833096</v>
+        <v>19253.738396472792</v>
       </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
@@ -3893,10 +3894,10 @@
         <v>41774.852401027405</v>
       </c>
       <c r="V33" s="11">
-        <v>28970.845060702912</v>
+        <v>29082.259305185598</v>
       </c>
       <c r="W33" s="11">
-        <v>34519.296091942611</v>
+        <v>35062.527508360115</v>
       </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
@@ -4039,7 +4040,7 @@
         <v>97997.261662150675</v>
       </c>
       <c r="W34" s="11">
-        <v>111063.22950796713</v>
+        <v>111664.54789054772</v>
       </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
@@ -4182,7 +4183,7 @@
         <v>39941.15625888107</v>
       </c>
       <c r="W35" s="11">
-        <v>49147.194266562074</v>
+        <v>51082.482614347784</v>
       </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
@@ -4418,10 +4419,10 @@
         <v>1451964.5545496624</v>
       </c>
       <c r="V37" s="13">
-        <v>943816.60007213918</v>
+        <v>943928.01431662193</v>
       </c>
       <c r="W37" s="13">
-        <v>1069982.6415624758</v>
+        <v>1072946.7745276184</v>
       </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
@@ -4730,7 +4731,7 @@
     </row>
     <row r="44" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:95" x14ac:dyDescent="0.25">
@@ -4740,7 +4741,7 @@
     </row>
     <row r="47" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:95" x14ac:dyDescent="0.25">
@@ -4917,7 +4918,7 @@
         <v>176746.23959947677</v>
       </c>
       <c r="W53" s="8">
-        <v>204765.94875208114</v>
+        <v>205214.51346143242</v>
       </c>
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
@@ -5060,7 +5061,7 @@
         <v>13970.571047918909</v>
       </c>
       <c r="W54" s="11">
-        <v>18221.250998202042</v>
+        <v>18461.098008060872</v>
       </c>
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
@@ -5203,7 +5204,7 @@
         <v>25840.902847413065</v>
       </c>
       <c r="W55" s="11">
-        <v>36740.138362234888</v>
+        <v>37238.480158801205</v>
       </c>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
@@ -5346,7 +5347,7 @@
         <v>2247.1814113263308</v>
       </c>
       <c r="W56" s="11">
-        <v>2270.248998998768</v>
+        <v>2210.0849703596596</v>
       </c>
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
@@ -5489,7 +5490,7 @@
         <v>2850.2984802504275</v>
       </c>
       <c r="W57" s="11">
-        <v>1648.0785104584893</v>
+        <v>1641.9332915867071</v>
       </c>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
@@ -5632,7 +5633,7 @@
         <v>11153.003394280062</v>
       </c>
       <c r="W58" s="11">
-        <v>11843.376834905897</v>
+        <v>11904.664987915563</v>
       </c>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
@@ -5775,7 +5776,7 @@
         <v>89359.796338697401</v>
       </c>
       <c r="W59" s="11">
-        <v>97104.830996350298</v>
+        <v>96791.537860345037</v>
       </c>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
@@ -5918,7 +5919,7 @@
         <v>5781.4237108497273</v>
       </c>
       <c r="W60" s="11">
-        <v>5035.7487668122521</v>
+        <v>5066.4948791584193</v>
       </c>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
@@ -6061,7 +6062,7 @@
         <v>25543.062368740841</v>
       </c>
       <c r="W61" s="11">
-        <v>31902.275284118488</v>
+        <v>31900.219305204962</v>
       </c>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
@@ -6204,7 +6205,7 @@
         <v>183935.80224736748</v>
       </c>
       <c r="W62" s="8">
-        <v>185981.3447923506</v>
+        <v>187113.62999497255</v>
       </c>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
@@ -6347,7 +6348,7 @@
         <v>32348.056103422186</v>
       </c>
       <c r="W63" s="11">
-        <v>31898.420945546935</v>
+        <v>32160.844497683342</v>
       </c>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
@@ -6490,7 +6491,7 @@
         <v>18952.010904281029</v>
       </c>
       <c r="W64" s="11">
-        <v>20345.752079567981</v>
+        <v>20442.086207847256</v>
       </c>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
@@ -6633,7 +6634,7 @@
         <v>54441.968749510233</v>
       </c>
       <c r="W65" s="11">
-        <v>54136.519398725657</v>
+        <v>54414.84695148826</v>
       </c>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
@@ -6776,7 +6777,7 @@
         <v>78193.766490154027</v>
       </c>
       <c r="W66" s="11">
-        <v>79600.65236851004</v>
+        <v>80095.852337953693</v>
       </c>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
@@ -6919,7 +6920,7 @@
         <v>454473.44765315868</v>
       </c>
       <c r="W67" s="8">
-        <v>506308.79477684671</v>
+        <v>504385.75810683268</v>
       </c>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
@@ -7062,7 +7063,7 @@
         <v>423927.03445179085</v>
       </c>
       <c r="W68" s="11">
-        <v>460438.32351227314</v>
+        <v>458189.21862934093</v>
       </c>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
@@ -7205,7 +7206,7 @@
         <v>2048.4783257197755</v>
       </c>
       <c r="W69" s="11">
-        <v>6220.5604270232216</v>
+        <v>6219.7659486222756</v>
       </c>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
@@ -7348,7 +7349,7 @@
         <v>21107.572288778774</v>
       </c>
       <c r="W70" s="11">
-        <v>29072.801188445763</v>
+        <v>29262.020157918061</v>
       </c>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
@@ -7491,7 +7492,7 @@
         <v>7390.3625868692707</v>
       </c>
       <c r="W71" s="11">
-        <v>10577.109649104594</v>
+        <v>10714.753370951459</v>
       </c>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
@@ -7631,10 +7632,10 @@
         <v>250515.59680005925</v>
       </c>
       <c r="V72" s="8">
-        <v>186296.65229546389</v>
+        <v>186422.09135989813</v>
       </c>
       <c r="W72" s="8">
-        <v>223602.78279574547</v>
+        <v>226581.90607719813</v>
       </c>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
@@ -7777,7 +7778,7 @@
         <v>15880.294337258216</v>
       </c>
       <c r="W73" s="11">
-        <v>19359.896237098899</v>
+        <v>19490.153186938234</v>
       </c>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
@@ -7917,10 +7918,10 @@
         <v>40641.647590739056</v>
       </c>
       <c r="V74" s="11">
-        <v>30440.39693734749</v>
+        <v>30565.836001781707</v>
       </c>
       <c r="W74" s="11">
-        <v>37796.581066607294</v>
+        <v>38416.70479995216</v>
       </c>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
@@ -8063,7 +8064,7 @@
         <v>98212.125247995544</v>
       </c>
       <c r="W75" s="11">
-        <v>114797.3347129281</v>
+        <v>115233.20574496663</v>
       </c>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
@@ -8206,7 +8207,7 @@
         <v>41763.835772862665</v>
       </c>
       <c r="W76" s="11">
-        <v>51648.970779111158</v>
+        <v>53441.842345341116</v>
       </c>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
@@ -8442,10 +8443,10 @@
         <v>1424524.9749697736</v>
       </c>
       <c r="V78" s="13">
-        <v>1001452.1417954669</v>
+        <v>1001577.580859901</v>
       </c>
       <c r="W78" s="13">
-        <v>1120658.871117024</v>
+        <v>1123295.8076404359</v>
       </c>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
@@ -8756,7 +8757,7 @@
     </row>
     <row r="85" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:95" x14ac:dyDescent="0.25">
@@ -8766,7 +8767,7 @@
     </row>
     <row r="88" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:95" x14ac:dyDescent="0.25">
@@ -8938,7 +8939,7 @@
         <v>-28.623664340648986</v>
       </c>
       <c r="V94" s="19">
-        <v>20.284762958058366</v>
+        <v>20.535387632058686</v>
       </c>
       <c r="W94" s="19"/>
       <c r="X94" s="9"/>
@@ -9073,7 +9074,7 @@
         <v>-18.708862093933959</v>
       </c>
       <c r="V95" s="19">
-        <v>52.991967736954081</v>
+        <v>54.394911773481027</v>
       </c>
       <c r="W95" s="19"/>
       <c r="X95" s="9"/>
@@ -9208,7 +9209,7 @@
         <v>-46.259770640586282</v>
       </c>
       <c r="V96" s="19">
-        <v>43.756619981363968</v>
+        <v>45.082386664752249</v>
       </c>
       <c r="W96" s="19"/>
       <c r="X96" s="9"/>
@@ -9343,7 +9344,7 @@
         <v>-42.158834233312234</v>
       </c>
       <c r="V97" s="19">
-        <v>8.1623743226009253</v>
+        <v>5.2863562882099728</v>
       </c>
       <c r="W97" s="19"/>
       <c r="X97" s="9"/>
@@ -9478,7 +9479,7 @@
         <v>-12.586815294235635</v>
       </c>
       <c r="V98" s="19">
-        <v>-43.999607175250311</v>
+        <v>-44.344729980746322</v>
       </c>
       <c r="W98" s="19"/>
       <c r="X98" s="9"/>
@@ -9613,7 +9614,7 @@
         <v>-34.79656918089627</v>
       </c>
       <c r="V99" s="19">
-        <v>11.576736502635171</v>
+        <v>11.847782194650634</v>
       </c>
       <c r="W99" s="19"/>
       <c r="X99" s="9"/>
@@ -9748,7 +9749,7 @@
         <v>-17.98007235224128</v>
       </c>
       <c r="V100" s="19">
-        <v>9.7743595589050472</v>
+        <v>9.8841291401488292</v>
       </c>
       <c r="W100" s="19"/>
       <c r="X100" s="9"/>
@@ -9883,7 +9884,7 @@
         <v>-40.02963327548256</v>
       </c>
       <c r="V101" s="19">
-        <v>-10.625527908674812</v>
+        <v>-10.292713913712277</v>
       </c>
       <c r="W101" s="19"/>
       <c r="X101" s="9"/>
@@ -10018,7 +10019,7 @@
         <v>-35.340710676264749</v>
       </c>
       <c r="V102" s="19">
-        <v>37.583635586856076</v>
+        <v>37.016125507661314</v>
       </c>
       <c r="W102" s="19"/>
       <c r="X102" s="9"/>
@@ -10153,7 +10154,7 @@
         <v>-29.126586263845752</v>
       </c>
       <c r="V103" s="19">
-        <v>1.2930909840451932</v>
+        <v>1.9499383266276453</v>
       </c>
       <c r="W103" s="19"/>
       <c r="X103" s="9"/>
@@ -10288,7 +10289,7 @@
         <v>-25.5806220186183</v>
       </c>
       <c r="V104" s="19">
-        <v>2.4678153345583524</v>
+        <v>3.4044995140533558</v>
       </c>
       <c r="W104" s="19"/>
       <c r="X104" s="9"/>
@@ -10423,7 +10424,7 @@
         <v>-39.95204035781137</v>
       </c>
       <c r="V105" s="19">
-        <v>10.492721430996738</v>
+        <v>11.056388204625051</v>
       </c>
       <c r="W105" s="19"/>
       <c r="X105" s="9"/>
@@ -10558,7 +10559,7 @@
         <v>-33.794569640191199</v>
       </c>
       <c r="V106" s="19">
-        <v>0.97784934199529516</v>
+        <v>1.6296067667183252</v>
       </c>
       <c r="W106" s="19"/>
       <c r="X106" s="9"/>
@@ -10693,7 +10694,7 @@
         <v>-23.553331562805113</v>
       </c>
       <c r="V107" s="19">
-        <v>-1.16668378486942</v>
+        <v>-0.59788795521824056</v>
       </c>
       <c r="W107" s="19"/>
       <c r="X107" s="9"/>
@@ -10828,7 +10829,7 @@
         <v>-41.75989011183627</v>
       </c>
       <c r="V108" s="19">
-        <v>15.001883220157524</v>
+        <v>14.55378663134826</v>
       </c>
       <c r="W108" s="19"/>
       <c r="X108" s="9"/>
@@ -10963,7 +10964,7 @@
         <v>-39.395861571950718</v>
       </c>
       <c r="V109" s="19">
-        <v>11.726290381886415</v>
+        <v>11.151523154819174</v>
       </c>
       <c r="W109" s="19"/>
       <c r="X109" s="9"/>
@@ -11098,7 +11099,7 @@
         <v>225.44412601559469</v>
       </c>
       <c r="V110" s="19">
-        <v>217.50420517807368</v>
+        <v>217.58854020709344</v>
       </c>
       <c r="W110" s="19"/>
       <c r="X110" s="9"/>
@@ -11233,7 +11234,7 @@
         <v>-68.130493654973407</v>
       </c>
       <c r="V111" s="19">
-        <v>36.221405971288959</v>
+        <v>37.209458364541263</v>
       </c>
       <c r="W111" s="19"/>
       <c r="X111" s="9"/>
@@ -11368,7 +11369,7 @@
         <v>-23.115096276631036</v>
       </c>
       <c r="V112" s="19">
-        <v>71.213704224319343</v>
+        <v>73.158706643459794</v>
       </c>
       <c r="W112" s="19"/>
       <c r="X112" s="9"/>
@@ -11500,10 +11501,10 @@
         <v>22.681028633866944</v>
       </c>
       <c r="U113" s="19">
-        <v>-28.357080254313914</v>
+        <v>-28.314110141744777</v>
       </c>
       <c r="V113" s="19">
-        <v>15.139985042515207</v>
+        <v>16.782692847487439</v>
       </c>
       <c r="W113" s="19"/>
       <c r="X113" s="9"/>
@@ -11638,7 +11639,7 @@
         <v>-4.4061544080336716</v>
       </c>
       <c r="V114" s="19">
-        <v>1.6089952744065954</v>
+        <v>2.1487421609443373</v>
       </c>
       <c r="W114" s="19"/>
       <c r="X114" s="9"/>
@@ -11770,10 +11771,10 @@
         <v>27.871087233799557</v>
       </c>
       <c r="U115" s="19">
-        <v>-30.650036096859054</v>
+        <v>-30.383334389781453</v>
       </c>
       <c r="V115" s="19">
-        <v>19.151843930040613</v>
+        <v>20.563286161567888</v>
       </c>
       <c r="W115" s="19"/>
       <c r="X115" s="9"/>
@@ -11908,7 +11909,7 @@
         <v>-31.267025807768647</v>
       </c>
       <c r="V116" s="19">
-        <v>13.332992804290683</v>
+        <v>13.94660013615028</v>
       </c>
       <c r="W116" s="19"/>
       <c r="X116" s="9"/>
@@ -12043,7 +12044,7 @@
         <v>-27.661135033255078</v>
       </c>
       <c r="V117" s="19">
-        <v>23.049002257249398</v>
+        <v>27.894351088019391</v>
       </c>
       <c r="W117" s="19"/>
       <c r="X117" s="9"/>
@@ -12265,10 +12266,10 @@
         <v>-4.9151644511897672</v>
       </c>
       <c r="U119" s="20">
-        <v>-34.997269932331719</v>
+        <v>-34.989596587680595</v>
       </c>
       <c r="V119" s="20">
-        <v>13.367643828334153</v>
+        <v>13.668283836707886</v>
       </c>
       <c r="W119" s="20"/>
       <c r="X119" s="9"/>
@@ -12563,7 +12564,7 @@
     </row>
     <row r="126" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:89" x14ac:dyDescent="0.25">
@@ -12573,7 +12574,7 @@
     </row>
     <row r="129" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="1:89" x14ac:dyDescent="0.25">
@@ -12745,7 +12746,7 @@
         <v>-23.745364410665076</v>
       </c>
       <c r="V135" s="19">
-        <v>15.853072300774045</v>
+        <v>16.106862542856561</v>
       </c>
       <c r="W135" s="19"/>
       <c r="X135" s="9"/>
@@ -12880,7 +12881,7 @@
         <v>3.7050315089629748E-2</v>
       </c>
       <c r="V136" s="19">
-        <v>30.425957075794173</v>
+        <v>32.1427588374126</v>
       </c>
       <c r="W136" s="19"/>
       <c r="X136" s="9"/>
@@ -13015,7 +13016,7 @@
         <v>-43.33740541965885</v>
       </c>
       <c r="V137" s="19">
-        <v>42.178230300931403</v>
+        <v>44.106730243479689</v>
       </c>
       <c r="W137" s="19"/>
       <c r="X137" s="9"/>
@@ -13150,7 +13151,7 @@
         <v>-39.947435851334035</v>
       </c>
       <c r="V138" s="19">
-        <v>1.0265120366415914</v>
+        <v>-1.6507986751624202</v>
       </c>
       <c r="W138" s="19"/>
       <c r="X138" s="9"/>
@@ -13285,7 +13286,7 @@
         <v>-18.201817348894153</v>
       </c>
       <c r="V139" s="19">
-        <v>-42.178739459114858</v>
+        <v>-42.394338594235691</v>
       </c>
       <c r="W139" s="19"/>
       <c r="X139" s="9"/>
@@ -13420,7 +13421,7 @@
         <v>-32.439543993652094</v>
       </c>
       <c r="V140" s="19">
-        <v>6.190022689134139</v>
+        <v>6.7395442022460088</v>
       </c>
       <c r="W140" s="19"/>
       <c r="X140" s="9"/>
@@ -13555,7 +13556,7 @@
         <v>-13.460748424312172</v>
       </c>
       <c r="V141" s="19">
-        <v>8.6672474367523762</v>
+        <v>8.3166500217607364</v>
       </c>
       <c r="W141" s="19"/>
       <c r="X141" s="9"/>
@@ -13690,7 +13691,7 @@
         <v>-28.983506955458267</v>
       </c>
       <c r="V142" s="19">
-        <v>-12.897773651118186</v>
+        <v>-12.365964984535466</v>
       </c>
       <c r="W142" s="19"/>
       <c r="X142" s="9"/>
@@ -13825,7 +13826,7 @@
         <v>-31.111793889517884</v>
       </c>
       <c r="V143" s="19">
-        <v>24.896047402522669</v>
+        <v>24.887998332744559</v>
       </c>
       <c r="W143" s="19"/>
       <c r="X143" s="9"/>
@@ -13960,7 +13961,7 @@
         <v>-26.324808420696613</v>
       </c>
       <c r="V144" s="19">
-        <v>1.1120959160697623</v>
+        <v>1.7276830876739098</v>
       </c>
       <c r="W144" s="19"/>
       <c r="X144" s="9"/>
@@ -14095,7 +14096,7 @@
         <v>-21.70000643936018</v>
       </c>
       <c r="V145" s="19">
-        <v>-1.3899912762537951</v>
+        <v>-0.57874144010476414</v>
       </c>
       <c r="W145" s="19"/>
       <c r="X145" s="9"/>
@@ -14230,7 +14231,7 @@
         <v>-36.930040415574403</v>
       </c>
       <c r="V146" s="19">
-        <v>7.3540543128967926</v>
+        <v>7.8623598893647682</v>
       </c>
       <c r="W146" s="19"/>
       <c r="X146" s="9"/>
@@ -14365,7 +14366,7 @@
         <v>-31.361091626630241</v>
       </c>
       <c r="V147" s="19">
-        <v>-0.56105493206896995</v>
+        <v>-4.981781270026886E-2</v>
       </c>
       <c r="W147" s="19"/>
       <c r="X147" s="9"/>
@@ -14500,7 +14501,7 @@
         <v>-20.999697220506448</v>
       </c>
       <c r="V148" s="19">
-        <v>1.7992302219297329</v>
+        <v>2.4325287464431966</v>
       </c>
       <c r="W148" s="19"/>
       <c r="X148" s="9"/>
@@ -14635,7 +14636,7 @@
         <v>-34.378452556691158</v>
       </c>
       <c r="V149" s="19">
-        <v>11.405583184531238</v>
+        <v>10.982448086112527</v>
       </c>
       <c r="W149" s="19"/>
       <c r="X149" s="9"/>
@@ -14770,7 +14771,7 @@
         <v>-31.433694081063322</v>
       </c>
       <c r="V150" s="19">
-        <v>8.6126352162696094</v>
+        <v>8.0820946514668037</v>
       </c>
       <c r="W150" s="19"/>
       <c r="X150" s="9"/>
@@ -14905,7 +14906,7 @@
         <v>242.31606803277742</v>
       </c>
       <c r="V151" s="19">
-        <v>203.66737831299719</v>
+        <v>203.6285944805802</v>
       </c>
       <c r="W151" s="19"/>
       <c r="X151" s="9"/>
@@ -15040,7 +15041,7 @@
         <v>-67.770281548190155</v>
       </c>
       <c r="V152" s="19">
-        <v>37.736357316191544</v>
+        <v>38.632807968514527</v>
       </c>
       <c r="W152" s="19"/>
       <c r="X152" s="9"/>
@@ -15175,7 +15176,7 @@
         <v>-9.9269065723759553</v>
       </c>
       <c r="V153" s="19">
-        <v>43.120307356736902</v>
+        <v>44.982783253270355</v>
       </c>
       <c r="W153" s="19"/>
       <c r="X153" s="9"/>
@@ -15307,10 +15308,10 @@
         <v>18.53263807754746</v>
       </c>
       <c r="U154" s="19">
-        <v>-25.634709105896349</v>
+        <v>-25.584636748711205</v>
       </c>
       <c r="V154" s="19">
-        <v>20.02512124647015</v>
+        <v>21.542411859208926</v>
       </c>
       <c r="W154" s="19"/>
       <c r="X154" s="9"/>
@@ -15445,7 +15446,7 @@
         <v>-16.054753947627802</v>
       </c>
       <c r="V155" s="19">
-        <v>21.911444624026075</v>
+        <v>22.731687291277709</v>
       </c>
       <c r="W155" s="19"/>
       <c r="X155" s="9"/>
@@ -15577,10 +15578,10 @@
         <v>24.402394400151664</v>
       </c>
       <c r="U156" s="19">
-        <v>-25.100484990466057</v>
+        <v>-24.791838388100444</v>
       </c>
       <c r="V156" s="19">
-        <v>24.165861386105831</v>
+        <v>25.685110650050007</v>
       </c>
       <c r="W156" s="19"/>
       <c r="X156" s="9"/>
@@ -15715,7 +15716,7 @@
         <v>-28.685710199847193</v>
       </c>
       <c r="V157" s="19">
-        <v>16.887130202154992</v>
+        <v>17.330935924654042</v>
       </c>
       <c r="W157" s="19"/>
       <c r="X157" s="9"/>
@@ -15850,7 +15851,7 @@
         <v>-21.554337683782407</v>
       </c>
       <c r="V158" s="19">
-        <v>23.669126226838728</v>
+        <v>27.962006737098122</v>
       </c>
       <c r="W158" s="19"/>
       <c r="X158" s="9"/>
@@ -16072,10 +16073,10 @@
         <v>-6.7121008183392092</v>
       </c>
       <c r="U160" s="20">
-        <v>-29.699221888565603</v>
+        <v>-29.690416211821542</v>
       </c>
       <c r="V160" s="20">
-        <v>11.903387525622122</v>
+        <v>12.152650888614545</v>
       </c>
       <c r="W160" s="20"/>
       <c r="X160" s="9"/>
@@ -16371,7 +16372,7 @@
     </row>
     <row r="166" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="168" spans="1:95" x14ac:dyDescent="0.25">
@@ -16381,7 +16382,7 @@
     </row>
     <row r="169" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="1:95" x14ac:dyDescent="0.25">
@@ -16558,7 +16559,7 @@
         <v>96.374849398497503</v>
       </c>
       <c r="W175" s="17">
-        <v>100.06144580198064</v>
+        <v>100.05075992766012</v>
       </c>
       <c r="X175" s="9"/>
       <c r="Y175" s="9"/>
@@ -16701,7 +16702,7 @@
         <v>83.60022844005897</v>
       </c>
       <c r="W176" s="17">
-        <v>98.064555086000055</v>
+        <v>97.678071865647865</v>
       </c>
       <c r="X176" s="9"/>
       <c r="Y176" s="9"/>
@@ -16844,7 +16845,7 @@
         <v>97.559517174748009</v>
       </c>
       <c r="W177" s="17">
-        <v>98.642572821246631</v>
+        <v>98.220031567288686</v>
       </c>
       <c r="X177" s="9"/>
       <c r="Y177" s="9"/>
@@ -16987,7 +16988,7 @@
         <v>98.472359536025706</v>
       </c>
       <c r="W178" s="17">
-        <v>105.42781293589856</v>
+        <v>105.41820158159618</v>
       </c>
       <c r="X178" s="9"/>
       <c r="Y178" s="9"/>
@@ -17130,7 +17131,7 @@
         <v>109.82152578660789</v>
       </c>
       <c r="W179" s="17">
-        <v>106.36310116959054</v>
+        <v>106.10322878730945</v>
       </c>
       <c r="X179" s="9"/>
       <c r="Y179" s="9"/>
@@ -17273,7 +17274,7 @@
         <v>99.249330302398292</v>
       </c>
       <c r="W180" s="17">
-        <v>104.28396279405669</v>
+        <v>103.99910887378513</v>
       </c>
       <c r="X180" s="9"/>
       <c r="Y180" s="9"/>
@@ -17416,7 +17417,7 @@
         <v>97.858399958770974</v>
       </c>
       <c r="W181" s="17">
-        <v>98.855390527726698</v>
+        <v>99.274534952453166</v>
       </c>
       <c r="X181" s="9"/>
       <c r="Y181" s="9"/>
@@ -17559,7 +17560,7 @@
         <v>86.856642164065036</v>
       </c>
       <c r="W182" s="17">
-        <v>89.122481323786545</v>
+        <v>88.911501629830553</v>
       </c>
       <c r="X182" s="9"/>
       <c r="Y182" s="9"/>
@@ -17702,7 +17703,7 @@
         <v>96.18752869238098</v>
       </c>
       <c r="W183" s="17">
-        <v>105.95875666875196</v>
+        <v>105.52849496773113</v>
       </c>
       <c r="X183" s="9"/>
       <c r="Y183" s="9"/>
@@ -17845,7 +17846,7 @@
         <v>97.875031832277983</v>
       </c>
       <c r="W184" s="17">
-        <v>98.050232414157776</v>
+        <v>98.088869776161374</v>
       </c>
       <c r="X184" s="9"/>
       <c r="Y184" s="9"/>
@@ -17988,7 +17989,7 @@
         <v>96.657434905877921</v>
       </c>
       <c r="W185" s="17">
-        <v>100.43885320398063</v>
+        <v>100.52994526048199</v>
       </c>
       <c r="X185" s="9"/>
       <c r="Y185" s="9"/>
@@ -18131,7 +18132,7 @@
         <v>96.995522910607491</v>
       </c>
       <c r="W186" s="17">
-        <v>99.831341830637399</v>
+        <v>99.867761631767763</v>
       </c>
       <c r="X186" s="9"/>
       <c r="Y186" s="9"/>
@@ -18274,7 +18275,7 @@
         <v>98.376440560668826</v>
       </c>
       <c r="W187" s="17">
-        <v>99.898901652171958</v>
+        <v>100.02942216308048</v>
       </c>
       <c r="X187" s="9"/>
       <c r="Y187" s="9"/>
@@ -18417,7 +18418,7 @@
         <v>98.242806391932803</v>
       </c>
       <c r="W188" s="17">
-        <v>95.380508564042927</v>
+        <v>95.336340594869853</v>
       </c>
       <c r="X188" s="9"/>
       <c r="Y188" s="9"/>
@@ -18560,7 +18561,7 @@
         <v>89.706552523347099</v>
       </c>
       <c r="W189" s="17">
-        <v>92.602382954944531</v>
+        <v>92.593247440531329</v>
       </c>
       <c r="X189" s="9"/>
       <c r="Y189" s="9"/>
@@ -18703,7 +18704,7 @@
         <v>89.038047190772602</v>
       </c>
       <c r="W190" s="17">
-        <v>91.590547413421234</v>
+        <v>91.566642892137281</v>
       </c>
       <c r="X190" s="9"/>
       <c r="Y190" s="9"/>
@@ -18846,7 +18847,7 @@
         <v>98.919678742844383</v>
       </c>
       <c r="W191" s="17">
-        <v>103.42702647284301</v>
+        <v>103.46771332073577</v>
       </c>
       <c r="X191" s="9"/>
       <c r="Y191" s="9"/>
@@ -18989,7 +18990,7 @@
         <v>102.85220379630748</v>
       </c>
       <c r="W192" s="17">
-        <v>101.72094050821488</v>
+        <v>101.79621534965855</v>
       </c>
       <c r="X192" s="9"/>
       <c r="Y192" s="9"/>
@@ -19132,7 +19133,7 @@
         <v>87.954515245861558</v>
       </c>
       <c r="W193" s="17">
-        <v>105.21929862100366</v>
+        <v>105.04757711003808</v>
       </c>
       <c r="X193" s="9"/>
       <c r="Y193" s="9"/>
@@ -19272,10 +19273,10 @@
         <v>103.49978758897231</v>
       </c>
       <c r="V194" s="17">
-        <v>99.710858207914697</v>
+        <v>99.703529611237656</v>
       </c>
       <c r="W194" s="17">
-        <v>95.652531765080724</v>
+        <v>95.799042460068875</v>
       </c>
       <c r="X194" s="9"/>
       <c r="Y194" s="9"/>
@@ -19418,7 +19419,7 @@
         <v>118.69255968678421</v>
       </c>
       <c r="W195" s="17">
-        <v>98.926165410600589</v>
+        <v>98.787003938871649</v>
       </c>
       <c r="X195" s="9"/>
       <c r="Y195" s="9"/>
@@ -19558,10 +19559,10 @@
         <v>102.78828462295553</v>
       </c>
       <c r="V196" s="17">
-        <v>95.172362963369977</v>
+        <v>95.146291118915798</v>
       </c>
       <c r="W196" s="17">
-        <v>91.329149668618797</v>
+        <v>91.268961486784733</v>
       </c>
       <c r="X196" s="9"/>
       <c r="Y196" s="9"/>
@@ -19704,7 +19705,7 @@
         <v>99.781224991005629</v>
       </c>
       <c r="W197" s="17">
-        <v>96.747219598522221</v>
+        <v>96.903099387587076</v>
       </c>
       <c r="X197" s="9"/>
       <c r="Y197" s="9"/>
@@ -19847,7 +19848,7 @@
         <v>95.635746860287355</v>
       </c>
       <c r="W198" s="17">
-        <v>95.156192902180919</v>
+        <v>95.585182644439627</v>
       </c>
       <c r="X198" s="9"/>
       <c r="Y198" s="9"/>
@@ -20083,10 +20084,10 @@
         <v>101.92622664130344</v>
       </c>
       <c r="V200" s="20">
-        <v>94.244803189496892</v>
+        <v>94.244123705945555</v>
       </c>
       <c r="W200" s="20">
-        <v>95.477996840908759</v>
+        <v>95.517740494502576</v>
       </c>
       <c r="X200" s="9"/>
       <c r="Y200" s="9"/>
@@ -20395,7 +20396,7 @@
     </row>
     <row r="207" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:95" x14ac:dyDescent="0.25">
@@ -20405,7 +20406,7 @@
     </row>
     <row r="210" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:95" x14ac:dyDescent="0.25">
@@ -20579,10 +20580,10 @@
         <v>16.43628383246433</v>
       </c>
       <c r="V216" s="20">
-        <v>18.047883690378374</v>
+        <v>18.045753452377831</v>
       </c>
       <c r="W216" s="20">
-        <v>19.149074094536285</v>
+        <v>19.135961361215543</v>
       </c>
       <c r="X216" s="9"/>
       <c r="Y216" s="9"/>
@@ -20722,10 +20723,10 @@
         <v>0.98951505271319529</v>
       </c>
       <c r="V217" s="20">
-        <v>1.2374680959784188</v>
+        <v>1.2373220344452363</v>
       </c>
       <c r="W217" s="20">
-        <v>1.6699886548063065</v>
+        <v>1.6806467019242826</v>
       </c>
       <c r="X217" s="9"/>
       <c r="Y217" s="9"/>
@@ -20865,10 +20866,10 @@
         <v>3.2308871978997602</v>
       </c>
       <c r="V218" s="20">
-        <v>2.6710973349700557</v>
+        <v>2.6707820585008735</v>
       </c>
       <c r="W218" s="20">
-        <v>3.3871033352159476</v>
+        <v>3.4088966792650157</v>
       </c>
       <c r="X218" s="9"/>
       <c r="Y218" s="9"/>
@@ -21008,10 +21009,10 @@
         <v>0.26348714164397358</v>
       </c>
       <c r="V219" s="20">
-        <v>0.23445789771221076</v>
+        <v>0.23443022404521452</v>
       </c>
       <c r="W219" s="20">
-        <v>0.22369277545927149</v>
+        <v>0.21714328096135532</v>
       </c>
       <c r="X219" s="9"/>
       <c r="Y219" s="9"/>
@@ -21151,10 +21152,10 @@
         <v>0.2466294059832343</v>
       </c>
       <c r="V220" s="20">
-        <v>0.33165779032115572</v>
+        <v>0.33161864390154</v>
       </c>
       <c r="W220" s="20">
-        <v>0.16382951884840366</v>
+        <v>0.16237005210945815</v>
       </c>
       <c r="X220" s="9"/>
       <c r="Y220" s="9"/>
@@ -21294,10 +21295,10 @@
         <v>1.1692111740419719</v>
       </c>
       <c r="V221" s="20">
-        <v>1.1728212002819878</v>
+        <v>1.1726827691877086</v>
       </c>
       <c r="W221" s="20">
-        <v>1.1542937438721095</v>
+        <v>1.1539011809129585</v>
       </c>
       <c r="X221" s="9"/>
       <c r="Y221" s="9"/>
@@ -21437,10 +21438,10 @@
         <v>7.342853854688264</v>
       </c>
       <c r="V222" s="20">
-        <v>9.2651545752407714</v>
+        <v>9.2640609852833169</v>
       </c>
       <c r="W222" s="20">
-        <v>8.9714875899812494</v>
+        <v>8.9556491864650045</v>
       </c>
       <c r="X222" s="9"/>
       <c r="Y222" s="9"/>
@@ -21580,10 +21581,10 @@
         <v>0.57669357898860429</v>
       </c>
       <c r="V223" s="20">
-        <v>0.53204727530087337</v>
+        <v>0.53198447639639368</v>
       </c>
       <c r="W223" s="20">
-        <v>0.41944458534965962</v>
+        <v>0.41984344275059515</v>
       </c>
       <c r="X223" s="9"/>
       <c r="Y223" s="9"/>
@@ -21723,10 +21724,10 @@
         <v>2.6170064265053266</v>
       </c>
       <c r="V224" s="20">
-        <v>2.6031795205729011</v>
+        <v>2.6028722606175458</v>
       </c>
       <c r="W224" s="20">
-        <v>3.1592338910033386</v>
+        <v>3.137510836826872</v>
       </c>
       <c r="X224" s="9"/>
       <c r="Y224" s="9"/>
@@ -21866,10 +21867,10 @@
         <v>17.494390683264406</v>
       </c>
       <c r="V225" s="20">
-        <v>19.074386378328871</v>
+        <v>19.072134979583328</v>
       </c>
       <c r="W225" s="20">
-        <v>17.04281300765647</v>
+        <v>17.105941246714902</v>
       </c>
       <c r="X225" s="9"/>
       <c r="Y225" s="9"/>
@@ -22009,10 +22010,10 @@
         <v>2.8936193710634872</v>
       </c>
       <c r="V226" s="20">
-        <v>3.3128047619730721</v>
+        <v>3.3124137431304526</v>
       </c>
       <c r="W226" s="20">
-        <v>2.9942923317990093</v>
+        <v>3.013316236778302</v>
       </c>
       <c r="X226" s="9"/>
       <c r="Y226" s="9"/>
@@ -22152,10 +22153,10 @@
         <v>2.1083985877234817</v>
       </c>
       <c r="V227" s="20">
-        <v>1.9476879382369083</v>
+        <v>1.9474580476341978</v>
       </c>
       <c r="W227" s="20">
-        <v>1.8982959645875295</v>
+        <v>1.9027089144847298</v>
       </c>
       <c r="X227" s="9"/>
       <c r="Y227" s="9"/>
@@ -22295,10 +22296,10 @@
         <v>5.571540597786373</v>
       </c>
       <c r="V228" s="20">
-        <v>5.6746269373547999</v>
+        <v>5.6739571465833025</v>
       </c>
       <c r="W228" s="20">
-        <v>5.0544547333092531</v>
+        <v>5.0730248944978991</v>
       </c>
       <c r="X228" s="9"/>
       <c r="Y228" s="9"/>
@@ -22438,10 +22439,10 @@
         <v>6.9208321266910664</v>
       </c>
       <c r="V229" s="20">
-        <v>8.1392667407640893</v>
+        <v>8.1383060422353761</v>
       </c>
       <c r="W229" s="20">
-        <v>7.0957699779606767</v>
+        <v>7.1168912009539742</v>
       </c>
       <c r="X229" s="9"/>
       <c r="Y229" s="9"/>
@@ -22581,10 +22582,10 @@
         <v>48.211926021394824</v>
       </c>
       <c r="V230" s="20">
-        <v>43.196152938238832</v>
+        <v>43.191054385519578</v>
       </c>
       <c r="W230" s="20">
-        <v>43.818842555161545</v>
+        <v>43.527522906648876</v>
       </c>
       <c r="X230" s="9"/>
       <c r="Y230" s="9"/>
@@ -22724,10 +22725,10 @@
         <v>42.895174946803593</v>
       </c>
       <c r="V231" s="20">
-        <v>39.9925528922439</v>
+        <v>39.987832468654553</v>
       </c>
       <c r="W231" s="20">
-        <v>39.413534820550304</v>
+        <v>39.102450890661885</v>
       </c>
       <c r="X231" s="9"/>
       <c r="Y231" s="9"/>
@@ -22867,10 +22868,10 @@
         <v>4.2882650320146196E-2</v>
       </c>
       <c r="V232" s="20">
-        <v>0.21469723871819149</v>
+        <v>0.21467189745245774</v>
       </c>
       <c r="W232" s="20">
-        <v>0.60129393035960199</v>
+        <v>0.59979206366266802</v>
       </c>
       <c r="X232" s="9"/>
       <c r="Y232" s="9"/>
@@ -23010,10 +23011,10 @@
         <v>4.6915952311797442</v>
       </c>
       <c r="V233" s="20">
-        <v>2.3001929893210531</v>
+        <v>2.2999214916430706</v>
       </c>
       <c r="W233" s="20">
-        <v>2.7638884643759654</v>
+        <v>2.7762448019594665</v>
       </c>
       <c r="X233" s="9"/>
       <c r="Y233" s="9"/>
@@ -23153,10 +23154,10 @@
         <v>0.58227319309134218</v>
       </c>
       <c r="V234" s="20">
-        <v>0.68870981795568675</v>
+        <v>0.68862852776949501</v>
       </c>
       <c r="W234" s="20">
-        <v>1.0401253398756682</v>
+        <v>1.0490351503648525</v>
       </c>
       <c r="X234" s="9"/>
       <c r="Y234" s="9"/>
@@ -23296,10 +23297,10 @@
         <v>17.857399462876437</v>
       </c>
       <c r="V235" s="20">
-        <v>19.68157699305392</v>
+        <v>19.691057182519252</v>
       </c>
       <c r="W235" s="20">
-        <v>19.989270342645689</v>
+        <v>20.230574485420668</v>
       </c>
       <c r="X235" s="9"/>
       <c r="Y235" s="9"/>
@@ -23439,10 +23440,10 @@
         <v>1.3579885122222173</v>
       </c>
       <c r="V236" s="20">
-        <v>1.9970752615758764</v>
+        <v>1.9968395416607252</v>
       </c>
       <c r="W236" s="20">
-        <v>1.7899358579187583</v>
+        <v>1.7944728344003413</v>
       </c>
       <c r="X236" s="9"/>
       <c r="Y236" s="9"/>
@@ -23582,10 +23583,10 @@
         <v>2.8771261853554124</v>
       </c>
       <c r="V237" s="20">
-        <v>3.0695418006515851</v>
+        <v>3.0809827512366352</v>
       </c>
       <c r="W237" s="20">
-        <v>3.2261547758882072</v>
+        <v>3.2678720269043113</v>
       </c>
       <c r="X237" s="9"/>
       <c r="Y237" s="9"/>
@@ -23725,10 +23726,10 @@
         <v>9.8195772019670517</v>
       </c>
       <c r="V238" s="20">
-        <v>10.383083075108066</v>
+        <v>10.381857533182551</v>
       </c>
       <c r="W238" s="20">
-        <v>10.379909467109069</v>
+        <v>10.407277466275975</v>
       </c>
       <c r="X238" s="9"/>
       <c r="Y238" s="9"/>
@@ -23868,10 +23869,10 @@
         <v>3.8027075633317544</v>
       </c>
       <c r="V239" s="20">
-        <v>4.2318768557183919</v>
+        <v>4.231377356439344</v>
       </c>
       <c r="W239" s="20">
-        <v>4.5932702417296545</v>
+        <v>4.7609521578400429</v>
       </c>
       <c r="X239" s="9"/>
       <c r="Y239" s="9"/>
@@ -24419,7 +24420,7 @@
     </row>
     <row r="248" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="250" spans="1:95" x14ac:dyDescent="0.25">
@@ -24429,7 +24430,7 @@
     </row>
     <row r="251" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="252" spans="1:95" x14ac:dyDescent="0.25">
@@ -24603,10 +24604,10 @@
         <v>16.270985756933527</v>
       </c>
       <c r="V257" s="20">
-        <v>17.648995116491029</v>
+        <v>17.646784730118647</v>
       </c>
       <c r="W257" s="20">
-        <v>18.271925028173769</v>
+        <v>18.268964600918466</v>
       </c>
       <c r="X257" s="9"/>
       <c r="Y257" s="9"/>
@@ -24746,10 +24747,10 @@
         <v>0.98035464942889339</v>
       </c>
       <c r="V258" s="20">
-        <v>1.3950313215039496</v>
+        <v>1.3948566057084189</v>
       </c>
       <c r="W258" s="20">
-        <v>1.6259409056424006</v>
+        <v>1.6434760890668456</v>
       </c>
       <c r="X258" s="9"/>
       <c r="Y258" s="9"/>
@@ -24889,10 +24890,10 @@
         <v>3.2014089779590993</v>
       </c>
       <c r="V259" s="20">
-        <v>2.5803432604461616</v>
+        <v>2.5800200944221858</v>
       </c>
       <c r="W259" s="20">
-        <v>3.2784408627055188</v>
+        <v>3.3151089771289479</v>
       </c>
       <c r="X259" s="9"/>
       <c r="Y259" s="9"/>
@@ -25032,10 +25033,10 @@
         <v>0.26268574760898172</v>
       </c>
       <c r="V260" s="20">
-        <v>0.22439229170726438</v>
+        <v>0.22436418848323469</v>
       </c>
       <c r="W260" s="20">
-        <v>0.20258162921031292</v>
+        <v>0.19675004173674457</v>
       </c>
       <c r="X260" s="9"/>
       <c r="Y260" s="9"/>
@@ -25175,10 +25176,10 @@
         <v>0.24461135797144484</v>
       </c>
       <c r="V261" s="20">
-        <v>0.28461654444517259</v>
+        <v>0.28458089864624497</v>
       </c>
       <c r="W261" s="20">
-        <v>0.14706335290200812</v>
+        <v>0.14617105133114552</v>
       </c>
       <c r="X261" s="9"/>
       <c r="Y261" s="9"/>
@@ -25318,10 +25319,10 @@
         <v>1.1588552547739459</v>
       </c>
       <c r="V262" s="20">
-        <v>1.113683113631796</v>
+        <v>1.1135436343038638</v>
       </c>
       <c r="W262" s="20">
-        <v>1.0568226549709041</v>
+        <v>1.0597978650808084</v>
       </c>
       <c r="X262" s="9"/>
       <c r="Y262" s="9"/>
@@ -25461,10 +25462,10 @@
         <v>7.2486806640857147</v>
       </c>
       <c r="V263" s="20">
-        <v>8.9230221404776771</v>
+        <v>8.921904607926411</v>
       </c>
       <c r="W263" s="20">
-        <v>8.6649767827706938</v>
+        <v>8.6167452243646014</v>
       </c>
       <c r="X263" s="9"/>
       <c r="Y263" s="9"/>
@@ -25604,10 +25605,10 @@
         <v>0.57148588648770715</v>
       </c>
       <c r="V264" s="20">
-        <v>0.57730404375434508</v>
+        <v>0.57723174133811039</v>
       </c>
       <c r="W264" s="20">
-        <v>0.44935607941003824</v>
+        <v>0.45103835024551181</v>
       </c>
       <c r="X264" s="9"/>
       <c r="Y264" s="9"/>
@@ -25747,10 +25748,10 @@
         <v>2.6029032186177421</v>
       </c>
       <c r="V265" s="20">
-        <v>2.5506024005246637</v>
+        <v>2.5502829592901759</v>
       </c>
       <c r="W265" s="20">
-        <v>2.8467427605618907</v>
+        <v>2.8398770019638619</v>
       </c>
       <c r="X265" s="9"/>
       <c r="Y265" s="9"/>
@@ -25890,10 +25891,10 @@
         <v>17.525682082314244</v>
       </c>
       <c r="V266" s="20">
-        <v>18.366908868714958</v>
+        <v>18.364608569757522</v>
       </c>
       <c r="W266" s="20">
-        <v>16.59571432357221</v>
+        <v>16.657556159496249</v>
       </c>
       <c r="X266" s="9"/>
       <c r="Y266" s="9"/>
@@ -26033,10 +26034,10 @@
         <v>2.900122839637933</v>
       </c>
       <c r="V267" s="20">
-        <v>3.230115025309801</v>
+        <v>3.2297104809045218</v>
       </c>
       <c r="W267" s="20">
-        <v>2.8463988255187753</v>
+        <v>2.8630788327466052</v>
       </c>
       <c r="X267" s="9"/>
       <c r="Y267" s="9"/>
@@ -26176,10 +26177,10 @@
         <v>2.1094181435216823</v>
       </c>
       <c r="V268" s="20">
-        <v>1.8924529803593673</v>
+        <v>1.8922159667361809</v>
       </c>
       <c r="W268" s="20">
-        <v>1.8155169788008925</v>
+        <v>1.8198310782257203</v>
       </c>
       <c r="X268" s="9"/>
       <c r="Y268" s="9"/>
@@ -26319,10 +26320,10 @@
         <v>5.5679251225874271</v>
       </c>
       <c r="V269" s="20">
-        <v>5.4363025927432957</v>
+        <v>5.435621742128979</v>
       </c>
       <c r="W269" s="20">
-        <v>4.8307759652823457</v>
+        <v>4.8442134815575058</v>
       </c>
       <c r="X269" s="9"/>
       <c r="Y269" s="9"/>
@@ -26462,10 +26463,10 @@
         <v>6.9482159765672025</v>
       </c>
       <c r="V270" s="20">
-        <v>7.8080382703024922</v>
+        <v>7.807060379987842</v>
       </c>
       <c r="W270" s="20">
-        <v>7.1030225539701997</v>
+        <v>7.1304327669664174</v>
       </c>
       <c r="X270" s="9"/>
       <c r="Y270" s="9"/>
@@ -26605,10 +26606,10 @@
         <v>48.617428003096094</v>
       </c>
       <c r="V271" s="20">
-        <v>45.381444473057883</v>
+        <v>45.375760833521454</v>
       </c>
       <c r="W271" s="20">
-        <v>45.179564256889357</v>
+        <v>44.902309318355911</v>
       </c>
       <c r="X271" s="9"/>
       <c r="Y271" s="9"/>
@@ -26748,10 +26749,10 @@
         <v>43.402055029883925</v>
       </c>
       <c r="V272" s="20">
-        <v>42.331232493222053</v>
+        <v>42.325930866766178</v>
       </c>
       <c r="W272" s="20">
-        <v>41.086394386306715</v>
+        <v>40.789720349068212</v>
       </c>
       <c r="X272" s="9"/>
       <c r="Y272" s="9"/>
@@ -26891,10 +26892,10 @@
         <v>4.2008194916300673E-2</v>
       </c>
       <c r="V273" s="20">
-        <v>0.20455079581208283</v>
+        <v>0.20452517756648081</v>
       </c>
       <c r="W273" s="20">
-        <v>0.55508063937626595</v>
+        <v>0.55370686032269134</v>
       </c>
       <c r="X273" s="9"/>
       <c r="Y273" s="9"/>
@@ -27034,10 +27035,10 @@
         <v>4.5973938008188604</v>
       </c>
       <c r="V274" s="20">
-        <v>2.1076965546187538</v>
+        <v>2.107432583570505</v>
       </c>
       <c r="W274" s="20">
-        <v>2.5942596750666205</v>
+        <v>2.6050146327337456</v>
       </c>
       <c r="X274" s="9"/>
       <c r="Y274" s="9"/>
@@ -27177,10 +27178,10 @@
         <v>0.57597097747701642</v>
       </c>
       <c r="V275" s="20">
-        <v>0.73796462940499186</v>
+        <v>0.7378722056182907</v>
       </c>
       <c r="W275" s="20">
-        <v>0.94382955613975472</v>
+        <v>0.95386747623126755</v>
       </c>
       <c r="X275" s="9"/>
       <c r="Y275" s="9"/>
@@ -27320,10 +27321,10 @@
         <v>17.585904157656124</v>
       </c>
       <c r="V276" s="20">
-        <v>18.60265154173613</v>
+        <v>18.612845866602374</v>
       </c>
       <c r="W276" s="20">
-        <v>19.952796391364657</v>
+        <v>20.171169921229371</v>
       </c>
       <c r="X276" s="9"/>
       <c r="Y276" s="9"/>
@@ -27463,10 +27464,10 @@
         <v>1.3279825659076607</v>
       </c>
       <c r="V277" s="20">
-        <v>1.5857267336596852</v>
+        <v>1.5855281348873886</v>
       </c>
       <c r="W277" s="20">
-        <v>1.7275458871620581</v>
+        <v>1.7350864353245214</v>
       </c>
       <c r="X277" s="9"/>
       <c r="Y277" s="9"/>
@@ -27606,10 +27607,10 @@
         <v>2.8529964939085337</v>
       </c>
       <c r="V278" s="20">
-        <v>3.0396257261751938</v>
+        <v>3.0517691875191049</v>
       </c>
       <c r="W278" s="20">
-        <v>3.3727106473474224</v>
+        <v>3.4199989476190811</v>
       </c>
       <c r="X278" s="9"/>
       <c r="Y278" s="9"/>
@@ -27749,10 +27750,10 @@
         <v>9.667595696359685</v>
       </c>
       <c r="V279" s="20">
-        <v>9.8069714117256392</v>
+        <v>9.8057431720542176</v>
       </c>
       <c r="W279" s="20">
-        <v>10.243735865714704</v>
+        <v>10.258491571069095</v>
       </c>
       <c r="X279" s="9"/>
       <c r="Y279" s="9"/>
@@ -27892,10 +27893,10 @@
         <v>3.7373294014802445</v>
       </c>
       <c r="V280" s="20">
-        <v>4.1703276701756122</v>
+        <v>4.1698053721416635</v>
       </c>
       <c r="W280" s="20">
-        <v>4.6088039911404719</v>
+        <v>4.7575929672166746</v>
       </c>
       <c r="X280" s="9"/>
       <c r="Y280" s="9"/>

--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482CE0C8-6F60-47CE-949A-71EE517B8BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1CF484-54E7-4FF8-BB84-DA5590860F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12225" yWindow="90" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$W$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$X$286</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="72">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -249,13 +249,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -263,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -339,46 +342,46 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -401,7 +404,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HFCE"/>
@@ -679,53 +682,53 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CQ286"/>
+  <dimension ref="A1:CP286"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="23" width="11.1796875" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="24" width="11.21875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>26</v>
@@ -751,8 +754,9 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>59</v>
       </c>
@@ -822,11 +826,14 @@
       <c r="W10" s="6">
         <v>2021</v>
       </c>
+      <c r="X10" s="6">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:95" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -896,7 +903,9 @@
       <c r="W12" s="8">
         <v>205318.68020001351</v>
       </c>
-      <c r="X12" s="9"/>
+      <c r="X12" s="8">
+        <v>209159.86524090887</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -967,9 +976,8 @@
       <c r="CN12" s="9"/>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
-      <c r="CQ12" s="9"/>
     </row>
-    <row r="13" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
@@ -1039,7 +1047,9 @@
       <c r="W13" s="11">
         <v>18032.444579501385</v>
       </c>
-      <c r="X13" s="9"/>
+      <c r="X13" s="11">
+        <v>11134.052753665672</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -1110,9 +1120,8 @@
       <c r="CN13" s="9"/>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
-      <c r="CQ13" s="9"/>
     </row>
-    <row r="14" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
@@ -1182,7 +1191,9 @@
       <c r="W14" s="11">
         <v>36575.646967153079</v>
       </c>
-      <c r="X14" s="9"/>
+      <c r="X14" s="11">
+        <v>41697.623385289546</v>
+      </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -1253,9 +1264,8 @@
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
-      <c r="CQ14" s="9"/>
     </row>
-    <row r="15" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1325,7 +1335,9 @@
       <c r="W15" s="11">
         <v>2329.8318291783062</v>
       </c>
-      <c r="X15" s="9"/>
+      <c r="X15" s="11">
+        <v>2983.6932814035736</v>
+      </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -1396,9 +1408,8 @@
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
-      <c r="CQ15" s="9"/>
     </row>
-    <row r="16" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
@@ -1468,7 +1479,9 @@
       <c r="W16" s="11">
         <v>1742.1442369072447</v>
       </c>
-      <c r="X16" s="9"/>
+      <c r="X16" s="11">
+        <v>1984.1375348910115</v>
+      </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -1539,9 +1552,8 @@
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
-      <c r="CQ16" s="9"/>
     </row>
-    <row r="17" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
@@ -1611,7 +1623,9 @@
       <c r="W17" s="11">
         <v>12380.745501841688</v>
       </c>
-      <c r="X17" s="9"/>
+      <c r="X17" s="11">
+        <v>12732.69948363707</v>
+      </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -1682,9 +1696,8 @@
       <c r="CN17" s="9"/>
       <c r="CO17" s="9"/>
       <c r="CP17" s="9"/>
-      <c r="CQ17" s="9"/>
     </row>
-    <row r="18" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1754,7 +1767,9 @@
       <c r="W18" s="11">
         <v>96089.349084185174</v>
       </c>
-      <c r="X18" s="9"/>
+      <c r="X18" s="11">
+        <v>99094.668385784797</v>
+      </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -1825,9 +1840,8 @@
       <c r="CN18" s="9"/>
       <c r="CO18" s="9"/>
       <c r="CP18" s="9"/>
-      <c r="CQ18" s="9"/>
     </row>
-    <row r="19" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1897,7 +1911,9 @@
       <c r="W19" s="11">
         <v>4504.6966770582194</v>
       </c>
-      <c r="X19" s="9"/>
+      <c r="X19" s="11">
+        <v>3217.1161232903978</v>
+      </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -1968,9 +1984,8 @@
       <c r="CN19" s="9"/>
       <c r="CO19" s="9"/>
       <c r="CP19" s="9"/>
-      <c r="CQ19" s="9"/>
     </row>
-    <row r="20" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -2040,7 +2055,9 @@
       <c r="W20" s="11">
         <v>33663.821324188415</v>
       </c>
-      <c r="X20" s="9"/>
+      <c r="X20" s="11">
+        <v>36315.874292946835</v>
+      </c>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
@@ -2111,9 +2128,8 @@
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
       <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
     </row>
-    <row r="21" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -2183,7 +2199,9 @@
       <c r="W21" s="8">
         <v>183537.64485921705</v>
       </c>
-      <c r="X21" s="9"/>
+      <c r="X21" s="8">
+        <v>227464.23371284865</v>
+      </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
@@ -2254,9 +2272,8 @@
       <c r="CN21" s="9"/>
       <c r="CO21" s="9"/>
       <c r="CP21" s="9"/>
-      <c r="CQ21" s="9"/>
     </row>
-    <row r="22" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
@@ -2326,7 +2343,9 @@
       <c r="W22" s="11">
         <v>32331.279368829804</v>
       </c>
-      <c r="X22" s="9"/>
+      <c r="X22" s="11">
+        <v>40650.451952323594</v>
+      </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
@@ -2397,9 +2416,8 @@
       <c r="CN22" s="9"/>
       <c r="CO22" s="9"/>
       <c r="CP22" s="9"/>
-      <c r="CQ22" s="9"/>
     </row>
-    <row r="23" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
@@ -2469,7 +2487,9 @@
       <c r="W23" s="11">
         <v>20415.053926613371</v>
       </c>
-      <c r="X23" s="9"/>
+      <c r="X23" s="11">
+        <v>23755.921757300777</v>
+      </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
@@ -2540,9 +2560,8 @@
       <c r="CN23" s="9"/>
       <c r="CO23" s="9"/>
       <c r="CP23" s="9"/>
-      <c r="CQ23" s="9"/>
     </row>
-    <row r="24" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
@@ -2612,7 +2631,9 @@
       <c r="W24" s="11">
         <v>54430.856976498326</v>
       </c>
-      <c r="X24" s="9"/>
+      <c r="X24" s="11">
+        <v>74518.472373658034</v>
+      </c>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
@@ -2683,9 +2704,8 @@
       <c r="CN24" s="9"/>
       <c r="CO24" s="9"/>
       <c r="CP24" s="9"/>
-      <c r="CQ24" s="9"/>
     </row>
-    <row r="25" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>12</v>
       </c>
@@ -2755,7 +2775,9 @@
       <c r="W25" s="11">
         <v>76360.454587275555</v>
       </c>
-      <c r="X25" s="9"/>
+      <c r="X25" s="11">
+        <v>88539.387629566249</v>
+      </c>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
@@ -2826,9 +2848,8 @@
       <c r="CN25" s="9"/>
       <c r="CO25" s="9"/>
       <c r="CP25" s="9"/>
-      <c r="CQ25" s="9"/>
     </row>
-    <row r="26" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -2898,7 +2919,9 @@
       <c r="W26" s="8">
         <v>467027.15305865934</v>
       </c>
-      <c r="X26" s="9"/>
+      <c r="X26" s="8">
+        <v>634411.6051268836</v>
+      </c>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
@@ -2969,9 +2992,8 @@
       <c r="CN26" s="9"/>
       <c r="CO26" s="9"/>
       <c r="CP26" s="9"/>
-      <c r="CQ26" s="9"/>
     </row>
-    <row r="27" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
@@ -3041,7 +3063,9 @@
       <c r="W27" s="11">
         <v>419548.48559260275</v>
       </c>
-      <c r="X27" s="9"/>
+      <c r="X27" s="11">
+        <v>561042.52841065126</v>
+      </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
@@ -3112,9 +3136,8 @@
       <c r="CN27" s="9"/>
       <c r="CO27" s="9"/>
       <c r="CP27" s="9"/>
-      <c r="CQ27" s="9"/>
     </row>
-    <row r="28" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>9</v>
       </c>
@@ -3184,7 +3207,9 @@
       <c r="W28" s="11">
         <v>6435.4496009412369</v>
       </c>
-      <c r="X28" s="9"/>
+      <c r="X28" s="11">
+        <v>2611.4308717989766</v>
+      </c>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
@@ -3255,9 +3280,8 @@
       <c r="CN28" s="9"/>
       <c r="CO28" s="9"/>
       <c r="CP28" s="9"/>
-      <c r="CQ28" s="9"/>
     </row>
-    <row r="29" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>8</v>
       </c>
@@ -3327,7 +3351,9 @@
       <c r="W29" s="11">
         <v>29787.629055614765</v>
       </c>
-      <c r="X29" s="9"/>
+      <c r="X29" s="11">
+        <v>38088.316270668845</v>
+      </c>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
@@ -3398,9 +3424,8 @@
       <c r="CN29" s="9"/>
       <c r="CO29" s="9"/>
       <c r="CP29" s="9"/>
-      <c r="CQ29" s="9"/>
     </row>
-    <row r="30" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
@@ -3470,7 +3495,9 @@
       <c r="W30" s="11">
         <v>11255.588809500638</v>
       </c>
-      <c r="X30" s="9"/>
+      <c r="X30" s="11">
+        <v>32669.329573764469</v>
+      </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
@@ -3541,9 +3568,8 @@
       <c r="CN30" s="9"/>
       <c r="CO30" s="9"/>
       <c r="CP30" s="9"/>
-      <c r="CQ30" s="9"/>
     </row>
-    <row r="31" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -3613,7 +3639,9 @@
       <c r="W31" s="8">
         <v>217063.29640972841</v>
       </c>
-      <c r="X31" s="9"/>
+      <c r="X31" s="8">
+        <v>247511.74726075958</v>
+      </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -3684,9 +3712,8 @@
       <c r="CN31" s="9"/>
       <c r="CO31" s="9"/>
       <c r="CP31" s="9"/>
-      <c r="CQ31" s="9"/>
     </row>
-    <row r="32" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>5</v>
       </c>
@@ -3756,7 +3783,9 @@
       <c r="W32" s="11">
         <v>19253.738396472792</v>
       </c>
-      <c r="X32" s="9"/>
+      <c r="X32" s="11">
+        <v>22938.474403081833</v>
+      </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
@@ -3827,9 +3856,8 @@
       <c r="CN32" s="9"/>
       <c r="CO32" s="9"/>
       <c r="CP32" s="9"/>
-      <c r="CQ32" s="9"/>
     </row>
-    <row r="33" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
@@ -3899,7 +3927,9 @@
       <c r="W33" s="11">
         <v>35062.527508360115</v>
       </c>
-      <c r="X33" s="9"/>
+      <c r="X33" s="11">
+        <v>37903.228236624353</v>
+      </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -3970,9 +4000,8 @@
       <c r="CN33" s="9"/>
       <c r="CO33" s="9"/>
       <c r="CP33" s="9"/>
-      <c r="CQ33" s="9"/>
     </row>
-    <row r="34" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>3</v>
       </c>
@@ -4042,7 +4071,9 @@
       <c r="W34" s="11">
         <v>111664.54789054772</v>
       </c>
-      <c r="X34" s="9"/>
+      <c r="X34" s="11">
+        <v>131303.45121719112</v>
+      </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -4113,9 +4144,8 @@
       <c r="CN34" s="9"/>
       <c r="CO34" s="9"/>
       <c r="CP34" s="9"/>
-      <c r="CQ34" s="9"/>
     </row>
-    <row r="35" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>2</v>
       </c>
@@ -4185,7 +4215,9 @@
       <c r="W35" s="11">
         <v>51082.482614347784</v>
       </c>
-      <c r="X35" s="9"/>
+      <c r="X35" s="11">
+        <v>55366.593403862273</v>
+      </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
@@ -4256,9 +4288,8 @@
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
-      <c r="CQ35" s="9"/>
     </row>
-    <row r="36" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -4352,9 +4383,8 @@
       <c r="CN36" s="9"/>
       <c r="CO36" s="9"/>
       <c r="CP36" s="9"/>
-      <c r="CQ36" s="9"/>
     </row>
-    <row r="37" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>1</v>
       </c>
@@ -4424,7 +4454,9 @@
       <c r="W37" s="13">
         <v>1072946.7745276184</v>
       </c>
-      <c r="X37" s="9"/>
+      <c r="X37" s="13">
+        <v>1318547.4513414009</v>
+      </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -4495,9 +4527,8 @@
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
       <c r="CP37" s="9"/>
-      <c r="CQ37" s="9"/>
     </row>
-    <row r="38" spans="1:95" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -4521,13 +4552,14 @@
       <c r="U38" s="14"/>
       <c r="V38" s="14"/>
       <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
     </row>
-    <row r="39" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -4621,9 +4653,8 @@
       <c r="CN40" s="9"/>
       <c r="CO40" s="9"/>
       <c r="CP40" s="9"/>
-      <c r="CQ40" s="9"/>
     </row>
-    <row r="41" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -4717,39 +4748,38 @@
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
       <c r="CP41" s="9"/>
-      <c r="CQ41" s="9"/>
     </row>
-    <row r="42" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>26</v>
@@ -4775,8 +4805,9 @@
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
     </row>
-    <row r="51" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>59</v>
       </c>
@@ -4846,11 +4877,14 @@
       <c r="W51" s="16">
         <v>2021</v>
       </c>
+      <c r="X51" s="16">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="52" spans="1:95" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>25</v>
       </c>
@@ -4920,7 +4954,9 @@
       <c r="W53" s="8">
         <v>205214.51346143242</v>
       </c>
-      <c r="X53" s="9"/>
+      <c r="X53" s="8">
+        <v>186120.21144514516</v>
+      </c>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
@@ -4991,9 +5027,8 @@
       <c r="CN53" s="9"/>
       <c r="CO53" s="9"/>
       <c r="CP53" s="9"/>
-      <c r="CQ53" s="9"/>
     </row>
-    <row r="54" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>24</v>
       </c>
@@ -5063,7 +5098,9 @@
       <c r="W54" s="11">
         <v>18461.098008060872</v>
       </c>
-      <c r="X54" s="9"/>
+      <c r="X54" s="11">
+        <v>9772.8552213206349</v>
+      </c>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
@@ -5134,9 +5171,8 @@
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
-      <c r="CQ54" s="9"/>
     </row>
-    <row r="55" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>23</v>
       </c>
@@ -5206,7 +5242,9 @@
       <c r="W55" s="11">
         <v>37238.480158801205</v>
       </c>
-      <c r="X55" s="9"/>
+      <c r="X55" s="11">
+        <v>36923.495719190425</v>
+      </c>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
@@ -5277,9 +5315,8 @@
       <c r="CN55" s="9"/>
       <c r="CO55" s="9"/>
       <c r="CP55" s="9"/>
-      <c r="CQ55" s="9"/>
     </row>
-    <row r="56" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>22</v>
       </c>
@@ -5349,7 +5386,9 @@
       <c r="W56" s="11">
         <v>2210.0849703596596</v>
       </c>
-      <c r="X56" s="9"/>
+      <c r="X56" s="11">
+        <v>2652.7670532863231</v>
+      </c>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
@@ -5420,9 +5459,8 @@
       <c r="CN56" s="9"/>
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>
-      <c r="CQ56" s="9"/>
     </row>
-    <row r="57" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>21</v>
       </c>
@@ -5492,7 +5530,9 @@
       <c r="W57" s="11">
         <v>1641.9332915867071</v>
       </c>
-      <c r="X57" s="9"/>
+      <c r="X57" s="11">
+        <v>1719.6787901554442</v>
+      </c>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
@@ -5563,9 +5603,8 @@
       <c r="CN57" s="9"/>
       <c r="CO57" s="9"/>
       <c r="CP57" s="9"/>
-      <c r="CQ57" s="9"/>
     </row>
-    <row r="58" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>20</v>
       </c>
@@ -5635,7 +5674,9 @@
       <c r="W58" s="11">
         <v>11904.664987915563</v>
       </c>
-      <c r="X58" s="9"/>
+      <c r="X58" s="11">
+        <v>10874.947323683014</v>
+      </c>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
@@ -5706,9 +5747,8 @@
       <c r="CN58" s="9"/>
       <c r="CO58" s="9"/>
       <c r="CP58" s="9"/>
-      <c r="CQ58" s="9"/>
     </row>
-    <row r="59" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>19</v>
       </c>
@@ -5778,7 +5818,9 @@
       <c r="W59" s="11">
         <v>96791.537860345037</v>
       </c>
-      <c r="X59" s="9"/>
+      <c r="X59" s="11">
+        <v>90140.283869531297</v>
+      </c>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
@@ -5849,9 +5891,8 @@
       <c r="CN59" s="9"/>
       <c r="CO59" s="9"/>
       <c r="CP59" s="9"/>
-      <c r="CQ59" s="9"/>
     </row>
-    <row r="60" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>18</v>
       </c>
@@ -5921,7 +5962,9 @@
       <c r="W60" s="11">
         <v>5066.4948791584193</v>
       </c>
-      <c r="X60" s="9"/>
+      <c r="X60" s="11">
+        <v>2961.2853948998154</v>
+      </c>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
@@ -5992,9 +6035,8 @@
       <c r="CN60" s="9"/>
       <c r="CO60" s="9"/>
       <c r="CP60" s="9"/>
-      <c r="CQ60" s="9"/>
     </row>
-    <row r="61" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>17</v>
       </c>
@@ -6064,7 +6106,9 @@
       <c r="W61" s="11">
         <v>31900.219305204962</v>
       </c>
-      <c r="X61" s="9"/>
+      <c r="X61" s="11">
+        <v>31074.898073078231</v>
+      </c>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
@@ -6135,9 +6179,8 @@
       <c r="CN61" s="9"/>
       <c r="CO61" s="9"/>
       <c r="CP61" s="9"/>
-      <c r="CQ61" s="9"/>
     </row>
-    <row r="62" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -6207,7 +6250,9 @@
       <c r="W62" s="8">
         <v>187113.62999497255</v>
       </c>
-      <c r="X62" s="9"/>
+      <c r="X62" s="8">
+        <v>205861.91483546872</v>
+      </c>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
@@ -6278,9 +6323,8 @@
       <c r="CN62" s="9"/>
       <c r="CO62" s="9"/>
       <c r="CP62" s="9"/>
-      <c r="CQ62" s="9"/>
     </row>
-    <row r="63" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>15</v>
       </c>
@@ -6350,7 +6394,9 @@
       <c r="W63" s="11">
         <v>32160.844497683342</v>
       </c>
-      <c r="X63" s="9"/>
+      <c r="X63" s="11">
+        <v>35100.051370311034</v>
+      </c>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
@@ -6421,9 +6467,8 @@
       <c r="CN63" s="9"/>
       <c r="CO63" s="9"/>
       <c r="CP63" s="9"/>
-      <c r="CQ63" s="9"/>
     </row>
-    <row r="64" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>14</v>
       </c>
@@ -6493,7 +6538,9 @@
       <c r="W64" s="11">
         <v>20442.086207847256</v>
       </c>
-      <c r="X64" s="9"/>
+      <c r="X64" s="11">
+        <v>20551.285752674015</v>
+      </c>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
@@ -6564,9 +6611,8 @@
       <c r="CN64" s="9"/>
       <c r="CO64" s="9"/>
       <c r="CP64" s="9"/>
-      <c r="CQ64" s="9"/>
     </row>
-    <row r="65" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>13</v>
       </c>
@@ -6636,7 +6682,9 @@
       <c r="W65" s="11">
         <v>54414.84695148826</v>
       </c>
-      <c r="X65" s="9"/>
+      <c r="X65" s="11">
+        <v>63432.16670592533</v>
+      </c>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
@@ -6707,9 +6755,8 @@
       <c r="CN65" s="9"/>
       <c r="CO65" s="9"/>
       <c r="CP65" s="9"/>
-      <c r="CQ65" s="9"/>
     </row>
-    <row r="66" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>12</v>
       </c>
@@ -6779,7 +6826,9 @@
       <c r="W66" s="11">
         <v>80095.852337953693</v>
       </c>
-      <c r="X66" s="9"/>
+      <c r="X66" s="11">
+        <v>86778.411006558337</v>
+      </c>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
@@ -6850,9 +6899,8 @@
       <c r="CN66" s="9"/>
       <c r="CO66" s="9"/>
       <c r="CP66" s="9"/>
-      <c r="CQ66" s="9"/>
     </row>
-    <row r="67" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -6922,7 +6970,9 @@
       <c r="W67" s="8">
         <v>504385.75810683268</v>
       </c>
-      <c r="X67" s="9"/>
+      <c r="X67" s="8">
+        <v>611132.73037015949</v>
+      </c>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
@@ -6993,9 +7043,8 @@
       <c r="CN67" s="9"/>
       <c r="CO67" s="9"/>
       <c r="CP67" s="9"/>
-      <c r="CQ67" s="9"/>
     </row>
-    <row r="68" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
@@ -7065,7 +7114,9 @@
       <c r="W68" s="11">
         <v>458189.21862934093</v>
       </c>
-      <c r="X68" s="9"/>
+      <c r="X68" s="11">
+        <v>544437.71211027098</v>
+      </c>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
@@ -7136,9 +7187,8 @@
       <c r="CN68" s="9"/>
       <c r="CO68" s="9"/>
       <c r="CP68" s="9"/>
-      <c r="CQ68" s="9"/>
     </row>
-    <row r="69" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>9</v>
       </c>
@@ -7208,7 +7258,9 @@
       <c r="W69" s="11">
         <v>6219.7659486222756</v>
       </c>
-      <c r="X69" s="9"/>
+      <c r="X69" s="11">
+        <v>2833.8852067384482</v>
+      </c>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
@@ -7279,9 +7331,8 @@
       <c r="CN69" s="9"/>
       <c r="CO69" s="9"/>
       <c r="CP69" s="9"/>
-      <c r="CQ69" s="9"/>
     </row>
-    <row r="70" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>8</v>
       </c>
@@ -7351,7 +7402,9 @@
       <c r="W70" s="11">
         <v>29262.020157918061</v>
       </c>
-      <c r="X70" s="9"/>
+      <c r="X70" s="11">
+        <v>33997.935298056596</v>
+      </c>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
@@ -7422,9 +7475,8 @@
       <c r="CN70" s="9"/>
       <c r="CO70" s="9"/>
       <c r="CP70" s="9"/>
-      <c r="CQ70" s="9"/>
     </row>
-    <row r="71" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>7</v>
       </c>
@@ -7494,7 +7546,9 @@
       <c r="W71" s="11">
         <v>10714.753370951459</v>
       </c>
-      <c r="X71" s="9"/>
+      <c r="X71" s="11">
+        <v>29863.197755093512</v>
+      </c>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
@@ -7565,9 +7619,8 @@
       <c r="CN71" s="9"/>
       <c r="CO71" s="9"/>
       <c r="CP71" s="9"/>
-      <c r="CQ71" s="9"/>
     </row>
-    <row r="72" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -7637,7 +7690,9 @@
       <c r="W72" s="8">
         <v>226581.90607719813</v>
       </c>
-      <c r="X72" s="9"/>
+      <c r="X72" s="8">
+        <v>224424.49895670213</v>
+      </c>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
@@ -7708,9 +7763,8 @@
       <c r="CN72" s="9"/>
       <c r="CO72" s="9"/>
       <c r="CP72" s="9"/>
-      <c r="CQ72" s="9"/>
     </row>
-    <row r="73" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>5</v>
       </c>
@@ -7780,7 +7834,9 @@
       <c r="W73" s="11">
         <v>19490.153186938234</v>
       </c>
-      <c r="X73" s="9"/>
+      <c r="X73" s="11">
+        <v>18489.156168059431</v>
+      </c>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
@@ -7851,9 +7907,8 @@
       <c r="CN73" s="9"/>
       <c r="CO73" s="9"/>
       <c r="CP73" s="9"/>
-      <c r="CQ73" s="9"/>
     </row>
-    <row r="74" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>4</v>
       </c>
@@ -7923,7 +7978,9 @@
       <c r="W74" s="11">
         <v>38416.70479995216</v>
       </c>
-      <c r="X74" s="9"/>
+      <c r="X74" s="11">
+        <v>36299.286290424716</v>
+      </c>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
@@ -7994,9 +8051,8 @@
       <c r="CN74" s="9"/>
       <c r="CO74" s="9"/>
       <c r="CP74" s="9"/>
-      <c r="CQ74" s="9"/>
     </row>
-    <row r="75" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>3</v>
       </c>
@@ -8066,7 +8122,9 @@
       <c r="W75" s="11">
         <v>115233.20574496663</v>
       </c>
-      <c r="X75" s="9"/>
+      <c r="X75" s="11">
+        <v>120156.50165212987</v>
+      </c>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
@@ -8137,9 +8195,8 @@
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
       <c r="CP75" s="9"/>
-      <c r="CQ75" s="9"/>
     </row>
-    <row r="76" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>2</v>
       </c>
@@ -8209,7 +8266,9 @@
       <c r="W76" s="11">
         <v>53441.842345341116</v>
       </c>
-      <c r="X76" s="9"/>
+      <c r="X76" s="11">
+        <v>49479.554846088096</v>
+      </c>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
@@ -8280,9 +8339,8 @@
       <c r="CN76" s="9"/>
       <c r="CO76" s="9"/>
       <c r="CP76" s="9"/>
-      <c r="CQ76" s="9"/>
     </row>
-    <row r="77" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -8376,9 +8434,8 @@
       <c r="CN77" s="9"/>
       <c r="CO77" s="9"/>
       <c r="CP77" s="9"/>
-      <c r="CQ77" s="9"/>
     </row>
-    <row r="78" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>1</v>
       </c>
@@ -8448,7 +8505,9 @@
       <c r="W78" s="13">
         <v>1123295.8076404359</v>
       </c>
-      <c r="X78" s="9"/>
+      <c r="X78" s="13">
+        <v>1227539.3556074756</v>
+      </c>
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
@@ -8519,9 +8578,8 @@
       <c r="CN78" s="9"/>
       <c r="CO78" s="9"/>
       <c r="CP78" s="9"/>
-      <c r="CQ78" s="9"/>
     </row>
-    <row r="79" spans="1:95" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -8545,13 +8603,14 @@
       <c r="U79" s="14"/>
       <c r="V79" s="14"/>
       <c r="W79" s="14"/>
+      <c r="X79" s="14"/>
     </row>
-    <row r="80" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:95" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:94" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -8646,9 +8705,8 @@
       <c r="CN81" s="17"/>
       <c r="CO81" s="17"/>
       <c r="CP81" s="17"/>
-      <c r="CQ81" s="17"/>
     </row>
-    <row r="82" spans="1:95" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:94" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -8743,39 +8801,38 @@
       <c r="CN82" s="17"/>
       <c r="CO82" s="17"/>
       <c r="CP82" s="17"/>
-      <c r="CQ82" s="17"/>
     </row>
-    <row r="83" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="5" t="s">
         <v>26</v>
@@ -8801,8 +8858,9 @@
       <c r="U91" s="5"/>
       <c r="V91" s="5"/>
       <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
     </row>
-    <row r="92" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>59</v>
       </c>
@@ -8869,12 +8927,15 @@
       <c r="V92" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="W92" s="16"/>
+      <c r="W92" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="X92" s="16"/>
     </row>
-    <row r="93" spans="1:95" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
     </row>
-    <row r="94" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>25</v>
       </c>
@@ -8941,8 +9002,10 @@
       <c r="V94" s="19">
         <v>20.535387632058686</v>
       </c>
-      <c r="W94" s="19"/>
-      <c r="X94" s="9"/>
+      <c r="W94" s="19">
+        <v>1.8708405085954212</v>
+      </c>
+      <c r="X94" s="19"/>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
@@ -9007,9 +9070,8 @@
       <c r="CH94" s="9"/>
       <c r="CI94" s="9"/>
       <c r="CJ94" s="9"/>
-      <c r="CK94" s="9"/>
     </row>
-    <row r="95" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>24</v>
       </c>
@@ -9076,8 +9138,10 @@
       <c r="V95" s="19">
         <v>54.394911773481027</v>
       </c>
-      <c r="W95" s="19"/>
-      <c r="X95" s="9"/>
+      <c r="W95" s="19">
+        <v>-38.255444487418799</v>
+      </c>
+      <c r="X95" s="19"/>
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
@@ -9142,9 +9206,8 @@
       <c r="CH95" s="9"/>
       <c r="CI95" s="9"/>
       <c r="CJ95" s="9"/>
-      <c r="CK95" s="9"/>
     </row>
-    <row r="96" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>23</v>
       </c>
@@ -9211,8 +9274,10 @@
       <c r="V96" s="19">
         <v>45.082386664752249</v>
       </c>
-      <c r="W96" s="19"/>
-      <c r="X96" s="9"/>
+      <c r="W96" s="19">
+        <v>14.003788976682443</v>
+      </c>
+      <c r="X96" s="19"/>
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
@@ -9277,9 +9342,8 @@
       <c r="CH96" s="9"/>
       <c r="CI96" s="9"/>
       <c r="CJ96" s="9"/>
-      <c r="CK96" s="9"/>
     </row>
-    <row r="97" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
         <v>22</v>
       </c>
@@ -9346,8 +9410,10 @@
       <c r="V97" s="19">
         <v>5.2863562882099728</v>
       </c>
-      <c r="W97" s="19"/>
-      <c r="X97" s="9"/>
+      <c r="W97" s="19">
+        <v>28.064748881719652</v>
+      </c>
+      <c r="X97" s="19"/>
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
@@ -9412,9 +9478,8 @@
       <c r="CH97" s="9"/>
       <c r="CI97" s="9"/>
       <c r="CJ97" s="9"/>
-      <c r="CK97" s="9"/>
     </row>
-    <row r="98" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
         <v>21</v>
       </c>
@@ -9481,8 +9546,10 @@
       <c r="V98" s="19">
         <v>-44.344729980746322</v>
       </c>
-      <c r="W98" s="19"/>
-      <c r="X98" s="9"/>
+      <c r="W98" s="19">
+        <v>13.890543208601798</v>
+      </c>
+      <c r="X98" s="19"/>
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
@@ -9547,9 +9614,8 @@
       <c r="CH98" s="9"/>
       <c r="CI98" s="9"/>
       <c r="CJ98" s="9"/>
-      <c r="CK98" s="9"/>
     </row>
-    <row r="99" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>20</v>
       </c>
@@ -9616,8 +9682,10 @@
       <c r="V99" s="19">
         <v>11.847782194650634</v>
       </c>
-      <c r="W99" s="19"/>
-      <c r="X99" s="9"/>
+      <c r="W99" s="19">
+        <v>2.8427527384601348</v>
+      </c>
+      <c r="X99" s="19"/>
       <c r="Y99" s="9"/>
       <c r="Z99" s="9"/>
       <c r="AA99" s="9"/>
@@ -9682,9 +9750,8 @@
       <c r="CH99" s="9"/>
       <c r="CI99" s="9"/>
       <c r="CJ99" s="9"/>
-      <c r="CK99" s="9"/>
     </row>
-    <row r="100" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>19</v>
       </c>
@@ -9751,8 +9818,10 @@
       <c r="V100" s="19">
         <v>9.8841291401488292</v>
       </c>
-      <c r="W100" s="19"/>
-      <c r="X100" s="9"/>
+      <c r="W100" s="19">
+        <v>3.1276299925464315</v>
+      </c>
+      <c r="X100" s="19"/>
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
@@ -9817,9 +9886,8 @@
       <c r="CH100" s="9"/>
       <c r="CI100" s="9"/>
       <c r="CJ100" s="9"/>
-      <c r="CK100" s="9"/>
     </row>
-    <row r="101" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>18</v>
       </c>
@@ -9886,8 +9954,10 @@
       <c r="V101" s="19">
         <v>-10.292713913712277</v>
       </c>
-      <c r="W101" s="19"/>
-      <c r="X101" s="9"/>
+      <c r="W101" s="19">
+        <v>-28.583068873988481</v>
+      </c>
+      <c r="X101" s="19"/>
       <c r="Y101" s="9"/>
       <c r="Z101" s="9"/>
       <c r="AA101" s="9"/>
@@ -9952,9 +10022,8 @@
       <c r="CH101" s="9"/>
       <c r="CI101" s="9"/>
       <c r="CJ101" s="9"/>
-      <c r="CK101" s="9"/>
     </row>
-    <row r="102" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
         <v>17</v>
       </c>
@@ -10021,8 +10090,10 @@
       <c r="V102" s="19">
         <v>37.016125507661314</v>
       </c>
-      <c r="W102" s="19"/>
-      <c r="X102" s="9"/>
+      <c r="W102" s="19">
+        <v>7.8780508701572955</v>
+      </c>
+      <c r="X102" s="19"/>
       <c r="Y102" s="9"/>
       <c r="Z102" s="9"/>
       <c r="AA102" s="9"/>
@@ -10087,9 +10158,8 @@
       <c r="CH102" s="9"/>
       <c r="CI102" s="9"/>
       <c r="CJ102" s="9"/>
-      <c r="CK102" s="9"/>
     </row>
-    <row r="103" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>16</v>
       </c>
@@ -10156,8 +10226,10 @@
       <c r="V103" s="19">
         <v>1.9499383266276453</v>
       </c>
-      <c r="W103" s="19"/>
-      <c r="X103" s="9"/>
+      <c r="W103" s="19">
+        <v>23.933285668629779</v>
+      </c>
+      <c r="X103" s="19"/>
       <c r="Y103" s="9"/>
       <c r="Z103" s="9"/>
       <c r="AA103" s="9"/>
@@ -10222,9 +10294,8 @@
       <c r="CH103" s="9"/>
       <c r="CI103" s="9"/>
       <c r="CJ103" s="9"/>
-      <c r="CK103" s="9"/>
     </row>
-    <row r="104" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
         <v>15</v>
       </c>
@@ -10291,8 +10362,10 @@
       <c r="V104" s="19">
         <v>3.4044995140533558</v>
       </c>
-      <c r="W104" s="19"/>
-      <c r="X104" s="9"/>
+      <c r="W104" s="19">
+        <v>25.73103429836496</v>
+      </c>
+      <c r="X104" s="19"/>
       <c r="Y104" s="9"/>
       <c r="Z104" s="9"/>
       <c r="AA104" s="9"/>
@@ -10357,9 +10430,8 @@
       <c r="CH104" s="9"/>
       <c r="CI104" s="9"/>
       <c r="CJ104" s="9"/>
-      <c r="CK104" s="9"/>
     </row>
-    <row r="105" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>14</v>
       </c>
@@ -10426,8 +10498,10 @@
       <c r="V105" s="19">
         <v>11.056388204625051</v>
       </c>
-      <c r="W105" s="19"/>
-      <c r="X105" s="9"/>
+      <c r="W105" s="19">
+        <v>16.364726944621012</v>
+      </c>
+      <c r="X105" s="19"/>
       <c r="Y105" s="9"/>
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
@@ -10492,9 +10566,8 @@
       <c r="CH105" s="9"/>
       <c r="CI105" s="9"/>
       <c r="CJ105" s="9"/>
-      <c r="CK105" s="9"/>
     </row>
-    <row r="106" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
         <v>13</v>
       </c>
@@ -10561,8 +10634,10 @@
       <c r="V106" s="19">
         <v>1.6296067667183252</v>
       </c>
-      <c r="W106" s="19"/>
-      <c r="X106" s="9"/>
+      <c r="W106" s="19">
+        <v>36.90483029843341</v>
+      </c>
+      <c r="X106" s="19"/>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
@@ -10627,9 +10702,8 @@
       <c r="CH106" s="9"/>
       <c r="CI106" s="9"/>
       <c r="CJ106" s="9"/>
-      <c r="CK106" s="9"/>
     </row>
-    <row r="107" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>12</v>
       </c>
@@ -10696,8 +10770,10 @@
       <c r="V107" s="19">
         <v>-0.59788795521824056</v>
       </c>
-      <c r="W107" s="19"/>
-      <c r="X107" s="9"/>
+      <c r="W107" s="19">
+        <v>15.949267337546928</v>
+      </c>
+      <c r="X107" s="19"/>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
@@ -10762,9 +10838,8 @@
       <c r="CH107" s="9"/>
       <c r="CI107" s="9"/>
       <c r="CJ107" s="9"/>
-      <c r="CK107" s="9"/>
     </row>
-    <row r="108" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -10831,8 +10906,10 @@
       <c r="V108" s="19">
         <v>14.55378663134826</v>
       </c>
-      <c r="W108" s="19"/>
-      <c r="X108" s="9"/>
+      <c r="W108" s="19">
+        <v>35.840411199217897</v>
+      </c>
+      <c r="X108" s="19"/>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
@@ -10897,9 +10974,8 @@
       <c r="CH108" s="9"/>
       <c r="CI108" s="9"/>
       <c r="CJ108" s="9"/>
-      <c r="CK108" s="9"/>
     </row>
-    <row r="109" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>10</v>
       </c>
@@ -10966,8 +11042,10 @@
       <c r="V109" s="19">
         <v>11.151523154819174</v>
       </c>
-      <c r="W109" s="19"/>
-      <c r="X109" s="9"/>
+      <c r="W109" s="19">
+        <v>33.725313682920671</v>
+      </c>
+      <c r="X109" s="19"/>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
@@ -11032,9 +11110,8 @@
       <c r="CH109" s="9"/>
       <c r="CI109" s="9"/>
       <c r="CJ109" s="9"/>
-      <c r="CK109" s="9"/>
     </row>
-    <row r="110" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>9</v>
       </c>
@@ -11101,8 +11178,10 @@
       <c r="V110" s="19">
         <v>217.58854020709344</v>
       </c>
-      <c r="W110" s="19"/>
-      <c r="X110" s="9"/>
+      <c r="W110" s="19">
+        <v>-59.421158835320014</v>
+      </c>
+      <c r="X110" s="19"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
@@ -11167,9 +11246,8 @@
       <c r="CH110" s="9"/>
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
-      <c r="CK110" s="9"/>
     </row>
-    <row r="111" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>8</v>
       </c>
@@ -11236,8 +11314,10 @@
       <c r="V111" s="19">
         <v>37.209458364541263</v>
       </c>
-      <c r="W111" s="19"/>
-      <c r="X111" s="9"/>
+      <c r="W111" s="19">
+        <v>27.866223255151823</v>
+      </c>
+      <c r="X111" s="19"/>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
@@ -11302,9 +11382,8 @@
       <c r="CH111" s="9"/>
       <c r="CI111" s="9"/>
       <c r="CJ111" s="9"/>
-      <c r="CK111" s="9"/>
     </row>
-    <row r="112" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>7</v>
       </c>
@@ -11371,8 +11450,10 @@
       <c r="V112" s="19">
         <v>73.158706643459794</v>
       </c>
-      <c r="W112" s="19"/>
-      <c r="X112" s="9"/>
+      <c r="W112" s="19">
+        <v>190.24984944536072</v>
+      </c>
+      <c r="X112" s="19"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
@@ -11437,9 +11518,8 @@
       <c r="CH112" s="9"/>
       <c r="CI112" s="9"/>
       <c r="CJ112" s="9"/>
-      <c r="CK112" s="9"/>
     </row>
-    <row r="113" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
@@ -11506,8 +11586,10 @@
       <c r="V113" s="19">
         <v>16.782692847487439</v>
       </c>
-      <c r="W113" s="19"/>
-      <c r="X113" s="9"/>
+      <c r="W113" s="19">
+        <v>14.027452524058575</v>
+      </c>
+      <c r="X113" s="19"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
@@ -11572,9 +11654,8 @@
       <c r="CH113" s="9"/>
       <c r="CI113" s="9"/>
       <c r="CJ113" s="9"/>
-      <c r="CK113" s="9"/>
     </row>
-    <row r="114" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>5</v>
       </c>
@@ -11641,8 +11722,10 @@
       <c r="V114" s="19">
         <v>2.1487421609443373</v>
       </c>
-      <c r="W114" s="19"/>
-      <c r="X114" s="9"/>
+      <c r="W114" s="19">
+        <v>19.137769147648072</v>
+      </c>
+      <c r="X114" s="19"/>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
@@ -11707,9 +11790,8 @@
       <c r="CH114" s="9"/>
       <c r="CI114" s="9"/>
       <c r="CJ114" s="9"/>
-      <c r="CK114" s="9"/>
     </row>
-    <row r="115" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>4</v>
       </c>
@@ -11776,8 +11858,10 @@
       <c r="V115" s="19">
         <v>20.563286161567888</v>
       </c>
-      <c r="W115" s="19"/>
-      <c r="X115" s="9"/>
+      <c r="W115" s="19">
+        <v>8.1018139025685514</v>
+      </c>
+      <c r="X115" s="19"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
@@ -11842,9 +11926,8 @@
       <c r="CH115" s="9"/>
       <c r="CI115" s="9"/>
       <c r="CJ115" s="9"/>
-      <c r="CK115" s="9"/>
     </row>
-    <row r="116" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>3</v>
       </c>
@@ -11911,8 +11994,10 @@
       <c r="V116" s="19">
         <v>13.94660013615028</v>
       </c>
-      <c r="W116" s="19"/>
-      <c r="X116" s="9"/>
+      <c r="W116" s="19">
+        <v>17.58741131150525</v>
+      </c>
+      <c r="X116" s="19"/>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
@@ -11977,9 +12062,8 @@
       <c r="CH116" s="9"/>
       <c r="CI116" s="9"/>
       <c r="CJ116" s="9"/>
-      <c r="CK116" s="9"/>
     </row>
-    <row r="117" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>2</v>
       </c>
@@ -12046,8 +12130,10 @@
       <c r="V117" s="19">
         <v>27.894351088019391</v>
       </c>
-      <c r="W117" s="19"/>
-      <c r="X117" s="9"/>
+      <c r="W117" s="19">
+        <v>8.3866534480279853</v>
+      </c>
+      <c r="X117" s="19"/>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
@@ -12112,9 +12198,8 @@
       <c r="CH117" s="9"/>
       <c r="CI117" s="9"/>
       <c r="CJ117" s="9"/>
-      <c r="CK117" s="9"/>
     </row>
-    <row r="118" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -12202,9 +12287,8 @@
       <c r="CH118" s="9"/>
       <c r="CI118" s="9"/>
       <c r="CJ118" s="9"/>
-      <c r="CK118" s="9"/>
     </row>
-    <row r="119" spans="1:89" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>1</v>
       </c>
@@ -12271,8 +12355,10 @@
       <c r="V119" s="20">
         <v>13.668283836707886</v>
       </c>
-      <c r="W119" s="20"/>
-      <c r="X119" s="9"/>
+      <c r="W119" s="20">
+        <v>22.89029452760245</v>
+      </c>
+      <c r="X119" s="20"/>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
@@ -12337,9 +12423,8 @@
       <c r="CH119" s="9"/>
       <c r="CI119" s="9"/>
       <c r="CJ119" s="9"/>
-      <c r="CK119" s="9"/>
     </row>
-    <row r="120" spans="1:89" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:88" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -12363,13 +12448,14 @@
       <c r="U120" s="14"/>
       <c r="V120" s="14"/>
       <c r="W120" s="14"/>
+      <c r="X120" s="14"/>
     </row>
-    <row r="121" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
         <v>0</v>
       </c>
@@ -12460,9 +12546,8 @@
       <c r="CH122" s="9"/>
       <c r="CI122" s="9"/>
       <c r="CJ122" s="9"/>
-      <c r="CK122" s="9"/>
     </row>
-    <row r="123" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -12550,39 +12635,38 @@
       <c r="CH123" s="9"/>
       <c r="CI123" s="9"/>
       <c r="CJ123" s="9"/>
-      <c r="CK123" s="9"/>
     </row>
-    <row r="124" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="5" t="s">
         <v>26</v>
@@ -12608,8 +12692,9 @@
       <c r="U132" s="5"/>
       <c r="V132" s="5"/>
       <c r="W132" s="5"/>
+      <c r="X132" s="5"/>
     </row>
-    <row r="133" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>59</v>
       </c>
@@ -12676,12 +12761,15 @@
       <c r="V133" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="W133" s="21"/>
+      <c r="W133" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="X133" s="21"/>
     </row>
-    <row r="134" spans="1:89" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:88" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
     </row>
-    <row r="135" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>25</v>
       </c>
@@ -12748,8 +12836,10 @@
       <c r="V135" s="19">
         <v>16.106862542856561</v>
       </c>
-      <c r="W135" s="19"/>
-      <c r="X135" s="9"/>
+      <c r="W135" s="19">
+        <v>-9.3045573113793409</v>
+      </c>
+      <c r="X135" s="19"/>
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
@@ -12814,9 +12904,8 @@
       <c r="CH135" s="9"/>
       <c r="CI135" s="9"/>
       <c r="CJ135" s="9"/>
-      <c r="CK135" s="9"/>
     </row>
-    <row r="136" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>24</v>
       </c>
@@ -12883,8 +12972,10 @@
       <c r="V136" s="19">
         <v>32.1427588374126</v>
       </c>
-      <c r="W136" s="19"/>
-      <c r="X136" s="9"/>
+      <c r="W136" s="19">
+        <v>-47.062437905625089</v>
+      </c>
+      <c r="X136" s="19"/>
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
@@ -12949,9 +13040,8 @@
       <c r="CH136" s="9"/>
       <c r="CI136" s="9"/>
       <c r="CJ136" s="9"/>
-      <c r="CK136" s="9"/>
     </row>
-    <row r="137" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>23</v>
       </c>
@@ -13018,8 +13108,10 @@
       <c r="V137" s="19">
         <v>44.106730243479689</v>
       </c>
-      <c r="W137" s="19"/>
-      <c r="X137" s="9"/>
+      <c r="W137" s="19">
+        <v>-0.84585739876479238</v>
+      </c>
+      <c r="X137" s="19"/>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
@@ -13084,9 +13176,8 @@
       <c r="CH137" s="9"/>
       <c r="CI137" s="9"/>
       <c r="CJ137" s="9"/>
-      <c r="CK137" s="9"/>
     </row>
-    <row r="138" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>22</v>
       </c>
@@ -13153,8 +13244,10 @@
       <c r="V138" s="19">
         <v>-1.6507986751624202</v>
       </c>
-      <c r="W138" s="19"/>
-      <c r="X138" s="9"/>
+      <c r="W138" s="19">
+        <v>20.030093361280279</v>
+      </c>
+      <c r="X138" s="19"/>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
@@ -13219,9 +13312,8 @@
       <c r="CH138" s="9"/>
       <c r="CI138" s="9"/>
       <c r="CJ138" s="9"/>
-      <c r="CK138" s="9"/>
     </row>
-    <row r="139" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>21</v>
       </c>
@@ -13288,8 +13380,10 @@
       <c r="V139" s="19">
         <v>-42.394338594235691</v>
       </c>
-      <c r="W139" s="19"/>
-      <c r="X139" s="9"/>
+      <c r="W139" s="19">
+        <v>4.7349973940540764</v>
+      </c>
+      <c r="X139" s="19"/>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
@@ -13354,9 +13448,8 @@
       <c r="CH139" s="9"/>
       <c r="CI139" s="9"/>
       <c r="CJ139" s="9"/>
-      <c r="CK139" s="9"/>
     </row>
-    <row r="140" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>20</v>
       </c>
@@ -13423,8 +13516,10 @@
       <c r="V140" s="19">
         <v>6.7395442022460088</v>
       </c>
-      <c r="W140" s="19"/>
-      <c r="X140" s="9"/>
+      <c r="W140" s="19">
+        <v>-8.6496987968818502</v>
+      </c>
+      <c r="X140" s="19"/>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
@@ -13489,9 +13584,8 @@
       <c r="CH140" s="9"/>
       <c r="CI140" s="9"/>
       <c r="CJ140" s="9"/>
-      <c r="CK140" s="9"/>
     </row>
-    <row r="141" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>19</v>
       </c>
@@ -13558,8 +13652,10 @@
       <c r="V141" s="19">
         <v>8.3166500217607364</v>
       </c>
-      <c r="W141" s="19"/>
-      <c r="X141" s="9"/>
+      <c r="W141" s="19">
+        <v>-6.8717308742531316</v>
+      </c>
+      <c r="X141" s="19"/>
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
@@ -13624,9 +13720,8 @@
       <c r="CH141" s="9"/>
       <c r="CI141" s="9"/>
       <c r="CJ141" s="9"/>
-      <c r="CK141" s="9"/>
     </row>
-    <row r="142" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>18</v>
       </c>
@@ -13693,8 +13788,10 @@
       <c r="V142" s="19">
         <v>-12.365964984535466</v>
       </c>
-      <c r="W142" s="19"/>
-      <c r="X142" s="9"/>
+      <c r="W142" s="19">
+        <v>-41.551596014013811</v>
+      </c>
+      <c r="X142" s="19"/>
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
@@ -13759,9 +13856,8 @@
       <c r="CH142" s="9"/>
       <c r="CI142" s="9"/>
       <c r="CJ142" s="9"/>
-      <c r="CK142" s="9"/>
     </row>
-    <row r="143" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>17</v>
       </c>
@@ -13828,8 +13924,10 @@
       <c r="V143" s="19">
         <v>24.887998332744559</v>
       </c>
-      <c r="W143" s="19"/>
-      <c r="X143" s="9"/>
+      <c r="W143" s="19">
+        <v>-2.587196107432618</v>
+      </c>
+      <c r="X143" s="19"/>
       <c r="Y143" s="9"/>
       <c r="Z143" s="9"/>
       <c r="AA143" s="9"/>
@@ -13894,9 +13992,8 @@
       <c r="CH143" s="9"/>
       <c r="CI143" s="9"/>
       <c r="CJ143" s="9"/>
-      <c r="CK143" s="9"/>
     </row>
-    <row r="144" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>16</v>
       </c>
@@ -13963,8 +14060,10 @@
       <c r="V144" s="19">
         <v>1.7276830876739098</v>
       </c>
-      <c r="W144" s="19"/>
-      <c r="X144" s="9"/>
+      <c r="W144" s="19">
+        <v>10.01973230971997</v>
+      </c>
+      <c r="X144" s="19"/>
       <c r="Y144" s="9"/>
       <c r="Z144" s="9"/>
       <c r="AA144" s="9"/>
@@ -14029,9 +14128,8 @@
       <c r="CH144" s="9"/>
       <c r="CI144" s="9"/>
       <c r="CJ144" s="9"/>
-      <c r="CK144" s="9"/>
     </row>
-    <row r="145" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>15</v>
       </c>
@@ -14098,8 +14196,10 @@
       <c r="V145" s="19">
         <v>-0.57874144010476414</v>
       </c>
-      <c r="W145" s="19"/>
-      <c r="X145" s="9"/>
+      <c r="W145" s="19">
+        <v>9.139084867125959</v>
+      </c>
+      <c r="X145" s="19"/>
       <c r="Y145" s="9"/>
       <c r="Z145" s="9"/>
       <c r="AA145" s="9"/>
@@ -14164,9 +14264,8 @@
       <c r="CH145" s="9"/>
       <c r="CI145" s="9"/>
       <c r="CJ145" s="9"/>
-      <c r="CK145" s="9"/>
     </row>
-    <row r="146" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>14</v>
       </c>
@@ -14233,8 +14332,10 @@
       <c r="V146" s="19">
         <v>7.8623598893647682</v>
       </c>
-      <c r="W146" s="19"/>
-      <c r="X146" s="9"/>
+      <c r="W146" s="19">
+        <v>0.53418982640253887</v>
+      </c>
+      <c r="X146" s="19"/>
       <c r="Y146" s="9"/>
       <c r="Z146" s="9"/>
       <c r="AA146" s="9"/>
@@ -14299,9 +14400,8 @@
       <c r="CH146" s="9"/>
       <c r="CI146" s="9"/>
       <c r="CJ146" s="9"/>
-      <c r="CK146" s="9"/>
     </row>
-    <row r="147" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>13</v>
       </c>
@@ -14368,8 +14468,10 @@
       <c r="V147" s="19">
         <v>-4.981781270026886E-2</v>
       </c>
-      <c r="W147" s="19"/>
-      <c r="X147" s="9"/>
+      <c r="W147" s="19">
+        <v>16.571432724006669</v>
+      </c>
+      <c r="X147" s="19"/>
       <c r="Y147" s="9"/>
       <c r="Z147" s="9"/>
       <c r="AA147" s="9"/>
@@ -14434,9 +14536,8 @@
       <c r="CH147" s="9"/>
       <c r="CI147" s="9"/>
       <c r="CJ147" s="9"/>
-      <c r="CK147" s="9"/>
     </row>
-    <row r="148" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>12</v>
       </c>
@@ -14503,8 +14604,10 @@
       <c r="V148" s="19">
         <v>2.4325287464431966</v>
       </c>
-      <c r="W148" s="19"/>
-      <c r="X148" s="9"/>
+      <c r="W148" s="19">
+        <v>8.3432018931623162</v>
+      </c>
+      <c r="X148" s="19"/>
       <c r="Y148" s="9"/>
       <c r="Z148" s="9"/>
       <c r="AA148" s="9"/>
@@ -14569,9 +14672,8 @@
       <c r="CH148" s="9"/>
       <c r="CI148" s="9"/>
       <c r="CJ148" s="9"/>
-      <c r="CK148" s="9"/>
     </row>
-    <row r="149" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>11</v>
       </c>
@@ -14638,8 +14740,10 @@
       <c r="V149" s="19">
         <v>10.982448086112527</v>
       </c>
-      <c r="W149" s="19"/>
-      <c r="X149" s="9"/>
+      <c r="W149" s="19">
+        <v>21.163756221823576</v>
+      </c>
+      <c r="X149" s="19"/>
       <c r="Y149" s="9"/>
       <c r="Z149" s="9"/>
       <c r="AA149" s="9"/>
@@ -14704,9 +14808,8 @@
       <c r="CH149" s="9"/>
       <c r="CI149" s="9"/>
       <c r="CJ149" s="9"/>
-      <c r="CK149" s="9"/>
     </row>
-    <row r="150" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>10</v>
       </c>
@@ -14773,8 +14876,10 @@
       <c r="V150" s="19">
         <v>8.0820946514668037</v>
       </c>
-      <c r="W150" s="19"/>
-      <c r="X150" s="9"/>
+      <c r="W150" s="19">
+        <v>18.823771920897613</v>
+      </c>
+      <c r="X150" s="19"/>
       <c r="Y150" s="9"/>
       <c r="Z150" s="9"/>
       <c r="AA150" s="9"/>
@@ -14839,9 +14944,8 @@
       <c r="CH150" s="9"/>
       <c r="CI150" s="9"/>
       <c r="CJ150" s="9"/>
-      <c r="CK150" s="9"/>
     </row>
-    <row r="151" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
         <v>9</v>
       </c>
@@ -14908,8 +15012,10 @@
       <c r="V151" s="19">
         <v>203.6285944805802</v>
       </c>
-      <c r="W151" s="19"/>
-      <c r="X151" s="9"/>
+      <c r="W151" s="19">
+        <v>-54.437430119598389</v>
+      </c>
+      <c r="X151" s="19"/>
       <c r="Y151" s="9"/>
       <c r="Z151" s="9"/>
       <c r="AA151" s="9"/>
@@ -14974,9 +15080,8 @@
       <c r="CH151" s="9"/>
       <c r="CI151" s="9"/>
       <c r="CJ151" s="9"/>
-      <c r="CK151" s="9"/>
     </row>
-    <row r="152" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>8</v>
       </c>
@@ -15043,8 +15148,10 @@
       <c r="V152" s="19">
         <v>38.632807968514527</v>
       </c>
-      <c r="W152" s="19"/>
-      <c r="X152" s="9"/>
+      <c r="W152" s="19">
+        <v>16.184511918795309</v>
+      </c>
+      <c r="X152" s="19"/>
       <c r="Y152" s="9"/>
       <c r="Z152" s="9"/>
       <c r="AA152" s="9"/>
@@ -15109,9 +15216,8 @@
       <c r="CH152" s="9"/>
       <c r="CI152" s="9"/>
       <c r="CJ152" s="9"/>
-      <c r="CK152" s="9"/>
     </row>
-    <row r="153" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>7</v>
       </c>
@@ -15178,8 +15284,10 @@
       <c r="V153" s="19">
         <v>44.982783253270355</v>
       </c>
-      <c r="W153" s="19"/>
-      <c r="X153" s="9"/>
+      <c r="W153" s="19">
+        <v>178.71101388161668</v>
+      </c>
+      <c r="X153" s="19"/>
       <c r="Y153" s="9"/>
       <c r="Z153" s="9"/>
       <c r="AA153" s="9"/>
@@ -15244,9 +15352,8 @@
       <c r="CH153" s="9"/>
       <c r="CI153" s="9"/>
       <c r="CJ153" s="9"/>
-      <c r="CK153" s="9"/>
     </row>
-    <row r="154" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>6</v>
       </c>
@@ -15313,8 +15420,10 @@
       <c r="V154" s="19">
         <v>21.542411859208926</v>
       </c>
-      <c r="W154" s="19"/>
-      <c r="X154" s="9"/>
+      <c r="W154" s="19">
+        <v>-0.95215331084776267</v>
+      </c>
+      <c r="X154" s="19"/>
       <c r="Y154" s="9"/>
       <c r="Z154" s="9"/>
       <c r="AA154" s="9"/>
@@ -15379,9 +15488,8 @@
       <c r="CH154" s="9"/>
       <c r="CI154" s="9"/>
       <c r="CJ154" s="9"/>
-      <c r="CK154" s="9"/>
     </row>
-    <row r="155" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>5</v>
       </c>
@@ -15448,8 +15556,10 @@
       <c r="V155" s="19">
         <v>22.731687291277709</v>
       </c>
-      <c r="W155" s="19"/>
-      <c r="X155" s="9"/>
+      <c r="W155" s="19">
+        <v>-5.1359114999139308</v>
+      </c>
+      <c r="X155" s="19"/>
       <c r="Y155" s="9"/>
       <c r="Z155" s="9"/>
       <c r="AA155" s="9"/>
@@ -15514,9 +15624,8 @@
       <c r="CH155" s="9"/>
       <c r="CI155" s="9"/>
       <c r="CJ155" s="9"/>
-      <c r="CK155" s="9"/>
     </row>
-    <row r="156" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>4</v>
       </c>
@@ -15583,8 +15692,10 @@
       <c r="V156" s="19">
         <v>25.685110650050007</v>
       </c>
-      <c r="W156" s="19"/>
-      <c r="X156" s="9"/>
+      <c r="W156" s="19">
+        <v>-5.5117129919224084</v>
+      </c>
+      <c r="X156" s="19"/>
       <c r="Y156" s="9"/>
       <c r="Z156" s="9"/>
       <c r="AA156" s="9"/>
@@ -15649,9 +15760,8 @@
       <c r="CH156" s="9"/>
       <c r="CI156" s="9"/>
       <c r="CJ156" s="9"/>
-      <c r="CK156" s="9"/>
     </row>
-    <row r="157" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>3</v>
       </c>
@@ -15718,8 +15828,10 @@
       <c r="V157" s="19">
         <v>17.330935924654042</v>
       </c>
-      <c r="W157" s="19"/>
-      <c r="X157" s="9"/>
+      <c r="W157" s="19">
+        <v>4.272462850733703</v>
+      </c>
+      <c r="X157" s="19"/>
       <c r="Y157" s="9"/>
       <c r="Z157" s="9"/>
       <c r="AA157" s="9"/>
@@ -15784,9 +15896,8 @@
       <c r="CH157" s="9"/>
       <c r="CI157" s="9"/>
       <c r="CJ157" s="9"/>
-      <c r="CK157" s="9"/>
     </row>
-    <row r="158" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>2</v>
       </c>
@@ -15853,8 +15964,10 @@
       <c r="V158" s="19">
         <v>27.962006737098122</v>
       </c>
-      <c r="W158" s="19"/>
-      <c r="X158" s="9"/>
+      <c r="W158" s="19">
+        <v>-7.4142045359303381</v>
+      </c>
+      <c r="X158" s="19"/>
       <c r="Y158" s="9"/>
       <c r="Z158" s="9"/>
       <c r="AA158" s="9"/>
@@ -15919,9 +16032,8 @@
       <c r="CH158" s="9"/>
       <c r="CI158" s="9"/>
       <c r="CJ158" s="9"/>
-      <c r="CK158" s="9"/>
     </row>
-    <row r="159" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -16009,9 +16121,8 @@
       <c r="CH159" s="9"/>
       <c r="CI159" s="9"/>
       <c r="CJ159" s="9"/>
-      <c r="CK159" s="9"/>
     </row>
-    <row r="160" spans="1:89" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
         <v>1</v>
       </c>
@@ -16078,8 +16189,10 @@
       <c r="V160" s="20">
         <v>12.152650888614545</v>
       </c>
-      <c r="W160" s="20"/>
-      <c r="X160" s="9"/>
+      <c r="W160" s="20">
+        <v>9.2801510748990381</v>
+      </c>
+      <c r="X160" s="20"/>
       <c r="Y160" s="9"/>
       <c r="Z160" s="9"/>
       <c r="AA160" s="9"/>
@@ -16144,9 +16257,8 @@
       <c r="CH160" s="9"/>
       <c r="CI160" s="9"/>
       <c r="CJ160" s="9"/>
-      <c r="CK160" s="9"/>
     </row>
-    <row r="161" spans="1:95" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -16170,13 +16282,14 @@
       <c r="U161" s="14"/>
       <c r="V161" s="14"/>
       <c r="W161" s="14"/>
+      <c r="X161" s="14"/>
     </row>
-    <row r="162" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
         <v>0</v>
       </c>
@@ -16267,9 +16380,8 @@
       <c r="CH163" s="9"/>
       <c r="CI163" s="9"/>
       <c r="CJ163" s="9"/>
-      <c r="CK163" s="9"/>
     </row>
-    <row r="164" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -16363,34 +16475,33 @@
       <c r="CN164" s="9"/>
       <c r="CO164" s="9"/>
       <c r="CP164" s="9"/>
-      <c r="CQ164" s="9"/>
     </row>
-    <row r="165" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="168" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="170" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="5" t="s">
         <v>26</v>
@@ -16416,8 +16527,9 @@
       <c r="U172" s="5"/>
       <c r="V172" s="5"/>
       <c r="W172" s="5"/>
+      <c r="X172" s="5"/>
     </row>
-    <row r="173" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>59</v>
       </c>
@@ -16487,11 +16599,14 @@
       <c r="W173" s="16">
         <v>2021</v>
       </c>
+      <c r="X173" s="16">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="174" spans="1:95" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
     </row>
-    <row r="175" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>25</v>
       </c>
@@ -16561,7 +16676,9 @@
       <c r="W175" s="17">
         <v>100.05075992766012</v>
       </c>
-      <c r="X175" s="9"/>
+      <c r="X175" s="17">
+        <v>112.37891017685317</v>
+      </c>
       <c r="Y175" s="9"/>
       <c r="Z175" s="9"/>
       <c r="AA175" s="9"/>
@@ -16632,9 +16749,8 @@
       <c r="CN175" s="9"/>
       <c r="CO175" s="9"/>
       <c r="CP175" s="9"/>
-      <c r="CQ175" s="9"/>
     </row>
-    <row r="176" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>24</v>
       </c>
@@ -16704,7 +16820,9 @@
       <c r="W176" s="17">
         <v>97.678071865647865</v>
       </c>
-      <c r="X176" s="9"/>
+      <c r="X176" s="17">
+        <v>113.92835053337764</v>
+      </c>
       <c r="Y176" s="9"/>
       <c r="Z176" s="9"/>
       <c r="AA176" s="9"/>
@@ -16775,9 +16893,8 @@
       <c r="CN176" s="9"/>
       <c r="CO176" s="9"/>
       <c r="CP176" s="9"/>
-      <c r="CQ176" s="9"/>
     </row>
-    <row r="177" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>23</v>
       </c>
@@ -16847,7 +16964,9 @@
       <c r="W177" s="17">
         <v>98.220031567288686</v>
       </c>
-      <c r="X177" s="9"/>
+      <c r="X177" s="17">
+        <v>112.92978244098877</v>
+      </c>
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
       <c r="AA177" s="9"/>
@@ -16918,9 +17037,8 @@
       <c r="CN177" s="9"/>
       <c r="CO177" s="9"/>
       <c r="CP177" s="9"/>
-      <c r="CQ177" s="9"/>
     </row>
-    <row r="178" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>22</v>
       </c>
@@ -16990,7 +17108,9 @@
       <c r="W178" s="17">
         <v>105.41820158159618</v>
       </c>
-      <c r="X178" s="9"/>
+      <c r="X178" s="17">
+        <v>112.47475641358294</v>
+      </c>
       <c r="Y178" s="9"/>
       <c r="Z178" s="9"/>
       <c r="AA178" s="9"/>
@@ -17061,9 +17181,8 @@
       <c r="CN178" s="9"/>
       <c r="CO178" s="9"/>
       <c r="CP178" s="9"/>
-      <c r="CQ178" s="9"/>
     </row>
-    <row r="179" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>21</v>
       </c>
@@ -17133,7 +17252,9 @@
       <c r="W179" s="17">
         <v>106.10322878730945</v>
       </c>
-      <c r="X179" s="9"/>
+      <c r="X179" s="17">
+        <v>115.37838032599464</v>
+      </c>
       <c r="Y179" s="9"/>
       <c r="Z179" s="9"/>
       <c r="AA179" s="9"/>
@@ -17204,9 +17325,8 @@
       <c r="CN179" s="9"/>
       <c r="CO179" s="9"/>
       <c r="CP179" s="9"/>
-      <c r="CQ179" s="9"/>
     </row>
-    <row r="180" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>20</v>
       </c>
@@ -17276,7 +17396,9 @@
       <c r="W180" s="17">
         <v>103.99910887378513</v>
       </c>
-      <c r="X180" s="9"/>
+      <c r="X180" s="17">
+        <v>117.08286122828677</v>
+      </c>
       <c r="Y180" s="9"/>
       <c r="Z180" s="9"/>
       <c r="AA180" s="9"/>
@@ -17347,9 +17469,8 @@
       <c r="CN180" s="9"/>
       <c r="CO180" s="9"/>
       <c r="CP180" s="9"/>
-      <c r="CQ180" s="9"/>
     </row>
-    <row r="181" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>19</v>
       </c>
@@ -17419,7 +17540,9 @@
       <c r="W181" s="17">
         <v>99.274534952453166</v>
       </c>
-      <c r="X181" s="9"/>
+      <c r="X181" s="17">
+        <v>109.93383216899343</v>
+      </c>
       <c r="Y181" s="9"/>
       <c r="Z181" s="9"/>
       <c r="AA181" s="9"/>
@@ -17490,9 +17613,8 @@
       <c r="CN181" s="9"/>
       <c r="CO181" s="9"/>
       <c r="CP181" s="9"/>
-      <c r="CQ181" s="9"/>
     </row>
-    <row r="182" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>18</v>
       </c>
@@ -17562,7 +17684,9 @@
       <c r="W182" s="17">
         <v>88.911501629830553</v>
       </c>
-      <c r="X182" s="9"/>
+      <c r="X182" s="17">
+        <v>108.63917840648512</v>
+      </c>
       <c r="Y182" s="9"/>
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
@@ -17633,9 +17757,8 @@
       <c r="CN182" s="9"/>
       <c r="CO182" s="9"/>
       <c r="CP182" s="9"/>
-      <c r="CQ182" s="9"/>
     </row>
-    <row r="183" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>17</v>
       </c>
@@ -17705,7 +17828,9 @@
       <c r="W183" s="17">
         <v>105.52849496773113</v>
       </c>
-      <c r="X183" s="9"/>
+      <c r="X183" s="17">
+        <v>116.86562642150426</v>
+      </c>
       <c r="Y183" s="9"/>
       <c r="Z183" s="9"/>
       <c r="AA183" s="9"/>
@@ -17776,9 +17901,8 @@
       <c r="CN183" s="9"/>
       <c r="CO183" s="9"/>
       <c r="CP183" s="9"/>
-      <c r="CQ183" s="9"/>
     </row>
-    <row r="184" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>16</v>
       </c>
@@ -17848,7 +17972,9 @@
       <c r="W184" s="17">
         <v>98.088869776161374</v>
       </c>
-      <c r="X184" s="9"/>
+      <c r="X184" s="17">
+        <v>110.49359659101839</v>
+      </c>
       <c r="Y184" s="9"/>
       <c r="Z184" s="9"/>
       <c r="AA184" s="9"/>
@@ -17919,9 +18045,8 @@
       <c r="CN184" s="9"/>
       <c r="CO184" s="9"/>
       <c r="CP184" s="9"/>
-      <c r="CQ184" s="9"/>
     </row>
-    <row r="185" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>15</v>
       </c>
@@ -17991,7 +18116,9 @@
       <c r="W185" s="17">
         <v>100.52994526048199</v>
       </c>
-      <c r="X185" s="9"/>
+      <c r="X185" s="17">
+        <v>115.8130839281543</v>
+      </c>
       <c r="Y185" s="9"/>
       <c r="Z185" s="9"/>
       <c r="AA185" s="9"/>
@@ -18062,9 +18189,8 @@
       <c r="CN185" s="9"/>
       <c r="CO185" s="9"/>
       <c r="CP185" s="9"/>
-      <c r="CQ185" s="9"/>
     </row>
-    <row r="186" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>14</v>
       </c>
@@ -18134,7 +18260,9 @@
       <c r="W186" s="17">
         <v>99.867761631767763</v>
       </c>
-      <c r="X186" s="9"/>
+      <c r="X186" s="17">
+        <v>115.59336015854771</v>
+      </c>
       <c r="Y186" s="9"/>
       <c r="Z186" s="9"/>
       <c r="AA186" s="9"/>
@@ -18205,9 +18333,8 @@
       <c r="CN186" s="9"/>
       <c r="CO186" s="9"/>
       <c r="CP186" s="9"/>
-      <c r="CQ186" s="9"/>
     </row>
-    <row r="187" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
         <v>13</v>
       </c>
@@ -18277,7 +18404,9 @@
       <c r="W187" s="17">
         <v>100.02942216308048</v>
       </c>
-      <c r="X187" s="9"/>
+      <c r="X187" s="17">
+        <v>117.47741917618764</v>
+      </c>
       <c r="Y187" s="9"/>
       <c r="Z187" s="9"/>
       <c r="AA187" s="9"/>
@@ -18348,9 +18477,8 @@
       <c r="CN187" s="9"/>
       <c r="CO187" s="9"/>
       <c r="CP187" s="9"/>
-      <c r="CQ187" s="9"/>
     </row>
-    <row r="188" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>12</v>
       </c>
@@ -18420,7 +18548,9 @@
       <c r="W188" s="17">
         <v>95.336340594869853</v>
       </c>
-      <c r="X188" s="9"/>
+      <c r="X188" s="17">
+        <v>102.02927963600857</v>
+      </c>
       <c r="Y188" s="9"/>
       <c r="Z188" s="9"/>
       <c r="AA188" s="9"/>
@@ -18491,9 +18621,8 @@
       <c r="CN188" s="9"/>
       <c r="CO188" s="9"/>
       <c r="CP188" s="9"/>
-      <c r="CQ188" s="9"/>
     </row>
-    <row r="189" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>11</v>
       </c>
@@ -18563,7 +18692,9 @@
       <c r="W189" s="17">
         <v>92.593247440531329</v>
       </c>
-      <c r="X189" s="9"/>
+      <c r="X189" s="17">
+        <v>103.8091356590612</v>
+      </c>
       <c r="Y189" s="9"/>
       <c r="Z189" s="9"/>
       <c r="AA189" s="9"/>
@@ -18634,9 +18765,8 @@
       <c r="CN189" s="9"/>
       <c r="CO189" s="9"/>
       <c r="CP189" s="9"/>
-      <c r="CQ189" s="9"/>
     </row>
-    <row r="190" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>10</v>
       </c>
@@ -18706,7 +18836,9 @@
       <c r="W190" s="17">
         <v>91.566642892137281</v>
       </c>
-      <c r="X190" s="9"/>
+      <c r="X190" s="17">
+        <v>103.04990193203535</v>
+      </c>
       <c r="Y190" s="9"/>
       <c r="Z190" s="9"/>
       <c r="AA190" s="9"/>
@@ -18777,9 +18909,8 @@
       <c r="CN190" s="9"/>
       <c r="CO190" s="9"/>
       <c r="CP190" s="9"/>
-      <c r="CQ190" s="9"/>
     </row>
-    <row r="191" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>9</v>
       </c>
@@ -18849,7 +18980,9 @@
       <c r="W191" s="17">
         <v>103.46771332073577</v>
       </c>
-      <c r="X191" s="9"/>
+      <c r="X191" s="17">
+        <v>92.150199506651958</v>
+      </c>
       <c r="Y191" s="9"/>
       <c r="Z191" s="9"/>
       <c r="AA191" s="9"/>
@@ -18920,9 +19053,8 @@
       <c r="CN191" s="9"/>
       <c r="CO191" s="9"/>
       <c r="CP191" s="9"/>
-      <c r="CQ191" s="9"/>
     </row>
-    <row r="192" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>8</v>
       </c>
@@ -18992,7 +19124,9 @@
       <c r="W192" s="17">
         <v>101.79621534965855</v>
       </c>
-      <c r="X192" s="9"/>
+      <c r="X192" s="17">
+        <v>112.03126288920863</v>
+      </c>
       <c r="Y192" s="9"/>
       <c r="Z192" s="9"/>
       <c r="AA192" s="9"/>
@@ -19063,9 +19197,8 @@
       <c r="CN192" s="9"/>
       <c r="CO192" s="9"/>
       <c r="CP192" s="9"/>
-      <c r="CQ192" s="9"/>
     </row>
-    <row r="193" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>7</v>
       </c>
@@ -19135,7 +19268,9 @@
       <c r="W193" s="17">
         <v>105.04757711003808</v>
       </c>
-      <c r="X193" s="9"/>
+      <c r="X193" s="17">
+        <v>109.39662202850444</v>
+      </c>
       <c r="Y193" s="9"/>
       <c r="Z193" s="9"/>
       <c r="AA193" s="9"/>
@@ -19206,9 +19341,8 @@
       <c r="CN193" s="9"/>
       <c r="CO193" s="9"/>
       <c r="CP193" s="9"/>
-      <c r="CQ193" s="9"/>
     </row>
-    <row r="194" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>6</v>
       </c>
@@ -19278,7 +19412,9 @@
       <c r="W194" s="17">
         <v>95.799042460068875</v>
       </c>
-      <c r="X194" s="9"/>
+      <c r="X194" s="17">
+        <v>110.2873119518523</v>
+      </c>
       <c r="Y194" s="9"/>
       <c r="Z194" s="9"/>
       <c r="AA194" s="9"/>
@@ -19349,9 +19485,8 @@
       <c r="CN194" s="9"/>
       <c r="CO194" s="9"/>
       <c r="CP194" s="9"/>
-      <c r="CQ194" s="9"/>
     </row>
-    <row r="195" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>5</v>
       </c>
@@ -19421,7 +19556,9 @@
       <c r="W195" s="17">
         <v>98.787003938871649</v>
       </c>
-      <c r="X195" s="9"/>
+      <c r="X195" s="17">
+        <v>124.06447430363929</v>
+      </c>
       <c r="Y195" s="9"/>
       <c r="Z195" s="9"/>
       <c r="AA195" s="9"/>
@@ -19492,9 +19629,8 @@
       <c r="CN195" s="9"/>
       <c r="CO195" s="9"/>
       <c r="CP195" s="9"/>
-      <c r="CQ195" s="9"/>
     </row>
-    <row r="196" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
         <v>4</v>
       </c>
@@ -19564,7 +19700,9 @@
       <c r="W196" s="17">
         <v>91.268961486784733</v>
       </c>
-      <c r="X196" s="9"/>
+      <c r="X196" s="17">
+        <v>104.41865973167283</v>
+      </c>
       <c r="Y196" s="9"/>
       <c r="Z196" s="9"/>
       <c r="AA196" s="9"/>
@@ -19635,9 +19773,8 @@
       <c r="CN196" s="9"/>
       <c r="CO196" s="9"/>
       <c r="CP196" s="9"/>
-      <c r="CQ196" s="9"/>
     </row>
-    <row r="197" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="10" t="s">
         <v>3</v>
       </c>
@@ -19707,7 +19844,9 @@
       <c r="W197" s="17">
         <v>96.903099387587076</v>
       </c>
-      <c r="X197" s="9"/>
+      <c r="X197" s="17">
+        <v>109.27702572211469</v>
+      </c>
       <c r="Y197" s="9"/>
       <c r="Z197" s="9"/>
       <c r="AA197" s="9"/>
@@ -19778,9 +19917,8 @@
       <c r="CN197" s="9"/>
       <c r="CO197" s="9"/>
       <c r="CP197" s="9"/>
-      <c r="CQ197" s="9"/>
     </row>
-    <row r="198" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
         <v>2</v>
       </c>
@@ -19850,7 +19988,9 @@
       <c r="W198" s="17">
         <v>95.585182644439627</v>
       </c>
-      <c r="X198" s="9"/>
+      <c r="X198" s="17">
+        <v>111.89792142650938</v>
+      </c>
       <c r="Y198" s="9"/>
       <c r="Z198" s="9"/>
       <c r="AA198" s="9"/>
@@ -19921,9 +20061,8 @@
       <c r="CN198" s="9"/>
       <c r="CO198" s="9"/>
       <c r="CP198" s="9"/>
-      <c r="CQ198" s="9"/>
     </row>
-    <row r="199" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -20017,9 +20156,8 @@
       <c r="CN199" s="9"/>
       <c r="CO199" s="9"/>
       <c r="CP199" s="9"/>
-      <c r="CQ199" s="9"/>
     </row>
-    <row r="200" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
         <v>1</v>
       </c>
@@ -20089,7 +20227,9 @@
       <c r="W200" s="20">
         <v>95.517740494502576</v>
       </c>
-      <c r="X200" s="9"/>
+      <c r="X200" s="20">
+        <v>107.41386378515642</v>
+      </c>
       <c r="Y200" s="9"/>
       <c r="Z200" s="9"/>
       <c r="AA200" s="9"/>
@@ -20160,9 +20300,8 @@
       <c r="CN200" s="9"/>
       <c r="CO200" s="9"/>
       <c r="CP200" s="9"/>
-      <c r="CQ200" s="9"/>
     </row>
-    <row r="201" spans="1:95" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -20186,13 +20325,14 @@
       <c r="U201" s="14"/>
       <c r="V201" s="14"/>
       <c r="W201" s="14"/>
+      <c r="X201" s="14"/>
     </row>
-    <row r="202" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
@@ -20286,9 +20426,8 @@
       <c r="CN203" s="9"/>
       <c r="CO203" s="9"/>
       <c r="CP203" s="9"/>
-      <c r="CQ203" s="9"/>
     </row>
-    <row r="204" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
@@ -20382,39 +20521,38 @@
       <c r="CN204" s="9"/>
       <c r="CO204" s="9"/>
       <c r="CP204" s="9"/>
-      <c r="CQ204" s="9"/>
     </row>
-    <row r="205" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="209" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="210" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="211" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="5" t="s">
         <v>26</v>
@@ -20440,8 +20578,9 @@
       <c r="U213" s="5"/>
       <c r="V213" s="5"/>
       <c r="W213" s="5"/>
+      <c r="X213" s="5"/>
     </row>
-    <row r="214" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>59</v>
       </c>
@@ -20511,11 +20650,14 @@
       <c r="W214" s="16">
         <v>2021</v>
       </c>
+      <c r="X214" s="16">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="215" spans="1:95" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7"/>
     </row>
-    <row r="216" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>25</v>
       </c>
@@ -20585,7 +20727,9 @@
       <c r="W216" s="20">
         <v>19.135961361215543</v>
       </c>
-      <c r="X216" s="9"/>
+      <c r="X216" s="20">
+        <v>15.86290011998611</v>
+      </c>
       <c r="Y216" s="9"/>
       <c r="Z216" s="9"/>
       <c r="AA216" s="9"/>
@@ -20656,9 +20800,8 @@
       <c r="CN216" s="9"/>
       <c r="CO216" s="9"/>
       <c r="CP216" s="9"/>
-      <c r="CQ216" s="9"/>
     </row>
-    <row r="217" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="10" t="s">
         <v>24</v>
       </c>
@@ -20728,7 +20871,9 @@
       <c r="W217" s="20">
         <v>1.6806467019242826</v>
       </c>
-      <c r="X217" s="9"/>
+      <c r="X217" s="20">
+        <v>0.84441805581882101</v>
+      </c>
       <c r="Y217" s="9"/>
       <c r="Z217" s="9"/>
       <c r="AA217" s="9"/>
@@ -20799,9 +20944,8 @@
       <c r="CN217" s="9"/>
       <c r="CO217" s="9"/>
       <c r="CP217" s="9"/>
-      <c r="CQ217" s="9"/>
     </row>
-    <row r="218" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10" t="s">
         <v>23</v>
       </c>
@@ -20871,7 +21015,9 @@
       <c r="W218" s="20">
         <v>3.4088966792650157</v>
       </c>
-      <c r="X218" s="9"/>
+      <c r="X218" s="20">
+        <v>3.1623908068586539</v>
+      </c>
       <c r="Y218" s="9"/>
       <c r="Z218" s="9"/>
       <c r="AA218" s="9"/>
@@ -20942,9 +21088,8 @@
       <c r="CN218" s="9"/>
       <c r="CO218" s="9"/>
       <c r="CP218" s="9"/>
-      <c r="CQ218" s="9"/>
     </row>
-    <row r="219" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="10" t="s">
         <v>22</v>
       </c>
@@ -21014,7 +21159,9 @@
       <c r="W219" s="20">
         <v>0.21714328096135532</v>
       </c>
-      <c r="X219" s="9"/>
+      <c r="X219" s="20">
+        <v>0.22628637887610081</v>
+      </c>
       <c r="Y219" s="9"/>
       <c r="Z219" s="9"/>
       <c r="AA219" s="9"/>
@@ -21085,9 +21232,8 @@
       <c r="CN219" s="9"/>
       <c r="CO219" s="9"/>
       <c r="CP219" s="9"/>
-      <c r="CQ219" s="9"/>
     </row>
-    <row r="220" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="10" t="s">
         <v>21</v>
       </c>
@@ -21157,7 +21303,9 @@
       <c r="W220" s="20">
         <v>0.16237005210945815</v>
       </c>
-      <c r="X220" s="9"/>
+      <c r="X220" s="20">
+        <v>0.15047903910264923</v>
+      </c>
       <c r="Y220" s="9"/>
       <c r="Z220" s="9"/>
       <c r="AA220" s="9"/>
@@ -21228,9 +21376,8 @@
       <c r="CN220" s="9"/>
       <c r="CO220" s="9"/>
       <c r="CP220" s="9"/>
-      <c r="CQ220" s="9"/>
     </row>
-    <row r="221" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="10" t="s">
         <v>20</v>
       </c>
@@ -21300,7 +21447,9 @@
       <c r="W221" s="20">
         <v>1.1539011809129585</v>
       </c>
-      <c r="X221" s="9"/>
+      <c r="X221" s="20">
+        <v>0.96566107428926307</v>
+      </c>
       <c r="Y221" s="9"/>
       <c r="Z221" s="9"/>
       <c r="AA221" s="9"/>
@@ -21371,9 +21520,8 @@
       <c r="CN221" s="9"/>
       <c r="CO221" s="9"/>
       <c r="CP221" s="9"/>
-      <c r="CQ221" s="9"/>
     </row>
-    <row r="222" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="10" t="s">
         <v>19</v>
       </c>
@@ -21443,7 +21591,9 @@
       <c r="W222" s="20">
         <v>8.9556491864650045</v>
       </c>
-      <c r="X222" s="9"/>
+      <c r="X222" s="20">
+        <v>7.5154419573578934</v>
+      </c>
       <c r="Y222" s="9"/>
       <c r="Z222" s="9"/>
       <c r="AA222" s="9"/>
@@ -21514,9 +21664,8 @@
       <c r="CN222" s="9"/>
       <c r="CO222" s="9"/>
       <c r="CP222" s="9"/>
-      <c r="CQ222" s="9"/>
     </row>
-    <row r="223" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="10" t="s">
         <v>18</v>
       </c>
@@ -21586,7 +21735,9 @@
       <c r="W223" s="20">
         <v>0.41984344275059515</v>
       </c>
-      <c r="X223" s="9"/>
+      <c r="X223" s="20">
+        <v>0.24398940819441287</v>
+      </c>
       <c r="Y223" s="9"/>
       <c r="Z223" s="9"/>
       <c r="AA223" s="9"/>
@@ -21657,9 +21808,8 @@
       <c r="CN223" s="9"/>
       <c r="CO223" s="9"/>
       <c r="CP223" s="9"/>
-      <c r="CQ223" s="9"/>
     </row>
-    <row r="224" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="10" t="s">
         <v>17</v>
       </c>
@@ -21729,7 +21879,9 @@
       <c r="W224" s="20">
         <v>3.137510836826872</v>
       </c>
-      <c r="X224" s="9"/>
+      <c r="X224" s="20">
+        <v>2.7542333994883172</v>
+      </c>
       <c r="Y224" s="9"/>
       <c r="Z224" s="9"/>
       <c r="AA224" s="9"/>
@@ -21800,9 +21952,8 @@
       <c r="CN224" s="9"/>
       <c r="CO224" s="9"/>
       <c r="CP224" s="9"/>
-      <c r="CQ224" s="9"/>
     </row>
-    <row r="225" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>16</v>
       </c>
@@ -21872,7 +22023,9 @@
       <c r="W225" s="20">
         <v>17.105941246714902</v>
       </c>
-      <c r="X225" s="9"/>
+      <c r="X225" s="20">
+        <v>17.251122322631769</v>
+      </c>
       <c r="Y225" s="9"/>
       <c r="Z225" s="9"/>
       <c r="AA225" s="9"/>
@@ -21943,9 +22096,8 @@
       <c r="CN225" s="9"/>
       <c r="CO225" s="9"/>
       <c r="CP225" s="9"/>
-      <c r="CQ225" s="9"/>
     </row>
-    <row r="226" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="10" t="s">
         <v>15</v>
       </c>
@@ -22015,7 +22167,9 @@
       <c r="W226" s="20">
         <v>3.013316236778302</v>
       </c>
-      <c r="X226" s="9"/>
+      <c r="X226" s="20">
+        <v>3.0829722442653527</v>
+      </c>
       <c r="Y226" s="9"/>
       <c r="Z226" s="9"/>
       <c r="AA226" s="9"/>
@@ -22086,9 +22240,8 @@
       <c r="CN226" s="9"/>
       <c r="CO226" s="9"/>
       <c r="CP226" s="9"/>
-      <c r="CQ226" s="9"/>
     </row>
-    <row r="227" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
         <v>14</v>
       </c>
@@ -22158,7 +22311,9 @@
       <c r="W227" s="20">
         <v>1.9027089144847298</v>
       </c>
-      <c r="X227" s="9"/>
+      <c r="X227" s="20">
+        <v>1.8016736320815085</v>
+      </c>
       <c r="Y227" s="9"/>
       <c r="Z227" s="9"/>
       <c r="AA227" s="9"/>
@@ -22229,9 +22384,8 @@
       <c r="CN227" s="9"/>
       <c r="CO227" s="9"/>
       <c r="CP227" s="9"/>
-      <c r="CQ227" s="9"/>
     </row>
-    <row r="228" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
         <v>13</v>
       </c>
@@ -22301,7 +22455,9 @@
       <c r="W228" s="20">
         <v>5.0730248944978991</v>
       </c>
-      <c r="X228" s="9"/>
+      <c r="X228" s="20">
+        <v>5.6515578789256304</v>
+      </c>
       <c r="Y228" s="9"/>
       <c r="Z228" s="9"/>
       <c r="AA228" s="9"/>
@@ -22372,9 +22528,8 @@
       <c r="CN228" s="9"/>
       <c r="CO228" s="9"/>
       <c r="CP228" s="9"/>
-      <c r="CQ228" s="9"/>
     </row>
-    <row r="229" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
         <v>12</v>
       </c>
@@ -22444,7 +22599,9 @@
       <c r="W229" s="20">
         <v>7.1168912009539742</v>
       </c>
-      <c r="X229" s="9"/>
+      <c r="X229" s="20">
+        <v>6.7149185673592768</v>
+      </c>
       <c r="Y229" s="9"/>
       <c r="Z229" s="9"/>
       <c r="AA229" s="9"/>
@@ -22515,9 +22672,8 @@
       <c r="CN229" s="9"/>
       <c r="CO229" s="9"/>
       <c r="CP229" s="9"/>
-      <c r="CQ229" s="9"/>
     </row>
-    <row r="230" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>11</v>
       </c>
@@ -22587,7 +22743,9 @@
       <c r="W230" s="20">
         <v>43.527522906648876</v>
       </c>
-      <c r="X230" s="9"/>
+      <c r="X230" s="20">
+        <v>48.114431109891129</v>
+      </c>
       <c r="Y230" s="9"/>
       <c r="Z230" s="9"/>
       <c r="AA230" s="9"/>
@@ -22658,9 +22816,8 @@
       <c r="CN230" s="9"/>
       <c r="CO230" s="9"/>
       <c r="CP230" s="9"/>
-      <c r="CQ230" s="9"/>
     </row>
-    <row r="231" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="10" t="s">
         <v>10</v>
       </c>
@@ -22730,7 +22887,9 @@
       <c r="W231" s="20">
         <v>39.102450890661885</v>
       </c>
-      <c r="X231" s="9"/>
+      <c r="X231" s="20">
+        <v>42.550044584279817</v>
+      </c>
       <c r="Y231" s="9"/>
       <c r="Z231" s="9"/>
       <c r="AA231" s="9"/>
@@ -22801,9 +22960,8 @@
       <c r="CN231" s="9"/>
       <c r="CO231" s="9"/>
       <c r="CP231" s="9"/>
-      <c r="CQ231" s="9"/>
     </row>
-    <row r="232" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
         <v>9</v>
       </c>
@@ -22873,7 +23031,9 @@
       <c r="W232" s="20">
         <v>0.59979206366266802</v>
       </c>
-      <c r="X232" s="9"/>
+      <c r="X232" s="20">
+        <v>0.19805361340179936</v>
+      </c>
       <c r="Y232" s="9"/>
       <c r="Z232" s="9"/>
       <c r="AA232" s="9"/>
@@ -22944,9 +23104,8 @@
       <c r="CN232" s="9"/>
       <c r="CO232" s="9"/>
       <c r="CP232" s="9"/>
-      <c r="CQ232" s="9"/>
     </row>
-    <row r="233" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
         <v>8</v>
       </c>
@@ -23016,7 +23175,9 @@
       <c r="W233" s="20">
         <v>2.7762448019594665</v>
       </c>
-      <c r="X233" s="9"/>
+      <c r="X233" s="20">
+        <v>2.8886572289772641</v>
+      </c>
       <c r="Y233" s="9"/>
       <c r="Z233" s="9"/>
       <c r="AA233" s="9"/>
@@ -23087,9 +23248,8 @@
       <c r="CN233" s="9"/>
       <c r="CO233" s="9"/>
       <c r="CP233" s="9"/>
-      <c r="CQ233" s="9"/>
     </row>
-    <row r="234" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
         <v>7</v>
       </c>
@@ -23159,7 +23319,9 @@
       <c r="W234" s="20">
         <v>1.0490351503648525</v>
       </c>
-      <c r="X234" s="9"/>
+      <c r="X234" s="20">
+        <v>2.4776756832322495</v>
+      </c>
       <c r="Y234" s="9"/>
       <c r="Z234" s="9"/>
       <c r="AA234" s="9"/>
@@ -23230,9 +23392,8 @@
       <c r="CN234" s="9"/>
       <c r="CO234" s="9"/>
       <c r="CP234" s="9"/>
-      <c r="CQ234" s="9"/>
     </row>
-    <row r="235" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>6</v>
       </c>
@@ -23302,7 +23463,9 @@
       <c r="W235" s="20">
         <v>20.230574485420668</v>
       </c>
-      <c r="X235" s="9"/>
+      <c r="X235" s="20">
+        <v>18.77154644749098</v>
+      </c>
       <c r="Y235" s="9"/>
       <c r="Z235" s="9"/>
       <c r="AA235" s="9"/>
@@ -23373,9 +23536,8 @@
       <c r="CN235" s="9"/>
       <c r="CO235" s="9"/>
       <c r="CP235" s="9"/>
-      <c r="CQ235" s="9"/>
     </row>
-    <row r="236" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
         <v>5</v>
       </c>
@@ -23445,7 +23607,9 @@
       <c r="W236" s="20">
         <v>1.7944728344003413</v>
       </c>
-      <c r="X236" s="9"/>
+      <c r="X236" s="20">
+        <v>1.7396775807913309</v>
+      </c>
       <c r="Y236" s="9"/>
       <c r="Z236" s="9"/>
       <c r="AA236" s="9"/>
@@ -23516,9 +23680,8 @@
       <c r="CN236" s="9"/>
       <c r="CO236" s="9"/>
       <c r="CP236" s="9"/>
-      <c r="CQ236" s="9"/>
     </row>
-    <row r="237" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="10" t="s">
         <v>4</v>
       </c>
@@ -23588,7 +23751,9 @@
       <c r="W237" s="20">
         <v>3.2678720269043113</v>
       </c>
-      <c r="X237" s="9"/>
+      <c r="X237" s="20">
+        <v>2.874619961387372</v>
+      </c>
       <c r="Y237" s="9"/>
       <c r="Z237" s="9"/>
       <c r="AA237" s="9"/>
@@ -23659,9 +23824,8 @@
       <c r="CN237" s="9"/>
       <c r="CO237" s="9"/>
       <c r="CP237" s="9"/>
-      <c r="CQ237" s="9"/>
     </row>
-    <row r="238" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="10" t="s">
         <v>3</v>
       </c>
@@ -23731,7 +23895,9 @@
       <c r="W238" s="20">
         <v>10.407277466275975</v>
       </c>
-      <c r="X238" s="9"/>
+      <c r="X238" s="20">
+        <v>9.9581893001736042</v>
+      </c>
       <c r="Y238" s="9"/>
       <c r="Z238" s="9"/>
       <c r="AA238" s="9"/>
@@ -23802,9 +23968,8 @@
       <c r="CN238" s="9"/>
       <c r="CO238" s="9"/>
       <c r="CP238" s="9"/>
-      <c r="CQ238" s="9"/>
     </row>
-    <row r="239" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="10" t="s">
         <v>2</v>
       </c>
@@ -23874,7 +24039,9 @@
       <c r="W239" s="20">
         <v>4.7609521578400429</v>
       </c>
-      <c r="X239" s="9"/>
+      <c r="X239" s="20">
+        <v>4.1990596051386744</v>
+      </c>
       <c r="Y239" s="9"/>
       <c r="Z239" s="9"/>
       <c r="AA239" s="9"/>
@@ -23945,9 +24112,8 @@
       <c r="CN239" s="9"/>
       <c r="CO239" s="9"/>
       <c r="CP239" s="9"/>
-      <c r="CQ239" s="9"/>
     </row>
-    <row r="240" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
@@ -24041,9 +24207,8 @@
       <c r="CN240" s="9"/>
       <c r="CO240" s="9"/>
       <c r="CP240" s="9"/>
-      <c r="CQ240" s="9"/>
     </row>
-    <row r="241" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="12" t="s">
         <v>1</v>
       </c>
@@ -24113,7 +24278,9 @@
       <c r="W241" s="20">
         <v>100</v>
       </c>
-      <c r="X241" s="9"/>
+      <c r="X241" s="20">
+        <v>100</v>
+      </c>
       <c r="Y241" s="9"/>
       <c r="Z241" s="9"/>
       <c r="AA241" s="9"/>
@@ -24184,9 +24351,8 @@
       <c r="CN241" s="9"/>
       <c r="CO241" s="9"/>
       <c r="CP241" s="9"/>
-      <c r="CQ241" s="9"/>
     </row>
-    <row r="242" spans="1:95" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" s="14"/>
@@ -24210,13 +24376,14 @@
       <c r="U242" s="14"/>
       <c r="V242" s="14"/>
       <c r="W242" s="14"/>
+      <c r="X242" s="14"/>
     </row>
-    <row r="243" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -24310,9 +24477,8 @@
       <c r="CN244" s="9"/>
       <c r="CO244" s="9"/>
       <c r="CP244" s="9"/>
-      <c r="CQ244" s="9"/>
     </row>
-    <row r="245" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -24406,39 +24572,38 @@
       <c r="CN245" s="9"/>
       <c r="CO245" s="9"/>
       <c r="CP245" s="9"/>
-      <c r="CQ245" s="9"/>
     </row>
-    <row r="246" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="250" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="251" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="252" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="5" t="s">
         <v>26</v>
@@ -24464,8 +24629,9 @@
       <c r="U254" s="5"/>
       <c r="V254" s="5"/>
       <c r="W254" s="5"/>
+      <c r="X254" s="5"/>
     </row>
-    <row r="255" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>59</v>
       </c>
@@ -24535,11 +24701,14 @@
       <c r="W255" s="16">
         <v>2021</v>
       </c>
+      <c r="X255" s="16">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="256" spans="1:95" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="7"/>
     </row>
-    <row r="257" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>25</v>
       </c>
@@ -24609,7 +24778,9 @@
       <c r="W257" s="20">
         <v>18.268964600918466</v>
       </c>
-      <c r="X257" s="9"/>
+      <c r="X257" s="20">
+        <v>15.162056564210063</v>
+      </c>
       <c r="Y257" s="9"/>
       <c r="Z257" s="9"/>
       <c r="AA257" s="9"/>
@@ -24680,9 +24851,8 @@
       <c r="CN257" s="9"/>
       <c r="CO257" s="9"/>
       <c r="CP257" s="9"/>
-      <c r="CQ257" s="9"/>
     </row>
-    <row r="258" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
         <v>24</v>
       </c>
@@ -24752,7 +24922,9 @@
       <c r="W258" s="20">
         <v>1.6434760890668456</v>
       </c>
-      <c r="X258" s="9"/>
+      <c r="X258" s="20">
+        <v>0.79613375951472587</v>
+      </c>
       <c r="Y258" s="9"/>
       <c r="Z258" s="9"/>
       <c r="AA258" s="9"/>
@@ -24823,9 +24995,8 @@
       <c r="CN258" s="9"/>
       <c r="CO258" s="9"/>
       <c r="CP258" s="9"/>
-      <c r="CQ258" s="9"/>
     </row>
-    <row r="259" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
         <v>23</v>
       </c>
@@ -24895,7 +25066,9 @@
       <c r="W259" s="20">
         <v>3.3151089771289479</v>
       </c>
-      <c r="X259" s="9"/>
+      <c r="X259" s="20">
+        <v>3.0079276522191827</v>
+      </c>
       <c r="Y259" s="9"/>
       <c r="Z259" s="9"/>
       <c r="AA259" s="9"/>
@@ -24966,9 +25139,8 @@
       <c r="CN259" s="9"/>
       <c r="CO259" s="9"/>
       <c r="CP259" s="9"/>
-      <c r="CQ259" s="9"/>
     </row>
-    <row r="260" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
         <v>22</v>
       </c>
@@ -25038,7 +25210,9 @@
       <c r="W260" s="20">
         <v>0.19675004173674457</v>
       </c>
-      <c r="X260" s="9"/>
+      <c r="X260" s="20">
+        <v>0.21610444025018991</v>
+      </c>
       <c r="Y260" s="9"/>
       <c r="Z260" s="9"/>
       <c r="AA260" s="9"/>
@@ -25109,9 +25283,8 @@
       <c r="CN260" s="9"/>
       <c r="CO260" s="9"/>
       <c r="CP260" s="9"/>
-      <c r="CQ260" s="9"/>
     </row>
-    <row r="261" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
         <v>21</v>
       </c>
@@ -25181,7 +25354,9 @@
       <c r="W261" s="20">
         <v>0.14617105133114552</v>
       </c>
-      <c r="X261" s="9"/>
+      <c r="X261" s="20">
+        <v>0.14009154022637607</v>
+      </c>
       <c r="Y261" s="9"/>
       <c r="Z261" s="9"/>
       <c r="AA261" s="9"/>
@@ -25252,9 +25427,8 @@
       <c r="CN261" s="9"/>
       <c r="CO261" s="9"/>
       <c r="CP261" s="9"/>
-      <c r="CQ261" s="9"/>
     </row>
-    <row r="262" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="10" t="s">
         <v>20</v>
       </c>
@@ -25324,7 +25498,9 @@
       <c r="W262" s="20">
         <v>1.0597978650808084</v>
       </c>
-      <c r="X262" s="9"/>
+      <c r="X262" s="20">
+        <v>0.885914351666656</v>
+      </c>
       <c r="Y262" s="9"/>
       <c r="Z262" s="9"/>
       <c r="AA262" s="9"/>
@@ -25395,9 +25571,8 @@
       <c r="CN262" s="9"/>
       <c r="CO262" s="9"/>
       <c r="CP262" s="9"/>
-      <c r="CQ262" s="9"/>
     </row>
-    <row r="263" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
         <v>19</v>
       </c>
@@ -25467,7 +25642,9 @@
       <c r="W263" s="20">
         <v>8.6167452243646014</v>
       </c>
-      <c r="X263" s="9"/>
+      <c r="X263" s="20">
+        <v>7.3431685475308717</v>
+      </c>
       <c r="Y263" s="9"/>
       <c r="Z263" s="9"/>
       <c r="AA263" s="9"/>
@@ -25538,9 +25715,8 @@
       <c r="CN263" s="9"/>
       <c r="CO263" s="9"/>
       <c r="CP263" s="9"/>
-      <c r="CQ263" s="9"/>
     </row>
-    <row r="264" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="10" t="s">
         <v>18</v>
       </c>
@@ -25610,7 +25786,9 @@
       <c r="W264" s="20">
         <v>0.45103835024551181</v>
       </c>
-      <c r="X264" s="9"/>
+      <c r="X264" s="20">
+        <v>0.24123751156103312</v>
+      </c>
       <c r="Y264" s="9"/>
       <c r="Z264" s="9"/>
       <c r="AA264" s="9"/>
@@ -25681,9 +25859,8 @@
       <c r="CN264" s="9"/>
       <c r="CO264" s="9"/>
       <c r="CP264" s="9"/>
-      <c r="CQ264" s="9"/>
     </row>
-    <row r="265" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="10" t="s">
         <v>17</v>
       </c>
@@ -25753,7 +25930,9 @@
       <c r="W265" s="20">
         <v>2.8398770019638619</v>
       </c>
-      <c r="X265" s="9"/>
+      <c r="X265" s="20">
+        <v>2.5314787612410288</v>
+      </c>
       <c r="Y265" s="9"/>
       <c r="Z265" s="9"/>
       <c r="AA265" s="9"/>
@@ -25824,9 +26003,8 @@
       <c r="CN265" s="9"/>
       <c r="CO265" s="9"/>
       <c r="CP265" s="9"/>
-      <c r="CQ265" s="9"/>
     </row>
-    <row r="266" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>16</v>
       </c>
@@ -25896,7 +26074,9 @@
       <c r="W266" s="20">
         <v>16.657556159496249</v>
       </c>
-      <c r="X266" s="9"/>
+      <c r="X266" s="20">
+        <v>16.770290410248663</v>
+      </c>
       <c r="Y266" s="9"/>
       <c r="Z266" s="9"/>
       <c r="AA266" s="9"/>
@@ -25967,9 +26147,8 @@
       <c r="CN266" s="9"/>
       <c r="CO266" s="9"/>
       <c r="CP266" s="9"/>
-      <c r="CQ266" s="9"/>
     </row>
-    <row r="267" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="10" t="s">
         <v>15</v>
       </c>
@@ -26039,7 +26218,9 @@
       <c r="W267" s="20">
         <v>2.8630788327466052</v>
       </c>
-      <c r="X267" s="9"/>
+      <c r="X267" s="20">
+        <v>2.8593829770077699</v>
+      </c>
       <c r="Y267" s="9"/>
       <c r="Z267" s="9"/>
       <c r="AA267" s="9"/>
@@ -26110,9 +26291,8 @@
       <c r="CN267" s="9"/>
       <c r="CO267" s="9"/>
       <c r="CP267" s="9"/>
-      <c r="CQ267" s="9"/>
     </row>
-    <row r="268" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="10" t="s">
         <v>14</v>
       </c>
@@ -26182,7 +26362,9 @@
       <c r="W268" s="20">
         <v>1.8198310782257203</v>
       </c>
-      <c r="X268" s="9"/>
+      <c r="X268" s="20">
+        <v>1.6741854881307447</v>
+      </c>
       <c r="Y268" s="9"/>
       <c r="Z268" s="9"/>
       <c r="AA268" s="9"/>
@@ -26253,9 +26435,8 @@
       <c r="CN268" s="9"/>
       <c r="CO268" s="9"/>
       <c r="CP268" s="9"/>
-      <c r="CQ268" s="9"/>
     </row>
-    <row r="269" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="10" t="s">
         <v>13</v>
       </c>
@@ -26325,7 +26506,9 @@
       <c r="W269" s="20">
         <v>4.8442134815575058</v>
       </c>
-      <c r="X269" s="9"/>
+      <c r="X269" s="20">
+        <v>5.1674242798133738</v>
+      </c>
       <c r="Y269" s="9"/>
       <c r="Z269" s="9"/>
       <c r="AA269" s="9"/>
@@ -26396,9 +26579,8 @@
       <c r="CN269" s="9"/>
       <c r="CO269" s="9"/>
       <c r="CP269" s="9"/>
-      <c r="CQ269" s="9"/>
     </row>
-    <row r="270" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="10" t="s">
         <v>12</v>
       </c>
@@ -26468,7 +26650,9 @@
       <c r="W270" s="20">
         <v>7.1304327669664174</v>
       </c>
-      <c r="X270" s="9"/>
+      <c r="X270" s="20">
+        <v>7.0692976652967738</v>
+      </c>
       <c r="Y270" s="9"/>
       <c r="Z270" s="9"/>
       <c r="AA270" s="9"/>
@@ -26539,9 +26723,8 @@
       <c r="CN270" s="9"/>
       <c r="CO270" s="9"/>
       <c r="CP270" s="9"/>
-      <c r="CQ270" s="9"/>
     </row>
-    <row r="271" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>11</v>
       </c>
@@ -26611,7 +26794,9 @@
       <c r="W271" s="20">
         <v>44.902309318355911</v>
       </c>
-      <c r="X271" s="9"/>
+      <c r="X271" s="20">
+        <v>49.785184285820847</v>
+      </c>
       <c r="Y271" s="9"/>
       <c r="Z271" s="9"/>
       <c r="AA271" s="9"/>
@@ -26682,9 +26867,8 @@
       <c r="CN271" s="9"/>
       <c r="CO271" s="9"/>
       <c r="CP271" s="9"/>
-      <c r="CQ271" s="9"/>
     </row>
-    <row r="272" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="10" t="s">
         <v>10</v>
       </c>
@@ -26754,7 +26938,9 @@
       <c r="W272" s="20">
         <v>40.789720349068212</v>
       </c>
-      <c r="X272" s="9"/>
+      <c r="X272" s="20">
+        <v>44.351955774228003</v>
+      </c>
       <c r="Y272" s="9"/>
       <c r="Z272" s="9"/>
       <c r="AA272" s="9"/>
@@ -26825,9 +27011,8 @@
       <c r="CN272" s="9"/>
       <c r="CO272" s="9"/>
       <c r="CP272" s="9"/>
-      <c r="CQ272" s="9"/>
     </row>
-    <row r="273" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="10" t="s">
         <v>9</v>
       </c>
@@ -26897,7 +27082,9 @@
       <c r="W273" s="20">
         <v>0.55370686032269134</v>
       </c>
-      <c r="X273" s="9"/>
+      <c r="X273" s="20">
+        <v>0.23085901024623656</v>
+      </c>
       <c r="Y273" s="9"/>
       <c r="Z273" s="9"/>
       <c r="AA273" s="9"/>
@@ -26968,9 +27155,8 @@
       <c r="CN273" s="9"/>
       <c r="CO273" s="9"/>
       <c r="CP273" s="9"/>
-      <c r="CQ273" s="9"/>
     </row>
-    <row r="274" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="10" t="s">
         <v>8</v>
       </c>
@@ -27040,7 +27226,9 @@
       <c r="W274" s="20">
         <v>2.6050146327337456</v>
       </c>
-      <c r="X274" s="9"/>
+      <c r="X274" s="20">
+        <v>2.7696004321777488</v>
+      </c>
       <c r="Y274" s="9"/>
       <c r="Z274" s="9"/>
       <c r="AA274" s="9"/>
@@ -27111,9 +27299,8 @@
       <c r="CN274" s="9"/>
       <c r="CO274" s="9"/>
       <c r="CP274" s="9"/>
-      <c r="CQ274" s="9"/>
     </row>
-    <row r="275" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="10" t="s">
         <v>7</v>
       </c>
@@ -27183,7 +27370,9 @@
       <c r="W275" s="20">
         <v>0.95386747623126755</v>
       </c>
-      <c r="X275" s="9"/>
+      <c r="X275" s="20">
+        <v>2.4327690691688684</v>
+      </c>
       <c r="Y275" s="9"/>
       <c r="Z275" s="9"/>
       <c r="AA275" s="9"/>
@@ -27254,9 +27443,8 @@
       <c r="CN275" s="9"/>
       <c r="CO275" s="9"/>
       <c r="CP275" s="9"/>
-      <c r="CQ275" s="9"/>
     </row>
-    <row r="276" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>6</v>
       </c>
@@ -27326,7 +27514,9 @@
       <c r="W276" s="20">
         <v>20.171169921229371</v>
       </c>
-      <c r="X276" s="9"/>
+      <c r="X276" s="20">
+        <v>18.282468739720411</v>
+      </c>
       <c r="Y276" s="9"/>
       <c r="Z276" s="9"/>
       <c r="AA276" s="9"/>
@@ -27397,9 +27587,8 @@
       <c r="CN276" s="9"/>
       <c r="CO276" s="9"/>
       <c r="CP276" s="9"/>
-      <c r="CQ276" s="9"/>
     </row>
-    <row r="277" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="10" t="s">
         <v>5</v>
       </c>
@@ -27469,7 +27658,9 @@
       <c r="W277" s="20">
         <v>1.7350864353245214</v>
       </c>
-      <c r="X277" s="9"/>
+      <c r="X277" s="20">
+        <v>1.5061966106096578</v>
+      </c>
       <c r="Y277" s="9"/>
       <c r="Z277" s="9"/>
       <c r="AA277" s="9"/>
@@ -27540,9 +27731,8 @@
       <c r="CN277" s="9"/>
       <c r="CO277" s="9"/>
       <c r="CP277" s="9"/>
-      <c r="CQ277" s="9"/>
     </row>
-    <row r="278" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="10" t="s">
         <v>4</v>
       </c>
@@ -27612,7 +27802,9 @@
       <c r="W278" s="20">
         <v>3.4199989476190811</v>
       </c>
-      <c r="X278" s="9"/>
+      <c r="X278" s="20">
+        <v>2.9570771906095987</v>
+      </c>
       <c r="Y278" s="9"/>
       <c r="Z278" s="9"/>
       <c r="AA278" s="9"/>
@@ -27683,9 +27875,8 @@
       <c r="CN278" s="9"/>
       <c r="CO278" s="9"/>
       <c r="CP278" s="9"/>
-      <c r="CQ278" s="9"/>
     </row>
-    <row r="279" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="10" t="s">
         <v>3</v>
       </c>
@@ -27755,7 +27946,9 @@
       <c r="W279" s="20">
         <v>10.258491571069095</v>
       </c>
-      <c r="X279" s="9"/>
+      <c r="X279" s="20">
+        <v>9.7884032070538147</v>
+      </c>
       <c r="Y279" s="9"/>
       <c r="Z279" s="9"/>
       <c r="AA279" s="9"/>
@@ -27826,9 +28019,8 @@
       <c r="CN279" s="9"/>
       <c r="CO279" s="9"/>
       <c r="CP279" s="9"/>
-      <c r="CQ279" s="9"/>
     </row>
-    <row r="280" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="10" t="s">
         <v>2</v>
       </c>
@@ -27898,7 +28090,9 @@
       <c r="W280" s="20">
         <v>4.7575929672166746</v>
       </c>
-      <c r="X280" s="9"/>
+      <c r="X280" s="20">
+        <v>4.0307917314473407</v>
+      </c>
       <c r="Y280" s="9"/>
       <c r="Z280" s="9"/>
       <c r="AA280" s="9"/>
@@ -27969,9 +28163,8 @@
       <c r="CN280" s="9"/>
       <c r="CO280" s="9"/>
       <c r="CP280" s="9"/>
-      <c r="CQ280" s="9"/>
     </row>
-    <row r="281" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
@@ -28065,9 +28258,8 @@
       <c r="CN281" s="9"/>
       <c r="CO281" s="9"/>
       <c r="CP281" s="9"/>
-      <c r="CQ281" s="9"/>
     </row>
-    <row r="282" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="12" t="s">
         <v>1</v>
       </c>
@@ -28137,7 +28329,9 @@
       <c r="W282" s="20">
         <v>100</v>
       </c>
-      <c r="X282" s="9"/>
+      <c r="X282" s="20">
+        <v>100</v>
+      </c>
       <c r="Y282" s="9"/>
       <c r="Z282" s="9"/>
       <c r="AA282" s="9"/>
@@ -28208,9 +28402,8 @@
       <c r="CN282" s="9"/>
       <c r="CO282" s="9"/>
       <c r="CP282" s="9"/>
-      <c r="CQ282" s="9"/>
     </row>
-    <row r="283" spans="1:95" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" s="14"/>
@@ -28234,13 +28427,14 @@
       <c r="U283" s="14"/>
       <c r="V283" s="14"/>
       <c r="W283" s="14"/>
+      <c r="X283" s="14"/>
     </row>
-    <row r="284" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
       <c r="D285" s="9"/>
@@ -28328,9 +28522,8 @@
       <c r="CH285" s="9"/>
       <c r="CI285" s="9"/>
       <c r="CJ285" s="9"/>
-      <c r="CK285" s="9"/>
     </row>
-    <row r="286" spans="1:95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>
@@ -28418,19 +28611,18 @@
       <c r="CH286" s="9"/>
       <c r="CI286" s="9"/>
       <c r="CJ286" s="9"/>
-      <c r="CK286" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="41" max="22" man="1"/>
-    <brk id="82" max="22" man="1"/>
-    <brk id="123" max="22" man="1"/>
-    <brk id="164" max="22" man="1"/>
-    <brk id="204" max="22" man="1"/>
-    <brk id="245" max="22" man="1"/>
+    <brk id="41" max="24" man="1"/>
+    <brk id="82" max="24" man="1"/>
+    <brk id="123" max="24" man="1"/>
+    <brk id="164" max="24" man="1"/>
+    <brk id="204" max="24" man="1"/>
+    <brk id="245" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1CF484-54E7-4FF8-BB84-DA5590860F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587962E2-03F2-4577-8951-05F9941B43EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="90" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="1" r:id="rId1"/>
@@ -252,13 +252,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -340,10 +340,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -385,8 +386,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 3" xfId="3" xr:uid="{A1692FA0-AF55-48A2-81BC-9237285B072B}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -685,10 +687,10 @@
   <dimension ref="A1:CP286"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="W1:W1048576"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,7 +712,7 @@
     </row>
     <row r="3" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.2">
@@ -720,7 +722,7 @@
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.2">
@@ -901,10 +903,10 @@
         <v>170338.9222315033</v>
       </c>
       <c r="W12" s="8">
-        <v>205318.68020001351</v>
+        <v>205338.0095818183</v>
       </c>
       <c r="X12" s="8">
-        <v>209159.86524090887</v>
+        <v>209348.07642791094</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -1045,10 +1047,10 @@
         <v>11679.429310440948</v>
       </c>
       <c r="W13" s="11">
-        <v>18032.444579501385</v>
+        <v>18029.723137600471</v>
       </c>
       <c r="X13" s="11">
-        <v>11134.052753665672</v>
+        <v>10759.337008839924</v>
       </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -1189,10 +1191,10 @@
         <v>25210.260051531895</v>
       </c>
       <c r="W14" s="11">
-        <v>36575.646967153079</v>
+        <v>36578.483172682456</v>
       </c>
       <c r="X14" s="11">
-        <v>41697.623385289546</v>
+        <v>41515.677098280197</v>
       </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -1336,7 +1338,7 @@
         <v>2329.8318291783062</v>
       </c>
       <c r="X15" s="11">
-        <v>2983.6932814035736</v>
+        <v>3017.7644709202382</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -1480,7 +1482,7 @@
         <v>1742.1442369072447</v>
       </c>
       <c r="X16" s="11">
-        <v>1984.1375348910115</v>
+        <v>1978.3976093709248</v>
       </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -1621,10 +1623,10 @@
         <v>11069.281177426712</v>
       </c>
       <c r="W17" s="11">
-        <v>12380.745501841688</v>
+        <v>12386.229643468138</v>
       </c>
       <c r="X17" s="11">
-        <v>12732.69948363707</v>
+        <v>12498.166891651847</v>
       </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -1765,10 +1767,10 @@
         <v>87446.066903465689</v>
       </c>
       <c r="W18" s="11">
-        <v>96089.349084185174</v>
+        <v>96060.593141191697</v>
       </c>
       <c r="X18" s="11">
-        <v>99094.668385784797</v>
+        <v>99866.738653423148</v>
       </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -1912,7 +1914,7 @@
         <v>4504.6966770582194</v>
       </c>
       <c r="X19" s="11">
-        <v>3217.1161232903978</v>
+        <v>3150.6453366562828</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -2053,10 +2055,10 @@
         <v>24569.240444845367</v>
       </c>
       <c r="W20" s="11">
-        <v>33663.821324188415</v>
+        <v>33706.307743731806</v>
       </c>
       <c r="X20" s="11">
-        <v>36315.874292946835</v>
+        <v>36561.349358768377</v>
       </c>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
@@ -2197,10 +2199,10 @@
         <v>180027.2250005668</v>
       </c>
       <c r="W21" s="8">
-        <v>183537.64485921705</v>
+        <v>181941.67564860798</v>
       </c>
       <c r="X21" s="8">
-        <v>227464.23371284865</v>
+        <v>225187.52273865149</v>
       </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -2341,10 +2343,10 @@
         <v>31266.801271482171</v>
       </c>
       <c r="W22" s="11">
-        <v>32331.279368829804</v>
+        <v>32330.953253907617</v>
       </c>
       <c r="X22" s="11">
-        <v>40650.451952323594</v>
+        <v>40701.740416579181</v>
       </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
@@ -2485,10 +2487,10 @@
         <v>18382.602078682736</v>
       </c>
       <c r="W23" s="11">
-        <v>20415.053926613371</v>
+        <v>20415.427404221798</v>
       </c>
       <c r="X23" s="11">
-        <v>23755.921757300777</v>
+        <v>23851.221619220662</v>
       </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
@@ -2629,10 +2631,10 @@
         <v>53558.071026919832</v>
       </c>
       <c r="W24" s="11">
-        <v>54430.856976498326</v>
+        <v>52832.487153351649</v>
       </c>
       <c r="X24" s="11">
-        <v>74518.472373658034</v>
+        <v>73590.249053158273</v>
       </c>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
@@ -2773,10 +2775,10 @@
         <v>76819.750623482047</v>
       </c>
       <c r="W25" s="11">
-        <v>76360.454587275555</v>
+        <v>76362.807837126922</v>
       </c>
       <c r="X25" s="11">
-        <v>88539.387629566249</v>
+        <v>87044.31164969338</v>
       </c>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
@@ -2917,10 +2919,10 @@
         <v>407692.46202364721</v>
       </c>
       <c r="W26" s="8">
-        <v>467027.15305865934</v>
+        <v>465987.34348604328</v>
       </c>
       <c r="X26" s="8">
-        <v>634411.6051268836</v>
+        <v>633564.25526771229</v>
       </c>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
@@ -3061,10 +3063,10 @@
         <v>377456.35298962833</v>
       </c>
       <c r="W27" s="11">
-        <v>419548.48559260275</v>
+        <v>418484.55170058872</v>
       </c>
       <c r="X27" s="11">
-        <v>561042.52841065126</v>
+        <v>560205.88994851569</v>
       </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
@@ -3208,7 +3210,7 @@
         <v>6435.4496009412369</v>
       </c>
       <c r="X28" s="11">
-        <v>2611.4308717989766</v>
+        <v>2613.2157948372364</v>
       </c>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
@@ -3349,10 +3351,10 @@
         <v>21709.603266907667</v>
       </c>
       <c r="W29" s="11">
-        <v>29787.629055614765</v>
+        <v>29811.749753425083</v>
       </c>
       <c r="X29" s="11">
-        <v>38088.316270668845</v>
+        <v>38128.505400229362</v>
       </c>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
@@ -3493,10 +3495,10 @@
         <v>6500.1575881923818</v>
       </c>
       <c r="W30" s="11">
-        <v>11255.588809500638</v>
+        <v>11255.592431088256</v>
       </c>
       <c r="X30" s="11">
-        <v>32669.329573764469</v>
+        <v>32616.644124130049</v>
       </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
@@ -3637,10 +3639,10 @@
         <v>185869.40506090454</v>
       </c>
       <c r="W31" s="8">
-        <v>217063.29640972841</v>
+        <v>217940.87140317733</v>
       </c>
       <c r="X31" s="8">
-        <v>247511.74726075958</v>
+        <v>244942.60729331814</v>
       </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -3781,10 +3783,10 @@
         <v>18848.727834687219</v>
       </c>
       <c r="W32" s="11">
-        <v>19253.738396472792</v>
+        <v>19248.15429771955</v>
       </c>
       <c r="X32" s="11">
-        <v>22938.474403081833</v>
+        <v>22831.721670225848</v>
       </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -3925,10 +3927,10 @@
         <v>29082.259305185598</v>
       </c>
       <c r="W33" s="11">
-        <v>35062.527508360115</v>
+        <v>35119.025287864963</v>
       </c>
       <c r="X33" s="11">
-        <v>37903.228236624353</v>
+        <v>37340.78225914044</v>
       </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -4069,10 +4071,10 @@
         <v>97997.261662150675</v>
       </c>
       <c r="W34" s="11">
-        <v>111664.54789054772</v>
+        <v>112490.34627618532</v>
       </c>
       <c r="X34" s="11">
-        <v>131303.45121719112</v>
+        <v>131328.01751062361</v>
       </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -4213,10 +4215,10 @@
         <v>39941.15625888107</v>
       </c>
       <c r="W35" s="11">
-        <v>51082.482614347784</v>
+        <v>51083.345541407492</v>
       </c>
       <c r="X35" s="11">
-        <v>55366.593403862273</v>
+        <v>53442.085853328237</v>
       </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -4452,10 +4454,10 @@
         <v>943928.01431662193</v>
       </c>
       <c r="W37" s="13">
-        <v>1072946.7745276184</v>
+        <v>1071207.9001196469</v>
       </c>
       <c r="X37" s="13">
-        <v>1318547.4513414009</v>
+        <v>1313042.4617275926</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -4761,7 +4763,7 @@
     </row>
     <row r="44" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:94" x14ac:dyDescent="0.2">
@@ -4771,7 +4773,7 @@
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:94" x14ac:dyDescent="0.2">
@@ -4952,10 +4954,10 @@
         <v>176746.23959947677</v>
       </c>
       <c r="W53" s="8">
-        <v>205214.51346143242</v>
+        <v>205251.81079561129</v>
       </c>
       <c r="X53" s="8">
-        <v>186120.21144514516</v>
+        <v>185895.43556808389</v>
       </c>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
@@ -5096,10 +5098,10 @@
         <v>13970.571047918909</v>
       </c>
       <c r="W54" s="11">
-        <v>18461.098008060872</v>
+        <v>18457.209672301324</v>
       </c>
       <c r="X54" s="11">
-        <v>9772.8552213206349</v>
+        <v>9388.9857017258291</v>
       </c>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
@@ -5240,10 +5242,10 @@
         <v>25840.902847413065</v>
       </c>
       <c r="W55" s="11">
-        <v>37238.480158801205</v>
+        <v>37242.576118303281</v>
       </c>
       <c r="X55" s="11">
-        <v>36923.495719190425</v>
+        <v>36692.096409331032</v>
       </c>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
@@ -5387,7 +5389,7 @@
         <v>2210.0849703596596</v>
       </c>
       <c r="X56" s="11">
-        <v>2652.7670532863231</v>
+        <v>2689.1006705234158</v>
       </c>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
@@ -5531,7 +5533,7 @@
         <v>1641.9332915867071</v>
       </c>
       <c r="X57" s="11">
-        <v>1719.6787901554442</v>
+        <v>1713.8722597697242</v>
       </c>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
@@ -5672,10 +5674,10 @@
         <v>11153.003394280062</v>
       </c>
       <c r="W58" s="11">
-        <v>11904.664987915563</v>
+        <v>11906.131314373666</v>
       </c>
       <c r="X58" s="11">
-        <v>10874.947323683014</v>
+        <v>10540.897115030662</v>
       </c>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
@@ -5816,10 +5818,10 @@
         <v>89359.796338697401</v>
       </c>
       <c r="W59" s="11">
-        <v>96791.537860345037</v>
+        <v>96768.306675681393</v>
       </c>
       <c r="X59" s="11">
-        <v>90140.283869531297</v>
+        <v>90648.475995027969</v>
       </c>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
@@ -5963,7 +5965,7 @@
         <v>5066.4948791584193</v>
       </c>
       <c r="X60" s="11">
-        <v>2961.2853948998154</v>
+        <v>2889.1643220695923</v>
       </c>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
@@ -6104,10 +6106,10 @@
         <v>25543.062368740841</v>
       </c>
       <c r="W61" s="11">
-        <v>31900.219305204962</v>
+        <v>31959.073873846857</v>
       </c>
       <c r="X61" s="11">
-        <v>31074.898073078231</v>
+        <v>31332.843094605672</v>
       </c>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -6248,10 +6250,10 @@
         <v>183935.80224736748</v>
       </c>
       <c r="W62" s="8">
-        <v>187113.62999497255</v>
+        <v>185382.68327611513</v>
       </c>
       <c r="X62" s="8">
-        <v>205861.91483546872</v>
+        <v>203431.4676463051</v>
       </c>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -6392,10 +6394,10 @@
         <v>32348.056103422186</v>
       </c>
       <c r="W63" s="11">
-        <v>32160.844497683342</v>
+        <v>32160.527246869613</v>
       </c>
       <c r="X63" s="11">
-        <v>35100.051370311034</v>
+        <v>35124.165140187019</v>
       </c>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -6536,10 +6538,10 @@
         <v>18952.010904281029</v>
       </c>
       <c r="W64" s="11">
-        <v>20442.086207847256</v>
+        <v>20442.448381010778</v>
       </c>
       <c r="X64" s="11">
-        <v>20551.285752674015</v>
+        <v>20623.297906329837</v>
       </c>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -6680,10 +6682,10 @@
         <v>54441.968749510233</v>
       </c>
       <c r="W65" s="11">
-        <v>54414.84695148826</v>
+        <v>52681.537418341817</v>
       </c>
       <c r="X65" s="11">
-        <v>63432.16670592533</v>
+        <v>62594.008451400055</v>
       </c>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
@@ -6824,10 +6826,10 @@
         <v>78193.766490154027</v>
       </c>
       <c r="W66" s="11">
-        <v>80095.852337953693</v>
+        <v>80098.170229892916</v>
       </c>
       <c r="X66" s="11">
-        <v>86778.411006558337</v>
+        <v>85089.996148388193</v>
       </c>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
@@ -6968,10 +6970,10 @@
         <v>454473.44765315868</v>
       </c>
       <c r="W67" s="8">
-        <v>504385.75810683268</v>
+        <v>503150.80215884541</v>
       </c>
       <c r="X67" s="8">
-        <v>611132.73037015949</v>
+        <v>603431.90745223383</v>
       </c>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
@@ -7112,10 +7114,10 @@
         <v>423927.03445179085</v>
       </c>
       <c r="W68" s="11">
-        <v>458189.21862934093</v>
+        <v>456925.26794895518</v>
       </c>
       <c r="X68" s="11">
-        <v>544437.71211027098</v>
+        <v>536917.42980774073</v>
       </c>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
@@ -7259,7 +7261,7 @@
         <v>6219.7659486222756</v>
       </c>
       <c r="X69" s="11">
-        <v>2833.8852067384482</v>
+        <v>2835.3855272452197</v>
       </c>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
@@ -7400,10 +7402,10 @@
         <v>21107.572288778774</v>
       </c>
       <c r="W70" s="11">
-        <v>29262.020157918061</v>
+        <v>29291.011767812543</v>
       </c>
       <c r="X70" s="11">
-        <v>33997.935298056596</v>
+        <v>33862.223109139166</v>
       </c>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
@@ -7544,10 +7546,10 @@
         <v>7390.3625868692707</v>
       </c>
       <c r="W71" s="11">
-        <v>10714.753370951459</v>
+        <v>10714.756493455456</v>
       </c>
       <c r="X71" s="11">
-        <v>29863.197755093512</v>
+        <v>29816.869008108799</v>
       </c>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
@@ -7688,10 +7690,10 @@
         <v>186422.09135989813</v>
       </c>
       <c r="W72" s="8">
-        <v>226581.90607719813</v>
+        <v>227217.63266621521</v>
       </c>
       <c r="X72" s="8">
-        <v>224424.49895670213</v>
+        <v>221328.15285148442</v>
       </c>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
@@ -7832,10 +7834,10 @@
         <v>15880.294337258216</v>
       </c>
       <c r="W73" s="11">
-        <v>19490.153186938234</v>
+        <v>19487.511000151404</v>
       </c>
       <c r="X73" s="11">
-        <v>18489.156168059431</v>
+        <v>18415.035842155288</v>
       </c>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
@@ -7976,10 +7978,10 @@
         <v>30565.836001781707</v>
       </c>
       <c r="W74" s="11">
-        <v>38416.70479995216</v>
+        <v>38504.704007123466</v>
       </c>
       <c r="X74" s="11">
-        <v>36299.286290424716</v>
+        <v>35937.163307918301</v>
       </c>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
@@ -8120,10 +8122,10 @@
         <v>98212.125247995544</v>
       </c>
       <c r="W75" s="11">
-        <v>115233.20574496663</v>
+        <v>115782.85176744947</v>
       </c>
       <c r="X75" s="11">
-        <v>120156.50165212987</v>
+        <v>119047.67048373797</v>
       </c>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
@@ -8264,10 +8266,10 @@
         <v>41763.835772862665</v>
       </c>
       <c r="W76" s="11">
-        <v>53441.842345341116</v>
+        <v>53442.565891490878</v>
       </c>
       <c r="X76" s="11">
-        <v>49479.554846088096</v>
+        <v>47928.283217672863</v>
       </c>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
@@ -8503,10 +8505,10 @@
         <v>1001577.580859901</v>
       </c>
       <c r="W78" s="13">
-        <v>1123295.8076404359</v>
+        <v>1121002.9288967871</v>
       </c>
       <c r="X78" s="13">
-        <v>1227539.3556074756</v>
+        <v>1214086.9635181073</v>
       </c>
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
@@ -8814,7 +8816,7 @@
     </row>
     <row r="85" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:94" x14ac:dyDescent="0.2">
@@ -8824,7 +8826,7 @@
     </row>
     <row r="88" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:94" x14ac:dyDescent="0.2">
@@ -9000,10 +9002,10 @@
         <v>-28.623664340648986</v>
       </c>
       <c r="V94" s="19">
-        <v>20.535387632058686</v>
+        <v>20.546735233388787</v>
       </c>
       <c r="W94" s="19">
-        <v>1.8708405085954212</v>
+        <v>1.9529101573835987</v>
       </c>
       <c r="X94" s="19"/>
       <c r="Y94" s="9"/>
@@ -9136,10 +9138,10 @@
         <v>-18.708862093933959</v>
       </c>
       <c r="V95" s="19">
-        <v>54.394911773481027</v>
+        <v>54.371610618702164</v>
       </c>
       <c r="W95" s="19">
-        <v>-38.255444487418799</v>
+        <v>-40.324446877380858</v>
       </c>
       <c r="X95" s="19"/>
       <c r="Y95" s="9"/>
@@ -9272,10 +9274,10 @@
         <v>-46.259770640586282</v>
       </c>
       <c r="V96" s="19">
-        <v>45.082386664752249</v>
+        <v>45.093636868136059</v>
       </c>
       <c r="W96" s="19">
-        <v>14.003788976682443</v>
+        <v>13.497535975698781</v>
       </c>
       <c r="X96" s="19"/>
       <c r="Y96" s="9"/>
@@ -9411,7 +9413,7 @@
         <v>5.2863562882099728</v>
       </c>
       <c r="W97" s="19">
-        <v>28.064748881719652</v>
+        <v>29.527137243401597</v>
       </c>
       <c r="X97" s="19"/>
       <c r="Y97" s="9"/>
@@ -9547,7 +9549,7 @@
         <v>-44.344729980746322</v>
       </c>
       <c r="W98" s="19">
-        <v>13.890543208601798</v>
+        <v>13.561068449940208</v>
       </c>
       <c r="X98" s="19"/>
       <c r="Y98" s="9"/>
@@ -9680,10 +9682,10 @@
         <v>-34.79656918089627</v>
       </c>
       <c r="V99" s="19">
-        <v>11.847782194650634</v>
+        <v>11.897325986506189</v>
       </c>
       <c r="W99" s="19">
-        <v>2.8427527384601348</v>
+        <v>0.90372333959381024</v>
       </c>
       <c r="X99" s="19"/>
       <c r="Y99" s="9"/>
@@ -9816,10 +9818,10 @@
         <v>-17.98007235224128</v>
       </c>
       <c r="V100" s="19">
-        <v>9.8841291401488292</v>
+        <v>9.8512449361911649</v>
       </c>
       <c r="W100" s="19">
-        <v>3.1276299925464315</v>
+        <v>3.9622340314275419</v>
       </c>
       <c r="X100" s="19"/>
       <c r="Y100" s="9"/>
@@ -9955,7 +9957,7 @@
         <v>-10.292713913712277</v>
       </c>
       <c r="W101" s="19">
-        <v>-28.583068873988481</v>
+        <v>-30.058657385255884</v>
       </c>
       <c r="X101" s="19"/>
       <c r="Y101" s="9"/>
@@ -10088,10 +10090,10 @@
         <v>-35.340710676264749</v>
       </c>
       <c r="V102" s="19">
-        <v>37.016125507661314</v>
+        <v>37.189050753921038</v>
       </c>
       <c r="W102" s="19">
-        <v>7.8780508701572955</v>
+        <v>8.4703481518752426</v>
       </c>
       <c r="X102" s="19"/>
       <c r="Y102" s="9"/>
@@ -10224,10 +10226,10 @@
         <v>-29.126586263845752</v>
       </c>
       <c r="V103" s="19">
-        <v>1.9499383266276453</v>
+        <v>1.0634228506467167</v>
       </c>
       <c r="W103" s="19">
-        <v>23.933285668629779</v>
+        <v>23.769071564211657</v>
       </c>
       <c r="X103" s="19"/>
       <c r="Y103" s="9"/>
@@ -10360,10 +10362,10 @@
         <v>-25.5806220186183</v>
       </c>
       <c r="V104" s="19">
-        <v>3.4044995140533558</v>
+        <v>3.4034565070653287</v>
       </c>
       <c r="W104" s="19">
-        <v>25.73103429836496</v>
+        <v>25.890938312064279</v>
       </c>
       <c r="X104" s="19"/>
       <c r="Y104" s="9"/>
@@ -10496,10 +10498,10 @@
         <v>-39.95204035781137</v>
       </c>
       <c r="V105" s="19">
-        <v>11.056388204625051</v>
+        <v>11.058419895279229</v>
       </c>
       <c r="W105" s="19">
-        <v>16.364726944621012</v>
+        <v>16.829401349140312</v>
       </c>
       <c r="X105" s="19"/>
       <c r="Y105" s="9"/>
@@ -10632,10 +10634,10 @@
         <v>-33.794569640191199</v>
       </c>
       <c r="V106" s="19">
-        <v>1.6296067667183252</v>
+        <v>-1.3547610279008921</v>
       </c>
       <c r="W106" s="19">
-        <v>36.90483029843341</v>
+        <v>39.289768508446542</v>
       </c>
       <c r="X106" s="19"/>
       <c r="Y106" s="9"/>
@@ -10768,10 +10770,10 @@
         <v>-23.553331562805113</v>
       </c>
       <c r="V107" s="19">
-        <v>-0.59788795521824056</v>
+        <v>-0.59482461560536137</v>
       </c>
       <c r="W107" s="19">
-        <v>15.949267337546928</v>
+        <v>13.987835328618175</v>
       </c>
       <c r="X107" s="19"/>
       <c r="Y107" s="9"/>
@@ -10904,10 +10906,10 @@
         <v>-41.75989011183627</v>
       </c>
       <c r="V108" s="19">
-        <v>14.55378663134826</v>
+        <v>14.298739096877085</v>
       </c>
       <c r="W108" s="19">
-        <v>35.840411199217897</v>
+        <v>35.961687398638134</v>
       </c>
       <c r="X108" s="19"/>
       <c r="Y108" s="9"/>
@@ -11040,10 +11042,10 @@
         <v>-39.395861571950718</v>
       </c>
       <c r="V109" s="19">
-        <v>11.151523154819174</v>
+        <v>10.869653772150897</v>
       </c>
       <c r="W109" s="19">
-        <v>33.725313682920671</v>
+        <v>33.865369144934107</v>
       </c>
       <c r="X109" s="19"/>
       <c r="Y109" s="9"/>
@@ -11179,7 +11181,7 @@
         <v>217.58854020709344</v>
       </c>
       <c r="W110" s="19">
-        <v>-59.421158835320014</v>
+        <v>-59.393423041413726</v>
       </c>
       <c r="X110" s="19"/>
       <c r="Y110" s="9"/>
@@ -11312,10 +11314,10 @@
         <v>-68.130493654973407</v>
       </c>
       <c r="V111" s="19">
-        <v>37.209458364541263</v>
+        <v>37.320564484325047</v>
       </c>
       <c r="W111" s="19">
-        <v>27.866223255151823</v>
+        <v>27.897576343531341</v>
       </c>
       <c r="X111" s="19"/>
       <c r="Y111" s="9"/>
@@ -11448,10 +11450,10 @@
         <v>-23.115096276631036</v>
       </c>
       <c r="V112" s="19">
-        <v>73.158706643459794</v>
+        <v>73.158762358841614</v>
       </c>
       <c r="W112" s="19">
-        <v>190.24984944536072</v>
+        <v>189.78167363311752</v>
       </c>
       <c r="X112" s="19"/>
       <c r="Y112" s="9"/>
@@ -11584,10 +11586,10 @@
         <v>-28.314110141744777</v>
       </c>
       <c r="V113" s="19">
-        <v>16.782692847487439</v>
+        <v>17.25483886482759</v>
       </c>
       <c r="W113" s="19">
-        <v>14.027452524058575</v>
+        <v>12.389477804825916</v>
       </c>
       <c r="X113" s="19"/>
       <c r="Y113" s="9"/>
@@ -11720,10 +11722,10 @@
         <v>-4.4061544080336716</v>
       </c>
       <c r="V114" s="19">
-        <v>2.1487421609443373</v>
+        <v>2.1191162954630158</v>
       </c>
       <c r="W114" s="19">
-        <v>19.137769147648072</v>
+        <v>18.617719481451104</v>
       </c>
       <c r="X114" s="19"/>
       <c r="Y114" s="9"/>
@@ -11856,10 +11858,10 @@
         <v>-30.383334389781453</v>
       </c>
       <c r="V115" s="19">
-        <v>20.563286161567888</v>
+        <v>20.757555041822215</v>
       </c>
       <c r="W115" s="19">
-        <v>8.1018139025685514</v>
+        <v>6.3263628562128247</v>
       </c>
       <c r="X115" s="19"/>
       <c r="Y115" s="9"/>
@@ -11992,10 +11994,10 @@
         <v>-31.267025807768647</v>
       </c>
       <c r="V116" s="19">
-        <v>13.94660013615028</v>
+        <v>14.789275096277791</v>
       </c>
       <c r="W116" s="19">
-        <v>17.58741131150525</v>
+        <v>16.74603364469003</v>
       </c>
       <c r="X116" s="19"/>
       <c r="Y116" s="9"/>
@@ -12128,10 +12130,10 @@
         <v>-27.661135033255078</v>
       </c>
       <c r="V117" s="19">
-        <v>27.894351088019391</v>
+        <v>27.896511583960248</v>
       </c>
       <c r="W117" s="19">
-        <v>8.3866534480279853</v>
+        <v>4.6174350699266284</v>
       </c>
       <c r="X117" s="19"/>
       <c r="Y117" s="9"/>
@@ -12353,10 +12355,10 @@
         <v>-34.989596587680595</v>
       </c>
       <c r="V119" s="20">
-        <v>13.668283836707886</v>
+        <v>13.484066991609751</v>
       </c>
       <c r="W119" s="20">
-        <v>22.89029452760245</v>
+        <v>22.575875474866677</v>
       </c>
       <c r="X119" s="20"/>
       <c r="Y119" s="9"/>
@@ -12648,7 +12650,7 @@
     </row>
     <row r="126" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:88" x14ac:dyDescent="0.2">
@@ -12658,7 +12660,7 @@
     </row>
     <row r="129" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:88" x14ac:dyDescent="0.2">
@@ -12834,10 +12836,10 @@
         <v>-23.745364410665076</v>
       </c>
       <c r="V135" s="19">
-        <v>16.106862542856561</v>
+        <v>16.127964736749576</v>
       </c>
       <c r="W135" s="19">
-        <v>-9.3045573113793409</v>
+        <v>-9.4305502847925595</v>
       </c>
       <c r="X135" s="19"/>
       <c r="Y135" s="9"/>
@@ -12970,10 +12972,10 @@
         <v>3.7050315089629748E-2</v>
       </c>
       <c r="V136" s="19">
-        <v>32.1427588374126</v>
+        <v>32.114926505103426</v>
       </c>
       <c r="W136" s="19">
-        <v>-47.062437905625089</v>
+        <v>-49.131066567359582</v>
       </c>
       <c r="X136" s="19"/>
       <c r="Y136" s="9"/>
@@ -13106,10 +13108,10 @@
         <v>-43.33740541965885</v>
       </c>
       <c r="V137" s="19">
-        <v>44.106730243479689</v>
+        <v>44.122580926121316</v>
       </c>
       <c r="W137" s="19">
-        <v>-0.84585739876479238</v>
+        <v>-1.4780924585442676</v>
       </c>
       <c r="X137" s="19"/>
       <c r="Y137" s="9"/>
@@ -13245,7 +13247,7 @@
         <v>-1.6507986751624202</v>
       </c>
       <c r="W138" s="19">
-        <v>20.030093361280279</v>
+        <v>21.674085231474322</v>
       </c>
       <c r="X138" s="19"/>
       <c r="Y138" s="9"/>
@@ -13381,7 +13383,7 @@
         <v>-42.394338594235691</v>
       </c>
       <c r="W139" s="19">
-        <v>4.7349973940540764</v>
+        <v>4.381357546718462</v>
       </c>
       <c r="X139" s="19"/>
       <c r="Y139" s="9"/>
@@ -13514,10 +13516,10 @@
         <v>-32.439543993652094</v>
       </c>
       <c r="V140" s="19">
-        <v>6.7395442022460088</v>
+        <v>6.7526915707732513</v>
       </c>
       <c r="W140" s="19">
-        <v>-8.6496987968818502</v>
+        <v>-11.46664826126036</v>
       </c>
       <c r="X140" s="19"/>
       <c r="Y140" s="9"/>
@@ -13650,10 +13652,10 @@
         <v>-13.460748424312172</v>
       </c>
       <c r="V141" s="19">
-        <v>8.3166500217607364</v>
+        <v>8.2906526654377757</v>
       </c>
       <c r="W141" s="19">
-        <v>-6.8717308742531316</v>
+        <v>-6.3242097447917587</v>
       </c>
       <c r="X141" s="19"/>
       <c r="Y141" s="9"/>
@@ -13789,7 +13791,7 @@
         <v>-12.365964984535466</v>
       </c>
       <c r="W142" s="19">
-        <v>-41.551596014013811</v>
+        <v>-42.975086504982251</v>
       </c>
       <c r="X142" s="19"/>
       <c r="Y142" s="9"/>
@@ -13922,10 +13924,10 @@
         <v>-31.111793889517884</v>
       </c>
       <c r="V143" s="19">
-        <v>24.887998332744559</v>
+        <v>25.118411459378592</v>
       </c>
       <c r="W143" s="19">
-        <v>-2.587196107432618</v>
+        <v>-1.9594772417784299</v>
       </c>
       <c r="X143" s="19"/>
       <c r="Y143" s="9"/>
@@ -14058,10 +14060,10 @@
         <v>-26.324808420696613</v>
       </c>
       <c r="V144" s="19">
-        <v>1.7276830876739098</v>
+        <v>0.78662283854984594</v>
       </c>
       <c r="W144" s="19">
-        <v>10.01973230971997</v>
+        <v>9.7359602586545293</v>
       </c>
       <c r="X144" s="19"/>
       <c r="Y144" s="9"/>
@@ -14194,10 +14196,10 @@
         <v>-21.70000643936018</v>
       </c>
       <c r="V145" s="19">
-        <v>-0.57874144010476414</v>
+        <v>-0.57972218161430078</v>
       </c>
       <c r="W145" s="19">
-        <v>9.139084867125959</v>
+        <v>9.2151408792773282</v>
       </c>
       <c r="X145" s="19"/>
       <c r="Y145" s="9"/>
@@ -14330,10 +14332,10 @@
         <v>-36.930040415574403</v>
       </c>
       <c r="V146" s="19">
-        <v>7.8623598893647682</v>
+        <v>7.8642708906054821</v>
       </c>
       <c r="W146" s="19">
-        <v>0.53418982640253887</v>
+        <v>0.8846764435861445</v>
       </c>
       <c r="X146" s="19"/>
       <c r="Y146" s="9"/>
@@ -14466,10 +14468,10 @@
         <v>-31.361091626630241</v>
       </c>
       <c r="V147" s="19">
-        <v>-4.981781270026886E-2</v>
+        <v>-3.2335923398880624</v>
       </c>
       <c r="W147" s="19">
-        <v>16.571432724006669</v>
+        <v>18.815834766445278</v>
       </c>
       <c r="X147" s="19"/>
       <c r="Y147" s="9"/>
@@ -14602,10 +14604,10 @@
         <v>-20.999697220506448</v>
       </c>
       <c r="V148" s="19">
-        <v>2.4325287464431966</v>
+        <v>2.4354930389223455</v>
       </c>
       <c r="W148" s="19">
-        <v>8.3432018931623162</v>
+        <v>6.2321347718281856</v>
       </c>
       <c r="X148" s="19"/>
       <c r="Y148" s="9"/>
@@ -14738,10 +14740,10 @@
         <v>-34.378452556691158</v>
       </c>
       <c r="V149" s="19">
-        <v>10.982448086112527</v>
+        <v>10.710714730871572</v>
       </c>
       <c r="W149" s="19">
-        <v>21.163756221823576</v>
+        <v>19.930626138946224</v>
       </c>
       <c r="X149" s="19"/>
       <c r="Y149" s="9"/>
@@ -14874,10 +14876,10 @@
         <v>-31.433694081063322</v>
       </c>
       <c r="V150" s="19">
-        <v>8.0820946514668037</v>
+        <v>7.7839417672044959</v>
       </c>
       <c r="W150" s="19">
-        <v>18.823771920897613</v>
+        <v>17.506618143018045</v>
       </c>
       <c r="X150" s="19"/>
       <c r="Y150" s="9"/>
@@ -15013,7 +15015,7 @@
         <v>203.6285944805802</v>
       </c>
       <c r="W151" s="19">
-        <v>-54.437430119598389</v>
+        <v>-54.413308303453469</v>
       </c>
       <c r="X151" s="19"/>
       <c r="Y151" s="9"/>
@@ -15146,10 +15148,10 @@
         <v>-67.770281548190155</v>
       </c>
       <c r="V152" s="19">
-        <v>38.632807968514527</v>
+        <v>38.770159671011783</v>
       </c>
       <c r="W152" s="19">
-        <v>16.184511918795309</v>
+        <v>15.606191338019457</v>
       </c>
       <c r="X152" s="19"/>
       <c r="Y152" s="9"/>
@@ -15282,10 +15284,10 @@
         <v>-9.9269065723759553</v>
       </c>
       <c r="V153" s="19">
-        <v>44.982783253270355</v>
+        <v>44.982825504296073</v>
       </c>
       <c r="W153" s="19">
-        <v>178.71101388161668</v>
+        <v>178.27855001950684</v>
       </c>
       <c r="X153" s="19"/>
       <c r="Y153" s="9"/>
@@ -15418,10 +15420,10 @@
         <v>-25.584636748711205</v>
       </c>
       <c r="V154" s="19">
-        <v>21.542411859208926</v>
+        <v>21.883426480587559</v>
       </c>
       <c r="W154" s="19">
-        <v>-0.95215331084776267</v>
+        <v>-2.591999461319304</v>
       </c>
       <c r="X154" s="19"/>
       <c r="Y154" s="9"/>
@@ -15554,10 +15556,10 @@
         <v>-16.054753947627802</v>
       </c>
       <c r="V155" s="19">
-        <v>22.731687291277709</v>
+        <v>22.715049143830825</v>
       </c>
       <c r="W155" s="19">
-        <v>-5.1359114999139308</v>
+        <v>-5.5033973193794878</v>
       </c>
       <c r="X155" s="19"/>
       <c r="Y155" s="9"/>
@@ -15690,10 +15692,10 @@
         <v>-24.791838388100444</v>
       </c>
       <c r="V156" s="19">
-        <v>25.685110650050007</v>
+        <v>25.973011190922435</v>
       </c>
       <c r="W156" s="19">
-        <v>-5.5117129919224084</v>
+        <v>-6.6681221565296624</v>
       </c>
       <c r="X156" s="19"/>
       <c r="Y156" s="9"/>
@@ -15826,10 +15828,10 @@
         <v>-28.685710199847193</v>
       </c>
       <c r="V157" s="19">
-        <v>17.330935924654042</v>
+        <v>17.890587822110618</v>
       </c>
       <c r="W157" s="19">
-        <v>4.272462850733703</v>
+        <v>2.819777425111198</v>
       </c>
       <c r="X157" s="19"/>
       <c r="Y157" s="9"/>
@@ -15962,10 +15964,10 @@
         <v>-21.554337683782407</v>
       </c>
       <c r="V158" s="19">
-        <v>27.962006737098122</v>
+        <v>27.963739207634816</v>
       </c>
       <c r="W158" s="19">
-        <v>-7.4142045359303381</v>
+        <v>-10.318147307923326</v>
       </c>
       <c r="X158" s="19"/>
       <c r="Y158" s="9"/>
@@ -16187,10 +16189,10 @@
         <v>-29.690416211821542</v>
       </c>
       <c r="V160" s="20">
-        <v>12.152650888614545</v>
+        <v>11.923724164667689</v>
       </c>
       <c r="W160" s="20">
-        <v>9.2801510748990381</v>
+        <v>8.3036388417760065</v>
       </c>
       <c r="X160" s="20"/>
       <c r="Y160" s="9"/>
@@ -16483,7 +16485,7 @@
     </row>
     <row r="166" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="168" spans="1:94" x14ac:dyDescent="0.2">
@@ -16493,7 +16495,7 @@
     </row>
     <row r="169" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="170" spans="1:94" x14ac:dyDescent="0.2">
@@ -16674,10 +16676,10 @@
         <v>96.374849398497503</v>
       </c>
       <c r="W175" s="17">
-        <v>100.05075992766012</v>
+        <v>100.04199660206304</v>
       </c>
       <c r="X175" s="17">
-        <v>112.37891017685317</v>
+        <v>112.61603911261047</v>
       </c>
       <c r="Y175" s="9"/>
       <c r="Z175" s="9"/>
@@ -16818,10 +16820,10 @@
         <v>83.60022844005897</v>
       </c>
       <c r="W176" s="17">
-        <v>97.678071865647865</v>
+        <v>97.68390486812109</v>
       </c>
       <c r="X176" s="17">
-        <v>113.92835053337764</v>
+        <v>114.59530721047115</v>
       </c>
       <c r="Y176" s="9"/>
       <c r="Z176" s="9"/>
@@ -16962,10 +16964,10 @@
         <v>97.559517174748009</v>
       </c>
       <c r="W177" s="17">
-        <v>98.220031567288686</v>
+        <v>98.216844765218994</v>
       </c>
       <c r="X177" s="17">
-        <v>112.92978244098877</v>
+        <v>113.1461027332374</v>
       </c>
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
@@ -17109,7 +17111,7 @@
         <v>105.41820158159618</v>
       </c>
       <c r="X178" s="17">
-        <v>112.47475641358294</v>
+        <v>112.22207126715156</v>
       </c>
       <c r="Y178" s="9"/>
       <c r="Z178" s="9"/>
@@ -17253,7 +17255,7 @@
         <v>106.10322878730945</v>
       </c>
       <c r="X179" s="17">
-        <v>115.37838032599464</v>
+        <v>115.43436788204637</v>
       </c>
       <c r="Y179" s="9"/>
       <c r="Z179" s="9"/>
@@ -17394,10 +17396,10 @@
         <v>99.249330302398292</v>
       </c>
       <c r="W180" s="17">
-        <v>103.99910887378513</v>
+        <v>104.03236212013613</v>
       </c>
       <c r="X180" s="17">
-        <v>117.08286122828677</v>
+        <v>118.56834152977586</v>
       </c>
       <c r="Y180" s="9"/>
       <c r="Z180" s="9"/>
@@ -17538,10 +17540,10 @@
         <v>97.858399958770974</v>
       </c>
       <c r="W181" s="17">
-        <v>99.274534952453166</v>
+        <v>99.268651525688469</v>
       </c>
       <c r="X181" s="17">
-        <v>109.93383216899343</v>
+        <v>110.16924174092104</v>
       </c>
       <c r="Y181" s="9"/>
       <c r="Z181" s="9"/>
@@ -17685,7 +17687,7 @@
         <v>88.911501629830553</v>
       </c>
       <c r="X182" s="17">
-        <v>108.63917840648512</v>
+        <v>109.05040300370953</v>
       </c>
       <c r="Y182" s="9"/>
       <c r="Z182" s="9"/>
@@ -17826,10 +17828,10 @@
         <v>96.18752869238098</v>
       </c>
       <c r="W183" s="17">
-        <v>105.52849496773113</v>
+        <v>105.4670979415169</v>
       </c>
       <c r="X183" s="17">
-        <v>116.86562642150426</v>
+        <v>116.68698320281972</v>
       </c>
       <c r="Y183" s="9"/>
       <c r="Z183" s="9"/>
@@ -17970,10 +17972,10 @@
         <v>97.875031832277983</v>
       </c>
       <c r="W184" s="17">
-        <v>98.088869776161374</v>
+        <v>98.143835461491307</v>
       </c>
       <c r="X184" s="17">
-        <v>110.49359659101839</v>
+        <v>110.6945377448549</v>
       </c>
       <c r="Y184" s="9"/>
       <c r="Z184" s="9"/>
@@ -18114,10 +18116,10 @@
         <v>96.657434905877921</v>
       </c>
       <c r="W185" s="17">
-        <v>100.52994526048199</v>
+        <v>100.52992292610685</v>
       </c>
       <c r="X185" s="17">
-        <v>115.8130839281543</v>
+        <v>115.87959529893746</v>
       </c>
       <c r="Y185" s="9"/>
       <c r="Z185" s="9"/>
@@ -18258,10 +18260,10 @@
         <v>96.995522910607491</v>
       </c>
       <c r="W186" s="17">
-        <v>99.867761631767763</v>
+        <v>99.867819273477636</v>
       </c>
       <c r="X186" s="17">
-        <v>115.59336015854771</v>
+        <v>115.65183089315745</v>
       </c>
       <c r="Y186" s="9"/>
       <c r="Z186" s="9"/>
@@ -18402,10 +18404,10 @@
         <v>98.376440560668826</v>
       </c>
       <c r="W187" s="17">
-        <v>100.02942216308048</v>
+        <v>100.2865325167167</v>
       </c>
       <c r="X187" s="17">
-        <v>117.47741917618764</v>
+        <v>117.5675609755781</v>
       </c>
       <c r="Y187" s="9"/>
       <c r="Z187" s="9"/>
@@ -18546,10 +18548,10 @@
         <v>98.242806391932803</v>
       </c>
       <c r="W188" s="17">
-        <v>95.336340594869853</v>
+        <v>95.33651969571217</v>
       </c>
       <c r="X188" s="17">
-        <v>102.02927963600857</v>
+        <v>102.29676294484381</v>
       </c>
       <c r="Y188" s="9"/>
       <c r="Z188" s="9"/>
@@ -18690,10 +18692,10 @@
         <v>89.706552523347099</v>
       </c>
       <c r="W189" s="17">
-        <v>92.593247440531329</v>
+        <v>92.613852842259888</v>
       </c>
       <c r="X189" s="17">
-        <v>103.8091356590612</v>
+        <v>104.99349594268242</v>
       </c>
       <c r="Y189" s="9"/>
       <c r="Z189" s="9"/>
@@ -18834,10 +18836,10 @@
         <v>89.038047190772602</v>
       </c>
       <c r="W190" s="17">
-        <v>91.566642892137281</v>
+        <v>91.587088973888655</v>
       </c>
       <c r="X190" s="17">
-        <v>103.04990193203535</v>
+        <v>104.33743790904946</v>
       </c>
       <c r="Y190" s="9"/>
       <c r="Z190" s="9"/>
@@ -18981,7 +18983,7 @@
         <v>103.46771332073577</v>
       </c>
       <c r="X191" s="17">
-        <v>92.150199506651958</v>
+        <v>92.164390687856937</v>
       </c>
       <c r="Y191" s="9"/>
       <c r="Z191" s="9"/>
@@ -19122,10 +19124,10 @@
         <v>102.85220379630748</v>
       </c>
       <c r="W192" s="17">
-        <v>101.79621534965855</v>
+        <v>101.77780811991197</v>
       </c>
       <c r="X192" s="17">
-        <v>112.03126288920863</v>
+        <v>112.59894330428281</v>
       </c>
       <c r="Y192" s="9"/>
       <c r="Z192" s="9"/>
@@ -19266,10 +19268,10 @@
         <v>87.954515245861558</v>
       </c>
       <c r="W193" s="17">
-        <v>105.04757711003808</v>
+        <v>105.04758029697774</v>
       </c>
       <c r="X193" s="17">
-        <v>109.39662202850444</v>
+        <v>109.38990312919792</v>
       </c>
       <c r="Y193" s="9"/>
       <c r="Z193" s="9"/>
@@ -19410,10 +19412,10 @@
         <v>99.703529611237656</v>
       </c>
       <c r="W194" s="17">
-        <v>95.799042460068875</v>
+        <v>95.917235315682774</v>
       </c>
       <c r="X194" s="17">
-        <v>110.2873119518523</v>
+        <v>110.66943095019614</v>
       </c>
       <c r="Y194" s="9"/>
       <c r="Z194" s="9"/>
@@ -19554,10 +19556,10 @@
         <v>118.69255968678421</v>
       </c>
       <c r="W195" s="17">
-        <v>98.787003938871649</v>
+        <v>98.7717430798115</v>
       </c>
       <c r="X195" s="17">
-        <v>124.06447430363929</v>
+        <v>123.98412832822179</v>
       </c>
       <c r="Y195" s="9"/>
       <c r="Z195" s="9"/>
@@ -19698,10 +19700,10 @@
         <v>95.146291118915798</v>
       </c>
       <c r="W196" s="17">
-        <v>91.268961486784733</v>
+        <v>91.207103634319211</v>
       </c>
       <c r="X196" s="17">
-        <v>104.41865973167283</v>
+        <v>103.90575889141719</v>
       </c>
       <c r="Y196" s="9"/>
       <c r="Z196" s="9"/>
@@ -19842,10 +19844,10 @@
         <v>99.781224991005629</v>
       </c>
       <c r="W197" s="17">
-        <v>96.903099387587076</v>
+        <v>97.156309901679421</v>
       </c>
       <c r="X197" s="17">
-        <v>109.27702572211469</v>
+        <v>110.31548704563956</v>
       </c>
       <c r="Y197" s="9"/>
       <c r="Z197" s="9"/>
@@ -19986,10 +19988,10 @@
         <v>95.635746860287355</v>
       </c>
       <c r="W198" s="17">
-        <v>95.585182644439627</v>
+        <v>95.585503220647155</v>
       </c>
       <c r="X198" s="17">
-        <v>111.89792142650938</v>
+        <v>111.50427736085118</v>
       </c>
       <c r="Y198" s="9"/>
       <c r="Z198" s="9"/>
@@ -20225,10 +20227,10 @@
         <v>94.244123705945555</v>
       </c>
       <c r="W200" s="20">
-        <v>95.517740494502576</v>
+        <v>95.557992981682489</v>
       </c>
       <c r="X200" s="20">
-        <v>107.41386378515642</v>
+        <v>108.15061039142849</v>
       </c>
       <c r="Y200" s="9"/>
       <c r="Z200" s="9"/>
@@ -20534,7 +20536,7 @@
     </row>
     <row r="207" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="209" spans="1:94" x14ac:dyDescent="0.2">
@@ -20544,7 +20546,7 @@
     </row>
     <row r="210" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:94" x14ac:dyDescent="0.2">
@@ -20725,10 +20727,10 @@
         <v>18.045753452377831</v>
       </c>
       <c r="W216" s="20">
-        <v>19.135961361215543</v>
+        <v>19.168828904163551</v>
       </c>
       <c r="X216" s="20">
-        <v>15.86290011998611</v>
+        <v>15.943740018313502</v>
       </c>
       <c r="Y216" s="9"/>
       <c r="Z216" s="9"/>
@@ -20869,10 +20871,10 @@
         <v>1.2373220344452363</v>
       </c>
       <c r="W217" s="20">
-        <v>1.6806467019242826</v>
+        <v>1.6831208148844561</v>
       </c>
       <c r="X217" s="20">
-        <v>0.84441805581882101</v>
+        <v>0.81942034035088851</v>
       </c>
       <c r="Y217" s="9"/>
       <c r="Z217" s="9"/>
@@ -21013,10 +21015,10 @@
         <v>2.6707820585008735</v>
       </c>
       <c r="W218" s="20">
-        <v>3.4088966792650157</v>
+        <v>3.4146950529954903</v>
       </c>
       <c r="X218" s="20">
-        <v>3.1623908068586539</v>
+        <v>3.1617924254831258</v>
       </c>
       <c r="Y218" s="9"/>
       <c r="Z218" s="9"/>
@@ -21157,10 +21159,10 @@
         <v>0.23443022404521452</v>
       </c>
       <c r="W219" s="20">
-        <v>0.21714328096135532</v>
+        <v>0.21749576612701224</v>
       </c>
       <c r="X219" s="20">
-        <v>0.22628637887610081</v>
+        <v>0.22982992240401071</v>
       </c>
       <c r="Y219" s="9"/>
       <c r="Z219" s="9"/>
@@ -21301,10 +21303,10 @@
         <v>0.33161864390154</v>
       </c>
       <c r="W220" s="20">
-        <v>0.16237005210945815</v>
+        <v>0.16263362478120807</v>
       </c>
       <c r="X220" s="20">
-        <v>0.15047903910264923</v>
+        <v>0.15067278226234304</v>
       </c>
       <c r="Y220" s="9"/>
       <c r="Z220" s="9"/>
@@ -21445,10 +21447,10 @@
         <v>1.1726827691877086</v>
       </c>
       <c r="W221" s="20">
-        <v>1.1539011809129585</v>
+        <v>1.1562862486436738</v>
       </c>
       <c r="X221" s="20">
-        <v>0.96566107428926307</v>
+        <v>0.95184788427997924</v>
       </c>
       <c r="Y221" s="9"/>
       <c r="Z221" s="9"/>
@@ -21589,10 +21591,10 @@
         <v>9.2640609852833169</v>
       </c>
       <c r="W222" s="20">
-        <v>8.9556491864650045</v>
+        <v>8.9675023056180176</v>
       </c>
       <c r="X222" s="20">
-        <v>7.5154419573578934</v>
+        <v>7.6057508850114992</v>
       </c>
       <c r="Y222" s="9"/>
       <c r="Z222" s="9"/>
@@ -21733,10 +21735,10 @@
         <v>0.53198447639639368</v>
       </c>
       <c r="W223" s="20">
-        <v>0.41984344275059515</v>
+        <v>0.42052496780084186</v>
       </c>
       <c r="X223" s="20">
-        <v>0.24398940819441287</v>
+        <v>0.2399499961723191</v>
       </c>
       <c r="Y223" s="9"/>
       <c r="Z223" s="9"/>
@@ -21877,10 +21879,10 @@
         <v>2.6028722606175458</v>
       </c>
       <c r="W224" s="20">
-        <v>3.137510836826872</v>
+        <v>3.1465701233128538</v>
       </c>
       <c r="X224" s="20">
-        <v>2.7542333994883172</v>
+        <v>2.7844757823493369</v>
       </c>
       <c r="Y224" s="9"/>
       <c r="Z224" s="9"/>
@@ -22021,10 +22023,10 @@
         <v>19.072134979583328</v>
       </c>
       <c r="W225" s="20">
-        <v>17.105941246714902</v>
+        <v>16.98472123182496</v>
       </c>
       <c r="X225" s="20">
-        <v>17.251122322631769</v>
+        <v>17.150056399727422</v>
       </c>
       <c r="Y225" s="9"/>
       <c r="Z225" s="9"/>
@@ -22165,10 +22167,10 @@
         <v>3.3124137431304526</v>
       </c>
       <c r="W226" s="20">
-        <v>3.013316236778302</v>
+        <v>3.0181772604829056</v>
       </c>
       <c r="X226" s="20">
-        <v>3.0829722442653527</v>
+        <v>3.0998038222638433</v>
       </c>
       <c r="Y226" s="9"/>
       <c r="Z226" s="9"/>
@@ -22309,10 +22311,10 @@
         <v>1.9474580476341978</v>
       </c>
       <c r="W227" s="20">
-        <v>1.9027089144847298</v>
+        <v>1.9058324160922944</v>
       </c>
       <c r="X227" s="20">
-        <v>1.8016736320815085</v>
+        <v>1.8164851719904926</v>
       </c>
       <c r="Y227" s="9"/>
       <c r="Z227" s="9"/>
@@ -22453,10 +22455,10 @@
         <v>5.6739571465833025</v>
       </c>
       <c r="W228" s="20">
-        <v>5.0730248944978991</v>
+        <v>4.9320479383554403</v>
       </c>
       <c r="X228" s="20">
-        <v>5.6515578789256304</v>
+        <v>5.604559730409199</v>
       </c>
       <c r="Y228" s="9"/>
       <c r="Z228" s="9"/>
@@ -22597,10 +22599,10 @@
         <v>8.1383060422353761</v>
       </c>
       <c r="W229" s="20">
-        <v>7.1168912009539742</v>
+        <v>7.1286636168943209</v>
       </c>
       <c r="X229" s="20">
-        <v>6.7149185673592768</v>
+        <v>6.6292076750638875</v>
       </c>
       <c r="Y229" s="9"/>
       <c r="Z229" s="9"/>
@@ -22741,10 +22743,10 @@
         <v>43.191054385519578</v>
       </c>
       <c r="W230" s="20">
-        <v>43.527522906648876</v>
+        <v>43.501111542772932</v>
       </c>
       <c r="X230" s="20">
-        <v>48.114431109891129</v>
+        <v>48.251619710311644</v>
       </c>
       <c r="Y230" s="9"/>
       <c r="Z230" s="9"/>
@@ -22885,10 +22887,10 @@
         <v>39.987832468654553</v>
       </c>
       <c r="W231" s="20">
-        <v>39.102450890661885</v>
+        <v>39.066604312183166</v>
       </c>
       <c r="X231" s="20">
-        <v>42.550044584279817</v>
+        <v>42.664720013048409</v>
       </c>
       <c r="Y231" s="9"/>
       <c r="Z231" s="9"/>
@@ -23029,10 +23031,10 @@
         <v>0.21467189745245774</v>
       </c>
       <c r="W232" s="20">
-        <v>0.59979206366266802</v>
+        <v>0.60076569639025623</v>
       </c>
       <c r="X232" s="20">
-        <v>0.19805361340179936</v>
+        <v>0.19901990004184505</v>
       </c>
       <c r="Y232" s="9"/>
       <c r="Z232" s="9"/>
@@ -23173,10 +23175,10 @@
         <v>2.2999214916430706</v>
       </c>
       <c r="W233" s="20">
-        <v>2.7762448019594665</v>
+        <v>2.783003164007221</v>
       </c>
       <c r="X233" s="20">
-        <v>2.8886572289772641</v>
+        <v>2.9038288183051622</v>
       </c>
       <c r="Y233" s="9"/>
       <c r="Z233" s="9"/>
@@ -23317,10 +23319,10 @@
         <v>0.68862852776949501</v>
       </c>
       <c r="W234" s="20">
-        <v>1.0490351503648525</v>
+        <v>1.0507383701922923</v>
       </c>
       <c r="X234" s="20">
-        <v>2.4776756832322495</v>
+        <v>2.4840509789162315</v>
       </c>
       <c r="Y234" s="9"/>
       <c r="Z234" s="9"/>
@@ -23461,10 +23463,10 @@
         <v>19.691057182519252</v>
       </c>
       <c r="W235" s="20">
-        <v>20.230574485420668</v>
+        <v>20.345338321238554</v>
       </c>
       <c r="X235" s="20">
-        <v>18.77154644749098</v>
+        <v>18.65458387164745</v>
       </c>
       <c r="Y235" s="9"/>
       <c r="Z235" s="9"/>
@@ -23605,10 +23607,10 @@
         <v>1.9968395416607252</v>
       </c>
       <c r="W236" s="20">
-        <v>1.7944728344003413</v>
+        <v>1.7968644831287799</v>
       </c>
       <c r="X236" s="20">
-        <v>1.7396775807913309</v>
+        <v>1.7388410760293127</v>
       </c>
       <c r="Y236" s="9"/>
       <c r="Z236" s="9"/>
@@ -23749,10 +23751,10 @@
         <v>3.0809827512366352</v>
       </c>
       <c r="W237" s="20">
-        <v>3.2678720269043113</v>
+        <v>3.278450922920042</v>
       </c>
       <c r="X237" s="20">
-        <v>2.874619961387372</v>
+        <v>2.8438366121085323</v>
       </c>
       <c r="Y237" s="9"/>
       <c r="Z237" s="9"/>
@@ -23893,10 +23895,10 @@
         <v>10.381857533182551</v>
       </c>
       <c r="W238" s="20">
-        <v>10.407277466275975</v>
+        <v>10.501261824489989</v>
       </c>
       <c r="X238" s="20">
-        <v>9.9581893001736042</v>
+        <v>10.001810401305153</v>
       </c>
       <c r="Y238" s="9"/>
       <c r="Z238" s="9"/>
@@ -24037,10 +24039,10 @@
         <v>4.231377356439344</v>
       </c>
       <c r="W239" s="20">
-        <v>4.7609521578400429</v>
+        <v>4.7687610906997433</v>
       </c>
       <c r="X239" s="20">
-        <v>4.1990596051386744</v>
+        <v>4.0700957822044508</v>
       </c>
       <c r="Y239" s="9"/>
       <c r="Z239" s="9"/>
@@ -24585,7 +24587,7 @@
     </row>
     <row r="248" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="250" spans="1:94" x14ac:dyDescent="0.2">
@@ -24595,7 +24597,7 @@
     </row>
     <row r="251" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="252" spans="1:94" x14ac:dyDescent="0.2">
@@ -24776,10 +24778,10 @@
         <v>17.646784730118647</v>
       </c>
       <c r="W257" s="20">
-        <v>18.268964600918466</v>
+        <v>18.309658744389349</v>
       </c>
       <c r="X257" s="20">
-        <v>15.162056564210063</v>
+        <v>15.311542019148893</v>
       </c>
       <c r="Y257" s="9"/>
       <c r="Z257" s="9"/>
@@ -24920,10 +24922,10 @@
         <v>1.3948566057084189</v>
       </c>
       <c r="W258" s="20">
-        <v>1.6434760890668456</v>
+        <v>1.64649076255899</v>
       </c>
       <c r="X258" s="20">
-        <v>0.79613375951472587</v>
+        <v>0.77333716478752046</v>
       </c>
       <c r="Y258" s="9"/>
       <c r="Z258" s="9"/>
@@ -25064,10 +25066,10 @@
         <v>2.5800200944221858</v>
       </c>
       <c r="W259" s="20">
-        <v>3.3151089771289479</v>
+        <v>3.3222550234507264</v>
       </c>
       <c r="X259" s="20">
-        <v>3.0079276522191827</v>
+        <v>3.0221967216423202</v>
       </c>
       <c r="Y259" s="9"/>
       <c r="Z259" s="9"/>
@@ -25208,10 +25210,10 @@
         <v>0.22436418848323469</v>
       </c>
       <c r="W260" s="20">
-        <v>0.19675004173674457</v>
+        <v>0.19715247064828553</v>
       </c>
       <c r="X260" s="20">
-        <v>0.21610444025018991</v>
+        <v>0.2214916024409902</v>
       </c>
       <c r="Y260" s="9"/>
       <c r="Z260" s="9"/>
@@ -25352,10 +25354,10 @@
         <v>0.28458089864624497</v>
       </c>
       <c r="W261" s="20">
-        <v>0.14617105133114552</v>
+        <v>0.1464700269072966</v>
       </c>
       <c r="X261" s="20">
-        <v>0.14009154022637607</v>
+        <v>0.14116552695725926</v>
       </c>
       <c r="Y261" s="9"/>
       <c r="Z261" s="9"/>
@@ -25496,10 +25498,10 @@
         <v>1.1135436343038638</v>
       </c>
       <c r="W262" s="20">
-        <v>1.0597978650808084</v>
+        <v>1.0620963609872858</v>
       </c>
       <c r="X262" s="20">
-        <v>0.885914351666656</v>
+        <v>0.86821598713867176</v>
       </c>
       <c r="Y262" s="9"/>
       <c r="Z262" s="9"/>
@@ -25640,10 +25642,10 @@
         <v>8.921904607926411</v>
       </c>
       <c r="W263" s="20">
-        <v>8.6167452243646014</v>
+        <v>8.632297399161482</v>
       </c>
       <c r="X263" s="20">
-        <v>7.3431685475308717</v>
+        <v>7.4663906885510345</v>
       </c>
       <c r="Y263" s="9"/>
       <c r="Z263" s="9"/>
@@ -25784,10 +25786,10 @@
         <v>0.57723174133811039</v>
       </c>
       <c r="W264" s="20">
-        <v>0.45103835024551181</v>
+        <v>0.45196089577968457</v>
       </c>
       <c r="X264" s="20">
-        <v>0.24123751156103312</v>
+        <v>0.23797012972592574</v>
       </c>
       <c r="Y264" s="9"/>
       <c r="Z264" s="9"/>
@@ -25928,10 +25930,10 @@
         <v>2.5502829592901759</v>
       </c>
       <c r="W265" s="20">
-        <v>2.8398770019638619</v>
+        <v>2.8509358048955988</v>
       </c>
       <c r="X265" s="20">
-        <v>2.5314787612410288</v>
+        <v>2.5807741979051704</v>
       </c>
       <c r="Y265" s="9"/>
       <c r="Z265" s="9"/>
@@ -26072,10 +26074,10 @@
         <v>18.364608569757522</v>
       </c>
       <c r="W266" s="20">
-        <v>16.657556159496249</v>
+        <v>16.537216674229015</v>
       </c>
       <c r="X266" s="20">
-        <v>16.770290410248663</v>
+        <v>16.75592224932667</v>
       </c>
       <c r="Y266" s="9"/>
       <c r="Z266" s="9"/>
@@ -26216,10 +26218,10 @@
         <v>3.2297104809045218</v>
       </c>
       <c r="W267" s="20">
-        <v>2.8630788327466052</v>
+        <v>2.8689066208345917</v>
       </c>
       <c r="X267" s="20">
-        <v>2.8593829770077699</v>
+        <v>2.8930518320043856</v>
       </c>
       <c r="Y267" s="9"/>
       <c r="Z267" s="9"/>
@@ -26360,10 +26362,10 @@
         <v>1.8922159667361809</v>
       </c>
       <c r="W268" s="20">
-        <v>1.8198310782257203</v>
+        <v>1.8235856351534079</v>
       </c>
       <c r="X268" s="20">
-        <v>1.6741854881307447</v>
+        <v>1.6986672722824483</v>
       </c>
       <c r="Y268" s="9"/>
       <c r="Z268" s="9"/>
@@ -26504,10 +26506,10 @@
         <v>5.435621742128979</v>
       </c>
       <c r="W269" s="20">
-        <v>4.8442134815575058</v>
+        <v>4.6995004259433388</v>
       </c>
       <c r="X269" s="20">
-        <v>5.1674242798133738</v>
+        <v>5.1556445569614677</v>
       </c>
       <c r="Y269" s="9"/>
       <c r="Z269" s="9"/>
@@ -26648,10 +26650,10 @@
         <v>7.807060379987842</v>
       </c>
       <c r="W270" s="20">
-        <v>7.1304327669664174</v>
+        <v>7.1452239922976784</v>
       </c>
       <c r="X270" s="20">
-        <v>7.0692976652967738</v>
+        <v>7.0085585880783672</v>
       </c>
       <c r="Y270" s="9"/>
       <c r="Z270" s="9"/>
@@ -26792,10 +26794,10 @@
         <v>45.375760833521454</v>
       </c>
       <c r="W271" s="20">
-        <v>44.902309318355911</v>
+        <v>44.88398640082157</v>
       </c>
       <c r="X271" s="20">
-        <v>49.785184285820847</v>
+        <v>49.702527544126298</v>
       </c>
       <c r="Y271" s="9"/>
       <c r="Z271" s="9"/>
@@ -26936,10 +26938,10 @@
         <v>42.325930866766178</v>
       </c>
       <c r="W272" s="20">
-        <v>40.789720349068212</v>
+        <v>40.76039911854906</v>
       </c>
       <c r="X272" s="20">
-        <v>44.351955774228003</v>
+        <v>44.223967964526537</v>
       </c>
       <c r="Y272" s="9"/>
       <c r="Z272" s="9"/>
@@ -27080,10 +27082,10 @@
         <v>0.20452517756648081</v>
       </c>
       <c r="W273" s="20">
-        <v>0.55370686032269134</v>
+        <v>0.55483940213638294</v>
       </c>
       <c r="X273" s="20">
-        <v>0.23085901024623656</v>
+        <v>0.2335405627805287</v>
       </c>
       <c r="Y273" s="9"/>
       <c r="Z273" s="9"/>
@@ -27224,10 +27226,10 @@
         <v>2.107432583570505</v>
       </c>
       <c r="W274" s="20">
-        <v>2.6050146327337456</v>
+        <v>2.612929102392151</v>
       </c>
       <c r="X274" s="20">
-        <v>2.7696004321777488</v>
+        <v>2.7891101812851424</v>
       </c>
       <c r="Y274" s="9"/>
       <c r="Z274" s="9"/>
@@ -27368,10 +27370,10 @@
         <v>0.7378722056182907</v>
       </c>
       <c r="W275" s="20">
-        <v>0.95386747623126755</v>
+        <v>0.95581877774397717</v>
       </c>
       <c r="X275" s="20">
-        <v>2.4327690691688684</v>
+        <v>2.4559088355340948</v>
       </c>
       <c r="Y275" s="9"/>
       <c r="Z275" s="9"/>
@@ -27512,10 +27514,10 @@
         <v>18.612845866602374</v>
       </c>
       <c r="W276" s="20">
-        <v>20.171169921229371</v>
+        <v>20.269138180560059</v>
       </c>
       <c r="X276" s="20">
-        <v>18.282468739720411</v>
+        <v>18.230008187398138</v>
       </c>
       <c r="Y276" s="9"/>
       <c r="Z276" s="9"/>
@@ -27656,10 +27658,10 @@
         <v>1.5855281348873886</v>
       </c>
       <c r="W277" s="20">
-        <v>1.7350864353245214</v>
+        <v>1.7383996506886608</v>
       </c>
       <c r="X277" s="20">
-        <v>1.5061966106096578</v>
+        <v>1.5167806257299161</v>
       </c>
       <c r="Y277" s="9"/>
       <c r="Z277" s="9"/>
@@ -27800,10 +27802,10 @@
         <v>3.0517691875191049</v>
       </c>
       <c r="W278" s="20">
-        <v>3.4199989476190811</v>
+        <v>3.4348441930492641</v>
       </c>
       <c r="X278" s="20">
-        <v>2.9570771906095987</v>
+        <v>2.9600155827208439</v>
       </c>
       <c r="Y278" s="9"/>
       <c r="Z278" s="9"/>
@@ -27944,10 +27946,10 @@
         <v>9.8057431720542176</v>
       </c>
       <c r="W279" s="20">
-        <v>10.258491571069095</v>
+        <v>10.32850573204076</v>
       </c>
       <c r="X279" s="20">
-        <v>9.7884032070538147</v>
+        <v>9.8055307454063154</v>
       </c>
       <c r="Y279" s="9"/>
       <c r="Z279" s="9"/>
@@ -28088,10 +28090,10 @@
         <v>4.1698053721416635</v>
       </c>
       <c r="W280" s="20">
-        <v>4.7575929672166746</v>
+        <v>4.7673886047813738</v>
       </c>
       <c r="X280" s="20">
-        <v>4.0307917314473407</v>
+        <v>3.9476812335410636</v>
       </c>
       <c r="Y280" s="9"/>
       <c r="Z280" s="9"/>

--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587962E2-03F2-4577-8951-05F9941B43EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733C86FB-887F-45AF-8A9D-681AE56B1A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$X$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$Y$286</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="73">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -252,13 +252,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -687,17 +690,17 @@
   <dimension ref="A1:CP286"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:X1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="24" width="11.21875" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="25" width="11.21875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.2">
@@ -712,7 +715,7 @@
     </row>
     <row r="3" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.2">
@@ -722,7 +725,7 @@
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.2">
@@ -757,6 +760,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -830,6 +834,9 @@
       </c>
       <c r="X10" s="6">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -908,7 +915,9 @@
       <c r="X12" s="8">
         <v>209348.07642791094</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="8">
+        <v>210071.19999363503</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -1052,7 +1061,9 @@
       <c r="X13" s="11">
         <v>10759.337008839924</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="11">
+        <v>15081.554499268608</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -1196,7 +1207,9 @@
       <c r="X14" s="11">
         <v>41515.677098280197</v>
       </c>
-      <c r="Y14" s="9"/>
+      <c r="Y14" s="11">
+        <v>42988.176599905993</v>
+      </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -1340,7 +1353,9 @@
       <c r="X15" s="11">
         <v>3017.7644709202382</v>
       </c>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="11">
+        <v>3332.0033590526909</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -1484,7 +1499,9 @@
       <c r="X16" s="11">
         <v>1978.3976093709248</v>
       </c>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="11">
+        <v>2036.4030362317428</v>
+      </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -1628,7 +1645,9 @@
       <c r="X17" s="11">
         <v>12498.166891651847</v>
       </c>
-      <c r="Y17" s="9"/>
+      <c r="Y17" s="11">
+        <v>12774.001450449141</v>
+      </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -1772,7 +1791,9 @@
       <c r="X18" s="11">
         <v>99866.738653423148</v>
       </c>
-      <c r="Y18" s="9"/>
+      <c r="Y18" s="11">
+        <v>99509.715186288144</v>
+      </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
@@ -1916,7 +1937,9 @@
       <c r="X19" s="11">
         <v>3150.6453366562828</v>
       </c>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="11">
+        <v>4396.8531616632117</v>
+      </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -2060,7 +2083,9 @@
       <c r="X20" s="11">
         <v>36561.349358768377</v>
       </c>
-      <c r="Y20" s="9"/>
+      <c r="Y20" s="11">
+        <v>29952.49270077547</v>
+      </c>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
@@ -2204,7 +2229,9 @@
       <c r="X21" s="8">
         <v>225187.52273865149</v>
       </c>
-      <c r="Y21" s="9"/>
+      <c r="Y21" s="8">
+        <v>250191.58547566214</v>
+      </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
@@ -2348,7 +2375,9 @@
       <c r="X22" s="11">
         <v>40701.740416579181</v>
       </c>
-      <c r="Y22" s="9"/>
+      <c r="Y22" s="11">
+        <v>42630.205698569902</v>
+      </c>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
@@ -2492,7 +2521,9 @@
       <c r="X23" s="11">
         <v>23851.221619220662</v>
       </c>
-      <c r="Y23" s="9"/>
+      <c r="Y23" s="11">
+        <v>26806.958111089072</v>
+      </c>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
@@ -2636,7 +2667,9 @@
       <c r="X24" s="11">
         <v>73590.249053158273</v>
       </c>
-      <c r="Y24" s="9"/>
+      <c r="Y24" s="11">
+        <v>99860.750997527066</v>
+      </c>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
@@ -2780,7 +2813,9 @@
       <c r="X25" s="11">
         <v>87044.31164969338</v>
       </c>
-      <c r="Y25" s="9"/>
+      <c r="Y25" s="11">
+        <v>80893.670668476087</v>
+      </c>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
@@ -2924,7 +2959,9 @@
       <c r="X26" s="8">
         <v>633564.25526771229</v>
       </c>
-      <c r="Y26" s="9"/>
+      <c r="Y26" s="8">
+        <v>763749.90333663695</v>
+      </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
@@ -3068,7 +3105,9 @@
       <c r="X27" s="11">
         <v>560205.88994851569</v>
       </c>
-      <c r="Y27" s="9"/>
+      <c r="Y27" s="11">
+        <v>671585.94673780689</v>
+      </c>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
@@ -3212,7 +3251,9 @@
       <c r="X28" s="11">
         <v>2613.2157948372364</v>
       </c>
-      <c r="Y28" s="9"/>
+      <c r="Y28" s="11">
+        <v>1231.2374518203824</v>
+      </c>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
@@ -3356,7 +3397,9 @@
       <c r="X29" s="11">
         <v>38128.505400229362</v>
       </c>
-      <c r="Y29" s="9"/>
+      <c r="Y29" s="11">
+        <v>60116.368220720309</v>
+      </c>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
@@ -3500,7 +3543,9 @@
       <c r="X30" s="11">
         <v>32616.644124130049</v>
       </c>
-      <c r="Y30" s="9"/>
+      <c r="Y30" s="11">
+        <v>30816.350926289353</v>
+      </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
@@ -3644,7 +3689,9 @@
       <c r="X31" s="8">
         <v>244942.60729331814</v>
       </c>
-      <c r="Y31" s="9"/>
+      <c r="Y31" s="8">
+        <v>257151.28569893353</v>
+      </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
@@ -3788,7 +3835,9 @@
       <c r="X32" s="11">
         <v>22831.721670225848</v>
       </c>
-      <c r="Y32" s="9"/>
+      <c r="Y32" s="11">
+        <v>24073.651156576008</v>
+      </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
@@ -3932,7 +3981,9 @@
       <c r="X33" s="11">
         <v>37340.78225914044</v>
       </c>
-      <c r="Y33" s="9"/>
+      <c r="Y33" s="11">
+        <v>42994.360425142862</v>
+      </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -4076,7 +4127,9 @@
       <c r="X34" s="11">
         <v>131328.01751062361</v>
       </c>
-      <c r="Y34" s="9"/>
+      <c r="Y34" s="11">
+        <v>137028.41455760825</v>
+      </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
@@ -4220,7 +4273,9 @@
       <c r="X35" s="11">
         <v>53442.085853328237</v>
       </c>
-      <c r="Y35" s="9"/>
+      <c r="Y35" s="11">
+        <v>53054.859559606404</v>
+      </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
@@ -4459,7 +4514,9 @@
       <c r="X37" s="13">
         <v>1313042.4617275926</v>
       </c>
-      <c r="Y37" s="9"/>
+      <c r="Y37" s="13">
+        <v>1481163.9745048676</v>
+      </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -4555,6 +4612,7 @@
       <c r="V38" s="14"/>
       <c r="W38" s="14"/>
       <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
     </row>
     <row r="39" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
@@ -4763,7 +4821,7 @@
     </row>
     <row r="44" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:94" x14ac:dyDescent="0.2">
@@ -4773,7 +4831,7 @@
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:94" x14ac:dyDescent="0.2">
@@ -4808,6 +4866,7 @@
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
     </row>
     <row r="51" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
@@ -4881,6 +4940,9 @@
       </c>
       <c r="X51" s="16">
         <v>2022</v>
+      </c>
+      <c r="Y51" s="16">
+        <v>2023</v>
       </c>
     </row>
     <row r="52" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -4959,7 +5021,9 @@
       <c r="X53" s="8">
         <v>185895.43556808389</v>
       </c>
-      <c r="Y53" s="9"/>
+      <c r="Y53" s="8">
+        <v>179689.68175159479</v>
+      </c>
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
@@ -5103,7 +5167,9 @@
       <c r="X54" s="11">
         <v>9388.9857017258291</v>
       </c>
-      <c r="Y54" s="9"/>
+      <c r="Y54" s="11">
+        <v>12795.650119377769</v>
+      </c>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
@@ -5247,7 +5313,9 @@
       <c r="X55" s="11">
         <v>36692.096409331032</v>
       </c>
-      <c r="Y55" s="9"/>
+      <c r="Y55" s="11">
+        <v>32604.585243538546</v>
+      </c>
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
@@ -5391,7 +5459,9 @@
       <c r="X56" s="11">
         <v>2689.1006705234158</v>
       </c>
-      <c r="Y56" s="9"/>
+      <c r="Y56" s="11">
+        <v>2835.0696614772323</v>
+      </c>
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
@@ -5535,7 +5605,9 @@
       <c r="X57" s="11">
         <v>1713.8722597697242</v>
       </c>
-      <c r="Y57" s="9"/>
+      <c r="Y57" s="11">
+        <v>1620.0531179314103</v>
+      </c>
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
@@ -5679,7 +5751,9 @@
       <c r="X58" s="11">
         <v>10540.897115030662</v>
       </c>
-      <c r="Y58" s="9"/>
+      <c r="Y58" s="11">
+        <v>10205.720342136206</v>
+      </c>
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
@@ -5823,7 +5897,9 @@
       <c r="X59" s="11">
         <v>90648.475995027969</v>
       </c>
-      <c r="Y59" s="9"/>
+      <c r="Y59" s="11">
+        <v>89769.614638307132</v>
+      </c>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
@@ -5967,7 +6043,9 @@
       <c r="X60" s="11">
         <v>2889.1643220695923</v>
       </c>
-      <c r="Y60" s="9"/>
+      <c r="Y60" s="11">
+        <v>3557.0290083912228</v>
+      </c>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
@@ -6111,7 +6189,9 @@
       <c r="X61" s="11">
         <v>31332.843094605672</v>
       </c>
-      <c r="Y61" s="9"/>
+      <c r="Y61" s="11">
+        <v>26301.959620435257</v>
+      </c>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
@@ -6255,7 +6335,9 @@
       <c r="X62" s="8">
         <v>203431.4676463051</v>
       </c>
-      <c r="Y62" s="9"/>
+      <c r="Y62" s="8">
+        <v>214965.54776404431</v>
+      </c>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
@@ -6399,7 +6481,9 @@
       <c r="X63" s="11">
         <v>35124.165140187019</v>
       </c>
-      <c r="Y63" s="9"/>
+      <c r="Y63" s="11">
+        <v>35076.442956211773</v>
+      </c>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
@@ -6543,7 +6627,9 @@
       <c r="X64" s="11">
         <v>20623.297906329837</v>
       </c>
-      <c r="Y64" s="9"/>
+      <c r="Y64" s="11">
+        <v>21740.612214799585</v>
+      </c>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
@@ -6687,7 +6773,9 @@
       <c r="X65" s="11">
         <v>62594.008451400055</v>
       </c>
-      <c r="Y65" s="9"/>
+      <c r="Y65" s="11">
+        <v>82080.833601307997</v>
+      </c>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
@@ -6831,7 +6919,9 @@
       <c r="X66" s="11">
         <v>85089.996148388193</v>
       </c>
-      <c r="Y66" s="9"/>
+      <c r="Y66" s="11">
+        <v>76067.658991724951</v>
+      </c>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
@@ -6975,7 +7065,9 @@
       <c r="X67" s="8">
         <v>603431.90745223383</v>
       </c>
-      <c r="Y67" s="9"/>
+      <c r="Y67" s="8">
+        <v>703262.55434511381</v>
+      </c>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
@@ -7119,7 +7211,9 @@
       <c r="X68" s="11">
         <v>536917.42980774073</v>
       </c>
-      <c r="Y68" s="9"/>
+      <c r="Y68" s="11">
+        <v>629180.68892606755</v>
+      </c>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
@@ -7263,7 +7357,9 @@
       <c r="X69" s="11">
         <v>2835.3855272452197</v>
       </c>
-      <c r="Y69" s="9"/>
+      <c r="Y69" s="11">
+        <v>897.20763425303107</v>
+      </c>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
@@ -7407,7 +7503,9 @@
       <c r="X70" s="11">
         <v>33862.223109139166</v>
       </c>
-      <c r="Y70" s="9"/>
+      <c r="Y70" s="11">
+        <v>47435.645640895797</v>
+      </c>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
@@ -7551,7 +7649,9 @@
       <c r="X71" s="11">
         <v>29816.869008108799</v>
       </c>
-      <c r="Y71" s="9"/>
+      <c r="Y71" s="11">
+        <v>25749.012143897409</v>
+      </c>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
@@ -7695,7 +7795,9 @@
       <c r="X72" s="8">
         <v>221328.15285148442</v>
       </c>
-      <c r="Y72" s="9"/>
+      <c r="Y72" s="8">
+        <v>222162.15502951574</v>
+      </c>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
@@ -7839,7 +7941,9 @@
       <c r="X73" s="11">
         <v>18415.035842155288</v>
       </c>
-      <c r="Y73" s="9"/>
+      <c r="Y73" s="11">
+        <v>20231.531915505282</v>
+      </c>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
@@ -7983,7 +8087,9 @@
       <c r="X74" s="11">
         <v>35937.163307918301</v>
       </c>
-      <c r="Y74" s="9"/>
+      <c r="Y74" s="11">
+        <v>41459.793951119704</v>
+      </c>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
@@ -8127,7 +8233,9 @@
       <c r="X75" s="11">
         <v>119047.67048373797</v>
       </c>
-      <c r="Y75" s="9"/>
+      <c r="Y75" s="11">
+        <v>115950.8052123762</v>
+      </c>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
@@ -8271,7 +8379,9 @@
       <c r="X76" s="11">
         <v>47928.283217672863</v>
       </c>
-      <c r="Y76" s="9"/>
+      <c r="Y76" s="11">
+        <v>44520.023950514558</v>
+      </c>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
@@ -8510,7 +8620,9 @@
       <c r="X78" s="13">
         <v>1214086.9635181073</v>
       </c>
-      <c r="Y78" s="9"/>
+      <c r="Y78" s="13">
+        <v>1320079.9388902686</v>
+      </c>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
@@ -8606,6 +8718,7 @@
       <c r="V79" s="14"/>
       <c r="W79" s="14"/>
       <c r="X79" s="14"/>
+      <c r="Y79" s="14"/>
     </row>
     <row r="80" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
@@ -8816,7 +8929,7 @@
     </row>
     <row r="85" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:94" x14ac:dyDescent="0.2">
@@ -8826,7 +8939,7 @@
     </row>
     <row r="88" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:94" x14ac:dyDescent="0.2">
@@ -8861,6 +8974,7 @@
       <c r="V91" s="5"/>
       <c r="W91" s="5"/>
       <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
     </row>
     <row r="92" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
@@ -8932,7 +9046,10 @@
       <c r="W92" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="X92" s="16"/>
+      <c r="X92" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y92" s="16"/>
     </row>
     <row r="93" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
@@ -9007,8 +9124,10 @@
       <c r="W94" s="19">
         <v>1.9529101573835987</v>
       </c>
-      <c r="X94" s="19"/>
-      <c r="Y94" s="9"/>
+      <c r="X94" s="19">
+        <v>0.34541686652329417</v>
+      </c>
+      <c r="Y94" s="19"/>
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
       <c r="AB94" s="9"/>
@@ -9143,8 +9262,10 @@
       <c r="W95" s="19">
         <v>-40.324446877380858</v>
       </c>
-      <c r="X95" s="19"/>
-      <c r="Y95" s="9"/>
+      <c r="X95" s="19">
+        <v>40.171782767632692</v>
+      </c>
+      <c r="Y95" s="19"/>
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
@@ -9279,8 +9400,10 @@
       <c r="W96" s="19">
         <v>13.497535975698781</v>
       </c>
-      <c r="X96" s="19"/>
-      <c r="Y96" s="9"/>
+      <c r="X96" s="19">
+        <v>3.5468517065010019</v>
+      </c>
+      <c r="Y96" s="19"/>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
@@ -9415,8 +9538,10 @@
       <c r="W97" s="19">
         <v>29.527137243401597</v>
       </c>
-      <c r="X97" s="19"/>
-      <c r="Y97" s="9"/>
+      <c r="X97" s="19">
+        <v>10.412969307595716</v>
+      </c>
+      <c r="Y97" s="19"/>
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
       <c r="AB97" s="9"/>
@@ -9551,8 +9676,10 @@
       <c r="W98" s="19">
         <v>13.561068449940208</v>
       </c>
-      <c r="X98" s="19"/>
-      <c r="Y98" s="9"/>
+      <c r="X98" s="19">
+        <v>2.9319397974435475</v>
+      </c>
+      <c r="Y98" s="19"/>
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
       <c r="AB98" s="9"/>
@@ -9687,8 +9814,10 @@
       <c r="W99" s="19">
         <v>0.90372333959381024</v>
       </c>
-      <c r="X99" s="19"/>
-      <c r="Y99" s="9"/>
+      <c r="X99" s="19">
+        <v>2.2070001240064983</v>
+      </c>
+      <c r="Y99" s="19"/>
       <c r="Z99" s="9"/>
       <c r="AA99" s="9"/>
       <c r="AB99" s="9"/>
@@ -9823,8 +9952,10 @@
       <c r="W100" s="19">
         <v>3.9622340314275419</v>
       </c>
-      <c r="X100" s="19"/>
-      <c r="Y100" s="9"/>
+      <c r="X100" s="19">
+        <v>-0.3574998762841517</v>
+      </c>
+      <c r="Y100" s="19"/>
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
       <c r="AB100" s="9"/>
@@ -9959,8 +10090,10 @@
       <c r="W101" s="19">
         <v>-30.058657385255884</v>
       </c>
-      <c r="X101" s="19"/>
-      <c r="Y101" s="9"/>
+      <c r="X101" s="19">
+        <v>39.554049784908671</v>
+      </c>
+      <c r="Y101" s="19"/>
       <c r="Z101" s="9"/>
       <c r="AA101" s="9"/>
       <c r="AB101" s="9"/>
@@ -10095,8 +10228,10 @@
       <c r="W102" s="19">
         <v>8.4703481518752426</v>
       </c>
-      <c r="X102" s="19"/>
-      <c r="Y102" s="9"/>
+      <c r="X102" s="19">
+        <v>-18.076074253008741</v>
+      </c>
+      <c r="Y102" s="19"/>
       <c r="Z102" s="9"/>
       <c r="AA102" s="9"/>
       <c r="AB102" s="9"/>
@@ -10231,8 +10366,10 @@
       <c r="W103" s="19">
         <v>23.769071564211657</v>
       </c>
-      <c r="X103" s="19"/>
-      <c r="Y103" s="9"/>
+      <c r="X103" s="19">
+        <v>11.103662597696371</v>
+      </c>
+      <c r="Y103" s="19"/>
       <c r="Z103" s="9"/>
       <c r="AA103" s="9"/>
       <c r="AB103" s="9"/>
@@ -10367,8 +10504,10 @@
       <c r="W104" s="19">
         <v>25.890938312064279</v>
       </c>
-      <c r="X104" s="19"/>
-      <c r="Y104" s="9"/>
+      <c r="X104" s="19">
+        <v>4.7380413276017777</v>
+      </c>
+      <c r="Y104" s="19"/>
       <c r="Z104" s="9"/>
       <c r="AA104" s="9"/>
       <c r="AB104" s="9"/>
@@ -10503,8 +10642,10 @@
       <c r="W105" s="19">
         <v>16.829401349140312</v>
       </c>
-      <c r="X105" s="19"/>
-      <c r="Y105" s="9"/>
+      <c r="X105" s="19">
+        <v>12.392390373357287</v>
+      </c>
+      <c r="Y105" s="19"/>
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
       <c r="AB105" s="9"/>
@@ -10639,8 +10780,10 @@
       <c r="W106" s="19">
         <v>39.289768508446542</v>
       </c>
-      <c r="X106" s="19"/>
-      <c r="Y106" s="9"/>
+      <c r="X106" s="19">
+        <v>35.698346292308599</v>
+      </c>
+      <c r="Y106" s="19"/>
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
@@ -10775,8 +10918,10 @@
       <c r="W107" s="19">
         <v>13.987835328618175</v>
       </c>
-      <c r="X107" s="19"/>
-      <c r="Y107" s="9"/>
+      <c r="X107" s="19">
+        <v>-7.0661033037636258</v>
+      </c>
+      <c r="Y107" s="19"/>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
@@ -10911,8 +11056,10 @@
       <c r="W108" s="19">
         <v>35.961687398638134</v>
       </c>
-      <c r="X108" s="19"/>
-      <c r="Y108" s="9"/>
+      <c r="X108" s="19">
+        <v>20.548136512833224</v>
+      </c>
+      <c r="Y108" s="19"/>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
@@ -11047,8 +11194,10 @@
       <c r="W109" s="19">
         <v>33.865369144934107</v>
       </c>
-      <c r="X109" s="19"/>
-      <c r="Y109" s="9"/>
+      <c r="X109" s="19">
+        <v>19.881986031872543</v>
+      </c>
+      <c r="Y109" s="19"/>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
       <c r="AB109" s="9"/>
@@ -11183,8 +11332,10 @@
       <c r="W110" s="19">
         <v>-59.393423041413726</v>
       </c>
-      <c r="X110" s="19"/>
-      <c r="Y110" s="9"/>
+      <c r="X110" s="19">
+        <v>-52.884202894653413</v>
+      </c>
+      <c r="Y110" s="19"/>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
       <c r="AB110" s="9"/>
@@ -11319,8 +11470,10 @@
       <c r="W111" s="19">
         <v>27.897576343531341</v>
       </c>
-      <c r="X111" s="19"/>
-      <c r="Y111" s="9"/>
+      <c r="X111" s="19">
+        <v>57.667780548142531</v>
+      </c>
+      <c r="Y111" s="19"/>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
@@ -11455,8 +11608,10 @@
       <c r="W112" s="19">
         <v>189.78167363311752</v>
       </c>
-      <c r="X112" s="19"/>
-      <c r="Y112" s="9"/>
+      <c r="X112" s="19">
+        <v>-5.5195537314914134</v>
+      </c>
+      <c r="Y112" s="19"/>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
@@ -11591,8 +11746,10 @@
       <c r="W113" s="19">
         <v>12.389477804825916</v>
       </c>
-      <c r="X113" s="19"/>
-      <c r="Y113" s="9"/>
+      <c r="X113" s="19">
+        <v>4.9843016454036189</v>
+      </c>
+      <c r="Y113" s="19"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
@@ -11727,8 +11884,10 @@
       <c r="W114" s="19">
         <v>18.617719481451104</v>
       </c>
-      <c r="X114" s="19"/>
-      <c r="Y114" s="9"/>
+      <c r="X114" s="19">
+        <v>5.4394911793696394</v>
+      </c>
+      <c r="Y114" s="19"/>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
@@ -11863,8 +12022,10 @@
       <c r="W115" s="19">
         <v>6.3263628562128247</v>
       </c>
-      <c r="X115" s="19"/>
-      <c r="Y115" s="9"/>
+      <c r="X115" s="19">
+        <v>15.140492041027116</v>
+      </c>
+      <c r="Y115" s="19"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
@@ -11999,8 +12160,10 @@
       <c r="W116" s="19">
         <v>16.74603364469003</v>
       </c>
-      <c r="X116" s="19"/>
-      <c r="Y116" s="9"/>
+      <c r="X116" s="19">
+        <v>4.3405795313429678</v>
+      </c>
+      <c r="Y116" s="19"/>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
@@ -12135,8 +12298,10 @@
       <c r="W117" s="19">
         <v>4.6174350699266284</v>
       </c>
-      <c r="X117" s="19"/>
-      <c r="Y117" s="9"/>
+      <c r="X117" s="19">
+        <v>-0.72457181926725411</v>
+      </c>
+      <c r="Y117" s="19"/>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
@@ -12360,8 +12525,10 @@
       <c r="W119" s="20">
         <v>22.575875474866677</v>
       </c>
-      <c r="X119" s="20"/>
-      <c r="Y119" s="9"/>
+      <c r="X119" s="20">
+        <v>12.803966183703963</v>
+      </c>
+      <c r="Y119" s="20"/>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
       <c r="AB119" s="9"/>
@@ -12451,6 +12618,7 @@
       <c r="V120" s="14"/>
       <c r="W120" s="14"/>
       <c r="X120" s="14"/>
+      <c r="Y120" s="14"/>
     </row>
     <row r="121" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -12650,7 +12818,7 @@
     </row>
     <row r="126" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:88" x14ac:dyDescent="0.2">
@@ -12660,7 +12828,7 @@
     </row>
     <row r="129" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" spans="1:88" x14ac:dyDescent="0.2">
@@ -12695,6 +12863,7 @@
       <c r="V132" s="5"/>
       <c r="W132" s="5"/>
       <c r="X132" s="5"/>
+      <c r="Y132" s="5"/>
     </row>
     <row r="133" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
@@ -12766,7 +12935,10 @@
       <c r="W133" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="X133" s="21"/>
+      <c r="X133" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y133" s="21"/>
     </row>
     <row r="134" spans="1:88" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
@@ -12841,8 +13013,10 @@
       <c r="W135" s="19">
         <v>-9.4305502847925595</v>
       </c>
-      <c r="X135" s="19"/>
-      <c r="Y135" s="9"/>
+      <c r="X135" s="19">
+        <v>-3.3383034917047496</v>
+      </c>
+      <c r="Y135" s="19"/>
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
       <c r="AB135" s="9"/>
@@ -12977,8 +13151,10 @@
       <c r="W136" s="19">
         <v>-49.131066567359582</v>
       </c>
-      <c r="X136" s="19"/>
-      <c r="Y136" s="9"/>
+      <c r="X136" s="19">
+        <v>36.283625578700651</v>
+      </c>
+      <c r="Y136" s="19"/>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9"/>
@@ -13113,8 +13289,10 @@
       <c r="W137" s="19">
         <v>-1.4780924585442676</v>
       </c>
-      <c r="X137" s="19"/>
-      <c r="Y137" s="9"/>
+      <c r="X137" s="19">
+        <v>-11.140031684733628</v>
+      </c>
+      <c r="Y137" s="19"/>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
@@ -13249,8 +13427,10 @@
       <c r="W138" s="19">
         <v>21.674085231474322</v>
       </c>
-      <c r="X138" s="19"/>
-      <c r="Y138" s="9"/>
+      <c r="X138" s="19">
+        <v>5.4281713047732154</v>
+      </c>
+      <c r="Y138" s="19"/>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
@@ -13385,8 +13565,10 @@
       <c r="W139" s="19">
         <v>4.381357546718462</v>
       </c>
-      <c r="X139" s="19"/>
-      <c r="Y139" s="9"/>
+      <c r="X139" s="19">
+        <v>-5.4741035280493691</v>
+      </c>
+      <c r="Y139" s="19"/>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
@@ -13521,8 +13703,10 @@
       <c r="W140" s="19">
         <v>-11.46664826126036</v>
       </c>
-      <c r="X140" s="19"/>
-      <c r="Y140" s="9"/>
+      <c r="X140" s="19">
+        <v>-3.1797746362263126</v>
+      </c>
+      <c r="Y140" s="19"/>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
@@ -13657,8 +13841,10 @@
       <c r="W141" s="19">
         <v>-6.3242097447917587</v>
       </c>
-      <c r="X141" s="19"/>
-      <c r="Y141" s="9"/>
+      <c r="X141" s="19">
+        <v>-0.96952689725200969</v>
+      </c>
+      <c r="Y141" s="19"/>
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
       <c r="AB141" s="9"/>
@@ -13793,8 +13979,10 @@
       <c r="W142" s="19">
         <v>-42.975086504982251</v>
       </c>
-      <c r="X142" s="19"/>
-      <c r="Y142" s="9"/>
+      <c r="X142" s="19">
+        <v>23.11618903846977</v>
+      </c>
+      <c r="Y142" s="19"/>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
       <c r="AB142" s="9"/>
@@ -13929,8 +14117,10 @@
       <c r="W143" s="19">
         <v>-1.9594772417784299</v>
       </c>
-      <c r="X143" s="19"/>
-      <c r="Y143" s="9"/>
+      <c r="X143" s="19">
+        <v>-16.056262302722672</v>
+      </c>
+      <c r="Y143" s="19"/>
       <c r="Z143" s="9"/>
       <c r="AA143" s="9"/>
       <c r="AB143" s="9"/>
@@ -14065,8 +14255,10 @@
       <c r="W144" s="19">
         <v>9.7359602586545293</v>
       </c>
-      <c r="X144" s="19"/>
-      <c r="Y144" s="9"/>
+      <c r="X144" s="19">
+        <v>5.66976203396068</v>
+      </c>
+      <c r="Y144" s="19"/>
       <c r="Z144" s="9"/>
       <c r="AA144" s="9"/>
       <c r="AB144" s="9"/>
@@ -14201,8 +14393,10 @@
       <c r="W145" s="19">
         <v>9.2151408792773282</v>
       </c>
-      <c r="X145" s="19"/>
-      <c r="Y145" s="9"/>
+      <c r="X145" s="19">
+        <v>-0.13586709829195343</v>
+      </c>
+      <c r="Y145" s="19"/>
       <c r="Z145" s="9"/>
       <c r="AA145" s="9"/>
       <c r="AB145" s="9"/>
@@ -14337,8 +14531,10 @@
       <c r="W146" s="19">
         <v>0.8846764435861445</v>
       </c>
-      <c r="X146" s="19"/>
-      <c r="Y146" s="9"/>
+      <c r="X146" s="19">
+        <v>5.4177285977467875</v>
+      </c>
+      <c r="Y146" s="19"/>
       <c r="Z146" s="9"/>
       <c r="AA146" s="9"/>
       <c r="AB146" s="9"/>
@@ -14473,8 +14669,10 @@
       <c r="W147" s="19">
         <v>18.815834766445278</v>
       </c>
-      <c r="X147" s="19"/>
-      <c r="Y147" s="9"/>
+      <c r="X147" s="19">
+        <v>31.132093361680319</v>
+      </c>
+      <c r="Y147" s="19"/>
       <c r="Z147" s="9"/>
       <c r="AA147" s="9"/>
       <c r="AB147" s="9"/>
@@ -14609,8 +14807,10 @@
       <c r="W148" s="19">
         <v>6.2321347718281856</v>
       </c>
-      <c r="X148" s="19"/>
-      <c r="Y148" s="9"/>
+      <c r="X148" s="19">
+        <v>-10.603287771842432</v>
+      </c>
+      <c r="Y148" s="19"/>
       <c r="Z148" s="9"/>
       <c r="AA148" s="9"/>
       <c r="AB148" s="9"/>
@@ -14745,8 +14945,10 @@
       <c r="W149" s="19">
         <v>19.930626138946224</v>
       </c>
-      <c r="X149" s="19"/>
-      <c r="Y149" s="9"/>
+      <c r="X149" s="19">
+        <v>16.543813089761471</v>
+      </c>
+      <c r="Y149" s="19"/>
       <c r="Z149" s="9"/>
       <c r="AA149" s="9"/>
       <c r="AB149" s="9"/>
@@ -14881,8 +15083,10 @@
       <c r="W150" s="19">
         <v>17.506618143018045</v>
       </c>
-      <c r="X150" s="19"/>
-      <c r="Y150" s="9"/>
+      <c r="X150" s="19">
+        <v>17.183882287331301</v>
+      </c>
+      <c r="Y150" s="19"/>
       <c r="Z150" s="9"/>
       <c r="AA150" s="9"/>
       <c r="AB150" s="9"/>
@@ -15017,8 +15221,10 @@
       <c r="W151" s="19">
         <v>-54.413308303453469</v>
       </c>
-      <c r="X151" s="19"/>
-      <c r="Y151" s="9"/>
+      <c r="X151" s="19">
+        <v>-68.356767514267005</v>
+      </c>
+      <c r="Y151" s="19"/>
       <c r="Z151" s="9"/>
       <c r="AA151" s="9"/>
       <c r="AB151" s="9"/>
@@ -15153,8 +15359,10 @@
       <c r="W152" s="19">
         <v>15.606191338019457</v>
       </c>
-      <c r="X152" s="19"/>
-      <c r="Y152" s="9"/>
+      <c r="X152" s="19">
+        <v>40.084262890859236</v>
+      </c>
+      <c r="Y152" s="19"/>
       <c r="Z152" s="9"/>
       <c r="AA152" s="9"/>
       <c r="AB152" s="9"/>
@@ -15289,8 +15497,10 @@
       <c r="W153" s="19">
         <v>178.27855001950684</v>
       </c>
-      <c r="X153" s="19"/>
-      <c r="Y153" s="9"/>
+      <c r="X153" s="19">
+        <v>-13.642803552261384</v>
+      </c>
+      <c r="Y153" s="19"/>
       <c r="Z153" s="9"/>
       <c r="AA153" s="9"/>
       <c r="AB153" s="9"/>
@@ -15425,8 +15635,10 @@
       <c r="W154" s="19">
         <v>-2.591999461319304</v>
       </c>
-      <c r="X154" s="19"/>
-      <c r="Y154" s="9"/>
+      <c r="X154" s="19">
+        <v>0.37681703266684963</v>
+      </c>
+      <c r="Y154" s="19"/>
       <c r="Z154" s="9"/>
       <c r="AA154" s="9"/>
       <c r="AB154" s="9"/>
@@ -15561,8 +15773,10 @@
       <c r="W155" s="19">
         <v>-5.5033973193794878</v>
       </c>
-      <c r="X155" s="19"/>
-      <c r="Y155" s="9"/>
+      <c r="X155" s="19">
+        <v>9.8642005854352419</v>
+      </c>
+      <c r="Y155" s="19"/>
       <c r="Z155" s="9"/>
       <c r="AA155" s="9"/>
       <c r="AB155" s="9"/>
@@ -15697,8 +15911,10 @@
       <c r="W156" s="19">
         <v>-6.6681221565296624</v>
       </c>
-      <c r="X156" s="19"/>
-      <c r="Y156" s="9"/>
+      <c r="X156" s="19">
+        <v>15.367464025700002</v>
+      </c>
+      <c r="Y156" s="19"/>
       <c r="Z156" s="9"/>
       <c r="AA156" s="9"/>
       <c r="AB156" s="9"/>
@@ -15833,8 +16049,10 @@
       <c r="W157" s="19">
         <v>2.819777425111198</v>
       </c>
-      <c r="X157" s="19"/>
-      <c r="Y157" s="9"/>
+      <c r="X157" s="19">
+        <v>-2.601365703988975</v>
+      </c>
+      <c r="Y157" s="19"/>
       <c r="Z157" s="9"/>
       <c r="AA157" s="9"/>
       <c r="AB157" s="9"/>
@@ -15969,8 +16187,10 @@
       <c r="W158" s="19">
         <v>-10.318147307923326</v>
       </c>
-      <c r="X158" s="19"/>
-      <c r="Y158" s="9"/>
+      <c r="X158" s="19">
+        <v>-7.1111649288150431</v>
+      </c>
+      <c r="Y158" s="19"/>
       <c r="Z158" s="9"/>
       <c r="AA158" s="9"/>
       <c r="AB158" s="9"/>
@@ -16194,8 +16414,10 @@
       <c r="W160" s="20">
         <v>8.3036388417760065</v>
       </c>
-      <c r="X160" s="20"/>
-      <c r="Y160" s="9"/>
+      <c r="X160" s="20">
+        <v>8.7302622099673357</v>
+      </c>
+      <c r="Y160" s="20"/>
       <c r="Z160" s="9"/>
       <c r="AA160" s="9"/>
       <c r="AB160" s="9"/>
@@ -16285,6 +16507,7 @@
       <c r="V161" s="14"/>
       <c r="W161" s="14"/>
       <c r="X161" s="14"/>
+      <c r="Y161" s="14"/>
     </row>
     <row r="162" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
@@ -16485,7 +16708,7 @@
     </row>
     <row r="166" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="168" spans="1:94" x14ac:dyDescent="0.2">
@@ -16495,7 +16718,7 @@
     </row>
     <row r="169" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="170" spans="1:94" x14ac:dyDescent="0.2">
@@ -16530,6 +16753,7 @@
       <c r="V172" s="5"/>
       <c r="W172" s="5"/>
       <c r="X172" s="5"/>
+      <c r="Y172" s="5"/>
     </row>
     <row r="173" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
@@ -16603,6 +16827,9 @@
       </c>
       <c r="X173" s="16">
         <v>2022</v>
+      </c>
+      <c r="Y173" s="16">
+        <v>2023</v>
       </c>
     </row>
     <row r="174" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -16681,7 +16908,9 @@
       <c r="X175" s="17">
         <v>112.61603911261047</v>
       </c>
-      <c r="Y175" s="9"/>
+      <c r="Y175" s="17">
+        <v>116.90777007665918</v>
+      </c>
       <c r="Z175" s="9"/>
       <c r="AA175" s="9"/>
       <c r="AB175" s="9"/>
@@ -16825,7 +17054,9 @@
       <c r="X176" s="17">
         <v>114.59530721047115</v>
       </c>
-      <c r="Y176" s="9"/>
+      <c r="Y176" s="17">
+        <v>117.86469900758743</v>
+      </c>
       <c r="Z176" s="9"/>
       <c r="AA176" s="9"/>
       <c r="AB176" s="9"/>
@@ -16969,7 +17200,9 @@
       <c r="X177" s="17">
         <v>113.1461027332374</v>
       </c>
-      <c r="Y177" s="9"/>
+      <c r="Y177" s="17">
+        <v>131.84702789134616</v>
+      </c>
       <c r="Z177" s="9"/>
       <c r="AA177" s="9"/>
       <c r="AB177" s="9"/>
@@ -17113,7 +17346,9 @@
       <c r="X178" s="17">
         <v>112.22207126715156</v>
       </c>
-      <c r="Y178" s="9"/>
+      <c r="Y178" s="17">
+        <v>117.52809478820805</v>
+      </c>
       <c r="Z178" s="9"/>
       <c r="AA178" s="9"/>
       <c r="AB178" s="9"/>
@@ -17257,7 +17492,9 @@
       <c r="X179" s="17">
         <v>115.43436788204637</v>
       </c>
-      <c r="Y179" s="9"/>
+      <c r="Y179" s="17">
+        <v>125.69976957496031</v>
+      </c>
       <c r="Z179" s="9"/>
       <c r="AA179" s="9"/>
       <c r="AB179" s="9"/>
@@ -17401,7 +17638,9 @@
       <c r="X180" s="17">
         <v>118.56834152977586</v>
       </c>
-      <c r="Y180" s="9"/>
+      <c r="Y180" s="17">
+        <v>125.16511350707221</v>
+      </c>
       <c r="Z180" s="9"/>
       <c r="AA180" s="9"/>
       <c r="AB180" s="9"/>
@@ -17545,7 +17784,9 @@
       <c r="X181" s="17">
         <v>110.16924174092104</v>
       </c>
-      <c r="Y181" s="9"/>
+      <c r="Y181" s="17">
+        <v>110.85010845509929</v>
+      </c>
       <c r="Z181" s="9"/>
       <c r="AA181" s="9"/>
       <c r="AB181" s="9"/>
@@ -17689,7 +17930,9 @@
       <c r="X182" s="17">
         <v>109.05040300370953</v>
       </c>
-      <c r="Y182" s="9"/>
+      <c r="Y182" s="17">
+        <v>123.61027001159673</v>
+      </c>
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
       <c r="AB182" s="9"/>
@@ -17833,7 +18076,9 @@
       <c r="X183" s="17">
         <v>116.68698320281972</v>
       </c>
-      <c r="Y183" s="9"/>
+      <c r="Y183" s="17">
+        <v>113.87931976560385</v>
+      </c>
       <c r="Z183" s="9"/>
       <c r="AA183" s="9"/>
       <c r="AB183" s="9"/>
@@ -17977,7 +18222,9 @@
       <c r="X184" s="17">
         <v>110.6945377448549</v>
       </c>
-      <c r="Y184" s="9"/>
+      <c r="Y184" s="17">
+        <v>116.38682946082295</v>
+      </c>
       <c r="Z184" s="9"/>
       <c r="AA184" s="9"/>
       <c r="AB184" s="9"/>
@@ -18121,7 +18368,9 @@
       <c r="X185" s="17">
         <v>115.87959529893746</v>
       </c>
-      <c r="Y185" s="9"/>
+      <c r="Y185" s="17">
+        <v>121.53514468895261</v>
+      </c>
       <c r="Z185" s="9"/>
       <c r="AA185" s="9"/>
       <c r="AB185" s="9"/>
@@ -18265,7 +18514,9 @@
       <c r="X186" s="17">
         <v>115.65183089315745</v>
       </c>
-      <c r="Y186" s="9"/>
+      <c r="Y186" s="17">
+        <v>123.30360270554226</v>
+      </c>
       <c r="Z186" s="9"/>
       <c r="AA186" s="9"/>
       <c r="AB186" s="9"/>
@@ -18409,7 +18660,9 @@
       <c r="X187" s="17">
         <v>117.5675609755781</v>
       </c>
-      <c r="Y187" s="9"/>
+      <c r="Y187" s="17">
+        <v>121.66147274110497</v>
+      </c>
       <c r="Z187" s="9"/>
       <c r="AA187" s="9"/>
       <c r="AB187" s="9"/>
@@ -18553,7 +18806,9 @@
       <c r="X188" s="17">
         <v>102.29676294484381</v>
       </c>
-      <c r="Y188" s="9"/>
+      <c r="Y188" s="17">
+        <v>106.34436729185543</v>
+      </c>
       <c r="Z188" s="9"/>
       <c r="AA188" s="9"/>
       <c r="AB188" s="9"/>
@@ -18697,7 +18952,9 @@
       <c r="X189" s="17">
         <v>104.99349594268242</v>
       </c>
-      <c r="Y189" s="9"/>
+      <c r="Y189" s="17">
+        <v>108.60096255911844</v>
+      </c>
       <c r="Z189" s="9"/>
       <c r="AA189" s="9"/>
       <c r="AB189" s="9"/>
@@ -18841,7 +19098,9 @@
       <c r="X190" s="17">
         <v>104.33743790904946</v>
       </c>
-      <c r="Y190" s="9"/>
+      <c r="Y190" s="17">
+        <v>106.73975831714095</v>
+      </c>
       <c r="Z190" s="9"/>
       <c r="AA190" s="9"/>
       <c r="AB190" s="9"/>
@@ -18985,7 +19244,9 @@
       <c r="X191" s="17">
         <v>92.164390687856937</v>
       </c>
-      <c r="Y191" s="9"/>
+      <c r="Y191" s="17">
+        <v>137.22993483503373</v>
+      </c>
       <c r="Z191" s="9"/>
       <c r="AA191" s="9"/>
       <c r="AB191" s="9"/>
@@ -19129,7 +19390,9 @@
       <c r="X192" s="17">
         <v>112.59894330428281</v>
       </c>
-      <c r="Y192" s="9"/>
+      <c r="Y192" s="17">
+        <v>126.73247598614333</v>
+      </c>
       <c r="Z192" s="9"/>
       <c r="AA192" s="9"/>
       <c r="AB192" s="9"/>
@@ -19273,7 +19536,9 @@
       <c r="X193" s="17">
         <v>109.38990312919792</v>
       </c>
-      <c r="Y193" s="9"/>
+      <c r="Y193" s="17">
+        <v>119.67974054333932</v>
+      </c>
       <c r="Z193" s="9"/>
       <c r="AA193" s="9"/>
       <c r="AB193" s="9"/>
@@ -19417,7 +19682,9 @@
       <c r="X194" s="17">
         <v>110.66943095019614</v>
       </c>
-      <c r="Y194" s="9"/>
+      <c r="Y194" s="17">
+        <v>115.74936589212021</v>
+      </c>
       <c r="Z194" s="9"/>
       <c r="AA194" s="9"/>
       <c r="AB194" s="9"/>
@@ -19561,7 +19828,9 @@
       <c r="X195" s="17">
         <v>123.98412832822179</v>
       </c>
-      <c r="Y195" s="9"/>
+      <c r="Y195" s="17">
+        <v>118.99074799237599</v>
+      </c>
       <c r="Z195" s="9"/>
       <c r="AA195" s="9"/>
       <c r="AB195" s="9"/>
@@ -19705,7 +19974,9 @@
       <c r="X196" s="17">
         <v>103.90575889141719</v>
       </c>
-      <c r="Y196" s="9"/>
+      <c r="Y196" s="17">
+        <v>103.70133647029792</v>
+      </c>
       <c r="Z196" s="9"/>
       <c r="AA196" s="9"/>
       <c r="AB196" s="9"/>
@@ -19849,7 +20120,9 @@
       <c r="X197" s="17">
         <v>110.31548704563956</v>
       </c>
-      <c r="Y197" s="9"/>
+      <c r="Y197" s="17">
+        <v>118.17806207264034</v>
+      </c>
       <c r="Z197" s="9"/>
       <c r="AA197" s="9"/>
       <c r="AB197" s="9"/>
@@ -19993,7 +20266,9 @@
       <c r="X198" s="17">
         <v>111.50427736085118</v>
       </c>
-      <c r="Y198" s="9"/>
+      <c r="Y198" s="17">
+        <v>119.17077946449129</v>
+      </c>
       <c r="Z198" s="9"/>
       <c r="AA198" s="9"/>
       <c r="AB198" s="9"/>
@@ -20232,7 +20507,9 @@
       <c r="X200" s="20">
         <v>108.15061039142849</v>
       </c>
-      <c r="Y200" s="9"/>
+      <c r="Y200" s="20">
+        <v>112.20259704499524</v>
+      </c>
       <c r="Z200" s="9"/>
       <c r="AA200" s="9"/>
       <c r="AB200" s="9"/>
@@ -20328,6 +20605,7 @@
       <c r="V201" s="14"/>
       <c r="W201" s="14"/>
       <c r="X201" s="14"/>
+      <c r="Y201" s="14"/>
     </row>
     <row r="202" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
@@ -20536,7 +20814,7 @@
     </row>
     <row r="207" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:94" x14ac:dyDescent="0.2">
@@ -20546,7 +20824,7 @@
     </row>
     <row r="210" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="211" spans="1:94" x14ac:dyDescent="0.2">
@@ -20581,6 +20859,7 @@
       <c r="V213" s="5"/>
       <c r="W213" s="5"/>
       <c r="X213" s="5"/>
+      <c r="Y213" s="5"/>
     </row>
     <row r="214" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
@@ -20654,6 +20933,9 @@
       </c>
       <c r="X214" s="16">
         <v>2022</v>
+      </c>
+      <c r="Y214" s="16">
+        <v>2023</v>
       </c>
     </row>
     <row r="215" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -20732,7 +21014,9 @@
       <c r="X216" s="20">
         <v>15.943740018313502</v>
       </c>
-      <c r="Y216" s="9"/>
+      <c r="Y216" s="20">
+        <v>14.18284562746396</v>
+      </c>
       <c r="Z216" s="9"/>
       <c r="AA216" s="9"/>
       <c r="AB216" s="9"/>
@@ -20876,7 +21160,9 @@
       <c r="X217" s="20">
         <v>0.81942034035088851</v>
       </c>
-      <c r="Y217" s="9"/>
+      <c r="Y217" s="20">
+        <v>1.0182231514448061</v>
+      </c>
       <c r="Z217" s="9"/>
       <c r="AA217" s="9"/>
       <c r="AB217" s="9"/>
@@ -21020,7 +21306,9 @@
       <c r="X218" s="20">
         <v>3.1617924254831258</v>
       </c>
-      <c r="Y218" s="9"/>
+      <c r="Y218" s="20">
+        <v>2.9023239384603818</v>
+      </c>
       <c r="Z218" s="9"/>
       <c r="AA218" s="9"/>
       <c r="AB218" s="9"/>
@@ -21164,7 +21452,9 @@
       <c r="X219" s="20">
         <v>0.22982992240401071</v>
       </c>
-      <c r="Y219" s="9"/>
+      <c r="Y219" s="20">
+        <v>0.22495843920093539</v>
+      </c>
       <c r="Z219" s="9"/>
       <c r="AA219" s="9"/>
       <c r="AB219" s="9"/>
@@ -21308,7 +21598,9 @@
       <c r="X220" s="20">
         <v>0.15067278226234304</v>
       </c>
-      <c r="Y220" s="9"/>
+      <c r="Y220" s="20">
+        <v>0.13748667070521237</v>
+      </c>
       <c r="Z220" s="9"/>
       <c r="AA220" s="9"/>
       <c r="AB220" s="9"/>
@@ -21452,7 +21744,9 @@
       <c r="X221" s="20">
         <v>0.95184788427997924</v>
       </c>
-      <c r="Y221" s="9"/>
+      <c r="Y221" s="20">
+        <v>0.86242993148137503</v>
+      </c>
       <c r="Z221" s="9"/>
       <c r="AA221" s="9"/>
       <c r="AB221" s="9"/>
@@ -21596,7 +21890,9 @@
       <c r="X222" s="20">
         <v>7.6057508850114992</v>
       </c>
-      <c r="Y222" s="9"/>
+      <c r="Y222" s="20">
+        <v>6.7183456321608714</v>
+      </c>
       <c r="Z222" s="9"/>
       <c r="AA222" s="9"/>
       <c r="AB222" s="9"/>
@@ -21740,7 +22036,9 @@
       <c r="X223" s="20">
         <v>0.2399499961723191</v>
       </c>
-      <c r="Y223" s="9"/>
+      <c r="Y223" s="20">
+        <v>0.29685120873487475</v>
+      </c>
       <c r="Z223" s="9"/>
       <c r="AA223" s="9"/>
       <c r="AB223" s="9"/>
@@ -21884,7 +22182,9 @@
       <c r="X224" s="20">
         <v>2.7844757823493369</v>
       </c>
-      <c r="Y224" s="9"/>
+      <c r="Y224" s="20">
+        <v>2.0222266552755017</v>
+      </c>
       <c r="Z224" s="9"/>
       <c r="AA224" s="9"/>
       <c r="AB224" s="9"/>
@@ -22028,7 +22328,9 @@
       <c r="X225" s="20">
         <v>17.150056399727422</v>
       </c>
-      <c r="Y225" s="9"/>
+      <c r="Y225" s="20">
+        <v>16.891552169927554</v>
+      </c>
       <c r="Z225" s="9"/>
       <c r="AA225" s="9"/>
       <c r="AB225" s="9"/>
@@ -22172,7 +22474,9 @@
       <c r="X226" s="20">
         <v>3.0998038222638433</v>
       </c>
-      <c r="Y226" s="9"/>
+      <c r="Y226" s="20">
+        <v>2.8781557229556967</v>
+      </c>
       <c r="Z226" s="9"/>
       <c r="AA226" s="9"/>
       <c r="AB226" s="9"/>
@@ -22316,7 +22620,9 @@
       <c r="X227" s="20">
         <v>1.8164851719904926</v>
       </c>
-      <c r="Y227" s="9"/>
+      <c r="Y227" s="20">
+        <v>1.8098575561190151</v>
+      </c>
       <c r="Z227" s="9"/>
       <c r="AA227" s="9"/>
       <c r="AB227" s="9"/>
@@ -22460,7 +22766,9 @@
       <c r="X228" s="20">
         <v>5.604559730409199</v>
       </c>
-      <c r="Y228" s="9"/>
+      <c r="Y228" s="20">
+        <v>6.7420456287366246</v>
+      </c>
       <c r="Z228" s="9"/>
       <c r="AA228" s="9"/>
       <c r="AB228" s="9"/>
@@ -22604,7 +22912,9 @@
       <c r="X229" s="20">
         <v>6.6292076750638875</v>
       </c>
-      <c r="Y229" s="9"/>
+      <c r="Y229" s="20">
+        <v>5.4614932621162158</v>
+      </c>
       <c r="Z229" s="9"/>
       <c r="AA229" s="9"/>
       <c r="AB229" s="9"/>
@@ -22748,7 +23058,9 @@
       <c r="X230" s="20">
         <v>48.251619710311644</v>
       </c>
-      <c r="Y230" s="9"/>
+      <c r="Y230" s="20">
+        <v>51.564169564139441</v>
+      </c>
       <c r="Z230" s="9"/>
       <c r="AA230" s="9"/>
       <c r="AB230" s="9"/>
@@ -22892,7 +23204,9 @@
       <c r="X231" s="20">
         <v>42.664720013048409</v>
       </c>
-      <c r="Y231" s="9"/>
+      <c r="Y231" s="20">
+        <v>45.341768926179064</v>
+      </c>
       <c r="Z231" s="9"/>
       <c r="AA231" s="9"/>
       <c r="AB231" s="9"/>
@@ -23036,7 +23350,9 @@
       <c r="X232" s="20">
         <v>0.19901990004184505</v>
       </c>
-      <c r="Y232" s="9"/>
+      <c r="Y232" s="20">
+        <v>8.3126343403806313E-2</v>
+      </c>
       <c r="Z232" s="9"/>
       <c r="AA232" s="9"/>
       <c r="AB232" s="9"/>
@@ -23180,7 +23496,9 @@
       <c r="X233" s="20">
         <v>2.9038288183051622</v>
       </c>
-      <c r="Y233" s="9"/>
+      <c r="Y233" s="20">
+        <v>4.0587247094513206</v>
+      </c>
       <c r="Z233" s="9"/>
       <c r="AA233" s="9"/>
       <c r="AB233" s="9"/>
@@ -23324,7 +23642,9 @@
       <c r="X234" s="20">
         <v>2.4840509789162315</v>
       </c>
-      <c r="Y234" s="9"/>
+      <c r="Y234" s="20">
+        <v>2.0805495851052433</v>
+      </c>
       <c r="Z234" s="9"/>
       <c r="AA234" s="9"/>
       <c r="AB234" s="9"/>
@@ -23468,7 +23788,9 @@
       <c r="X235" s="20">
         <v>18.65458387164745</v>
       </c>
-      <c r="Y235" s="9"/>
+      <c r="Y235" s="20">
+        <v>17.361432638469054</v>
+      </c>
       <c r="Z235" s="9"/>
       <c r="AA235" s="9"/>
       <c r="AB235" s="9"/>
@@ -23612,7 +23934,9 @@
       <c r="X236" s="20">
         <v>1.7388410760293127</v>
       </c>
-      <c r="Y236" s="9"/>
+      <c r="Y236" s="20">
+        <v>1.625319787069726</v>
+      </c>
       <c r="Z236" s="9"/>
       <c r="AA236" s="9"/>
       <c r="AB236" s="9"/>
@@ -23756,7 +24080,9 @@
       <c r="X237" s="20">
         <v>2.8438366121085323</v>
       </c>
-      <c r="Y237" s="9"/>
+      <c r="Y237" s="20">
+        <v>2.9027414361408077</v>
+      </c>
       <c r="Z237" s="9"/>
       <c r="AA237" s="9"/>
       <c r="AB237" s="9"/>
@@ -23900,7 +24226,9 @@
       <c r="X238" s="20">
         <v>10.001810401305153</v>
       </c>
-      <c r="Y238" s="9"/>
+      <c r="Y238" s="20">
+        <v>9.2514007170215535</v>
+      </c>
       <c r="Z238" s="9"/>
       <c r="AA238" s="9"/>
       <c r="AB238" s="9"/>
@@ -24044,7 +24372,9 @@
       <c r="X239" s="20">
         <v>4.0700957822044508</v>
       </c>
-      <c r="Y239" s="9"/>
+      <c r="Y239" s="20">
+        <v>3.5819706982369666</v>
+      </c>
       <c r="Z239" s="9"/>
       <c r="AA239" s="9"/>
       <c r="AB239" s="9"/>
@@ -24283,7 +24613,9 @@
       <c r="X241" s="20">
         <v>100</v>
       </c>
-      <c r="Y241" s="9"/>
+      <c r="Y241" s="20">
+        <v>100</v>
+      </c>
       <c r="Z241" s="9"/>
       <c r="AA241" s="9"/>
       <c r="AB241" s="9"/>
@@ -24379,6 +24711,7 @@
       <c r="V242" s="14"/>
       <c r="W242" s="14"/>
       <c r="X242" s="14"/>
+      <c r="Y242" s="14"/>
     </row>
     <row r="243" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
@@ -24587,7 +24920,7 @@
     </row>
     <row r="248" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="250" spans="1:94" x14ac:dyDescent="0.2">
@@ -24597,7 +24930,7 @@
     </row>
     <row r="251" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="252" spans="1:94" x14ac:dyDescent="0.2">
@@ -24632,6 +24965,7 @@
       <c r="V254" s="5"/>
       <c r="W254" s="5"/>
       <c r="X254" s="5"/>
+      <c r="Y254" s="5"/>
     </row>
     <row r="255" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
@@ -24705,6 +25039,9 @@
       </c>
       <c r="X255" s="16">
         <v>2022</v>
+      </c>
+      <c r="Y255" s="16">
+        <v>2023</v>
       </c>
     </row>
     <row r="256" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24783,7 +25120,9 @@
       <c r="X257" s="20">
         <v>15.311542019148893</v>
       </c>
-      <c r="Y257" s="9"/>
+      <c r="Y257" s="20">
+        <v>13.612030336787919</v>
+      </c>
       <c r="Z257" s="9"/>
       <c r="AA257" s="9"/>
       <c r="AB257" s="9"/>
@@ -24927,7 +25266,9 @@
       <c r="X258" s="20">
         <v>0.77333716478752046</v>
       </c>
-      <c r="Y258" s="9"/>
+      <c r="Y258" s="20">
+        <v>0.96930873217681757</v>
+      </c>
       <c r="Z258" s="9"/>
       <c r="AA258" s="9"/>
       <c r="AB258" s="9"/>
@@ -25071,7 +25412,9 @@
       <c r="X259" s="20">
         <v>3.0221967216423202</v>
       </c>
-      <c r="Y259" s="9"/>
+      <c r="Y259" s="20">
+        <v>2.4698947603845678</v>
+      </c>
       <c r="Z259" s="9"/>
       <c r="AA259" s="9"/>
       <c r="AB259" s="9"/>
@@ -25215,7 +25558,9 @@
       <c r="X260" s="20">
         <v>0.2214916024409902</v>
       </c>
-      <c r="Y260" s="9"/>
+      <c r="Y260" s="20">
+        <v>0.21476499853944805</v>
+      </c>
       <c r="Z260" s="9"/>
       <c r="AA260" s="9"/>
       <c r="AB260" s="9"/>
@@ -25359,7 +25704,9 @@
       <c r="X261" s="20">
         <v>0.14116552695725926</v>
       </c>
-      <c r="Y261" s="9"/>
+      <c r="Y261" s="20">
+        <v>0.12272386468453687</v>
+      </c>
       <c r="Z261" s="9"/>
       <c r="AA261" s="9"/>
       <c r="AB261" s="9"/>
@@ -25503,7 +25850,9 @@
       <c r="X262" s="20">
         <v>0.86821598713867176</v>
       </c>
-      <c r="Y262" s="9"/>
+      <c r="Y262" s="20">
+        <v>0.77311381238894472</v>
+      </c>
       <c r="Z262" s="9"/>
       <c r="AA262" s="9"/>
       <c r="AB262" s="9"/>
@@ -25647,7 +25996,9 @@
       <c r="X263" s="20">
         <v>7.4663906885510345</v>
       </c>
-      <c r="Y263" s="9"/>
+      <c r="Y263" s="20">
+        <v>6.8003165561149563</v>
+      </c>
       <c r="Z263" s="9"/>
       <c r="AA263" s="9"/>
       <c r="AB263" s="9"/>
@@ -25791,7 +26142,9 @@
       <c r="X264" s="20">
         <v>0.23797012972592574</v>
       </c>
-      <c r="Y264" s="9"/>
+      <c r="Y264" s="20">
+        <v>0.26945557640861173</v>
+      </c>
       <c r="Z264" s="9"/>
       <c r="AA264" s="9"/>
       <c r="AB264" s="9"/>
@@ -25935,7 +26288,9 @@
       <c r="X265" s="20">
         <v>2.5807741979051704</v>
       </c>
-      <c r="Y265" s="9"/>
+      <c r="Y265" s="20">
+        <v>1.992452036090036</v>
+      </c>
       <c r="Z265" s="9"/>
       <c r="AA265" s="9"/>
       <c r="AB265" s="9"/>
@@ -26079,7 +26434,9 @@
       <c r="X266" s="20">
         <v>16.75592224932667</v>
       </c>
-      <c r="Y266" s="9"/>
+      <c r="Y266" s="20">
+        <v>16.28428259767027</v>
+      </c>
       <c r="Z266" s="9"/>
       <c r="AA266" s="9"/>
       <c r="AB266" s="9"/>
@@ -26223,7 +26580,9 @@
       <c r="X267" s="20">
         <v>2.8930518320043856</v>
       </c>
-      <c r="Y267" s="9"/>
+      <c r="Y267" s="20">
+        <v>2.6571453684614701</v>
+      </c>
       <c r="Z267" s="9"/>
       <c r="AA267" s="9"/>
       <c r="AB267" s="9"/>
@@ -26367,7 +26726,9 @@
       <c r="X268" s="20">
         <v>1.6986672722824483</v>
       </c>
-      <c r="Y268" s="9"/>
+      <c r="Y268" s="20">
+        <v>1.646916340011646</v>
+      </c>
       <c r="Z268" s="9"/>
       <c r="AA268" s="9"/>
       <c r="AB268" s="9"/>
@@ -26511,7 +26872,9 @@
       <c r="X269" s="20">
         <v>5.1556445569614677</v>
       </c>
-      <c r="Y269" s="9"/>
+      <c r="Y269" s="20">
+        <v>6.21786841714371</v>
+      </c>
       <c r="Z269" s="9"/>
       <c r="AA269" s="9"/>
       <c r="AB269" s="9"/>
@@ -26655,7 +27018,9 @@
       <c r="X270" s="20">
         <v>7.0085585880783672</v>
       </c>
-      <c r="Y270" s="9"/>
+      <c r="Y270" s="20">
+        <v>5.7623524720534416</v>
+      </c>
       <c r="Z270" s="9"/>
       <c r="AA270" s="9"/>
       <c r="AB270" s="9"/>
@@ -26799,7 +27164,9 @@
       <c r="X271" s="20">
         <v>49.702527544126298</v>
       </c>
-      <c r="Y271" s="9"/>
+      <c r="Y271" s="20">
+        <v>53.274239962794589</v>
+      </c>
       <c r="Z271" s="9"/>
       <c r="AA271" s="9"/>
       <c r="AB271" s="9"/>
@@ -26943,7 +27310,9 @@
       <c r="X272" s="20">
         <v>44.223967964526537</v>
       </c>
-      <c r="Y272" s="9"/>
+      <c r="Y272" s="20">
+        <v>47.662317287769049</v>
+      </c>
       <c r="Z272" s="9"/>
       <c r="AA272" s="9"/>
       <c r="AB272" s="9"/>
@@ -27087,7 +27456,9 @@
       <c r="X273" s="20">
         <v>0.2335405627805287</v>
       </c>
-      <c r="Y273" s="9"/>
+      <c r="Y273" s="20">
+        <v>6.7966159307539575E-2</v>
+      </c>
       <c r="Z273" s="9"/>
       <c r="AA273" s="9"/>
       <c r="AB273" s="9"/>
@@ -27231,7 +27602,9 @@
       <c r="X274" s="20">
         <v>2.7891101812851424</v>
       </c>
-      <c r="Y274" s="9"/>
+      <c r="Y274" s="20">
+        <v>3.5933919032791901</v>
+      </c>
       <c r="Z274" s="9"/>
       <c r="AA274" s="9"/>
       <c r="AB274" s="9"/>
@@ -27375,7 +27748,9 @@
       <c r="X275" s="20">
         <v>2.4559088355340948</v>
       </c>
-      <c r="Y275" s="9"/>
+      <c r="Y275" s="20">
+        <v>1.9505646124388072</v>
+      </c>
       <c r="Z275" s="9"/>
       <c r="AA275" s="9"/>
       <c r="AB275" s="9"/>
@@ -27519,7 +27894,9 @@
       <c r="X276" s="20">
         <v>18.230008187398138</v>
       </c>
-      <c r="Y276" s="9"/>
+      <c r="Y276" s="20">
+        <v>16.829447102747235</v>
+      </c>
       <c r="Z276" s="9"/>
       <c r="AA276" s="9"/>
       <c r="AB276" s="9"/>
@@ -27663,7 +28040,9 @@
       <c r="X277" s="20">
         <v>1.5167806257299161</v>
       </c>
-      <c r="Y277" s="9"/>
+      <c r="Y277" s="20">
+        <v>1.5325989979450043</v>
+      </c>
       <c r="Z277" s="9"/>
       <c r="AA277" s="9"/>
       <c r="AB277" s="9"/>
@@ -27807,7 +28186,9 @@
       <c r="X278" s="20">
         <v>2.9600155827208439</v>
       </c>
-      <c r="Y278" s="9"/>
+      <c r="Y278" s="20">
+        <v>3.1407032808916915</v>
+      </c>
       <c r="Z278" s="9"/>
       <c r="AA278" s="9"/>
       <c r="AB278" s="9"/>
@@ -27951,7 +28332,9 @@
       <c r="X279" s="20">
         <v>9.8055307454063154</v>
       </c>
-      <c r="Y279" s="9"/>
+      <c r="Y279" s="20">
+        <v>8.7836199760637825</v>
+      </c>
       <c r="Z279" s="9"/>
       <c r="AA279" s="9"/>
       <c r="AB279" s="9"/>
@@ -28095,7 +28478,9 @@
       <c r="X280" s="20">
         <v>3.9476812335410636</v>
       </c>
-      <c r="Y280" s="9"/>
+      <c r="Y280" s="20">
+        <v>3.3725248478467544</v>
+      </c>
       <c r="Z280" s="9"/>
       <c r="AA280" s="9"/>
       <c r="AB280" s="9"/>
@@ -28334,7 +28719,9 @@
       <c r="X282" s="20">
         <v>100</v>
       </c>
-      <c r="Y282" s="9"/>
+      <c r="Y282" s="20">
+        <v>100</v>
+      </c>
       <c r="Z282" s="9"/>
       <c r="AA282" s="9"/>
       <c r="AB282" s="9"/>
@@ -28430,6 +28817,7 @@
       <c r="V283" s="14"/>
       <c r="W283" s="14"/>
       <c r="X283" s="14"/>
+      <c r="Y283" s="14"/>
     </row>
     <row r="284" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">

--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733C86FB-887F-45AF-8A9D-681AE56B1A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65F88F8-9F06-41D6-843A-DD9A524398EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="1" r:id="rId1"/>
@@ -255,13 +255,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -690,50 +690,50 @@
   <dimension ref="A1:CP286"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="25" width="11.21875" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
+    <col min="2" max="25" width="11.1796875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>26</v>
@@ -762,7 +762,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>59</v>
       </c>
@@ -839,10 +839,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:94" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -913,10 +913,10 @@
         <v>205338.0095818183</v>
       </c>
       <c r="X12" s="8">
-        <v>209348.07642791094</v>
+        <v>209197.68130840597</v>
       </c>
       <c r="Y12" s="8">
-        <v>210071.19999363503</v>
+        <v>210537.56756763221</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -988,7 +988,7 @@
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
     </row>
-    <row r="13" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
@@ -1059,10 +1059,10 @@
         <v>18029.723137600471</v>
       </c>
       <c r="X13" s="11">
-        <v>10759.337008839924</v>
+        <v>10757.575764634381</v>
       </c>
       <c r="Y13" s="11">
-        <v>15081.554499268608</v>
+        <v>15090.405257769698</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -1134,7 +1134,7 @@
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
     </row>
-    <row r="14" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
@@ -1205,10 +1205,10 @@
         <v>36578.483172682456</v>
       </c>
       <c r="X14" s="11">
-        <v>41515.677098280197</v>
+        <v>41521.831825543377</v>
       </c>
       <c r="Y14" s="11">
-        <v>42988.176599905993</v>
+        <v>43131.102592025985</v>
       </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -1280,7 +1280,7 @@
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
     </row>
-    <row r="15" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1351,10 +1351,10 @@
         <v>2329.8318291783062</v>
       </c>
       <c r="X15" s="11">
-        <v>3017.7644709202382</v>
+        <v>3005.9705528855138</v>
       </c>
       <c r="Y15" s="11">
-        <v>3332.0033590526909</v>
+        <v>3387.0447492446992</v>
       </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -1426,7 +1426,7 @@
       <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
     </row>
-    <row r="16" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
@@ -1497,10 +1497,10 @@
         <v>1742.1442369072447</v>
       </c>
       <c r="X16" s="11">
-        <v>1978.3976093709248</v>
+        <v>1975.4021570315726</v>
       </c>
       <c r="Y16" s="11">
-        <v>2036.4030362317428</v>
+        <v>2041.1749775554947</v>
       </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -1572,7 +1572,7 @@
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
     </row>
-    <row r="17" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
@@ -1643,10 +1643,10 @@
         <v>12386.229643468138</v>
       </c>
       <c r="X17" s="11">
-        <v>12498.166891651847</v>
+        <v>12493.282340473934</v>
       </c>
       <c r="Y17" s="11">
-        <v>12774.001450449141</v>
+        <v>12799.817317232137</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -1718,7 +1718,7 @@
       <c r="CO17" s="9"/>
       <c r="CP17" s="9"/>
     </row>
-    <row r="18" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1789,10 +1789,10 @@
         <v>96060.593141191697</v>
       </c>
       <c r="X18" s="11">
-        <v>99866.738653423148</v>
+        <v>99808.767672439339</v>
       </c>
       <c r="Y18" s="11">
-        <v>99509.715186288144</v>
+        <v>99500.494076860137</v>
       </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -1864,7 +1864,7 @@
       <c r="CO18" s="9"/>
       <c r="CP18" s="9"/>
     </row>
-    <row r="19" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1935,10 +1935,10 @@
         <v>4504.6966770582194</v>
       </c>
       <c r="X19" s="11">
-        <v>3150.6453366562828</v>
+        <v>3148.7476422661903</v>
       </c>
       <c r="Y19" s="11">
-        <v>4396.8531616632117</v>
+        <v>4392.1718553562469</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -2010,7 +2010,7 @@
       <c r="CO19" s="9"/>
       <c r="CP19" s="9"/>
     </row>
-    <row r="20" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -2081,10 +2081,10 @@
         <v>33706.307743731806</v>
       </c>
       <c r="X20" s="11">
-        <v>36561.349358768377</v>
+        <v>36486.103353131672</v>
       </c>
       <c r="Y20" s="11">
-        <v>29952.49270077547</v>
+        <v>30195.356741587806</v>
       </c>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
@@ -2156,7 +2156,7 @@
       <c r="CO20" s="9"/>
       <c r="CP20" s="9"/>
     </row>
-    <row r="21" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -2227,10 +2227,10 @@
         <v>181941.67564860798</v>
       </c>
       <c r="X21" s="8">
-        <v>225187.52273865149</v>
+        <v>225510.93280867892</v>
       </c>
       <c r="Y21" s="8">
-        <v>250191.58547566214</v>
+        <v>250340.41722162766</v>
       </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
@@ -2302,7 +2302,7 @@
       <c r="CO21" s="9"/>
       <c r="CP21" s="9"/>
     </row>
-    <row r="22" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
@@ -2373,10 +2373,10 @@
         <v>32330.953253907617</v>
       </c>
       <c r="X22" s="11">
-        <v>40701.740416579181</v>
+        <v>40746.191532799974</v>
       </c>
       <c r="Y22" s="11">
-        <v>42630.205698569902</v>
+        <v>42609.713284923557</v>
       </c>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
@@ -2448,7 +2448,7 @@
       <c r="CO22" s="9"/>
       <c r="CP22" s="9"/>
     </row>
-    <row r="23" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
@@ -2519,10 +2519,10 @@
         <v>20415.427404221798</v>
       </c>
       <c r="X23" s="11">
-        <v>23851.221619220662</v>
+        <v>23859.054476532838</v>
       </c>
       <c r="Y23" s="11">
-        <v>26806.958111089072</v>
+        <v>26816.781146138437</v>
       </c>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
@@ -2594,7 +2594,7 @@
       <c r="CO23" s="9"/>
       <c r="CP23" s="9"/>
     </row>
-    <row r="24" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
@@ -2665,10 +2665,10 @@
         <v>52832.487153351649</v>
       </c>
       <c r="X24" s="11">
-        <v>73590.249053158273</v>
+        <v>73741.257929054089</v>
       </c>
       <c r="Y24" s="11">
-        <v>99860.750997527066</v>
+        <v>100044.29041614191</v>
       </c>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
@@ -2740,7 +2740,7 @@
       <c r="CO24" s="9"/>
       <c r="CP24" s="9"/>
     </row>
-    <row r="25" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>12</v>
       </c>
@@ -2811,10 +2811,10 @@
         <v>76362.807837126922</v>
       </c>
       <c r="X25" s="11">
-        <v>87044.31164969338</v>
+        <v>87164.428870292002</v>
       </c>
       <c r="Y25" s="11">
-        <v>80893.670668476087</v>
+        <v>80869.63237442376</v>
       </c>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
@@ -2886,7 +2886,7 @@
       <c r="CO25" s="9"/>
       <c r="CP25" s="9"/>
     </row>
-    <row r="26" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -2957,10 +2957,10 @@
         <v>465987.34348604328</v>
       </c>
       <c r="X26" s="8">
-        <v>633564.25526771229</v>
+        <v>633489.48771007173</v>
       </c>
       <c r="Y26" s="8">
-        <v>763749.90333663695</v>
+        <v>764169.68753697618</v>
       </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
@@ -3032,7 +3032,7 @@
       <c r="CO26" s="9"/>
       <c r="CP26" s="9"/>
     </row>
-    <row r="27" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
@@ -3103,10 +3103,10 @@
         <v>418484.55170058872</v>
       </c>
       <c r="X27" s="11">
-        <v>560205.88994851569</v>
+        <v>560126.15859481401</v>
       </c>
       <c r="Y27" s="11">
-        <v>671585.94673780689</v>
+        <v>672238.67266591021</v>
       </c>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
@@ -3178,7 +3178,7 @@
       <c r="CO27" s="9"/>
       <c r="CP27" s="9"/>
     </row>
-    <row r="28" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>9</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>2613.2157948372364</v>
       </c>
       <c r="Y28" s="11">
-        <v>1231.2374518203824</v>
+        <v>1229.2723320173461</v>
       </c>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
@@ -3324,7 +3324,7 @@
       <c r="CO28" s="9"/>
       <c r="CP28" s="9"/>
     </row>
-    <row r="29" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>8</v>
       </c>
@@ -3395,10 +3395,10 @@
         <v>29811.749753425083</v>
       </c>
       <c r="X29" s="11">
-        <v>38128.505400229362</v>
+        <v>38119.895394579529</v>
       </c>
       <c r="Y29" s="11">
-        <v>60116.368220720309</v>
+        <v>60118.521939533122</v>
       </c>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
@@ -3470,7 +3470,7 @@
       <c r="CO29" s="9"/>
       <c r="CP29" s="9"/>
     </row>
-    <row r="30" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
@@ -3541,10 +3541,10 @@
         <v>11255.592431088256</v>
       </c>
       <c r="X30" s="11">
-        <v>32616.644124130049</v>
+        <v>32630.217925841043</v>
       </c>
       <c r="Y30" s="11">
-        <v>30816.350926289353</v>
+        <v>30583.220599515487</v>
       </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
@@ -3616,7 +3616,7 @@
       <c r="CO30" s="9"/>
       <c r="CP30" s="9"/>
     </row>
-    <row r="31" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -3687,10 +3687,10 @@
         <v>217940.87140317733</v>
       </c>
       <c r="X31" s="8">
-        <v>244942.60729331814</v>
+        <v>245478.47021998322</v>
       </c>
       <c r="Y31" s="8">
-        <v>257151.28569893353</v>
+        <v>257010.81101137761</v>
       </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -3762,7 +3762,7 @@
       <c r="CO31" s="9"/>
       <c r="CP31" s="9"/>
     </row>
-    <row r="32" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>5</v>
       </c>
@@ -3833,10 +3833,10 @@
         <v>19248.15429771955</v>
       </c>
       <c r="X32" s="11">
-        <v>22831.721670225848</v>
+        <v>22812.425493531133</v>
       </c>
       <c r="Y32" s="11">
-        <v>24073.651156576008</v>
+        <v>23907.294964309072</v>
       </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
@@ -3908,7 +3908,7 @@
       <c r="CO32" s="9"/>
       <c r="CP32" s="9"/>
     </row>
-    <row r="33" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
@@ -3979,10 +3979,10 @@
         <v>35119.025287864963</v>
       </c>
       <c r="X33" s="11">
-        <v>37340.78225914044</v>
+        <v>37508.333861987216</v>
       </c>
       <c r="Y33" s="11">
-        <v>42994.360425142862</v>
+        <v>43329.317955091494</v>
       </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -4054,7 +4054,7 @@
       <c r="CO33" s="9"/>
       <c r="CP33" s="9"/>
     </row>
-    <row r="34" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>3</v>
       </c>
@@ -4125,10 +4125,10 @@
         <v>112490.34627618532</v>
       </c>
       <c r="X34" s="11">
-        <v>131328.01751062361</v>
+        <v>131714.20346066554</v>
       </c>
       <c r="Y34" s="11">
-        <v>137028.41455760825</v>
+        <v>136863.49201576298</v>
       </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -4200,7 +4200,7 @@
       <c r="CO34" s="9"/>
       <c r="CP34" s="9"/>
     </row>
-    <row r="35" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>2</v>
       </c>
@@ -4271,10 +4271,10 @@
         <v>51083.345541407492</v>
       </c>
       <c r="X35" s="11">
-        <v>53442.085853328237</v>
+        <v>53443.507403799333</v>
       </c>
       <c r="Y35" s="11">
-        <v>53054.859559606404</v>
+        <v>52910.706076214068</v>
       </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
@@ -4346,7 +4346,7 @@
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
     </row>
-    <row r="36" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -4441,7 +4441,7 @@
       <c r="CO36" s="9"/>
       <c r="CP36" s="9"/>
     </row>
-    <row r="37" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>1</v>
       </c>
@@ -4512,10 +4512,10 @@
         <v>1071207.9001196469</v>
       </c>
       <c r="X37" s="13">
-        <v>1313042.4617275926</v>
+        <v>1313676.57204714</v>
       </c>
       <c r="Y37" s="13">
-        <v>1481163.9745048676</v>
+        <v>1482058.4833376138</v>
       </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -4587,7 +4587,7 @@
       <c r="CO37" s="9"/>
       <c r="CP37" s="9"/>
     </row>
-    <row r="38" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:94" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -4614,12 +4614,12 @@
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
     </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -4714,7 +4714,7 @@
       <c r="CO40" s="9"/>
       <c r="CP40" s="9"/>
     </row>
-    <row r="41" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -4809,37 +4809,37 @@
       <c r="CO41" s="9"/>
       <c r="CP41" s="9"/>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>26</v>
@@ -4868,7 +4868,7 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>59</v>
       </c>
@@ -4945,10 +4945,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:94" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>25</v>
       </c>
@@ -5019,10 +5019,10 @@
         <v>205251.81079561129</v>
       </c>
       <c r="X53" s="8">
-        <v>185895.43556808389</v>
+        <v>185737.07065117144</v>
       </c>
       <c r="Y53" s="8">
-        <v>179689.68175159479</v>
+        <v>180239.32368872536</v>
       </c>
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
@@ -5094,7 +5094,7 @@
       <c r="CO53" s="9"/>
       <c r="CP53" s="9"/>
     </row>
-    <row r="54" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>24</v>
       </c>
@@ -5165,10 +5165,10 @@
         <v>18457.209672301324</v>
       </c>
       <c r="X54" s="11">
-        <v>9388.9857017258291</v>
+        <v>9387.1026211380267</v>
       </c>
       <c r="Y54" s="11">
-        <v>12795.650119377769</v>
+        <v>12805.647320673106</v>
       </c>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
@@ -5240,7 +5240,7 @@
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
     </row>
-    <row r="55" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>23</v>
       </c>
@@ -5311,10 +5311,10 @@
         <v>37242.576118303281</v>
       </c>
       <c r="X55" s="11">
-        <v>36692.096409331032</v>
+        <v>36698.546590302925</v>
       </c>
       <c r="Y55" s="11">
-        <v>32604.585243538546</v>
+        <v>32757.864279911271</v>
       </c>
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
@@ -5386,7 +5386,7 @@
       <c r="CO55" s="9"/>
       <c r="CP55" s="9"/>
     </row>
-    <row r="56" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>22</v>
       </c>
@@ -5457,10 +5457,10 @@
         <v>2210.0849703596596</v>
       </c>
       <c r="X56" s="11">
-        <v>2689.1006705234158</v>
+        <v>2676.4795215991462</v>
       </c>
       <c r="Y56" s="11">
-        <v>2835.0696614772323</v>
+        <v>2897.0079394102154</v>
       </c>
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
@@ -5532,7 +5532,7 @@
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>
     </row>
-    <row r="57" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>21</v>
       </c>
@@ -5603,10 +5603,10 @@
         <v>1641.9332915867071</v>
       </c>
       <c r="X57" s="11">
-        <v>1713.8722597697242</v>
+        <v>1710.6805321339848</v>
       </c>
       <c r="Y57" s="11">
-        <v>1620.0531179314103</v>
+        <v>1625.6835421858254</v>
       </c>
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
@@ -5678,7 +5678,7 @@
       <c r="CO57" s="9"/>
       <c r="CP57" s="9"/>
     </row>
-    <row r="58" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>20</v>
       </c>
@@ -5749,10 +5749,10 @@
         <v>11906.131314373666</v>
       </c>
       <c r="X58" s="11">
-        <v>10540.897115030662</v>
+        <v>10535.670889285499</v>
       </c>
       <c r="Y58" s="11">
-        <v>10205.720342136206</v>
+        <v>10238.836077119917</v>
       </c>
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
@@ -5824,7 +5824,7 @@
       <c r="CO58" s="9"/>
       <c r="CP58" s="9"/>
     </row>
-    <row r="59" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>19</v>
       </c>
@@ -5895,10 +5895,10 @@
         <v>96768.306675681393</v>
       </c>
       <c r="X59" s="11">
-        <v>90648.475995027969</v>
+        <v>90590.798279436291</v>
       </c>
       <c r="Y59" s="11">
-        <v>89769.614638307132</v>
+        <v>89759.548686591239</v>
       </c>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
@@ -5970,7 +5970,7 @@
       <c r="CO59" s="9"/>
       <c r="CP59" s="9"/>
     </row>
-    <row r="60" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>18</v>
       </c>
@@ -6041,10 +6041,10 @@
         <v>5066.4948791584193</v>
       </c>
       <c r="X60" s="11">
-        <v>2889.1643220695923</v>
+        <v>2887.136936665147</v>
       </c>
       <c r="Y60" s="11">
-        <v>3557.0290083912228</v>
+        <v>3550.3094755179623</v>
       </c>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
@@ -6116,7 +6116,7 @@
       <c r="CO60" s="9"/>
       <c r="CP60" s="9"/>
     </row>
-    <row r="61" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>17</v>
       </c>
@@ -6187,10 +6187,10 @@
         <v>31959.073873846857</v>
       </c>
       <c r="X61" s="11">
-        <v>31332.843094605672</v>
+        <v>31250.655280610437</v>
       </c>
       <c r="Y61" s="11">
-        <v>26301.959620435257</v>
+        <v>26604.426367315835</v>
       </c>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
@@ -6262,7 +6262,7 @@
       <c r="CO61" s="9"/>
       <c r="CP61" s="9"/>
     </row>
-    <row r="62" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -6333,10 +6333,10 @@
         <v>185382.68327611513</v>
       </c>
       <c r="X62" s="8">
-        <v>203431.4676463051</v>
+        <v>203817.20109231723</v>
       </c>
       <c r="Y62" s="8">
-        <v>214965.54776404431</v>
+        <v>215067.32112741217</v>
       </c>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
@@ -6408,7 +6408,7 @@
       <c r="CO62" s="9"/>
       <c r="CP62" s="9"/>
     </row>
-    <row r="63" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>15</v>
       </c>
@@ -6479,10 +6479,10 @@
         <v>32160.527246869613</v>
       </c>
       <c r="X63" s="11">
-        <v>35124.165140187019</v>
+        <v>35170.647716245097</v>
       </c>
       <c r="Y63" s="11">
-        <v>35076.442956211773</v>
+        <v>35054.614851723396</v>
       </c>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
@@ -6554,7 +6554,7 @@
       <c r="CO63" s="9"/>
       <c r="CP63" s="9"/>
     </row>
-    <row r="64" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>14</v>
       </c>
@@ -6625,10 +6625,10 @@
         <v>20442.448381010778</v>
       </c>
       <c r="X64" s="11">
-        <v>20623.297906329837</v>
+        <v>20631.488205538968</v>
       </c>
       <c r="Y64" s="11">
-        <v>21740.612214799585</v>
+        <v>21747.798494678056</v>
       </c>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
@@ -6700,7 +6700,7 @@
       <c r="CO64" s="9"/>
       <c r="CP64" s="9"/>
     </row>
-    <row r="65" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>13</v>
       </c>
@@ -6771,10 +6771,10 @@
         <v>52681.537418341817</v>
       </c>
       <c r="X65" s="11">
-        <v>62594.008451400055</v>
+        <v>62750.129214180153</v>
       </c>
       <c r="Y65" s="11">
-        <v>82080.833601307997</v>
+        <v>82254.392467961879</v>
       </c>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
@@ -6846,7 +6846,7 @@
       <c r="CO65" s="9"/>
       <c r="CP65" s="9"/>
     </row>
-    <row r="66" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>12</v>
       </c>
@@ -6917,10 +6917,10 @@
         <v>80098.170229892916</v>
       </c>
       <c r="X66" s="11">
-        <v>85089.996148388193</v>
+        <v>85264.935956353002</v>
       </c>
       <c r="Y66" s="11">
-        <v>76067.658991724951</v>
+        <v>76010.515313048847</v>
       </c>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
@@ -6992,7 +6992,7 @@
       <c r="CO66" s="9"/>
       <c r="CP66" s="9"/>
     </row>
-    <row r="67" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -7063,10 +7063,10 @@
         <v>503150.80215884541</v>
       </c>
       <c r="X67" s="8">
-        <v>603431.90745223383</v>
+        <v>603381.46102559008</v>
       </c>
       <c r="Y67" s="8">
-        <v>703262.55434511381</v>
+        <v>704936.66966138757</v>
       </c>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
@@ -7138,7 +7138,7 @@
       <c r="CO67" s="9"/>
       <c r="CP67" s="9"/>
     </row>
-    <row r="68" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
@@ -7209,10 +7209,10 @@
         <v>456925.26794895518</v>
       </c>
       <c r="X68" s="11">
-        <v>536917.42980774073</v>
+        <v>536861.12979317608</v>
       </c>
       <c r="Y68" s="11">
-        <v>629180.68892606755</v>
+        <v>631147.50809689588</v>
       </c>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
@@ -7284,7 +7284,7 @@
       <c r="CO68" s="9"/>
       <c r="CP68" s="9"/>
     </row>
-    <row r="69" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>9</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>2835.3855272452197</v>
       </c>
       <c r="Y69" s="11">
-        <v>897.20763425303107</v>
+        <v>895.48174924477485</v>
       </c>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
@@ -7430,7 +7430,7 @@
       <c r="CO69" s="9"/>
       <c r="CP69" s="9"/>
     </row>
-    <row r="70" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>8</v>
       </c>
@@ -7501,10 +7501,10 @@
         <v>29291.011767812543</v>
       </c>
       <c r="X70" s="11">
-        <v>33862.223109139166</v>
+        <v>33852.037274979462</v>
       </c>
       <c r="Y70" s="11">
-        <v>47435.645640895797</v>
+        <v>47438.923926202391</v>
       </c>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
@@ -7576,7 +7576,7 @@
       <c r="CO70" s="9"/>
       <c r="CP70" s="9"/>
     </row>
-    <row r="71" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>7</v>
       </c>
@@ -7647,10 +7647,10 @@
         <v>10714.756493455456</v>
       </c>
       <c r="X71" s="11">
-        <v>29816.869008108799</v>
+        <v>29832.908430189382</v>
       </c>
       <c r="Y71" s="11">
-        <v>25749.012143897409</v>
+        <v>25454.755889044605</v>
       </c>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
@@ -7722,7 +7722,7 @@
       <c r="CO71" s="9"/>
       <c r="CP71" s="9"/>
     </row>
-    <row r="72" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -7793,10 +7793,10 @@
         <v>227217.63266621521</v>
       </c>
       <c r="X72" s="8">
-        <v>221328.15285148442</v>
+        <v>221789.75408840791</v>
       </c>
       <c r="Y72" s="8">
-        <v>222162.15502951574</v>
+        <v>222173.2649870209</v>
       </c>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
@@ -7868,7 +7868,7 @@
       <c r="CO72" s="9"/>
       <c r="CP72" s="9"/>
     </row>
-    <row r="73" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>5</v>
       </c>
@@ -7939,10 +7939,10 @@
         <v>19487.511000151404</v>
       </c>
       <c r="X73" s="11">
-        <v>18415.035842155288</v>
+        <v>18398.025456236883</v>
       </c>
       <c r="Y73" s="11">
-        <v>20231.531915505282</v>
+        <v>20102.018156496088</v>
       </c>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
@@ -8014,7 +8014,7 @@
       <c r="CO73" s="9"/>
       <c r="CP73" s="9"/>
     </row>
-    <row r="74" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>4</v>
       </c>
@@ -8085,10 +8085,10 @@
         <v>38504.704007123466</v>
       </c>
       <c r="X74" s="11">
-        <v>35937.163307918301</v>
+        <v>36095.19950144038</v>
       </c>
       <c r="Y74" s="11">
-        <v>41459.793951119704</v>
+        <v>41870.093895148602</v>
       </c>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
@@ -8160,7 +8160,7 @@
       <c r="CO74" s="9"/>
       <c r="CP74" s="9"/>
     </row>
-    <row r="75" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>3</v>
       </c>
@@ -8231,10 +8231,10 @@
         <v>115782.85176744947</v>
       </c>
       <c r="X75" s="11">
-        <v>119047.67048373797</v>
+        <v>119360.75571104462</v>
       </c>
       <c r="Y75" s="11">
-        <v>115950.8052123762</v>
+        <v>115822.65789545965</v>
       </c>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
@@ -8306,7 +8306,7 @@
       <c r="CO75" s="9"/>
       <c r="CP75" s="9"/>
     </row>
-    <row r="76" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>2</v>
       </c>
@@ -8377,10 +8377,10 @@
         <v>53442.565891490878</v>
       </c>
       <c r="X76" s="11">
-        <v>47928.283217672863</v>
+        <v>47935.773419685996</v>
       </c>
       <c r="Y76" s="11">
-        <v>44520.023950514558</v>
+        <v>44378.495039916575</v>
       </c>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
@@ -8452,7 +8452,7 @@
       <c r="CO76" s="9"/>
       <c r="CP76" s="9"/>
     </row>
-    <row r="77" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -8547,7 +8547,7 @@
       <c r="CO77" s="9"/>
       <c r="CP77" s="9"/>
     </row>
-    <row r="78" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>1</v>
       </c>
@@ -8618,10 +8618,10 @@
         <v>1121002.9288967871</v>
       </c>
       <c r="X78" s="13">
-        <v>1214086.9635181073</v>
+        <v>1214725.4868574867</v>
       </c>
       <c r="Y78" s="13">
-        <v>1320079.9388902686</v>
+        <v>1322416.5794645462</v>
       </c>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
@@ -8693,7 +8693,7 @@
       <c r="CO78" s="9"/>
       <c r="CP78" s="9"/>
     </row>
-    <row r="79" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:94" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -8720,12 +8720,12 @@
       <c r="X79" s="14"/>
       <c r="Y79" s="14"/>
     </row>
-    <row r="80" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:94" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:94" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -8821,7 +8821,7 @@
       <c r="CO81" s="17"/>
       <c r="CP81" s="17"/>
     </row>
-    <row r="82" spans="1:94" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:94" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -8917,37 +8917,37 @@
       <c r="CO82" s="17"/>
       <c r="CP82" s="17"/>
     </row>
-    <row r="83" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5" t="s">
         <v>26</v>
@@ -8976,7 +8976,7 @@
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
     </row>
-    <row r="92" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>59</v>
       </c>
@@ -9051,10 +9051,10 @@
       </c>
       <c r="Y92" s="16"/>
     </row>
-    <row r="93" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:94" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
     </row>
-    <row r="94" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>25</v>
       </c>
@@ -9122,10 +9122,10 @@
         <v>20.546735233388787</v>
       </c>
       <c r="W94" s="19">
-        <v>1.9529101573835987</v>
+        <v>1.8796674490261722</v>
       </c>
       <c r="X94" s="19">
-        <v>0.34541686652329417</v>
+        <v>0.64048810237574116</v>
       </c>
       <c r="Y94" s="19"/>
       <c r="Z94" s="9"/>
@@ -9192,7 +9192,7 @@
       <c r="CI94" s="9"/>
       <c r="CJ94" s="9"/>
     </row>
-    <row r="95" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>24</v>
       </c>
@@ -9260,10 +9260,10 @@
         <v>54.371610618702164</v>
       </c>
       <c r="W95" s="19">
-        <v>-40.324446877380858</v>
+        <v>-40.334215436732002</v>
       </c>
       <c r="X95" s="19">
-        <v>40.171782767632692</v>
+        <v>40.277006529477859</v>
       </c>
       <c r="Y95" s="19"/>
       <c r="Z95" s="9"/>
@@ -9330,7 +9330,7 @@
       <c r="CI95" s="9"/>
       <c r="CJ95" s="9"/>
     </row>
-    <row r="96" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>23</v>
       </c>
@@ -9398,10 +9398,10 @@
         <v>45.093636868136059</v>
       </c>
       <c r="W96" s="19">
-        <v>13.497535975698781</v>
+        <v>13.514362062319506</v>
       </c>
       <c r="X96" s="19">
-        <v>3.5468517065010019</v>
+        <v>3.8757219894441732</v>
       </c>
       <c r="Y96" s="19"/>
       <c r="Z96" s="9"/>
@@ -9468,7 +9468,7 @@
       <c r="CI96" s="9"/>
       <c r="CJ96" s="9"/>
     </row>
-    <row r="97" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>22</v>
       </c>
@@ -9536,10 +9536,10 @@
         <v>5.2863562882099728</v>
       </c>
       <c r="W97" s="19">
-        <v>29.527137243401597</v>
+        <v>29.020923967103272</v>
       </c>
       <c r="X97" s="19">
-        <v>10.412969307595716</v>
+        <v>12.677243161726309</v>
       </c>
       <c r="Y97" s="19"/>
       <c r="Z97" s="9"/>
@@ -9606,7 +9606,7 @@
       <c r="CI97" s="9"/>
       <c r="CJ97" s="9"/>
     </row>
-    <row r="98" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>21</v>
       </c>
@@ -9674,10 +9674,10 @@
         <v>-44.344729980746322</v>
       </c>
       <c r="W98" s="19">
-        <v>13.561068449940208</v>
+        <v>13.389127902430232</v>
       </c>
       <c r="X98" s="19">
-        <v>2.9319397974435475</v>
+        <v>3.3295914095162544</v>
       </c>
       <c r="Y98" s="19"/>
       <c r="Z98" s="9"/>
@@ -9744,7 +9744,7 @@
       <c r="CI98" s="9"/>
       <c r="CJ98" s="9"/>
     </row>
-    <row r="99" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>20</v>
       </c>
@@ -9812,10 +9812,10 @@
         <v>11.897325986506189</v>
       </c>
       <c r="W99" s="19">
-        <v>0.90372333959381024</v>
+        <v>0.86428800439890097</v>
       </c>
       <c r="X99" s="19">
-        <v>2.2070001240064983</v>
+        <v>2.4535984091637459</v>
       </c>
       <c r="Y99" s="19"/>
       <c r="Z99" s="9"/>
@@ -9882,7 +9882,7 @@
       <c r="CI99" s="9"/>
       <c r="CJ99" s="9"/>
     </row>
-    <row r="100" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>19</v>
       </c>
@@ -9950,10 +9950,10 @@
         <v>9.8512449361911649</v>
       </c>
       <c r="W100" s="19">
-        <v>3.9622340314275419</v>
+        <v>3.9018856834857303</v>
       </c>
       <c r="X100" s="19">
-        <v>-0.3574998762841517</v>
+        <v>-0.30886424386173417</v>
       </c>
       <c r="Y100" s="19"/>
       <c r="Z100" s="9"/>
@@ -10020,7 +10020,7 @@
       <c r="CI100" s="9"/>
       <c r="CJ100" s="9"/>
     </row>
-    <row r="101" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>18</v>
       </c>
@@ -10088,10 +10088,10 @@
         <v>-10.292713913712277</v>
       </c>
       <c r="W101" s="19">
-        <v>-30.058657385255884</v>
+        <v>-30.100784403480148</v>
       </c>
       <c r="X101" s="19">
-        <v>39.554049784908671</v>
+        <v>39.489484530273444</v>
       </c>
       <c r="Y101" s="19"/>
       <c r="Z101" s="9"/>
@@ -10158,7 +10158,7 @@
       <c r="CI101" s="9"/>
       <c r="CJ101" s="9"/>
     </row>
-    <row r="102" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>17</v>
       </c>
@@ -10226,10 +10226,10 @@
         <v>37.189050753921038</v>
       </c>
       <c r="W102" s="19">
-        <v>8.4703481518752426</v>
+        <v>8.2471080206547072</v>
       </c>
       <c r="X102" s="19">
-        <v>-18.076074253008741</v>
+        <v>-17.241486575474269</v>
       </c>
       <c r="Y102" s="19"/>
       <c r="Z102" s="9"/>
@@ -10296,7 +10296,7 @@
       <c r="CI102" s="9"/>
       <c r="CJ102" s="9"/>
     </row>
-    <row r="103" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>16</v>
       </c>
@@ -10364,10 +10364,10 @@
         <v>1.0634228506467167</v>
       </c>
       <c r="W103" s="19">
-        <v>23.769071564211657</v>
+        <v>23.946826368807422</v>
       </c>
       <c r="X103" s="19">
-        <v>11.103662597696371</v>
+        <v>11.010324024518042</v>
       </c>
       <c r="Y103" s="19"/>
       <c r="Z103" s="9"/>
@@ -10434,7 +10434,7 @@
       <c r="CI103" s="9"/>
       <c r="CJ103" s="9"/>
     </row>
-    <row r="104" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>15</v>
       </c>
@@ -10502,10 +10502,10 @@
         <v>3.4034565070653287</v>
       </c>
       <c r="W104" s="19">
-        <v>25.890938312064279</v>
+        <v>26.028426111671379</v>
       </c>
       <c r="X104" s="19">
-        <v>4.7380413276017777</v>
+        <v>4.5734869493839057</v>
       </c>
       <c r="Y104" s="19"/>
       <c r="Z104" s="9"/>
@@ -10572,7 +10572,7 @@
       <c r="CI104" s="9"/>
       <c r="CJ104" s="9"/>
     </row>
-    <row r="105" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>14</v>
       </c>
@@ -10640,10 +10640,10 @@
         <v>11.058419895279229</v>
       </c>
       <c r="W105" s="19">
-        <v>16.829401349140312</v>
+        <v>16.867768693389777</v>
       </c>
       <c r="X105" s="19">
-        <v>12.392390373357287</v>
+        <v>12.396663382091461</v>
       </c>
       <c r="Y105" s="19"/>
       <c r="Z105" s="9"/>
@@ -10710,7 +10710,7 @@
       <c r="CI105" s="9"/>
       <c r="CJ105" s="9"/>
     </row>
-    <row r="106" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>13</v>
       </c>
@@ -10778,10 +10778,10 @@
         <v>-1.3547610279008921</v>
       </c>
       <c r="W106" s="19">
-        <v>39.289768508446542</v>
+        <v>39.575594302446177</v>
       </c>
       <c r="X106" s="19">
-        <v>35.698346292308599</v>
+        <v>35.669356918746587</v>
       </c>
       <c r="Y106" s="19"/>
       <c r="Z106" s="9"/>
@@ -10848,7 +10848,7 @@
       <c r="CI106" s="9"/>
       <c r="CJ106" s="9"/>
     </row>
-    <row r="107" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>12</v>
       </c>
@@ -10916,10 +10916,10 @@
         <v>-0.59482461560536137</v>
       </c>
       <c r="W107" s="19">
-        <v>13.987835328618175</v>
+        <v>14.145133395570909</v>
       </c>
       <c r="X107" s="19">
-        <v>-7.0661033037636258</v>
+        <v>-7.221749258789302</v>
       </c>
       <c r="Y107" s="19"/>
       <c r="Z107" s="9"/>
@@ -10986,7 +10986,7 @@
       <c r="CI107" s="9"/>
       <c r="CJ107" s="9"/>
     </row>
-    <row r="108" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -11054,10 +11054,10 @@
         <v>14.298739096877085</v>
       </c>
       <c r="W108" s="19">
-        <v>35.961687398638134</v>
+        <v>35.945642422591959</v>
       </c>
       <c r="X108" s="19">
-        <v>20.548136512833224</v>
+        <v>20.628629576677795</v>
       </c>
       <c r="Y108" s="19"/>
       <c r="Z108" s="9"/>
@@ -11124,7 +11124,7 @@
       <c r="CI108" s="9"/>
       <c r="CJ108" s="9"/>
     </row>
-    <row r="109" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>10</v>
       </c>
@@ -11192,10 +11192,10 @@
         <v>10.869653772150897</v>
       </c>
       <c r="W109" s="19">
-        <v>33.865369144934107</v>
+        <v>33.846316744223572</v>
       </c>
       <c r="X109" s="19">
-        <v>19.881986031872543</v>
+        <v>20.015582623806097</v>
       </c>
       <c r="Y109" s="19"/>
       <c r="Z109" s="9"/>
@@ -11262,7 +11262,7 @@
       <c r="CI109" s="9"/>
       <c r="CJ109" s="9"/>
     </row>
-    <row r="110" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>9</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>-59.393423041413726</v>
       </c>
       <c r="X110" s="19">
-        <v>-52.884202894653413</v>
+        <v>-52.959402187682279</v>
       </c>
       <c r="Y110" s="19"/>
       <c r="Z110" s="9"/>
@@ -11400,7 +11400,7 @@
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
     </row>
-    <row r="111" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>8</v>
       </c>
@@ -11468,10 +11468,10 @@
         <v>37.320564484325047</v>
       </c>
       <c r="W111" s="19">
-        <v>27.897576343531341</v>
+        <v>27.868695094624286</v>
       </c>
       <c r="X111" s="19">
-        <v>57.667780548142531</v>
+        <v>57.70904226584446</v>
       </c>
       <c r="Y111" s="19"/>
       <c r="Z111" s="9"/>
@@ -11538,7 +11538,7 @@
       <c r="CI111" s="9"/>
       <c r="CJ111" s="9"/>
     </row>
-    <row r="112" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>7</v>
       </c>
@@ -11606,10 +11606,10 @@
         <v>73.158762358841614</v>
       </c>
       <c r="W112" s="19">
-        <v>189.78167363311752</v>
+        <v>189.90226969942057</v>
       </c>
       <c r="X112" s="19">
-        <v>-5.5195537314914134</v>
+        <v>-6.2733179746999639</v>
       </c>
       <c r="Y112" s="19"/>
       <c r="Z112" s="9"/>
@@ -11676,7 +11676,7 @@
       <c r="CI112" s="9"/>
       <c r="CJ112" s="9"/>
     </row>
-    <row r="113" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
@@ -11744,10 +11744,10 @@
         <v>17.25483886482759</v>
       </c>
       <c r="W113" s="19">
-        <v>12.389477804825916</v>
+        <v>12.635353176074531</v>
       </c>
       <c r="X113" s="19">
-        <v>4.9843016454036189</v>
+        <v>4.6979031525900439</v>
       </c>
       <c r="Y113" s="19"/>
       <c r="Z113" s="9"/>
@@ -11814,7 +11814,7 @@
       <c r="CI113" s="9"/>
       <c r="CJ113" s="9"/>
     </row>
-    <row r="114" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>5</v>
       </c>
@@ -11882,10 +11882,10 @@
         <v>2.1191162954630158</v>
       </c>
       <c r="W114" s="19">
-        <v>18.617719481451104</v>
+        <v>18.517469990532362</v>
       </c>
       <c r="X114" s="19">
-        <v>5.4394911793696394</v>
+        <v>4.7994434922687503</v>
       </c>
       <c r="Y114" s="19"/>
       <c r="Z114" s="9"/>
@@ -11952,7 +11952,7 @@
       <c r="CI114" s="9"/>
       <c r="CJ114" s="9"/>
     </row>
-    <row r="115" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>4</v>
       </c>
@@ -12020,10 +12020,10 @@
         <v>20.757555041822215</v>
       </c>
       <c r="W115" s="19">
-        <v>6.3263628562128247</v>
+        <v>6.8034592490465684</v>
       </c>
       <c r="X115" s="19">
-        <v>15.140492041027116</v>
+        <v>15.519175323869945</v>
       </c>
       <c r="Y115" s="19"/>
       <c r="Z115" s="9"/>
@@ -12090,7 +12090,7 @@
       <c r="CI115" s="9"/>
       <c r="CJ115" s="9"/>
     </row>
-    <row r="116" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>3</v>
       </c>
@@ -12158,10 +12158,10 @@
         <v>14.789275096277791</v>
       </c>
       <c r="W116" s="19">
-        <v>16.74603364469003</v>
+        <v>17.089339504104629</v>
       </c>
       <c r="X116" s="19">
-        <v>4.3405795313429678</v>
+        <v>3.9094406068630292</v>
       </c>
       <c r="Y116" s="19"/>
       <c r="Z116" s="9"/>
@@ -12228,7 +12228,7 @@
       <c r="CI116" s="9"/>
       <c r="CJ116" s="9"/>
     </row>
-    <row r="117" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>2</v>
       </c>
@@ -12296,10 +12296,10 @@
         <v>27.896511583960248</v>
       </c>
       <c r="W117" s="19">
-        <v>4.6174350699266284</v>
+        <v>4.6202178760565289</v>
       </c>
       <c r="X117" s="19">
-        <v>-0.72457181926725411</v>
+        <v>-0.99694304035776327</v>
       </c>
       <c r="Y117" s="19"/>
       <c r="Z117" s="9"/>
@@ -12366,7 +12366,7 @@
       <c r="CI117" s="9"/>
       <c r="CJ117" s="9"/>
     </row>
-    <row r="118" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -12455,7 +12455,7 @@
       <c r="CI118" s="9"/>
       <c r="CJ118" s="9"/>
     </row>
-    <row r="119" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>1</v>
       </c>
@@ -12523,10 +12523,10 @@
         <v>13.484066991609751</v>
       </c>
       <c r="W119" s="20">
-        <v>22.575875474866677</v>
+        <v>22.635071296655937</v>
       </c>
       <c r="X119" s="20">
-        <v>12.803966183703963</v>
+        <v>12.817607839963173</v>
       </c>
       <c r="Y119" s="20"/>
       <c r="Z119" s="9"/>
@@ -12593,7 +12593,7 @@
       <c r="CI119" s="9"/>
       <c r="CJ119" s="9"/>
     </row>
-    <row r="120" spans="1:88" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:88" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -12620,12 +12620,12 @@
       <c r="X120" s="14"/>
       <c r="Y120" s="14"/>
     </row>
-    <row r="121" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>0</v>
       </c>
@@ -12717,7 +12717,7 @@
       <c r="CI122" s="9"/>
       <c r="CJ122" s="9"/>
     </row>
-    <row r="123" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -12806,37 +12806,37 @@
       <c r="CI123" s="9"/>
       <c r="CJ123" s="9"/>
     </row>
-    <row r="124" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="128" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="5" t="s">
         <v>26</v>
@@ -12865,7 +12865,7 @@
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
     </row>
-    <row r="133" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>59</v>
       </c>
@@ -12940,10 +12940,10 @@
       </c>
       <c r="Y133" s="21"/>
     </row>
-    <row r="134" spans="1:88" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:88" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
     </row>
-    <row r="135" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>25</v>
       </c>
@@ -13011,10 +13011,10 @@
         <v>16.127964736749576</v>
       </c>
       <c r="W135" s="19">
-        <v>-9.4305502847925595</v>
+        <v>-9.5077066890642641</v>
       </c>
       <c r="X135" s="19">
-        <v>-3.3383034917047496</v>
+        <v>-2.9599621352762995</v>
       </c>
       <c r="Y135" s="19"/>
       <c r="Z135" s="9"/>
@@ -13081,7 +13081,7 @@
       <c r="CI135" s="9"/>
       <c r="CJ135" s="9"/>
     </row>
-    <row r="136" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>24</v>
       </c>
@@ -13149,10 +13149,10 @@
         <v>32.114926505103426</v>
       </c>
       <c r="W136" s="19">
-        <v>-49.131066567359582</v>
+        <v>-49.141268979431807</v>
       </c>
       <c r="X136" s="19">
-        <v>36.283625578700651</v>
+        <v>36.417463806533306</v>
       </c>
       <c r="Y136" s="19"/>
       <c r="Z136" s="9"/>
@@ -13219,7 +13219,7 @@
       <c r="CI136" s="9"/>
       <c r="CJ136" s="9"/>
     </row>
-    <row r="137" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>23</v>
       </c>
@@ -13287,10 +13287,10 @@
         <v>44.122580926121316</v>
       </c>
       <c r="W137" s="19">
-        <v>-1.4780924585442676</v>
+        <v>-1.4607730847410068</v>
       </c>
       <c r="X137" s="19">
-        <v>-11.140031684733628</v>
+        <v>-10.737979229490591</v>
       </c>
       <c r="Y137" s="19"/>
       <c r="Z137" s="9"/>
@@ -13357,7 +13357,7 @@
       <c r="CI137" s="9"/>
       <c r="CJ137" s="9"/>
     </row>
-    <row r="138" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>22</v>
       </c>
@@ -13425,10 +13425,10 @@
         <v>-1.6507986751624202</v>
       </c>
       <c r="W138" s="19">
-        <v>21.674085231474322</v>
+        <v>21.103014476569541</v>
       </c>
       <c r="X138" s="19">
-        <v>5.4281713047732154</v>
+        <v>8.2394958015336215</v>
       </c>
       <c r="Y138" s="19"/>
       <c r="Z138" s="9"/>
@@ -13495,7 +13495,7 @@
       <c r="CI138" s="9"/>
       <c r="CJ138" s="9"/>
     </row>
-    <row r="139" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>21</v>
       </c>
@@ -13563,10 +13563,10 @@
         <v>-42.394338594235691</v>
       </c>
       <c r="W139" s="19">
-        <v>4.381357546718462</v>
+        <v>4.186969160046857</v>
       </c>
       <c r="X139" s="19">
-        <v>-5.4741035280493691</v>
+        <v>-4.9686068410523205</v>
       </c>
       <c r="Y139" s="19"/>
       <c r="Z139" s="9"/>
@@ -13633,7 +13633,7 @@
       <c r="CI139" s="9"/>
       <c r="CJ139" s="9"/>
     </row>
-    <row r="140" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>20</v>
       </c>
@@ -13701,10 +13701,10 @@
         <v>6.7526915707732513</v>
       </c>
       <c r="W140" s="19">
-        <v>-11.46664826126036</v>
+        <v>-11.510543508231592</v>
       </c>
       <c r="X140" s="19">
-        <v>-3.1797746362263126</v>
+        <v>-2.8174267712505667</v>
       </c>
       <c r="Y140" s="19"/>
       <c r="Z140" s="9"/>
@@ -13771,7 +13771,7 @@
       <c r="CI140" s="9"/>
       <c r="CJ140" s="9"/>
     </row>
-    <row r="141" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>19</v>
       </c>
@@ -13839,10 +13839,10 @@
         <v>8.2906526654377757</v>
       </c>
       <c r="W141" s="19">
-        <v>-6.3242097447917587</v>
+        <v>-6.3838136766710107</v>
       </c>
       <c r="X141" s="19">
-        <v>-0.96952689725200969</v>
+        <v>-0.91758722589129604</v>
       </c>
       <c r="Y141" s="19"/>
       <c r="Z141" s="9"/>
@@ -13909,7 +13909,7 @@
       <c r="CI141" s="9"/>
       <c r="CJ141" s="9"/>
     </row>
-    <row r="142" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>18</v>
       </c>
@@ -13977,10 +13977,10 @@
         <v>-12.365964984535466</v>
       </c>
       <c r="W142" s="19">
-        <v>-42.975086504982251</v>
+        <v>-43.015102047340449</v>
       </c>
       <c r="X142" s="19">
-        <v>23.11618903846977</v>
+        <v>22.969902481273635</v>
       </c>
       <c r="Y142" s="19"/>
       <c r="Z142" s="9"/>
@@ -14047,7 +14047,7 @@
       <c r="CI142" s="9"/>
       <c r="CJ142" s="9"/>
     </row>
-    <row r="143" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>17</v>
       </c>
@@ -14115,10 +14115,10 @@
         <v>25.118411459378592</v>
       </c>
       <c r="W143" s="19">
-        <v>-1.9594772417784299</v>
+        <v>-2.2166430605366827</v>
       </c>
       <c r="X143" s="19">
-        <v>-16.056262302722672</v>
+        <v>-14.867620763707208</v>
       </c>
       <c r="Y143" s="19"/>
       <c r="Z143" s="9"/>
@@ -14185,7 +14185,7 @@
       <c r="CI143" s="9"/>
       <c r="CJ143" s="9"/>
     </row>
-    <row r="144" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>16</v>
       </c>
@@ -14253,10 +14253,10 @@
         <v>0.78662283854984594</v>
       </c>
       <c r="W144" s="19">
-        <v>9.7359602586545293</v>
+        <v>9.9440344105631056</v>
       </c>
       <c r="X144" s="19">
-        <v>5.66976203396068</v>
+        <v>5.5197107873144091</v>
       </c>
       <c r="Y144" s="19"/>
       <c r="Z144" s="9"/>
@@ -14323,7 +14323,7 @@
       <c r="CI144" s="9"/>
       <c r="CJ144" s="9"/>
     </row>
-    <row r="145" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>15</v>
       </c>
@@ -14391,10 +14391,10 @@
         <v>-0.57972218161430078</v>
       </c>
       <c r="W145" s="19">
-        <v>9.2151408792773282</v>
+        <v>9.3596738830470372</v>
       </c>
       <c r="X145" s="19">
-        <v>-0.13586709829195343</v>
+        <v>-0.32991392554907861</v>
       </c>
       <c r="Y145" s="19"/>
       <c r="Z145" s="9"/>
@@ -14461,7 +14461,7 @@
       <c r="CI145" s="9"/>
       <c r="CJ145" s="9"/>
     </row>
-    <row r="146" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>14</v>
       </c>
@@ -14529,10 +14529,10 @@
         <v>7.8642708906054821</v>
       </c>
       <c r="W146" s="19">
-        <v>0.8846764435861445</v>
+        <v>0.92474160142086248</v>
       </c>
       <c r="X146" s="19">
-        <v>5.4177285977467875</v>
+        <v>5.4107114233252105</v>
       </c>
       <c r="Y146" s="19"/>
       <c r="Z146" s="9"/>
@@ -14599,7 +14599,7 @@
       <c r="CI146" s="9"/>
       <c r="CJ146" s="9"/>
     </row>
-    <row r="147" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>13</v>
       </c>
@@ -14667,10 +14667,10 @@
         <v>-3.2335923398880624</v>
       </c>
       <c r="W147" s="19">
-        <v>18.815834766445278</v>
+        <v>19.112182918816671</v>
       </c>
       <c r="X147" s="19">
-        <v>31.132093361680319</v>
+        <v>31.082427236459296</v>
       </c>
       <c r="Y147" s="19"/>
       <c r="Z147" s="9"/>
@@ -14737,7 +14737,7 @@
       <c r="CI147" s="9"/>
       <c r="CJ147" s="9"/>
     </row>
-    <row r="148" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>12</v>
       </c>
@@ -14805,10 +14805,10 @@
         <v>2.4354930389223455</v>
       </c>
       <c r="W148" s="19">
-        <v>6.2321347718281856</v>
+        <v>6.4505415187772002</v>
       </c>
       <c r="X148" s="19">
-        <v>-10.603287771842432</v>
+        <v>-10.853723795724747</v>
       </c>
       <c r="Y148" s="19"/>
       <c r="Z148" s="9"/>
@@ -14875,7 +14875,7 @@
       <c r="CI148" s="9"/>
       <c r="CJ148" s="9"/>
     </row>
-    <row r="149" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>11</v>
       </c>
@@ -14943,10 +14943,10 @@
         <v>10.710714730871572</v>
       </c>
       <c r="W149" s="19">
-        <v>19.930626138946224</v>
+        <v>19.920600034162675</v>
       </c>
       <c r="X149" s="19">
-        <v>16.543813089761471</v>
+        <v>16.831012418442597</v>
       </c>
       <c r="Y149" s="19"/>
       <c r="Z149" s="9"/>
@@ -15013,7 +15013,7 @@
       <c r="CI149" s="9"/>
       <c r="CJ149" s="9"/>
     </row>
-    <row r="150" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>10</v>
       </c>
@@ -15081,10 +15081,10 @@
         <v>7.7839417672044959</v>
       </c>
       <c r="W150" s="19">
-        <v>17.506618143018045</v>
+        <v>17.494296650092636</v>
       </c>
       <c r="X150" s="19">
-        <v>17.183882287331301</v>
+        <v>17.562526521531424</v>
       </c>
       <c r="Y150" s="19"/>
       <c r="Z150" s="9"/>
@@ -15151,7 +15151,7 @@
       <c r="CI150" s="9"/>
       <c r="CJ150" s="9"/>
     </row>
-    <row r="151" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>9</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>-54.413308303453469</v>
       </c>
       <c r="X151" s="19">
-        <v>-68.356767514267005</v>
+        <v>-68.417637014787203</v>
       </c>
       <c r="Y151" s="19"/>
       <c r="Z151" s="9"/>
@@ -15289,7 +15289,7 @@
       <c r="CI151" s="9"/>
       <c r="CJ151" s="9"/>
     </row>
-    <row r="152" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>8</v>
       </c>
@@ -15357,10 +15357,10 @@
         <v>38.770159671011783</v>
       </c>
       <c r="W152" s="19">
-        <v>15.606191338019457</v>
+        <v>15.571416731254615</v>
       </c>
       <c r="X152" s="19">
-        <v>40.084262890859236</v>
+        <v>40.136097396020546</v>
       </c>
       <c r="Y152" s="19"/>
       <c r="Z152" s="9"/>
@@ -15427,7 +15427,7 @@
       <c r="CI152" s="9"/>
       <c r="CJ152" s="9"/>
     </row>
-    <row r="153" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>7</v>
       </c>
@@ -15495,10 +15495,10 @@
         <v>44.982825504296073</v>
       </c>
       <c r="W153" s="19">
-        <v>178.27855001950684</v>
+        <v>178.42824471476553</v>
       </c>
       <c r="X153" s="19">
-        <v>-13.642803552261384</v>
+        <v>-14.675580664184622</v>
       </c>
       <c r="Y153" s="19"/>
       <c r="Z153" s="9"/>
@@ -15565,7 +15565,7 @@
       <c r="CI153" s="9"/>
       <c r="CJ153" s="9"/>
     </row>
-    <row r="154" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>6</v>
       </c>
@@ -15633,10 +15633,10 @@
         <v>21.883426480587559</v>
       </c>
       <c r="W154" s="19">
-        <v>-2.591999461319304</v>
+        <v>-2.3888456692887559</v>
       </c>
       <c r="X154" s="19">
-        <v>0.37681703266684963</v>
+        <v>0.17291641815884873</v>
       </c>
       <c r="Y154" s="19"/>
       <c r="Z154" s="9"/>
@@ -15703,7 +15703,7 @@
       <c r="CI154" s="9"/>
       <c r="CJ154" s="9"/>
     </row>
-    <row r="155" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>5</v>
       </c>
@@ -15771,10 +15771,10 @@
         <v>22.715049143830825</v>
       </c>
       <c r="W155" s="19">
-        <v>-5.5033973193794878</v>
+        <v>-5.5906859727035254</v>
       </c>
       <c r="X155" s="19">
-        <v>9.8642005854352419</v>
+        <v>9.2618237990401013</v>
       </c>
       <c r="Y155" s="19"/>
       <c r="Z155" s="9"/>
@@ -15841,7 +15841,7 @@
       <c r="CI155" s="9"/>
       <c r="CJ155" s="9"/>
     </row>
-    <row r="156" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>4</v>
       </c>
@@ -15909,10 +15909,10 @@
         <v>25.973011190922435</v>
       </c>
       <c r="W156" s="19">
-        <v>-6.6681221565296624</v>
+        <v>-6.2576886845755837</v>
       </c>
       <c r="X156" s="19">
-        <v>15.367464025700002</v>
+        <v>15.999064899136457</v>
       </c>
       <c r="Y156" s="19"/>
       <c r="Z156" s="9"/>
@@ -15979,7 +15979,7 @@
       <c r="CI156" s="9"/>
       <c r="CJ156" s="9"/>
     </row>
-    <row r="157" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>3</v>
       </c>
@@ -16047,10 +16047,10 @@
         <v>17.890587822110618</v>
       </c>
       <c r="W157" s="19">
-        <v>2.819777425111198</v>
+        <v>3.0901846767269063</v>
       </c>
       <c r="X157" s="19">
-        <v>-2.601365703988975</v>
+        <v>-2.9642052737586511</v>
       </c>
       <c r="Y157" s="19"/>
       <c r="Z157" s="9"/>
@@ -16117,7 +16117,7 @@
       <c r="CI157" s="9"/>
       <c r="CJ157" s="9"/>
     </row>
-    <row r="158" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>2</v>
       </c>
@@ -16185,10 +16185,10 @@
         <v>27.963739207634816</v>
       </c>
       <c r="W158" s="19">
-        <v>-10.318147307923326</v>
+        <v>-10.30413188428453</v>
       </c>
       <c r="X158" s="19">
-        <v>-7.1111649288150431</v>
+        <v>-7.4209262227289798</v>
       </c>
       <c r="Y158" s="19"/>
       <c r="Z158" s="9"/>
@@ -16255,7 +16255,7 @@
       <c r="CI158" s="9"/>
       <c r="CJ158" s="9"/>
     </row>
-    <row r="159" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -16344,7 +16344,7 @@
       <c r="CI159" s="9"/>
       <c r="CJ159" s="9"/>
     </row>
-    <row r="160" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>1</v>
       </c>
@@ -16412,10 +16412,10 @@
         <v>11.923724164667689</v>
       </c>
       <c r="W160" s="20">
-        <v>8.3036388417760065</v>
+        <v>8.360598848116723</v>
       </c>
       <c r="X160" s="20">
-        <v>8.7302622099673357</v>
+        <v>8.8654674469421053</v>
       </c>
       <c r="Y160" s="20"/>
       <c r="Z160" s="9"/>
@@ -16482,7 +16482,7 @@
       <c r="CI160" s="9"/>
       <c r="CJ160" s="9"/>
     </row>
-    <row r="161" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:94" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -16509,12 +16509,12 @@
       <c r="X161" s="14"/>
       <c r="Y161" s="14"/>
     </row>
-    <row r="162" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
         <v>0</v>
       </c>
@@ -16606,7 +16606,7 @@
       <c r="CI163" s="9"/>
       <c r="CJ163" s="9"/>
     </row>
-    <row r="164" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -16701,32 +16701,32 @@
       <c r="CO164" s="9"/>
       <c r="CP164" s="9"/>
     </row>
-    <row r="165" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="168" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="170" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="5" t="s">
         <v>26</v>
@@ -16755,7 +16755,7 @@
       <c r="X172" s="5"/>
       <c r="Y172" s="5"/>
     </row>
-    <row r="173" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>59</v>
       </c>
@@ -16832,10 +16832,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="174" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:94" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
     </row>
-    <row r="175" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>25</v>
       </c>
@@ -16906,10 +16906,10 @@
         <v>100.04199660206304</v>
       </c>
       <c r="X175" s="17">
-        <v>112.61603911261047</v>
+        <v>112.63108682342437</v>
       </c>
       <c r="Y175" s="17">
-        <v>116.90777007665918</v>
+        <v>116.81000752712107</v>
       </c>
       <c r="Z175" s="9"/>
       <c r="AA175" s="9"/>
@@ -16981,7 +16981,7 @@
       <c r="CO175" s="9"/>
       <c r="CP175" s="9"/>
     </row>
-    <row r="176" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>24</v>
       </c>
@@ -17052,10 +17052,10 @@
         <v>97.68390486812109</v>
       </c>
       <c r="X176" s="17">
-        <v>114.59530721047115</v>
+        <v>114.59953298486694</v>
       </c>
       <c r="Y176" s="17">
-        <v>117.86469900758743</v>
+        <v>117.84179963638495</v>
       </c>
       <c r="Z176" s="9"/>
       <c r="AA176" s="9"/>
@@ -17127,7 +17127,7 @@
       <c r="CO176" s="9"/>
       <c r="CP176" s="9"/>
     </row>
-    <row r="177" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>23</v>
       </c>
@@ -17198,10 +17198,10 @@
         <v>98.216844765218994</v>
       </c>
       <c r="X177" s="17">
-        <v>113.1461027332374</v>
+        <v>113.14298707544712</v>
       </c>
       <c r="Y177" s="17">
-        <v>131.84702789134616</v>
+        <v>131.66640603757583</v>
       </c>
       <c r="Z177" s="9"/>
       <c r="AA177" s="9"/>
@@ -17273,7 +17273,7 @@
       <c r="CO177" s="9"/>
       <c r="CP177" s="9"/>
     </row>
-    <row r="178" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>22</v>
       </c>
@@ -17344,10 +17344,10 @@
         <v>105.41820158159618</v>
       </c>
       <c r="X178" s="17">
-        <v>112.22207126715156</v>
+        <v>112.31061282656492</v>
       </c>
       <c r="Y178" s="17">
-        <v>117.52809478820805</v>
+        <v>116.91527327792714</v>
       </c>
       <c r="Z178" s="9"/>
       <c r="AA178" s="9"/>
@@ -17419,7 +17419,7 @@
       <c r="CO178" s="9"/>
       <c r="CP178" s="9"/>
     </row>
-    <row r="179" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>21</v>
       </c>
@@ -17490,10 +17490,10 @@
         <v>106.10322878730945</v>
       </c>
       <c r="X179" s="17">
-        <v>115.43436788204637</v>
+        <v>115.47463830475475</v>
       </c>
       <c r="Y179" s="17">
-        <v>125.69976957496031</v>
+        <v>125.55795298333506</v>
       </c>
       <c r="Z179" s="9"/>
       <c r="AA179" s="9"/>
@@ -17565,7 +17565,7 @@
       <c r="CO179" s="9"/>
       <c r="CP179" s="9"/>
     </row>
-    <row r="180" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>20</v>
       </c>
@@ -17636,10 +17636,10 @@
         <v>104.03236212013613</v>
       </c>
       <c r="X180" s="17">
-        <v>118.56834152977586</v>
+        <v>118.58079539271938</v>
       </c>
       <c r="Y180" s="17">
-        <v>125.16511350707221</v>
+        <v>125.01242544389477</v>
       </c>
       <c r="Z180" s="9"/>
       <c r="AA180" s="9"/>
@@ -17711,7 +17711,7 @@
       <c r="CO180" s="9"/>
       <c r="CP180" s="9"/>
     </row>
-    <row r="181" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>19</v>
       </c>
@@ -17782,10 +17782,10 @@
         <v>99.268651525688469</v>
       </c>
       <c r="X181" s="17">
-        <v>110.16924174092104</v>
+        <v>110.17539260948924</v>
       </c>
       <c r="Y181" s="17">
-        <v>110.85010845509929</v>
+        <v>110.85226645276578</v>
       </c>
       <c r="Z181" s="9"/>
       <c r="AA181" s="9"/>
@@ -17857,7 +17857,7 @@
       <c r="CO181" s="9"/>
       <c r="CP181" s="9"/>
     </row>
-    <row r="182" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>18</v>
       </c>
@@ -17928,10 +17928,10 @@
         <v>88.911501629830553</v>
       </c>
       <c r="X182" s="17">
-        <v>109.05040300370953</v>
+        <v>109.06125034385181</v>
       </c>
       <c r="Y182" s="17">
-        <v>123.61027001159673</v>
+        <v>123.71236608086014</v>
       </c>
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
@@ -18003,7 +18003,7 @@
       <c r="CO182" s="9"/>
       <c r="CP182" s="9"/>
     </row>
-    <row r="183" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>17</v>
       </c>
@@ -18074,10 +18074,10 @@
         <v>105.4670979415169</v>
       </c>
       <c r="X183" s="17">
-        <v>116.68698320281972</v>
+        <v>116.7530825370231</v>
       </c>
       <c r="Y183" s="17">
-        <v>113.87931976560385</v>
+        <v>113.49749220183718</v>
       </c>
       <c r="Z183" s="9"/>
       <c r="AA183" s="9"/>
@@ -18149,7 +18149,7 @@
       <c r="CO183" s="9"/>
       <c r="CP183" s="9"/>
     </row>
-    <row r="184" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>16</v>
       </c>
@@ -18220,10 +18220,10 @@
         <v>98.143835461491307</v>
       </c>
       <c r="X184" s="17">
-        <v>110.6945377448549</v>
+        <v>110.64371976462168</v>
       </c>
       <c r="Y184" s="17">
-        <v>116.38682946082295</v>
+        <v>116.40095571438242</v>
       </c>
       <c r="Z184" s="9"/>
       <c r="AA184" s="9"/>
@@ -18295,7 +18295,7 @@
       <c r="CO184" s="9"/>
       <c r="CP184" s="9"/>
     </row>
-    <row r="185" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>15</v>
       </c>
@@ -18366,10 +18366,10 @@
         <v>100.52992292610685</v>
       </c>
       <c r="X185" s="17">
-        <v>115.87959529893746</v>
+        <v>115.85283234343042</v>
       </c>
       <c r="Y185" s="17">
-        <v>121.53514468895261</v>
+        <v>121.55236468909236</v>
       </c>
       <c r="Z185" s="9"/>
       <c r="AA185" s="9"/>
@@ -18441,7 +18441,7 @@
       <c r="CO185" s="9"/>
       <c r="CP185" s="9"/>
     </row>
-    <row r="186" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>14</v>
       </c>
@@ -18512,10 +18512,10 @@
         <v>99.867819273477636</v>
       </c>
       <c r="X186" s="17">
-        <v>115.65183089315745</v>
+        <v>115.64388491435804</v>
       </c>
       <c r="Y186" s="17">
-        <v>123.30360270554226</v>
+        <v>123.30802656968163</v>
       </c>
       <c r="Z186" s="9"/>
       <c r="AA186" s="9"/>
@@ -18587,7 +18587,7 @@
       <c r="CO186" s="9"/>
       <c r="CP186" s="9"/>
     </row>
-    <row r="187" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>13</v>
       </c>
@@ -18658,10 +18658,10 @@
         <v>100.2865325167167</v>
       </c>
       <c r="X187" s="17">
-        <v>117.5675609755781</v>
+        <v>117.51570690374002</v>
       </c>
       <c r="Y187" s="17">
-        <v>121.66147274110497</v>
+        <v>121.62790024266388</v>
       </c>
       <c r="Z187" s="9"/>
       <c r="AA187" s="9"/>
@@ -18733,7 +18733,7 @@
       <c r="CO187" s="9"/>
       <c r="CP187" s="9"/>
     </row>
-    <row r="188" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>12</v>
       </c>
@@ -18804,10 +18804,10 @@
         <v>95.33651969571217</v>
       </c>
       <c r="X188" s="17">
-        <v>102.29676294484381</v>
+        <v>102.22775387400907</v>
       </c>
       <c r="Y188" s="17">
-        <v>106.34436729185543</v>
+        <v>106.39269059203542</v>
       </c>
       <c r="Z188" s="9"/>
       <c r="AA188" s="9"/>
@@ -18879,7 +18879,7 @@
       <c r="CO188" s="9"/>
       <c r="CP188" s="9"/>
     </row>
-    <row r="189" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>11</v>
       </c>
@@ -18950,10 +18950,10 @@
         <v>92.613852842259888</v>
       </c>
       <c r="X189" s="17">
-        <v>104.99349594268242</v>
+        <v>104.98988262471735</v>
       </c>
       <c r="Y189" s="17">
-        <v>108.60096255911844</v>
+        <v>108.40260131509982</v>
       </c>
       <c r="Z189" s="9"/>
       <c r="AA189" s="9"/>
@@ -19025,7 +19025,7 @@
       <c r="CO189" s="9"/>
       <c r="CP189" s="9"/>
     </row>
-    <row r="190" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>10</v>
       </c>
@@ -19096,10 +19096,10 @@
         <v>91.587088973888655</v>
       </c>
       <c r="X190" s="17">
-        <v>104.33743790904946</v>
+        <v>104.33352826467446</v>
       </c>
       <c r="Y190" s="17">
-        <v>106.73975831714095</v>
+        <v>106.51054849173323</v>
       </c>
       <c r="Z190" s="9"/>
       <c r="AA190" s="9"/>
@@ -19171,7 +19171,7 @@
       <c r="CO190" s="9"/>
       <c r="CP190" s="9"/>
     </row>
-    <row r="191" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>9</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>92.164390687856937</v>
       </c>
       <c r="Y191" s="17">
-        <v>137.22993483503373</v>
+        <v>137.27497328159745</v>
       </c>
       <c r="Z191" s="9"/>
       <c r="AA191" s="9"/>
@@ -19317,7 +19317,7 @@
       <c r="CO191" s="9"/>
       <c r="CP191" s="9"/>
     </row>
-    <row r="192" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>8</v>
       </c>
@@ -19388,10 +19388,10 @@
         <v>101.77780811991197</v>
       </c>
       <c r="X192" s="17">
-        <v>112.59894330428281</v>
+        <v>112.60738928334604</v>
       </c>
       <c r="Y192" s="17">
-        <v>126.73247598614333</v>
+        <v>126.72825807148482</v>
       </c>
       <c r="Z192" s="9"/>
       <c r="AA192" s="9"/>
@@ -19463,7 +19463,7 @@
       <c r="CO192" s="9"/>
       <c r="CP192" s="9"/>
     </row>
-    <row r="193" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>7</v>
       </c>
@@ -19534,10 +19534,10 @@
         <v>105.04758029697774</v>
       </c>
       <c r="X193" s="17">
-        <v>109.38990312919792</v>
+        <v>109.37658995668329</v>
       </c>
       <c r="Y193" s="17">
-        <v>119.67974054333932</v>
+        <v>120.14737337425461</v>
       </c>
       <c r="Z193" s="9"/>
       <c r="AA193" s="9"/>
@@ -19609,7 +19609,7 @@
       <c r="CO193" s="9"/>
       <c r="CP193" s="9"/>
     </row>
-    <row r="194" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>6</v>
       </c>
@@ -19680,10 +19680,10 @@
         <v>95.917235315682774</v>
       </c>
       <c r="X194" s="17">
-        <v>110.66943095019614</v>
+        <v>110.68070805567183</v>
       </c>
       <c r="Y194" s="17">
-        <v>115.74936589212021</v>
+        <v>115.68035021063037</v>
       </c>
       <c r="Z194" s="9"/>
       <c r="AA194" s="9"/>
@@ -19755,7 +19755,7 @@
       <c r="CO194" s="9"/>
       <c r="CP194" s="9"/>
     </row>
-    <row r="195" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>5</v>
       </c>
@@ -19826,10 +19826,10 @@
         <v>98.7717430798115</v>
       </c>
       <c r="X195" s="17">
-        <v>123.98412832822179</v>
+        <v>123.99387938556082</v>
       </c>
       <c r="Y195" s="17">
-        <v>118.99074799237599</v>
+        <v>118.92982474788624</v>
       </c>
       <c r="Z195" s="9"/>
       <c r="AA195" s="9"/>
@@ -19901,7 +19901,7 @@
       <c r="CO195" s="9"/>
       <c r="CP195" s="9"/>
     </row>
-    <row r="196" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>4</v>
       </c>
@@ -19972,10 +19972,10 @@
         <v>91.207103634319211</v>
       </c>
       <c r="X196" s="17">
-        <v>103.90575889141719</v>
+        <v>103.91502022447735</v>
       </c>
       <c r="Y196" s="17">
-        <v>103.70133647029792</v>
+        <v>103.4851224924336</v>
       </c>
       <c r="Z196" s="9"/>
       <c r="AA196" s="9"/>
@@ -20047,7 +20047,7 @@
       <c r="CO196" s="9"/>
       <c r="CP196" s="9"/>
     </row>
-    <row r="197" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>3</v>
       </c>
@@ -20118,10 +20118,10 @@
         <v>97.156309901679421</v>
       </c>
       <c r="X197" s="17">
-        <v>110.31548704563956</v>
+        <v>110.34967286863268</v>
       </c>
       <c r="Y197" s="17">
-        <v>118.17806207264034</v>
+        <v>118.16642313569989</v>
       </c>
       <c r="Z197" s="9"/>
       <c r="AA197" s="9"/>
@@ -20193,7 +20193,7 @@
       <c r="CO197" s="9"/>
       <c r="CP197" s="9"/>
     </row>
-    <row r="198" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>2</v>
       </c>
@@ -20264,10 +20264,10 @@
         <v>95.585503220647155</v>
       </c>
       <c r="X198" s="17">
-        <v>111.50427736085118</v>
+        <v>111.48981979677718</v>
       </c>
       <c r="Y198" s="17">
-        <v>119.17077946449129</v>
+        <v>119.22600356010975</v>
       </c>
       <c r="Z198" s="9"/>
       <c r="AA198" s="9"/>
@@ -20339,7 +20339,7 @@
       <c r="CO198" s="9"/>
       <c r="CP198" s="9"/>
     </row>
-    <row r="199" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -20434,7 +20434,7 @@
       <c r="CO199" s="9"/>
       <c r="CP199" s="9"/>
     </row>
-    <row r="200" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
         <v>1</v>
       </c>
@@ -20505,10 +20505,10 @@
         <v>95.557992981682489</v>
       </c>
       <c r="X200" s="20">
-        <v>108.15061039142849</v>
+        <v>108.14596271011332</v>
       </c>
       <c r="Y200" s="20">
-        <v>112.20259704499524</v>
+        <v>112.07198294033091</v>
       </c>
       <c r="Z200" s="9"/>
       <c r="AA200" s="9"/>
@@ -20580,7 +20580,7 @@
       <c r="CO200" s="9"/>
       <c r="CP200" s="9"/>
     </row>
-    <row r="201" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:94" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -20607,12 +20607,12 @@
       <c r="X201" s="14"/>
       <c r="Y201" s="14"/>
     </row>
-    <row r="202" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
@@ -20707,7 +20707,7 @@
       <c r="CO203" s="9"/>
       <c r="CP203" s="9"/>
     </row>
-    <row r="204" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
@@ -20802,37 +20802,37 @@
       <c r="CO204" s="9"/>
       <c r="CP204" s="9"/>
     </row>
-    <row r="205" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="209" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="210" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="211" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="5" t="s">
         <v>26</v>
@@ -20861,7 +20861,7 @@
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
     </row>
-    <row r="214" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>59</v>
       </c>
@@ -20938,10 +20938,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="215" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:94" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
     </row>
-    <row r="216" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>25</v>
       </c>
@@ -21012,10 +21012,10 @@
         <v>19.168828904163551</v>
       </c>
       <c r="X216" s="20">
-        <v>15.943740018313502</v>
+        <v>15.924595578530202</v>
       </c>
       <c r="Y216" s="20">
-        <v>14.18284562746396</v>
+        <v>14.205753007364397</v>
       </c>
       <c r="Z216" s="9"/>
       <c r="AA216" s="9"/>
@@ -21087,7 +21087,7 @@
       <c r="CO216" s="9"/>
       <c r="CP216" s="9"/>
     </row>
-    <row r="217" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
         <v>24</v>
       </c>
@@ -21158,10 +21158,10 @@
         <v>1.6831208148844561</v>
       </c>
       <c r="X217" s="20">
-        <v>0.81942034035088851</v>
+        <v>0.81889073715233729</v>
       </c>
       <c r="Y217" s="20">
-        <v>1.0182231514448061</v>
+        <v>1.0182057879245037</v>
       </c>
       <c r="Z217" s="9"/>
       <c r="AA217" s="9"/>
@@ -21233,7 +21233,7 @@
       <c r="CO217" s="9"/>
       <c r="CP217" s="9"/>
     </row>
-    <row r="218" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>23</v>
       </c>
@@ -21304,10 +21304,10 @@
         <v>3.4146950529954903</v>
       </c>
       <c r="X218" s="20">
-        <v>3.1617924254831258</v>
+        <v>3.1607347431673163</v>
       </c>
       <c r="Y218" s="20">
-        <v>2.9023239384603818</v>
+        <v>2.9102159649526258</v>
       </c>
       <c r="Z218" s="9"/>
       <c r="AA218" s="9"/>
@@ -21379,7 +21379,7 @@
       <c r="CO218" s="9"/>
       <c r="CP218" s="9"/>
     </row>
-    <row r="219" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>22</v>
       </c>
@@ -21450,10 +21450,10 @@
         <v>0.21749576612701224</v>
       </c>
       <c r="X219" s="20">
-        <v>0.22982992240401071</v>
+        <v>0.22882120430915681</v>
       </c>
       <c r="Y219" s="20">
-        <v>0.22495843920093539</v>
+        <v>0.22853651103005285</v>
       </c>
       <c r="Z219" s="9"/>
       <c r="AA219" s="9"/>
@@ -21525,7 +21525,7 @@
       <c r="CO219" s="9"/>
       <c r="CP219" s="9"/>
     </row>
-    <row r="220" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
         <v>21</v>
       </c>
@@ -21596,10 +21596,10 @@
         <v>0.16263362478120807</v>
       </c>
       <c r="X220" s="20">
-        <v>0.15067278226234304</v>
+        <v>0.1503720321321744</v>
       </c>
       <c r="Y220" s="20">
-        <v>0.13748667070521237</v>
+        <v>0.13772567010707593</v>
       </c>
       <c r="Z220" s="9"/>
       <c r="AA220" s="9"/>
@@ -21671,7 +21671,7 @@
       <c r="CO220" s="9"/>
       <c r="CP220" s="9"/>
     </row>
-    <row r="221" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>20</v>
       </c>
@@ -21742,10 +21742,10 @@
         <v>1.1562862486436738</v>
       </c>
       <c r="X221" s="20">
-        <v>0.95184788427997924</v>
+        <v>0.95101660532815113</v>
       </c>
       <c r="Y221" s="20">
-        <v>0.86242993148137503</v>
+        <v>0.86365129724211631</v>
       </c>
       <c r="Z221" s="9"/>
       <c r="AA221" s="9"/>
@@ -21817,7 +21817,7 @@
       <c r="CO221" s="9"/>
       <c r="CP221" s="9"/>
     </row>
-    <row r="222" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>19</v>
       </c>
@@ -21888,10 +21888,10 @@
         <v>8.9675023056180176</v>
       </c>
       <c r="X222" s="20">
-        <v>7.6057508850114992</v>
+        <v>7.5976667161616858</v>
       </c>
       <c r="Y222" s="20">
-        <v>6.7183456321608714</v>
+        <v>6.7136685357236257</v>
       </c>
       <c r="Z222" s="9"/>
       <c r="AA222" s="9"/>
@@ -21963,7 +21963,7 @@
       <c r="CO222" s="9"/>
       <c r="CP222" s="9"/>
     </row>
-    <row r="223" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
         <v>18</v>
       </c>
@@ -22034,10 +22034,10 @@
         <v>0.42052496780084186</v>
       </c>
       <c r="X223" s="20">
-        <v>0.2399499961723191</v>
+        <v>0.23968971581486043</v>
       </c>
       <c r="Y223" s="20">
-        <v>0.29685120873487475</v>
+        <v>0.29635617654338597</v>
       </c>
       <c r="Z223" s="9"/>
       <c r="AA223" s="9"/>
@@ -22109,7 +22109,7 @@
       <c r="CO223" s="9"/>
       <c r="CP223" s="9"/>
     </row>
-    <row r="224" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
         <v>17</v>
       </c>
@@ -22180,10 +22180,10 @@
         <v>3.1465701233128538</v>
       </c>
       <c r="X224" s="20">
-        <v>2.7844757823493369</v>
+        <v>2.7774038244645203</v>
       </c>
       <c r="Y224" s="20">
-        <v>2.0222266552755017</v>
+        <v>2.0373930638410096</v>
       </c>
       <c r="Z224" s="9"/>
       <c r="AA224" s="9"/>
@@ -22255,7 +22255,7 @@
       <c r="CO224" s="9"/>
       <c r="CP224" s="9"/>
     </row>
-    <row r="225" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>16</v>
       </c>
@@ -22326,10 +22326,10 @@
         <v>16.98472123182496</v>
       </c>
       <c r="X225" s="20">
-        <v>17.150056399727422</v>
+        <v>17.166396783438007</v>
       </c>
       <c r="Y225" s="20">
-        <v>16.891552169927554</v>
+        <v>16.8913993635297</v>
       </c>
       <c r="Z225" s="9"/>
       <c r="AA225" s="9"/>
@@ -22401,7 +22401,7 @@
       <c r="CO225" s="9"/>
       <c r="CP225" s="9"/>
     </row>
-    <row r="226" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
         <v>15</v>
       </c>
@@ -22472,10 +22472,10 @@
         <v>3.0181772604829056</v>
       </c>
       <c r="X226" s="20">
-        <v>3.0998038222638433</v>
+        <v>3.1016912685977194</v>
       </c>
       <c r="Y226" s="20">
-        <v>2.8781557229556967</v>
+        <v>2.8750358885275542</v>
       </c>
       <c r="Z226" s="9"/>
       <c r="AA226" s="9"/>
@@ -22547,7 +22547,7 @@
       <c r="CO226" s="9"/>
       <c r="CP226" s="9"/>
     </row>
-    <row r="227" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
         <v>14</v>
       </c>
@@ -22618,10 +22618,10 @@
         <v>1.9058324160922944</v>
       </c>
       <c r="X227" s="20">
-        <v>1.8164851719904926</v>
+        <v>1.816204611105501</v>
       </c>
       <c r="Y227" s="20">
-        <v>1.8098575561190151</v>
+        <v>1.809427998127761</v>
       </c>
       <c r="Z227" s="9"/>
       <c r="AA227" s="9"/>
@@ -22693,7 +22693,7 @@
       <c r="CO227" s="9"/>
       <c r="CP227" s="9"/>
     </row>
-    <row r="228" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>13</v>
       </c>
@@ -22764,10 +22764,10 @@
         <v>4.9320479383554403</v>
       </c>
       <c r="X228" s="20">
-        <v>5.604559730409199</v>
+        <v>5.6133495487508744</v>
       </c>
       <c r="Y228" s="20">
-        <v>6.7420456287366246</v>
+        <v>6.7503604979771756</v>
       </c>
       <c r="Z228" s="9"/>
       <c r="AA228" s="9"/>
@@ -22839,7 +22839,7 @@
       <c r="CO228" s="9"/>
       <c r="CP228" s="9"/>
     </row>
-    <row r="229" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>12</v>
       </c>
@@ -22910,10 +22910,10 @@
         <v>7.1286636168943209</v>
       </c>
       <c r="X229" s="20">
-        <v>6.6292076750638875</v>
+        <v>6.6351513549839103</v>
       </c>
       <c r="Y229" s="20">
-        <v>5.4614932621162158</v>
+        <v>5.4565749788972138</v>
       </c>
       <c r="Z229" s="9"/>
       <c r="AA229" s="9"/>
@@ -22985,7 +22985,7 @@
       <c r="CO229" s="9"/>
       <c r="CP229" s="9"/>
     </row>
-    <row r="230" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>11</v>
       </c>
@@ -23056,10 +23056,10 @@
         <v>43.501111542772932</v>
       </c>
       <c r="X230" s="20">
-        <v>48.251619710311644</v>
+        <v>48.222637229716817</v>
       </c>
       <c r="Y230" s="20">
-        <v>51.564169564139441</v>
+        <v>51.561371978793758</v>
       </c>
       <c r="Z230" s="9"/>
       <c r="AA230" s="9"/>
@@ -23131,7 +23131,7 @@
       <c r="CO230" s="9"/>
       <c r="CP230" s="9"/>
     </row>
-    <row r="231" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
         <v>10</v>
       </c>
@@ -23202,10 +23202,10 @@
         <v>39.066604312183166</v>
       </c>
       <c r="X231" s="20">
-        <v>42.664720013048409</v>
+        <v>42.638056467883359</v>
       </c>
       <c r="Y231" s="20">
-        <v>45.341768926179064</v>
+        <v>45.35844436799961</v>
       </c>
       <c r="Z231" s="9"/>
       <c r="AA231" s="9"/>
@@ -23277,7 +23277,7 @@
       <c r="CO231" s="9"/>
       <c r="CP231" s="9"/>
     </row>
-    <row r="232" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
         <v>9</v>
       </c>
@@ -23348,10 +23348,10 @@
         <v>0.60076569639025623</v>
       </c>
       <c r="X232" s="20">
-        <v>0.19901990004184505</v>
+        <v>0.19892383334240232</v>
       </c>
       <c r="Y232" s="20">
-        <v>8.3126343403806313E-2</v>
+        <v>8.2943577857265791E-2</v>
       </c>
       <c r="Z232" s="9"/>
       <c r="AA232" s="9"/>
@@ -23423,7 +23423,7 @@
       <c r="CO232" s="9"/>
       <c r="CP232" s="9"/>
     </row>
-    <row r="233" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>8</v>
       </c>
@@ -23494,10 +23494,10 @@
         <v>2.783003164007221</v>
       </c>
       <c r="X233" s="20">
-        <v>2.9038288183051622</v>
+        <v>2.9017717302498744</v>
       </c>
       <c r="Y233" s="20">
-        <v>4.0587247094513206</v>
+        <v>4.056420351519832</v>
       </c>
       <c r="Z233" s="9"/>
       <c r="AA233" s="9"/>
@@ -23569,7 +23569,7 @@
       <c r="CO233" s="9"/>
       <c r="CP233" s="9"/>
     </row>
-    <row r="234" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>7</v>
       </c>
@@ -23640,10 +23640,10 @@
         <v>1.0507383701922923</v>
       </c>
       <c r="X234" s="20">
-        <v>2.4840509789162315</v>
+        <v>2.4838851982411803</v>
       </c>
       <c r="Y234" s="20">
-        <v>2.0805495851052433</v>
+        <v>2.0635636814170586</v>
       </c>
       <c r="Z234" s="9"/>
       <c r="AA234" s="9"/>
@@ -23715,7 +23715,7 @@
       <c r="CO234" s="9"/>
       <c r="CP234" s="9"/>
     </row>
-    <row r="235" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>6</v>
       </c>
@@ -23786,10 +23786,10 @@
         <v>20.345338321238554</v>
       </c>
       <c r="X235" s="20">
-        <v>18.65458387164745</v>
+        <v>18.686370408314968</v>
       </c>
       <c r="Y235" s="20">
-        <v>17.361432638469054</v>
+        <v>17.341475650312134</v>
       </c>
       <c r="Z235" s="9"/>
       <c r="AA235" s="9"/>
@@ -23861,7 +23861,7 @@
       <c r="CO235" s="9"/>
       <c r="CP235" s="9"/>
     </row>
-    <row r="236" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>5</v>
       </c>
@@ -23932,10 +23932,10 @@
         <v>1.7968644831287799</v>
       </c>
       <c r="X236" s="20">
-        <v>1.7388410760293127</v>
+        <v>1.7365328710994574</v>
       </c>
       <c r="Y236" s="20">
-        <v>1.625319787069726</v>
+        <v>1.6131141404399614</v>
       </c>
       <c r="Z236" s="9"/>
       <c r="AA236" s="9"/>
@@ -24007,7 +24007,7 @@
       <c r="CO236" s="9"/>
       <c r="CP236" s="9"/>
     </row>
-    <row r="237" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>4</v>
       </c>
@@ -24078,10 +24078,10 @@
         <v>3.278450922920042</v>
       </c>
       <c r="X237" s="20">
-        <v>2.8438366121085323</v>
+        <v>2.8552182980272609</v>
       </c>
       <c r="Y237" s="20">
-        <v>2.9027414361408077</v>
+        <v>2.923590292976384</v>
       </c>
       <c r="Z237" s="9"/>
       <c r="AA237" s="9"/>
@@ -24153,7 +24153,7 @@
       <c r="CO237" s="9"/>
       <c r="CP237" s="9"/>
     </row>
-    <row r="238" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>3</v>
       </c>
@@ -24224,10 +24224,10 @@
         <v>10.501261824489989</v>
       </c>
       <c r="X238" s="20">
-        <v>10.001810401305153</v>
+        <v>10.026379876396174</v>
       </c>
       <c r="Y238" s="20">
-        <v>9.2514007170215535</v>
+        <v>9.2346890189882878</v>
       </c>
       <c r="Z238" s="9"/>
       <c r="AA238" s="9"/>
@@ -24299,7 +24299,7 @@
       <c r="CO238" s="9"/>
       <c r="CP238" s="9"/>
     </row>
-    <row r="239" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>2</v>
       </c>
@@ -24370,10 +24370,10 @@
         <v>4.7687610906997433</v>
       </c>
       <c r="X239" s="20">
-        <v>4.0700957822044508</v>
+        <v>4.0682393627920739</v>
       </c>
       <c r="Y239" s="20">
-        <v>3.5819706982369666</v>
+        <v>3.5700821979075017</v>
       </c>
       <c r="Z239" s="9"/>
       <c r="AA239" s="9"/>
@@ -24445,7 +24445,7 @@
       <c r="CO239" s="9"/>
       <c r="CP239" s="9"/>
     </row>
-    <row r="240" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
@@ -24540,7 +24540,7 @@
       <c r="CO240" s="9"/>
       <c r="CP240" s="9"/>
     </row>
-    <row r="241" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
         <v>1</v>
       </c>
@@ -24686,7 +24686,7 @@
       <c r="CO241" s="9"/>
       <c r="CP241" s="9"/>
     </row>
-    <row r="242" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:94" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" s="14"/>
@@ -24713,12 +24713,12 @@
       <c r="X242" s="14"/>
       <c r="Y242" s="14"/>
     </row>
-    <row r="243" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -24813,7 +24813,7 @@
       <c r="CO244" s="9"/>
       <c r="CP244" s="9"/>
     </row>
-    <row r="245" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -24908,37 +24908,37 @@
       <c r="CO245" s="9"/>
       <c r="CP245" s="9"/>
     </row>
-    <row r="246" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="250" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="251" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="252" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="5" t="s">
         <v>26</v>
@@ -24967,7 +24967,7 @@
       <c r="X254" s="5"/>
       <c r="Y254" s="5"/>
     </row>
-    <row r="255" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>59</v>
       </c>
@@ -25044,10 +25044,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="256" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:94" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
     </row>
-    <row r="257" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>25</v>
       </c>
@@ -25118,10 +25118,10 @@
         <v>18.309658744389349</v>
       </c>
       <c r="X257" s="20">
-        <v>15.311542019148893</v>
+        <v>15.290456375594463</v>
       </c>
       <c r="Y257" s="20">
-        <v>13.612030336787919</v>
+        <v>13.629542043529524</v>
       </c>
       <c r="Z257" s="9"/>
       <c r="AA257" s="9"/>
@@ -25193,7 +25193,7 @@
       <c r="CO257" s="9"/>
       <c r="CP257" s="9"/>
     </row>
-    <row r="258" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>24</v>
       </c>
@@ -25264,10 +25264,10 @@
         <v>1.64649076255899</v>
       </c>
       <c r="X258" s="20">
-        <v>0.77333716478752046</v>
+        <v>0.77277563718718079</v>
       </c>
       <c r="Y258" s="20">
-        <v>0.96930873217681757</v>
+        <v>0.96835199433586849</v>
       </c>
       <c r="Z258" s="9"/>
       <c r="AA258" s="9"/>
@@ -25339,7 +25339,7 @@
       <c r="CO258" s="9"/>
       <c r="CP258" s="9"/>
     </row>
-    <row r="259" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>23</v>
       </c>
@@ -25410,10 +25410,10 @@
         <v>3.3222550234507264</v>
       </c>
       <c r="X259" s="20">
-        <v>3.0221967216423202</v>
+        <v>3.0211390958168356</v>
       </c>
       <c r="Y259" s="20">
-        <v>2.4698947603845678</v>
+        <v>2.477121414582923</v>
       </c>
       <c r="Z259" s="9"/>
       <c r="AA259" s="9"/>
@@ -25485,7 +25485,7 @@
       <c r="CO259" s="9"/>
       <c r="CP259" s="9"/>
     </row>
-    <row r="260" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>22</v>
       </c>
@@ -25556,10 +25556,10 @@
         <v>0.19715247064828553</v>
       </c>
       <c r="X260" s="20">
-        <v>0.2214916024409902</v>
+        <v>0.22033616241338935</v>
       </c>
       <c r="Y260" s="20">
-        <v>0.21476499853944805</v>
+        <v>0.21906923917902102</v>
       </c>
       <c r="Z260" s="9"/>
       <c r="AA260" s="9"/>
@@ -25631,7 +25631,7 @@
       <c r="CO260" s="9"/>
       <c r="CP260" s="9"/>
     </row>
-    <row r="261" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>21</v>
       </c>
@@ -25702,10 +25702,10 @@
         <v>0.1464700269072966</v>
       </c>
       <c r="X261" s="20">
-        <v>0.14116552695725926</v>
+        <v>0.14082856996435808</v>
       </c>
       <c r="Y261" s="20">
-        <v>0.12272386468453687</v>
+        <v>0.12293278588839789</v>
       </c>
       <c r="Z261" s="9"/>
       <c r="AA261" s="9"/>
@@ -25777,7 +25777,7 @@
       <c r="CO261" s="9"/>
       <c r="CP261" s="9"/>
     </row>
-    <row r="262" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
         <v>20</v>
       </c>
@@ -25848,10 +25848,10 @@
         <v>1.0620963609872858</v>
       </c>
       <c r="X262" s="20">
-        <v>0.86821598713867176</v>
+        <v>0.86732936809792627</v>
       </c>
       <c r="Y262" s="20">
-        <v>0.77311381238894472</v>
+        <v>0.77425194421455901</v>
       </c>
       <c r="Z262" s="9"/>
       <c r="AA262" s="9"/>
@@ -25923,7 +25923,7 @@
       <c r="CO262" s="9"/>
       <c r="CP262" s="9"/>
     </row>
-    <row r="263" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>19</v>
       </c>
@@ -25994,10 +25994,10 @@
         <v>8.632297399161482</v>
       </c>
       <c r="X263" s="20">
-        <v>7.4663906885510345</v>
+        <v>7.4577177526583451</v>
       </c>
       <c r="Y263" s="20">
-        <v>6.8003165561149563</v>
+        <v>6.7875395756861563</v>
       </c>
       <c r="Z263" s="9"/>
       <c r="AA263" s="9"/>
@@ -26069,7 +26069,7 @@
       <c r="CO263" s="9"/>
       <c r="CP263" s="9"/>
     </row>
-    <row r="264" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>18</v>
       </c>
@@ -26140,10 +26140,10 @@
         <v>0.45196089577968457</v>
       </c>
       <c r="X264" s="20">
-        <v>0.23797012972592574</v>
+        <v>0.2376781394563651</v>
       </c>
       <c r="Y264" s="20">
-        <v>0.26945557640861173</v>
+        <v>0.26847133729641398</v>
       </c>
       <c r="Z264" s="9"/>
       <c r="AA264" s="9"/>
@@ -26215,7 +26215,7 @@
       <c r="CO264" s="9"/>
       <c r="CP264" s="9"/>
     </row>
-    <row r="265" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>17</v>
       </c>
@@ -26286,10 +26286,10 @@
         <v>2.8509358048955988</v>
       </c>
       <c r="X265" s="20">
-        <v>2.5807741979051704</v>
+        <v>2.5726516500000636</v>
       </c>
       <c r="Y265" s="20">
-        <v>1.992452036090036</v>
+        <v>2.0118037523461871</v>
       </c>
       <c r="Z265" s="9"/>
       <c r="AA265" s="9"/>
@@ -26361,7 +26361,7 @@
       <c r="CO265" s="9"/>
       <c r="CP265" s="9"/>
     </row>
-    <row r="266" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>16</v>
       </c>
@@ -26432,10 +26432,10 @@
         <v>16.537216674229015</v>
       </c>
       <c r="X266" s="20">
-        <v>16.75592224932667</v>
+        <v>16.778869242267685</v>
       </c>
       <c r="Y266" s="20">
-        <v>16.28428259767027</v>
+        <v>16.263205140281446</v>
       </c>
       <c r="Z266" s="9"/>
       <c r="AA266" s="9"/>
@@ -26507,7 +26507,7 @@
       <c r="CO266" s="9"/>
       <c r="CP266" s="9"/>
     </row>
-    <row r="267" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
         <v>15</v>
       </c>
@@ -26578,10 +26578,10 @@
         <v>2.8689066208345917</v>
       </c>
       <c r="X267" s="20">
-        <v>2.8930518320043856</v>
+        <v>2.8953576834245984</v>
       </c>
       <c r="Y267" s="20">
-        <v>2.6571453684614701</v>
+        <v>2.6507997098703351</v>
       </c>
       <c r="Z267" s="9"/>
       <c r="AA267" s="9"/>
@@ -26653,7 +26653,7 @@
       <c r="CO267" s="9"/>
       <c r="CP267" s="9"/>
     </row>
-    <row r="268" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
         <v>14</v>
       </c>
@@ -26724,10 +26724,10 @@
         <v>1.8235856351534079</v>
       </c>
       <c r="X268" s="20">
-        <v>1.6986672722824483</v>
+        <v>1.6984486148317299</v>
       </c>
       <c r="Y268" s="20">
-        <v>1.646916340011646</v>
+        <v>1.6445497456999414</v>
       </c>
       <c r="Z268" s="9"/>
       <c r="AA268" s="9"/>
@@ -26799,7 +26799,7 @@
       <c r="CO268" s="9"/>
       <c r="CP268" s="9"/>
     </row>
-    <row r="269" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>13</v>
       </c>
@@ -26870,10 +26870,10 @@
         <v>4.6995004259433388</v>
       </c>
       <c r="X269" s="20">
-        <v>5.1556445569614677</v>
+        <v>5.1657868294601847</v>
       </c>
       <c r="Y269" s="20">
-        <v>6.21786841714371</v>
+        <v>6.2200061421845714</v>
       </c>
       <c r="Z269" s="9"/>
       <c r="AA269" s="9"/>
@@ -26945,7 +26945,7 @@
       <c r="CO269" s="9"/>
       <c r="CP269" s="9"/>
     </row>
-    <row r="270" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
         <v>12</v>
       </c>
@@ -27016,10 +27016,10 @@
         <v>7.1452239922976784</v>
       </c>
       <c r="X270" s="20">
-        <v>7.0085585880783672</v>
+        <v>7.0192761145511717</v>
       </c>
       <c r="Y270" s="20">
-        <v>5.7623524720534416</v>
+        <v>5.7478495425266019</v>
       </c>
       <c r="Z270" s="9"/>
       <c r="AA270" s="9"/>
@@ -27091,7 +27091,7 @@
       <c r="CO270" s="9"/>
       <c r="CP270" s="9"/>
     </row>
-    <row r="271" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>11</v>
       </c>
@@ -27162,10 +27162,10 @@
         <v>44.88398640082157</v>
       </c>
       <c r="X271" s="20">
-        <v>49.702527544126298</v>
+        <v>49.672248384822083</v>
       </c>
       <c r="Y271" s="20">
-        <v>53.274239962794589</v>
+        <v>53.306702336325849</v>
       </c>
       <c r="Z271" s="9"/>
       <c r="AA271" s="9"/>
@@ -27237,7 +27237,7 @@
       <c r="CO271" s="9"/>
       <c r="CP271" s="9"/>
     </row>
-    <row r="272" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
         <v>10</v>
       </c>
@@ -27308,10 +27308,10 @@
         <v>40.76039911854906</v>
       </c>
       <c r="X272" s="20">
-        <v>44.223967964526537</v>
+        <v>44.196086737427734</v>
       </c>
       <c r="Y272" s="20">
-        <v>47.662317287769049</v>
+        <v>47.726829646407715</v>
       </c>
       <c r="Z272" s="9"/>
       <c r="AA272" s="9"/>
@@ -27383,7 +27383,7 @@
       <c r="CO272" s="9"/>
       <c r="CP272" s="9"/>
     </row>
-    <row r="273" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
         <v>9</v>
       </c>
@@ -27454,10 +27454,10 @@
         <v>0.55483940213638294</v>
       </c>
       <c r="X273" s="20">
-        <v>0.2335405627805287</v>
+        <v>0.23341780162861367</v>
       </c>
       <c r="Y273" s="20">
-        <v>6.7966159307539575E-2</v>
+        <v>6.7715556742895672E-2</v>
       </c>
       <c r="Z273" s="9"/>
       <c r="AA273" s="9"/>
@@ -27529,7 +27529,7 @@
       <c r="CO273" s="9"/>
       <c r="CP273" s="9"/>
     </row>
-    <row r="274" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
         <v>8</v>
       </c>
@@ -27600,10 +27600,10 @@
         <v>2.612929102392151</v>
       </c>
       <c r="X274" s="20">
-        <v>2.7891101812851424</v>
+        <v>2.7868055491743404</v>
       </c>
       <c r="Y274" s="20">
-        <v>3.5933919032791901</v>
+        <v>3.5872904698011783</v>
       </c>
       <c r="Z274" s="9"/>
       <c r="AA274" s="9"/>
@@ -27675,7 +27675,7 @@
       <c r="CO274" s="9"/>
       <c r="CP274" s="9"/>
     </row>
-    <row r="275" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
         <v>7</v>
       </c>
@@ -27746,10 +27746,10 @@
         <v>0.95581877774397717</v>
       </c>
       <c r="X275" s="20">
-        <v>2.4559088355340948</v>
+        <v>2.4559382965914027</v>
       </c>
       <c r="Y275" s="20">
-        <v>1.9505646124388072</v>
+        <v>1.9248666633740616</v>
       </c>
       <c r="Z275" s="9"/>
       <c r="AA275" s="9"/>
@@ -27821,7 +27821,7 @@
       <c r="CO275" s="9"/>
       <c r="CP275" s="9"/>
     </row>
-    <row r="276" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>6</v>
       </c>
@@ -27892,10 +27892,10 @@
         <v>20.269138180560059</v>
       </c>
       <c r="X276" s="20">
-        <v>18.230008187398138</v>
+        <v>18.258425997315769</v>
       </c>
       <c r="Y276" s="20">
-        <v>16.829447102747235</v>
+        <v>16.800550479863169</v>
       </c>
       <c r="Z276" s="9"/>
       <c r="AA276" s="9"/>
@@ -27967,7 +27967,7 @@
       <c r="CO276" s="9"/>
       <c r="CP276" s="9"/>
     </row>
-    <row r="277" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
         <v>5</v>
       </c>
@@ -28038,10 +28038,10 @@
         <v>1.7383996506886608</v>
       </c>
       <c r="X277" s="20">
-        <v>1.5167806257299161</v>
+        <v>1.5145829782359186</v>
       </c>
       <c r="Y277" s="20">
-        <v>1.5325989979450043</v>
+        <v>1.5200972574493514</v>
       </c>
       <c r="Z277" s="9"/>
       <c r="AA277" s="9"/>
@@ -28113,7 +28113,7 @@
       <c r="CO277" s="9"/>
       <c r="CP277" s="9"/>
     </row>
-    <row r="278" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
         <v>4</v>
       </c>
@@ -28184,10 +28184,10 @@
         <v>3.4348441930492641</v>
       </c>
       <c r="X278" s="20">
-        <v>2.9600155827208439</v>
+        <v>2.9714696770559419</v>
       </c>
       <c r="Y278" s="20">
-        <v>3.1407032808916915</v>
+        <v>3.1661803508318114</v>
       </c>
       <c r="Z278" s="9"/>
       <c r="AA278" s="9"/>
@@ -28259,7 +28259,7 @@
       <c r="CO278" s="9"/>
       <c r="CP278" s="9"/>
     </row>
-    <row r="279" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
         <v>3</v>
       </c>
@@ -28330,10 +28330,10 @@
         <v>10.32850573204076</v>
       </c>
       <c r="X279" s="20">
-        <v>9.8055307454063154</v>
+        <v>9.8261505996579288</v>
       </c>
       <c r="Y279" s="20">
-        <v>8.7836199760637825</v>
+        <v>8.7584093918693071</v>
       </c>
       <c r="Z279" s="9"/>
       <c r="AA279" s="9"/>
@@ -28405,7 +28405,7 @@
       <c r="CO279" s="9"/>
       <c r="CP279" s="9"/>
     </row>
-    <row r="280" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
         <v>2</v>
       </c>
@@ -28476,10 +28476,10 @@
         <v>4.7673886047813738</v>
       </c>
       <c r="X280" s="20">
-        <v>3.9476812335410636</v>
+        <v>3.946222742365979</v>
       </c>
       <c r="Y280" s="20">
-        <v>3.3725248478467544</v>
+        <v>3.3558634797126992</v>
       </c>
       <c r="Z280" s="9"/>
       <c r="AA280" s="9"/>
@@ -28551,7 +28551,7 @@
       <c r="CO280" s="9"/>
       <c r="CP280" s="9"/>
     </row>
-    <row r="281" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
@@ -28646,7 +28646,7 @@
       <c r="CO281" s="9"/>
       <c r="CP281" s="9"/>
     </row>
-    <row r="282" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
         <v>1</v>
       </c>
@@ -28792,7 +28792,7 @@
       <c r="CO282" s="9"/>
       <c r="CP282" s="9"/>
     </row>
-    <row r="283" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:94" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" s="14"/>
@@ -28819,12 +28819,12 @@
       <c r="X283" s="14"/>
       <c r="Y283" s="14"/>
     </row>
-    <row r="284" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
       <c r="D285" s="9"/>
@@ -28913,7 +28913,7 @@
       <c r="CI285" s="9"/>
       <c r="CJ285" s="9"/>
     </row>
-    <row r="286" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>

--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65F88F8-9F06-41D6-843A-DD9A524398EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A04EE6E-38DA-4324-ABF9-55D97535162B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$Y$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$Z$286</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="74">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -255,13 +255,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -343,8 +346,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -389,11 +394,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{DC153EEE-ECC3-4785-A71D-6A019D8233CF}"/>
     <cellStyle name="Comma 3" xfId="3" xr:uid="{A1692FA0-AF55-48A2-81BC-9237285B072B}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{83072B31-956C-4891-99BB-453C7D1A8247}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -696,44 +703,44 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="25" width="11.1796875" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="26" width="11.21875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>26</v>
@@ -761,8 +768,9 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>59</v>
       </c>
@@ -838,11 +846,14 @@
       <c r="Y10" s="6">
         <v>2023</v>
       </c>
+      <c r="Z10" s="6">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:94" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -918,7 +929,9 @@
       <c r="Y12" s="8">
         <v>210537.56756763221</v>
       </c>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="8">
+        <v>215015.00729722553</v>
+      </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -988,7 +1001,7 @@
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
     </row>
-    <row r="13" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
@@ -1064,7 +1077,9 @@
       <c r="Y13" s="11">
         <v>15090.405257769698</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="11">
+        <v>14195.615742568225</v>
+      </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -1134,7 +1149,7 @@
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
     </row>
-    <row r="14" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
@@ -1210,7 +1225,9 @@
       <c r="Y14" s="11">
         <v>43131.102592025985</v>
       </c>
-      <c r="Z14" s="9"/>
+      <c r="Z14" s="11">
+        <v>41266.442652275495</v>
+      </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -1280,7 +1297,7 @@
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
     </row>
-    <row r="15" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1356,7 +1373,9 @@
       <c r="Y15" s="11">
         <v>3387.0447492446992</v>
       </c>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="11">
+        <v>3422.2889482753785</v>
+      </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -1426,7 +1445,7 @@
       <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
     </row>
-    <row r="16" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
@@ -1502,7 +1521,9 @@
       <c r="Y16" s="11">
         <v>2041.1749775554947</v>
       </c>
-      <c r="Z16" s="9"/>
+      <c r="Z16" s="11">
+        <v>3072.716718774021</v>
+      </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
@@ -1572,7 +1593,7 @@
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
     </row>
-    <row r="17" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
@@ -1648,7 +1669,9 @@
       <c r="Y17" s="11">
         <v>12799.817317232137</v>
       </c>
-      <c r="Z17" s="9"/>
+      <c r="Z17" s="11">
+        <v>10517.228972823636</v>
+      </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
@@ -1718,7 +1741,7 @@
       <c r="CO17" s="9"/>
       <c r="CP17" s="9"/>
     </row>
-    <row r="18" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1794,7 +1817,9 @@
       <c r="Y18" s="11">
         <v>99500.494076860137</v>
       </c>
-      <c r="Z18" s="9"/>
+      <c r="Z18" s="11">
+        <v>103565.90699791117</v>
+      </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
@@ -1864,7 +1889,7 @@
       <c r="CO18" s="9"/>
       <c r="CP18" s="9"/>
     </row>
-    <row r="19" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1940,7 +1965,9 @@
       <c r="Y19" s="11">
         <v>4392.1718553562469</v>
       </c>
-      <c r="Z19" s="9"/>
+      <c r="Z19" s="11">
+        <v>5065.9703281907205</v>
+      </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
@@ -2010,7 +2037,7 @@
       <c r="CO19" s="9"/>
       <c r="CP19" s="9"/>
     </row>
-    <row r="20" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -2086,7 +2113,9 @@
       <c r="Y20" s="11">
         <v>30195.356741587806</v>
       </c>
-      <c r="Z20" s="9"/>
+      <c r="Z20" s="11">
+        <v>33908.836936406908</v>
+      </c>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
@@ -2156,7 +2185,7 @@
       <c r="CO20" s="9"/>
       <c r="CP20" s="9"/>
     </row>
-    <row r="21" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -2232,7 +2261,9 @@
       <c r="Y21" s="8">
         <v>250340.41722162766</v>
       </c>
-      <c r="Z21" s="9"/>
+      <c r="Z21" s="8">
+        <v>262015.6693738696</v>
+      </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
@@ -2302,7 +2333,7 @@
       <c r="CO21" s="9"/>
       <c r="CP21" s="9"/>
     </row>
-    <row r="22" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
@@ -2378,7 +2409,9 @@
       <c r="Y22" s="11">
         <v>42609.713284923557</v>
       </c>
-      <c r="Z22" s="9"/>
+      <c r="Z22" s="11">
+        <v>50532.1764961687</v>
+      </c>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
@@ -2448,7 +2481,7 @@
       <c r="CO22" s="9"/>
       <c r="CP22" s="9"/>
     </row>
-    <row r="23" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
@@ -2524,7 +2557,9 @@
       <c r="Y23" s="11">
         <v>26816.781146138437</v>
       </c>
-      <c r="Z23" s="9"/>
+      <c r="Z23" s="11">
+        <v>28903.649585989548</v>
+      </c>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
@@ -2594,7 +2629,7 @@
       <c r="CO23" s="9"/>
       <c r="CP23" s="9"/>
     </row>
-    <row r="24" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
@@ -2670,7 +2705,9 @@
       <c r="Y24" s="11">
         <v>100044.29041614191</v>
       </c>
-      <c r="Z24" s="9"/>
+      <c r="Z24" s="11">
+        <v>95219.494554079618</v>
+      </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
@@ -2740,7 +2777,7 @@
       <c r="CO24" s="9"/>
       <c r="CP24" s="9"/>
     </row>
-    <row r="25" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>12</v>
       </c>
@@ -2816,7 +2853,9 @@
       <c r="Y25" s="11">
         <v>80869.63237442376</v>
       </c>
-      <c r="Z25" s="9"/>
+      <c r="Z25" s="11">
+        <v>87360.34873763175</v>
+      </c>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
@@ -2886,7 +2925,7 @@
       <c r="CO25" s="9"/>
       <c r="CP25" s="9"/>
     </row>
-    <row r="26" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -2962,7 +3001,9 @@
       <c r="Y26" s="8">
         <v>764169.68753697618</v>
       </c>
-      <c r="Z26" s="9"/>
+      <c r="Z26" s="8">
+        <v>771786.81517494516</v>
+      </c>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
@@ -3032,7 +3073,7 @@
       <c r="CO26" s="9"/>
       <c r="CP26" s="9"/>
     </row>
-    <row r="27" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
@@ -3108,7 +3149,9 @@
       <c r="Y27" s="11">
         <v>672238.67266591021</v>
       </c>
-      <c r="Z27" s="9"/>
+      <c r="Z27" s="11">
+        <v>671326.9094152865</v>
+      </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
@@ -3178,7 +3221,7 @@
       <c r="CO27" s="9"/>
       <c r="CP27" s="9"/>
     </row>
-    <row r="28" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>9</v>
       </c>
@@ -3254,7 +3297,9 @@
       <c r="Y28" s="11">
         <v>1229.2723320173461</v>
       </c>
-      <c r="Z28" s="9"/>
+      <c r="Z28" s="11">
+        <v>11400.212936015792</v>
+      </c>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
@@ -3324,7 +3369,7 @@
       <c r="CO28" s="9"/>
       <c r="CP28" s="9"/>
     </row>
-    <row r="29" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>8</v>
       </c>
@@ -3400,7 +3445,9 @@
       <c r="Y29" s="11">
         <v>60118.521939533122</v>
       </c>
-      <c r="Z29" s="9"/>
+      <c r="Z29" s="11">
+        <v>78112.667171093024</v>
+      </c>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
@@ -3470,7 +3517,7 @@
       <c r="CO29" s="9"/>
       <c r="CP29" s="9"/>
     </row>
-    <row r="30" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
@@ -3546,7 +3593,9 @@
       <c r="Y30" s="11">
         <v>30583.220599515487</v>
       </c>
-      <c r="Z30" s="9"/>
+      <c r="Z30" s="11">
+        <v>10947.025652549763</v>
+      </c>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
@@ -3616,7 +3665,7 @@
       <c r="CO30" s="9"/>
       <c r="CP30" s="9"/>
     </row>
-    <row r="31" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -3692,7 +3741,9 @@
       <c r="Y31" s="8">
         <v>257010.81101137761</v>
       </c>
-      <c r="Z31" s="9"/>
+      <c r="Z31" s="8">
+        <v>271182.8338687247</v>
+      </c>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
@@ -3762,7 +3813,7 @@
       <c r="CO31" s="9"/>
       <c r="CP31" s="9"/>
     </row>
-    <row r="32" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>5</v>
       </c>
@@ -3838,7 +3889,9 @@
       <c r="Y32" s="11">
         <v>23907.294964309072</v>
       </c>
-      <c r="Z32" s="9"/>
+      <c r="Z32" s="11">
+        <v>23954.86152906825</v>
+      </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
@@ -3908,7 +3961,7 @@
       <c r="CO32" s="9"/>
       <c r="CP32" s="9"/>
     </row>
-    <row r="33" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>4</v>
       </c>
@@ -3984,7 +4037,9 @@
       <c r="Y33" s="11">
         <v>43329.317955091494</v>
       </c>
-      <c r="Z33" s="9"/>
+      <c r="Z33" s="11">
+        <v>53379.253878445816</v>
+      </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
@@ -4054,7 +4109,7 @@
       <c r="CO33" s="9"/>
       <c r="CP33" s="9"/>
     </row>
-    <row r="34" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>3</v>
       </c>
@@ -4130,7 +4185,9 @@
       <c r="Y34" s="11">
         <v>136863.49201576298</v>
       </c>
-      <c r="Z34" s="9"/>
+      <c r="Z34" s="11">
+        <v>137173.33762591885</v>
+      </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
@@ -4200,7 +4257,7 @@
       <c r="CO34" s="9"/>
       <c r="CP34" s="9"/>
     </row>
-    <row r="35" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>2</v>
       </c>
@@ -4276,7 +4333,9 @@
       <c r="Y35" s="11">
         <v>52910.706076214068</v>
       </c>
-      <c r="Z35" s="9"/>
+      <c r="Z35" s="11">
+        <v>56675.380835291762</v>
+      </c>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
@@ -4346,7 +4405,7 @@
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
     </row>
-    <row r="36" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -4441,7 +4500,7 @@
       <c r="CO36" s="9"/>
       <c r="CP36" s="9"/>
     </row>
-    <row r="37" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>1</v>
       </c>
@@ -4517,7 +4576,9 @@
       <c r="Y37" s="13">
         <v>1482058.4833376138</v>
       </c>
-      <c r="Z37" s="9"/>
+      <c r="Z37" s="13">
+        <v>1520000.3257147651</v>
+      </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
@@ -4587,7 +4648,7 @@
       <c r="CO37" s="9"/>
       <c r="CP37" s="9"/>
     </row>
-    <row r="38" spans="1:94" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -4613,13 +4674,14 @@
       <c r="W38" s="14"/>
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
     </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -4714,7 +4776,7 @@
       <c r="CO40" s="9"/>
       <c r="CP40" s="9"/>
     </row>
-    <row r="41" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -4809,37 +4871,37 @@
       <c r="CO41" s="9"/>
       <c r="CP41" s="9"/>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>26</v>
@@ -4867,8 +4929,9 @@
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>59</v>
       </c>
@@ -4944,11 +5007,14 @@
       <c r="Y51" s="16">
         <v>2023</v>
       </c>
+      <c r="Z51" s="16">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="52" spans="1:94" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>25</v>
       </c>
@@ -5024,7 +5090,9 @@
       <c r="Y53" s="8">
         <v>180239.32368872536</v>
       </c>
-      <c r="Z53" s="9"/>
+      <c r="Z53" s="8">
+        <v>181593.40508173365</v>
+      </c>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
@@ -5094,7 +5162,7 @@
       <c r="CO53" s="9"/>
       <c r="CP53" s="9"/>
     </row>
-    <row r="54" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>24</v>
       </c>
@@ -5170,7 +5238,9 @@
       <c r="Y54" s="11">
         <v>12805.647320673106</v>
       </c>
-      <c r="Z54" s="9"/>
+      <c r="Z54" s="11">
+        <v>11095.03142049714</v>
+      </c>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
@@ -5240,7 +5310,7 @@
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
     </row>
-    <row r="55" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>23</v>
       </c>
@@ -5316,7 +5386,9 @@
       <c r="Y55" s="11">
         <v>32757.864279911271</v>
       </c>
-      <c r="Z55" s="9"/>
+      <c r="Z55" s="11">
+        <v>31839.395956773908</v>
+      </c>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
@@ -5386,7 +5458,7 @@
       <c r="CO55" s="9"/>
       <c r="CP55" s="9"/>
     </row>
-    <row r="56" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>22</v>
       </c>
@@ -5462,7 +5534,9 @@
       <c r="Y56" s="11">
         <v>2897.0079394102154</v>
       </c>
-      <c r="Z56" s="9"/>
+      <c r="Z56" s="11">
+        <v>2942.2769019666666</v>
+      </c>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
@@ -5532,7 +5606,7 @@
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>
     </row>
-    <row r="57" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>21</v>
       </c>
@@ -5608,7 +5682,9 @@
       <c r="Y57" s="11">
         <v>1625.6835421858254</v>
       </c>
-      <c r="Z57" s="9"/>
+      <c r="Z57" s="11">
+        <v>2276.3031768646561</v>
+      </c>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
       <c r="AC57" s="9"/>
@@ -5678,7 +5754,7 @@
       <c r="CO57" s="9"/>
       <c r="CP57" s="9"/>
     </row>
-    <row r="58" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>20</v>
       </c>
@@ -5754,7 +5830,9 @@
       <c r="Y58" s="11">
         <v>10238.836077119917</v>
       </c>
-      <c r="Z58" s="9"/>
+      <c r="Z58" s="11">
+        <v>8275.8308433193051</v>
+      </c>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
@@ -5824,7 +5902,7 @@
       <c r="CO58" s="9"/>
       <c r="CP58" s="9"/>
     </row>
-    <row r="59" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>19</v>
       </c>
@@ -5900,7 +5978,9 @@
       <c r="Y59" s="11">
         <v>89759.548686591239</v>
       </c>
-      <c r="Z59" s="9"/>
+      <c r="Z59" s="11">
+        <v>91503.740388466365</v>
+      </c>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
@@ -5970,7 +6050,7 @@
       <c r="CO59" s="9"/>
       <c r="CP59" s="9"/>
     </row>
-    <row r="60" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>18</v>
       </c>
@@ -6046,7 +6126,9 @@
       <c r="Y60" s="11">
         <v>3550.3094755179623</v>
       </c>
-      <c r="Z60" s="9"/>
+      <c r="Z60" s="11">
+        <v>4231.1034638690226</v>
+      </c>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
@@ -6116,7 +6198,7 @@
       <c r="CO60" s="9"/>
       <c r="CP60" s="9"/>
     </row>
-    <row r="61" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>17</v>
       </c>
@@ -6192,7 +6274,9 @@
       <c r="Y61" s="11">
         <v>26604.426367315835</v>
       </c>
-      <c r="Z61" s="9"/>
+      <c r="Z61" s="11">
+        <v>29429.7229299766</v>
+      </c>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
@@ -6262,7 +6346,7 @@
       <c r="CO61" s="9"/>
       <c r="CP61" s="9"/>
     </row>
-    <row r="62" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -6338,7 +6422,9 @@
       <c r="Y62" s="8">
         <v>215067.32112741217</v>
       </c>
-      <c r="Z62" s="9"/>
+      <c r="Z62" s="8">
+        <v>218646.1069119976</v>
+      </c>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
@@ -6408,7 +6494,7 @@
       <c r="CO62" s="9"/>
       <c r="CP62" s="9"/>
     </row>
-    <row r="63" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>15</v>
       </c>
@@ -6484,7 +6570,9 @@
       <c r="Y63" s="11">
         <v>35054.614851723396</v>
       </c>
-      <c r="Z63" s="9"/>
+      <c r="Z63" s="11">
+        <v>40417.417432052855</v>
+      </c>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
@@ -6554,7 +6642,7 @@
       <c r="CO63" s="9"/>
       <c r="CP63" s="9"/>
     </row>
-    <row r="64" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>14</v>
       </c>
@@ -6630,7 +6718,9 @@
       <c r="Y64" s="11">
         <v>21747.798494678056</v>
       </c>
-      <c r="Z64" s="9"/>
+      <c r="Z64" s="11">
+        <v>22750.033645685275</v>
+      </c>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
@@ -6700,7 +6790,7 @@
       <c r="CO64" s="9"/>
       <c r="CP64" s="9"/>
     </row>
-    <row r="65" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>13</v>
       </c>
@@ -6776,7 +6866,9 @@
       <c r="Y65" s="11">
         <v>82254.392467961879</v>
       </c>
-      <c r="Z65" s="9"/>
+      <c r="Z65" s="11">
+        <v>75014.955770775385</v>
+      </c>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
@@ -6846,7 +6938,7 @@
       <c r="CO65" s="9"/>
       <c r="CP65" s="9"/>
     </row>
-    <row r="66" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>12</v>
       </c>
@@ -6922,7 +7014,9 @@
       <c r="Y66" s="11">
         <v>76010.515313048847</v>
       </c>
-      <c r="Z66" s="9"/>
+      <c r="Z66" s="11">
+        <v>80463.700063484066</v>
+      </c>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
@@ -6992,7 +7086,7 @@
       <c r="CO66" s="9"/>
       <c r="CP66" s="9"/>
     </row>
-    <row r="67" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -7068,7 +7162,9 @@
       <c r="Y67" s="8">
         <v>704936.66966138757</v>
       </c>
-      <c r="Z67" s="9"/>
+      <c r="Z67" s="8">
+        <v>683643.71895601565</v>
+      </c>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
@@ -7138,7 +7234,7 @@
       <c r="CO67" s="9"/>
       <c r="CP67" s="9"/>
     </row>
-    <row r="68" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
@@ -7214,7 +7310,9 @@
       <c r="Y68" s="11">
         <v>631147.50809689588</v>
       </c>
-      <c r="Z68" s="9"/>
+      <c r="Z68" s="11">
+        <v>609270.68829531851</v>
+      </c>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
@@ -7284,7 +7382,7 @@
       <c r="CO68" s="9"/>
       <c r="CP68" s="9"/>
     </row>
-    <row r="69" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>9</v>
       </c>
@@ -7360,7 +7458,9 @@
       <c r="Y69" s="11">
         <v>895.48174924477485</v>
       </c>
-      <c r="Z69" s="9"/>
+      <c r="Z69" s="11">
+        <v>9020.6608486188888</v>
+      </c>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
@@ -7430,7 +7530,7 @@
       <c r="CO69" s="9"/>
       <c r="CP69" s="9"/>
     </row>
-    <row r="70" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>8</v>
       </c>
@@ -7506,7 +7606,9 @@
       <c r="Y70" s="11">
         <v>47438.923926202391</v>
       </c>
-      <c r="Z70" s="9"/>
+      <c r="Z70" s="11">
+        <v>56783.314320607707</v>
+      </c>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
@@ -7576,7 +7678,7 @@
       <c r="CO70" s="9"/>
       <c r="CP70" s="9"/>
     </row>
-    <row r="71" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>7</v>
       </c>
@@ -7652,7 +7754,9 @@
       <c r="Y71" s="11">
         <v>25454.755889044605</v>
       </c>
-      <c r="Z71" s="9"/>
+      <c r="Z71" s="11">
+        <v>8569.0554914705954</v>
+      </c>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
@@ -7722,7 +7826,7 @@
       <c r="CO71" s="9"/>
       <c r="CP71" s="9"/>
     </row>
-    <row r="72" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -7798,7 +7902,9 @@
       <c r="Y72" s="8">
         <v>222173.2649870209</v>
       </c>
-      <c r="Z72" s="9"/>
+      <c r="Z72" s="8">
+        <v>227806.41114234854</v>
+      </c>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
@@ -7868,7 +7974,7 @@
       <c r="CO72" s="9"/>
       <c r="CP72" s="9"/>
     </row>
-    <row r="73" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>5</v>
       </c>
@@ -7944,7 +8050,9 @@
       <c r="Y73" s="11">
         <v>20102.018156496088</v>
       </c>
-      <c r="Z73" s="9"/>
+      <c r="Z73" s="11">
+        <v>20307.626490231673</v>
+      </c>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
@@ -8014,7 +8122,7 @@
       <c r="CO73" s="9"/>
       <c r="CP73" s="9"/>
     </row>
-    <row r="74" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>4</v>
       </c>
@@ -8090,7 +8198,9 @@
       <c r="Y74" s="11">
         <v>41870.093895148602</v>
       </c>
-      <c r="Z74" s="9"/>
+      <c r="Z74" s="11">
+        <v>50215.556374083695</v>
+      </c>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
@@ -8160,7 +8270,7 @@
       <c r="CO74" s="9"/>
       <c r="CP74" s="9"/>
     </row>
-    <row r="75" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>3</v>
       </c>
@@ -8236,7 +8346,9 @@
       <c r="Y75" s="11">
         <v>115822.65789545965</v>
       </c>
-      <c r="Z75" s="9"/>
+      <c r="Z75" s="11">
+        <v>111338.2939609811</v>
+      </c>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
@@ -8306,7 +8418,7 @@
       <c r="CO75" s="9"/>
       <c r="CP75" s="9"/>
     </row>
-    <row r="76" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>2</v>
       </c>
@@ -8382,7 +8494,9 @@
       <c r="Y76" s="11">
         <v>44378.495039916575</v>
       </c>
-      <c r="Z76" s="9"/>
+      <c r="Z76" s="11">
+        <v>45944.934317052088</v>
+      </c>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
@@ -8452,7 +8566,7 @@
       <c r="CO76" s="9"/>
       <c r="CP76" s="9"/>
     </row>
-    <row r="77" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -8547,7 +8661,7 @@
       <c r="CO77" s="9"/>
       <c r="CP77" s="9"/>
     </row>
-    <row r="78" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>1</v>
       </c>
@@ -8623,7 +8737,9 @@
       <c r="Y78" s="13">
         <v>1322416.5794645462</v>
       </c>
-      <c r="Z78" s="9"/>
+      <c r="Z78" s="13">
+        <v>1311689.6420920955</v>
+      </c>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
@@ -8693,7 +8809,7 @@
       <c r="CO78" s="9"/>
       <c r="CP78" s="9"/>
     </row>
-    <row r="79" spans="1:94" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -8719,13 +8835,14 @@
       <c r="W79" s="14"/>
       <c r="X79" s="14"/>
       <c r="Y79" s="14"/>
+      <c r="Z79" s="14"/>
     </row>
-    <row r="80" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:94" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:94" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -8821,7 +8938,7 @@
       <c r="CO81" s="17"/>
       <c r="CP81" s="17"/>
     </row>
-    <row r="82" spans="1:94" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:94" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -8917,37 +9034,37 @@
       <c r="CO82" s="17"/>
       <c r="CP82" s="17"/>
     </row>
-    <row r="83" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="5" t="s">
         <v>26</v>
@@ -8975,8 +9092,9 @@
       <c r="W91" s="5"/>
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
     </row>
-    <row r="92" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>59</v>
       </c>
@@ -9049,12 +9167,15 @@
       <c r="X92" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Y92" s="16"/>
+      <c r="Y92" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z92" s="16"/>
     </row>
-    <row r="93" spans="1:94" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
     </row>
-    <row r="94" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>25</v>
       </c>
@@ -9127,8 +9248,10 @@
       <c r="X94" s="19">
         <v>0.64048810237574116</v>
       </c>
-      <c r="Y94" s="19"/>
-      <c r="Z94" s="9"/>
+      <c r="Y94" s="19">
+        <v>2.1266702096551171</v>
+      </c>
+      <c r="Z94" s="19"/>
       <c r="AA94" s="9"/>
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
@@ -9192,7 +9315,7 @@
       <c r="CI94" s="9"/>
       <c r="CJ94" s="9"/>
     </row>
-    <row r="95" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>24</v>
       </c>
@@ -9265,8 +9388,10 @@
       <c r="X95" s="19">
         <v>40.277006529477859</v>
       </c>
-      <c r="Y95" s="19"/>
-      <c r="Z95" s="9"/>
+      <c r="Y95" s="19">
+        <v>-5.9295260791009383</v>
+      </c>
+      <c r="Z95" s="19"/>
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
@@ -9330,7 +9455,7 @@
       <c r="CI95" s="9"/>
       <c r="CJ95" s="9"/>
     </row>
-    <row r="96" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>23</v>
       </c>
@@ -9403,8 +9528,10 @@
       <c r="X96" s="19">
         <v>3.8757219894441732</v>
       </c>
-      <c r="Y96" s="19"/>
-      <c r="Z96" s="9"/>
+      <c r="Y96" s="19">
+        <v>-4.3232373570139799</v>
+      </c>
+      <c r="Z96" s="19"/>
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
@@ -9468,7 +9595,7 @@
       <c r="CI96" s="9"/>
       <c r="CJ96" s="9"/>
     </row>
-    <row r="97" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
         <v>22</v>
       </c>
@@ -9541,8 +9668,10 @@
       <c r="X97" s="19">
         <v>12.677243161726309</v>
       </c>
-      <c r="Y97" s="19"/>
-      <c r="Z97" s="9"/>
+      <c r="Y97" s="19">
+        <v>1.0405590017238211</v>
+      </c>
+      <c r="Z97" s="19"/>
       <c r="AA97" s="9"/>
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
@@ -9606,7 +9735,7 @@
       <c r="CI97" s="9"/>
       <c r="CJ97" s="9"/>
     </row>
-    <row r="98" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
         <v>21</v>
       </c>
@@ -9679,8 +9808,10 @@
       <c r="X98" s="19">
         <v>3.3295914095162544</v>
       </c>
-      <c r="Y98" s="19"/>
-      <c r="Z98" s="9"/>
+      <c r="Y98" s="19">
+        <v>50.536664056792318</v>
+      </c>
+      <c r="Z98" s="19"/>
       <c r="AA98" s="9"/>
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
@@ -9744,7 +9875,7 @@
       <c r="CI98" s="9"/>
       <c r="CJ98" s="9"/>
     </row>
-    <row r="99" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>20</v>
       </c>
@@ -9817,8 +9948,10 @@
       <c r="X99" s="19">
         <v>2.4535984091637459</v>
       </c>
-      <c r="Y99" s="19"/>
-      <c r="Z99" s="9"/>
+      <c r="Y99" s="19">
+        <v>-17.832975954551316</v>
+      </c>
+      <c r="Z99" s="19"/>
       <c r="AA99" s="9"/>
       <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
@@ -9882,7 +10015,7 @@
       <c r="CI99" s="9"/>
       <c r="CJ99" s="9"/>
     </row>
-    <row r="100" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>19</v>
       </c>
@@ -9955,8 +10088,10 @@
       <c r="X100" s="19">
         <v>-0.30886424386173417</v>
       </c>
-      <c r="Y100" s="19"/>
-      <c r="Z100" s="9"/>
+      <c r="Y100" s="19">
+        <v>4.0858218431665989</v>
+      </c>
+      <c r="Z100" s="19"/>
       <c r="AA100" s="9"/>
       <c r="AB100" s="9"/>
       <c r="AC100" s="9"/>
@@ -10020,7 +10155,7 @@
       <c r="CI100" s="9"/>
       <c r="CJ100" s="9"/>
     </row>
-    <row r="101" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>18</v>
       </c>
@@ -10093,8 +10228,10 @@
       <c r="X101" s="19">
         <v>39.489484530273444</v>
       </c>
-      <c r="Y101" s="19"/>
-      <c r="Z101" s="9"/>
+      <c r="Y101" s="19">
+        <v>15.340895006482441</v>
+      </c>
+      <c r="Z101" s="19"/>
       <c r="AA101" s="9"/>
       <c r="AB101" s="9"/>
       <c r="AC101" s="9"/>
@@ -10158,7 +10295,7 @@
       <c r="CI101" s="9"/>
       <c r="CJ101" s="9"/>
     </row>
-    <row r="102" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
         <v>17</v>
       </c>
@@ -10231,8 +10368,10 @@
       <c r="X102" s="19">
         <v>-17.241486575474269</v>
       </c>
-      <c r="Y102" s="19"/>
-      <c r="Z102" s="9"/>
+      <c r="Y102" s="19">
+        <v>12.298182884869036</v>
+      </c>
+      <c r="Z102" s="19"/>
       <c r="AA102" s="9"/>
       <c r="AB102" s="9"/>
       <c r="AC102" s="9"/>
@@ -10296,7 +10435,7 @@
       <c r="CI102" s="9"/>
       <c r="CJ102" s="9"/>
     </row>
-    <row r="103" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>16</v>
       </c>
@@ -10369,8 +10508,10 @@
       <c r="X103" s="19">
         <v>11.010324024518042</v>
       </c>
-      <c r="Y103" s="19"/>
-      <c r="Z103" s="9"/>
+      <c r="Y103" s="19">
+        <v>4.6637503771138142</v>
+      </c>
+      <c r="Z103" s="19"/>
       <c r="AA103" s="9"/>
       <c r="AB103" s="9"/>
       <c r="AC103" s="9"/>
@@ -10434,7 +10575,7 @@
       <c r="CI103" s="9"/>
       <c r="CJ103" s="9"/>
     </row>
-    <row r="104" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
         <v>15</v>
       </c>
@@ -10507,8 +10648,10 @@
       <c r="X104" s="19">
         <v>4.5734869493839057</v>
       </c>
-      <c r="Y104" s="19"/>
-      <c r="Z104" s="9"/>
+      <c r="Y104" s="19">
+        <v>18.593092045161256</v>
+      </c>
+      <c r="Z104" s="19"/>
       <c r="AA104" s="9"/>
       <c r="AB104" s="9"/>
       <c r="AC104" s="9"/>
@@ -10572,7 +10715,7 @@
       <c r="CI104" s="9"/>
       <c r="CJ104" s="9"/>
     </row>
-    <row r="105" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>14</v>
       </c>
@@ -10645,8 +10788,10 @@
       <c r="X105" s="19">
         <v>12.396663382091461</v>
       </c>
-      <c r="Y105" s="19"/>
-      <c r="Z105" s="9"/>
+      <c r="Y105" s="19">
+        <v>7.7819497742055148</v>
+      </c>
+      <c r="Z105" s="19"/>
       <c r="AA105" s="9"/>
       <c r="AB105" s="9"/>
       <c r="AC105" s="9"/>
@@ -10710,7 +10855,7 @@
       <c r="CI105" s="9"/>
       <c r="CJ105" s="9"/>
     </row>
-    <row r="106" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
         <v>13</v>
       </c>
@@ -10783,8 +10928,10 @@
       <c r="X106" s="19">
         <v>35.669356918746587</v>
       </c>
-      <c r="Y106" s="19"/>
-      <c r="Z106" s="9"/>
+      <c r="Y106" s="19">
+        <v>-4.8226598859297098</v>
+      </c>
+      <c r="Z106" s="19"/>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
@@ -10848,7 +10995,7 @@
       <c r="CI106" s="9"/>
       <c r="CJ106" s="9"/>
     </row>
-    <row r="107" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>12</v>
       </c>
@@ -10921,8 +11068,10 @@
       <c r="X107" s="19">
         <v>-7.221749258789302</v>
       </c>
-      <c r="Y107" s="19"/>
-      <c r="Z107" s="9"/>
+      <c r="Y107" s="19">
+        <v>8.0261479774709272</v>
+      </c>
+      <c r="Z107" s="19"/>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
@@ -10986,7 +11135,7 @@
       <c r="CI107" s="9"/>
       <c r="CJ107" s="9"/>
     </row>
-    <row r="108" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -11059,8 +11208,10 @@
       <c r="X108" s="19">
         <v>20.628629576677795</v>
       </c>
-      <c r="Y108" s="19"/>
-      <c r="Z108" s="9"/>
+      <c r="Y108" s="19">
+        <v>0.99678484532932998</v>
+      </c>
+      <c r="Z108" s="19"/>
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
@@ -11124,7 +11275,7 @@
       <c r="CI108" s="9"/>
       <c r="CJ108" s="9"/>
     </row>
-    <row r="109" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>10</v>
       </c>
@@ -11197,8 +11348,10 @@
       <c r="X109" s="19">
         <v>20.015582623806097</v>
       </c>
-      <c r="Y109" s="19"/>
-      <c r="Z109" s="9"/>
+      <c r="Y109" s="19">
+        <v>-0.13563088344916707</v>
+      </c>
+      <c r="Z109" s="19"/>
       <c r="AA109" s="9"/>
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
@@ -11262,7 +11415,7 @@
       <c r="CI109" s="9"/>
       <c r="CJ109" s="9"/>
     </row>
-    <row r="110" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>9</v>
       </c>
@@ -11335,8 +11488,10 @@
       <c r="X110" s="19">
         <v>-52.959402187682279</v>
       </c>
-      <c r="Y110" s="19"/>
-      <c r="Z110" s="9"/>
+      <c r="Y110" s="19">
+        <v>827.3952271671991</v>
+      </c>
+      <c r="Z110" s="19"/>
       <c r="AA110" s="9"/>
       <c r="AB110" s="9"/>
       <c r="AC110" s="9"/>
@@ -11400,7 +11555,7 @@
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
     </row>
-    <row r="111" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>8</v>
       </c>
@@ -11473,8 +11628,10 @@
       <c r="X111" s="19">
         <v>57.70904226584446</v>
       </c>
-      <c r="Y111" s="19"/>
-      <c r="Z111" s="9"/>
+      <c r="Y111" s="19">
+        <v>29.93111715164639</v>
+      </c>
+      <c r="Z111" s="19"/>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
@@ -11538,7 +11695,7 @@
       <c r="CI111" s="9"/>
       <c r="CJ111" s="9"/>
     </row>
-    <row r="112" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>7</v>
       </c>
@@ -11611,8 +11768,10 @@
       <c r="X112" s="19">
         <v>-6.2733179746999639</v>
       </c>
-      <c r="Y112" s="19"/>
-      <c r="Z112" s="9"/>
+      <c r="Y112" s="19">
+        <v>-64.205778731088941</v>
+      </c>
+      <c r="Z112" s="19"/>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
@@ -11676,7 +11835,7 @@
       <c r="CI112" s="9"/>
       <c r="CJ112" s="9"/>
     </row>
-    <row r="113" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
@@ -11749,8 +11908,10 @@
       <c r="X113" s="19">
         <v>4.6979031525900439</v>
       </c>
-      <c r="Y113" s="19"/>
-      <c r="Z113" s="9"/>
+      <c r="Y113" s="19">
+        <v>5.5141738207735216</v>
+      </c>
+      <c r="Z113" s="19"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
@@ -11814,7 +11975,7 @@
       <c r="CI113" s="9"/>
       <c r="CJ113" s="9"/>
     </row>
-    <row r="114" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>5</v>
       </c>
@@ -11887,8 +12048,10 @@
       <c r="X114" s="19">
         <v>4.7994434922687503</v>
       </c>
-      <c r="Y114" s="19"/>
-      <c r="Z114" s="9"/>
+      <c r="Y114" s="19">
+        <v>0.1989625544428435</v>
+      </c>
+      <c r="Z114" s="19"/>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
@@ -11952,7 +12115,7 @@
       <c r="CI114" s="9"/>
       <c r="CJ114" s="9"/>
     </row>
-    <row r="115" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>4</v>
       </c>
@@ -12025,8 +12188,10 @@
       <c r="X115" s="19">
         <v>15.519175323869945</v>
       </c>
-      <c r="Y115" s="19"/>
-      <c r="Z115" s="9"/>
+      <c r="Y115" s="19">
+        <v>23.194309067524529</v>
+      </c>
+      <c r="Z115" s="19"/>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
@@ -12090,7 +12255,7 @@
       <c r="CI115" s="9"/>
       <c r="CJ115" s="9"/>
     </row>
-    <row r="116" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>3</v>
       </c>
@@ -12163,8 +12328,10 @@
       <c r="X116" s="19">
         <v>3.9094406068630292</v>
       </c>
-      <c r="Y116" s="19"/>
-      <c r="Z116" s="9"/>
+      <c r="Y116" s="19">
+        <v>0.22639025615404762</v>
+      </c>
+      <c r="Z116" s="19"/>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
@@ -12228,7 +12395,7 @@
       <c r="CI116" s="9"/>
       <c r="CJ116" s="9"/>
     </row>
-    <row r="117" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>2</v>
       </c>
@@ -12301,8 +12468,10 @@
       <c r="X117" s="19">
         <v>-0.99694304035776327</v>
       </c>
-      <c r="Y117" s="19"/>
-      <c r="Z117" s="9"/>
+      <c r="Y117" s="19">
+        <v>7.1151474592967077</v>
+      </c>
+      <c r="Z117" s="19"/>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
@@ -12366,7 +12535,7 @@
       <c r="CI117" s="9"/>
       <c r="CJ117" s="9"/>
     </row>
-    <row r="118" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -12455,7 +12624,7 @@
       <c r="CI118" s="9"/>
       <c r="CJ118" s="9"/>
     </row>
-    <row r="119" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>1</v>
       </c>
@@ -12528,8 +12697,10 @@
       <c r="X119" s="20">
         <v>12.817607839963173</v>
       </c>
-      <c r="Y119" s="20"/>
-      <c r="Z119" s="9"/>
+      <c r="Y119" s="20">
+        <v>2.5600772711550377</v>
+      </c>
+      <c r="Z119" s="20"/>
       <c r="AA119" s="9"/>
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
@@ -12593,7 +12764,7 @@
       <c r="CI119" s="9"/>
       <c r="CJ119" s="9"/>
     </row>
-    <row r="120" spans="1:88" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:88" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -12619,13 +12790,14 @@
       <c r="W120" s="14"/>
       <c r="X120" s="14"/>
       <c r="Y120" s="14"/>
+      <c r="Z120" s="14"/>
     </row>
-    <row r="121" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
         <v>0</v>
       </c>
@@ -12717,7 +12889,7 @@
       <c r="CI122" s="9"/>
       <c r="CJ122" s="9"/>
     </row>
-    <row r="123" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -12806,37 +12978,37 @@
       <c r="CI123" s="9"/>
       <c r="CJ123" s="9"/>
     </row>
-    <row r="124" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="130" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="5" t="s">
         <v>26</v>
@@ -12864,8 +13036,9 @@
       <c r="W132" s="5"/>
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
+      <c r="Z132" s="5"/>
     </row>
-    <row r="133" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>59</v>
       </c>
@@ -12938,12 +13111,15 @@
       <c r="X133" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Y133" s="21"/>
+      <c r="Y133" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z133" s="21"/>
     </row>
-    <row r="134" spans="1:88" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:88" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
     </row>
-    <row r="135" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>25</v>
       </c>
@@ -13016,8 +13192,10 @@
       <c r="X135" s="19">
         <v>-2.9599621352762995</v>
       </c>
-      <c r="Y135" s="19"/>
-      <c r="Z135" s="9"/>
+      <c r="Y135" s="19">
+        <v>0.75126857186104701</v>
+      </c>
+      <c r="Z135" s="19"/>
       <c r="AA135" s="9"/>
       <c r="AB135" s="9"/>
       <c r="AC135" s="9"/>
@@ -13081,7 +13259,7 @@
       <c r="CI135" s="9"/>
       <c r="CJ135" s="9"/>
     </row>
-    <row r="136" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>24</v>
       </c>
@@ -13154,8 +13332,10 @@
       <c r="X136" s="19">
         <v>36.417463806533306</v>
       </c>
-      <c r="Y136" s="19"/>
-      <c r="Z136" s="9"/>
+      <c r="Y136" s="19">
+        <v>-13.358293082259038</v>
+      </c>
+      <c r="Z136" s="19"/>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9"/>
       <c r="AC136" s="9"/>
@@ -13219,7 +13399,7 @@
       <c r="CI136" s="9"/>
       <c r="CJ136" s="9"/>
     </row>
-    <row r="137" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>23</v>
       </c>
@@ -13292,8 +13472,10 @@
       <c r="X137" s="19">
         <v>-10.737979229490591</v>
       </c>
-      <c r="Y137" s="19"/>
-      <c r="Z137" s="9"/>
+      <c r="Y137" s="19">
+        <v>-2.8038101485773979</v>
+      </c>
+      <c r="Z137" s="19"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
@@ -13357,7 +13539,7 @@
       <c r="CI137" s="9"/>
       <c r="CJ137" s="9"/>
     </row>
-    <row r="138" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>22</v>
       </c>
@@ -13430,8 +13612,10 @@
       <c r="X138" s="19">
         <v>8.2394958015336215</v>
       </c>
-      <c r="Y138" s="19"/>
-      <c r="Z138" s="9"/>
+      <c r="Y138" s="19">
+        <v>1.5626109249002411</v>
+      </c>
+      <c r="Z138" s="19"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
@@ -13495,7 +13679,7 @@
       <c r="CI138" s="9"/>
       <c r="CJ138" s="9"/>
     </row>
-    <row r="139" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>21</v>
       </c>
@@ -13568,8 +13752,10 @@
       <c r="X139" s="19">
         <v>-4.9686068410523205</v>
       </c>
-      <c r="Y139" s="19"/>
-      <c r="Z139" s="9"/>
+      <c r="Y139" s="19">
+        <v>40.021296752751454</v>
+      </c>
+      <c r="Z139" s="19"/>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
@@ -13633,7 +13819,7 @@
       <c r="CI139" s="9"/>
       <c r="CJ139" s="9"/>
     </row>
-    <row r="140" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>20</v>
       </c>
@@ -13706,8 +13892,10 @@
       <c r="X140" s="19">
         <v>-2.8174267712505667</v>
       </c>
-      <c r="Y140" s="19"/>
-      <c r="Z140" s="9"/>
+      <c r="Y140" s="19">
+        <v>-19.172152176429663</v>
+      </c>
+      <c r="Z140" s="19"/>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
@@ -13771,7 +13959,7 @@
       <c r="CI140" s="9"/>
       <c r="CJ140" s="9"/>
     </row>
-    <row r="141" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>19</v>
       </c>
@@ -13844,8 +14032,10 @@
       <c r="X141" s="19">
         <v>-0.91758722589129604</v>
       </c>
-      <c r="Y141" s="19"/>
-      <c r="Z141" s="9"/>
+      <c r="Y141" s="19">
+        <v>1.9431823437139144</v>
+      </c>
+      <c r="Z141" s="19"/>
       <c r="AA141" s="9"/>
       <c r="AB141" s="9"/>
       <c r="AC141" s="9"/>
@@ -13909,7 +14099,7 @@
       <c r="CI141" s="9"/>
       <c r="CJ141" s="9"/>
     </row>
-    <row r="142" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>18</v>
       </c>
@@ -13982,8 +14172,10 @@
       <c r="X142" s="19">
         <v>22.969902481273635</v>
       </c>
-      <c r="Y142" s="19"/>
-      <c r="Z142" s="9"/>
+      <c r="Y142" s="19">
+        <v>19.175623788451233</v>
+      </c>
+      <c r="Z142" s="19"/>
       <c r="AA142" s="9"/>
       <c r="AB142" s="9"/>
       <c r="AC142" s="9"/>
@@ -14047,7 +14239,7 @@
       <c r="CI142" s="9"/>
       <c r="CJ142" s="9"/>
     </row>
-    <row r="143" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>17</v>
       </c>
@@ -14120,8 +14312,10 @@
       <c r="X143" s="19">
         <v>-14.867620763707208</v>
       </c>
-      <c r="Y143" s="19"/>
-      <c r="Z143" s="9"/>
+      <c r="Y143" s="19">
+        <v>10.619648488763175</v>
+      </c>
+      <c r="Z143" s="19"/>
       <c r="AA143" s="9"/>
       <c r="AB143" s="9"/>
       <c r="AC143" s="9"/>
@@ -14185,7 +14379,7 @@
       <c r="CI143" s="9"/>
       <c r="CJ143" s="9"/>
     </row>
-    <row r="144" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>16</v>
       </c>
@@ -14258,8 +14452,10 @@
       <c r="X144" s="19">
         <v>5.5197107873144091</v>
       </c>
-      <c r="Y144" s="19"/>
-      <c r="Z144" s="9"/>
+      <c r="Y144" s="19">
+        <v>1.66403048395496</v>
+      </c>
+      <c r="Z144" s="19"/>
       <c r="AA144" s="9"/>
       <c r="AB144" s="9"/>
       <c r="AC144" s="9"/>
@@ -14323,7 +14519,7 @@
       <c r="CI144" s="9"/>
       <c r="CJ144" s="9"/>
     </row>
-    <row r="145" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>15</v>
       </c>
@@ -14396,8 +14592,10 @@
       <c r="X145" s="19">
         <v>-0.32991392554907861</v>
       </c>
-      <c r="Y145" s="19"/>
-      <c r="Z145" s="9"/>
+      <c r="Y145" s="19">
+        <v>15.298421058150097</v>
+      </c>
+      <c r="Z145" s="19"/>
       <c r="AA145" s="9"/>
       <c r="AB145" s="9"/>
       <c r="AC145" s="9"/>
@@ -14461,7 +14659,7 @@
       <c r="CI145" s="9"/>
       <c r="CJ145" s="9"/>
     </row>
-    <row r="146" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>14</v>
       </c>
@@ -14534,8 +14732,10 @@
       <c r="X146" s="19">
         <v>5.4107114233252105</v>
       </c>
-      <c r="Y146" s="19"/>
-      <c r="Z146" s="9"/>
+      <c r="Y146" s="19">
+        <v>4.6084441662105604</v>
+      </c>
+      <c r="Z146" s="19"/>
       <c r="AA146" s="9"/>
       <c r="AB146" s="9"/>
       <c r="AC146" s="9"/>
@@ -14599,7 +14799,7 @@
       <c r="CI146" s="9"/>
       <c r="CJ146" s="9"/>
     </row>
-    <row r="147" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>13</v>
       </c>
@@ -14672,8 +14872,10 @@
       <c r="X147" s="19">
         <v>31.082427236459296</v>
       </c>
-      <c r="Y147" s="19"/>
-      <c r="Z147" s="9"/>
+      <c r="Y147" s="19">
+        <v>-8.8012767220987769</v>
+      </c>
+      <c r="Z147" s="19"/>
       <c r="AA147" s="9"/>
       <c r="AB147" s="9"/>
       <c r="AC147" s="9"/>
@@ -14737,7 +14939,7 @@
       <c r="CI147" s="9"/>
       <c r="CJ147" s="9"/>
     </row>
-    <row r="148" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>12</v>
       </c>
@@ -14810,8 +15012,10 @@
       <c r="X148" s="19">
         <v>-10.853723795724747</v>
       </c>
-      <c r="Y148" s="19"/>
-      <c r="Z148" s="9"/>
+      <c r="Y148" s="19">
+        <v>5.8586430207647027</v>
+      </c>
+      <c r="Z148" s="19"/>
       <c r="AA148" s="9"/>
       <c r="AB148" s="9"/>
       <c r="AC148" s="9"/>
@@ -14875,7 +15079,7 @@
       <c r="CI148" s="9"/>
       <c r="CJ148" s="9"/>
     </row>
-    <row r="149" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>11</v>
       </c>
@@ -14948,8 +15152,10 @@
       <c r="X149" s="19">
         <v>16.831012418442597</v>
       </c>
-      <c r="Y149" s="19"/>
-      <c r="Z149" s="9"/>
+      <c r="Y149" s="19">
+        <v>-3.0205480324352862</v>
+      </c>
+      <c r="Z149" s="19"/>
       <c r="AA149" s="9"/>
       <c r="AB149" s="9"/>
       <c r="AC149" s="9"/>
@@ -15013,7 +15219,7 @@
       <c r="CI149" s="9"/>
       <c r="CJ149" s="9"/>
     </row>
-    <row r="150" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>10</v>
       </c>
@@ -15086,8 +15292,10 @@
       <c r="X150" s="19">
         <v>17.562526521531424</v>
       </c>
-      <c r="Y150" s="19"/>
-      <c r="Z150" s="9"/>
+      <c r="Y150" s="19">
+        <v>-3.4661976037175037</v>
+      </c>
+      <c r="Z150" s="19"/>
       <c r="AA150" s="9"/>
       <c r="AB150" s="9"/>
       <c r="AC150" s="9"/>
@@ -15151,7 +15359,7 @@
       <c r="CI150" s="9"/>
       <c r="CJ150" s="9"/>
     </row>
-    <row r="151" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
         <v>9</v>
       </c>
@@ -15224,8 +15432,10 @@
       <c r="X151" s="19">
         <v>-68.417637014787203</v>
       </c>
-      <c r="Y151" s="19"/>
-      <c r="Z151" s="9"/>
+      <c r="Y151" s="19">
+        <v>907.35284177781068</v>
+      </c>
+      <c r="Z151" s="19"/>
       <c r="AA151" s="9"/>
       <c r="AB151" s="9"/>
       <c r="AC151" s="9"/>
@@ -15289,7 +15499,7 @@
       <c r="CI151" s="9"/>
       <c r="CJ151" s="9"/>
     </row>
-    <row r="152" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>8</v>
       </c>
@@ -15362,8 +15572,10 @@
       <c r="X152" s="19">
         <v>40.136097396020546</v>
       </c>
-      <c r="Y152" s="19"/>
-      <c r="Z152" s="9"/>
+      <c r="Y152" s="19">
+        <v>19.697728407460872</v>
+      </c>
+      <c r="Z152" s="19"/>
       <c r="AA152" s="9"/>
       <c r="AB152" s="9"/>
       <c r="AC152" s="9"/>
@@ -15427,7 +15639,7 @@
       <c r="CI152" s="9"/>
       <c r="CJ152" s="9"/>
     </row>
-    <row r="153" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>7</v>
       </c>
@@ -15500,8 +15712,10 @@
       <c r="X153" s="19">
         <v>-14.675580664184622</v>
       </c>
-      <c r="Y153" s="19"/>
-      <c r="Z153" s="9"/>
+      <c r="Y153" s="19">
+        <v>-66.336131727907855</v>
+      </c>
+      <c r="Z153" s="19"/>
       <c r="AA153" s="9"/>
       <c r="AB153" s="9"/>
       <c r="AC153" s="9"/>
@@ -15565,7 +15779,7 @@
       <c r="CI153" s="9"/>
       <c r="CJ153" s="9"/>
     </row>
-    <row r="154" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>6</v>
       </c>
@@ -15638,8 +15852,10 @@
       <c r="X154" s="19">
         <v>0.17291641815884873</v>
       </c>
-      <c r="Y154" s="19"/>
-      <c r="Z154" s="9"/>
+      <c r="Y154" s="19">
+        <v>2.5354743540617903</v>
+      </c>
+      <c r="Z154" s="19"/>
       <c r="AA154" s="9"/>
       <c r="AB154" s="9"/>
       <c r="AC154" s="9"/>
@@ -15703,7 +15919,7 @@
       <c r="CI154" s="9"/>
       <c r="CJ154" s="9"/>
     </row>
-    <row r="155" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>5</v>
       </c>
@@ -15776,8 +15992,10 @@
       <c r="X155" s="19">
         <v>9.2618237990401013</v>
       </c>
-      <c r="Y155" s="19"/>
-      <c r="Z155" s="9"/>
+      <c r="Y155" s="19">
+        <v>1.0228243360189282</v>
+      </c>
+      <c r="Z155" s="19"/>
       <c r="AA155" s="9"/>
       <c r="AB155" s="9"/>
       <c r="AC155" s="9"/>
@@ -15841,7 +16059,7 @@
       <c r="CI155" s="9"/>
       <c r="CJ155" s="9"/>
     </row>
-    <row r="156" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>4</v>
       </c>
@@ -15914,8 +16132,10 @@
       <c r="X156" s="19">
         <v>15.999064899136457</v>
       </c>
-      <c r="Y156" s="19"/>
-      <c r="Z156" s="9"/>
+      <c r="Y156" s="19">
+        <v>19.931797859908954</v>
+      </c>
+      <c r="Z156" s="19"/>
       <c r="AA156" s="9"/>
       <c r="AB156" s="9"/>
       <c r="AC156" s="9"/>
@@ -15979,7 +16199,7 @@
       <c r="CI156" s="9"/>
       <c r="CJ156" s="9"/>
     </row>
-    <row r="157" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>3</v>
       </c>
@@ -16052,8 +16272,10 @@
       <c r="X157" s="19">
         <v>-2.9642052737586511</v>
       </c>
-      <c r="Y157" s="19"/>
-      <c r="Z157" s="9"/>
+      <c r="Y157" s="19">
+        <v>-3.8717501531747729</v>
+      </c>
+      <c r="Z157" s="19"/>
       <c r="AA157" s="9"/>
       <c r="AB157" s="9"/>
       <c r="AC157" s="9"/>
@@ -16117,7 +16339,7 @@
       <c r="CI157" s="9"/>
       <c r="CJ157" s="9"/>
     </row>
-    <row r="158" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>2</v>
       </c>
@@ -16190,8 +16412,10 @@
       <c r="X158" s="19">
         <v>-7.4209262227289798</v>
       </c>
-      <c r="Y158" s="19"/>
-      <c r="Z158" s="9"/>
+      <c r="Y158" s="19">
+        <v>3.5297259984291145</v>
+      </c>
+      <c r="Z158" s="19"/>
       <c r="AA158" s="9"/>
       <c r="AB158" s="9"/>
       <c r="AC158" s="9"/>
@@ -16255,7 +16479,7 @@
       <c r="CI158" s="9"/>
       <c r="CJ158" s="9"/>
     </row>
-    <row r="159" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -16344,7 +16568,7 @@
       <c r="CI159" s="9"/>
       <c r="CJ159" s="9"/>
     </row>
-    <row r="160" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
         <v>1</v>
       </c>
@@ -16417,8 +16641,10 @@
       <c r="X160" s="20">
         <v>8.8654674469421053</v>
       </c>
-      <c r="Y160" s="20"/>
-      <c r="Z160" s="9"/>
+      <c r="Y160" s="20">
+        <v>-0.81116174275386754</v>
+      </c>
+      <c r="Z160" s="20"/>
       <c r="AA160" s="9"/>
       <c r="AB160" s="9"/>
       <c r="AC160" s="9"/>
@@ -16482,7 +16708,7 @@
       <c r="CI160" s="9"/>
       <c r="CJ160" s="9"/>
     </row>
-    <row r="161" spans="1:94" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -16508,13 +16734,14 @@
       <c r="W161" s="14"/>
       <c r="X161" s="14"/>
       <c r="Y161" s="14"/>
+      <c r="Z161" s="14"/>
     </row>
-    <row r="162" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
         <v>0</v>
       </c>
@@ -16606,7 +16833,7 @@
       <c r="CI163" s="9"/>
       <c r="CJ163" s="9"/>
     </row>
-    <row r="164" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -16701,32 +16928,32 @@
       <c r="CO164" s="9"/>
       <c r="CP164" s="9"/>
     </row>
-    <row r="165" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="169" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="170" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="5" t="s">
         <v>26</v>
@@ -16754,8 +16981,9 @@
       <c r="W172" s="5"/>
       <c r="X172" s="5"/>
       <c r="Y172" s="5"/>
+      <c r="Z172" s="5"/>
     </row>
-    <row r="173" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>59</v>
       </c>
@@ -16831,11 +17059,14 @@
       <c r="Y173" s="16">
         <v>2023</v>
       </c>
+      <c r="Z173" s="16">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="174" spans="1:94" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
     </row>
-    <row r="175" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>25</v>
       </c>
@@ -16911,7 +17142,9 @@
       <c r="Y175" s="17">
         <v>116.81000752712107</v>
       </c>
-      <c r="Z175" s="9"/>
+      <c r="Z175" s="17">
+        <v>118.40463435357087</v>
+      </c>
       <c r="AA175" s="9"/>
       <c r="AB175" s="9"/>
       <c r="AC175" s="9"/>
@@ -16981,7 +17214,7 @@
       <c r="CO175" s="9"/>
       <c r="CP175" s="9"/>
     </row>
-    <row r="176" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>24</v>
       </c>
@@ -17057,7 +17290,9 @@
       <c r="Y176" s="17">
         <v>117.84179963638495</v>
       </c>
-      <c r="Z176" s="9"/>
+      <c r="Z176" s="17">
+        <v>127.94570113918755</v>
+      </c>
       <c r="AA176" s="9"/>
       <c r="AB176" s="9"/>
       <c r="AC176" s="9"/>
@@ -17127,7 +17362,7 @@
       <c r="CO176" s="9"/>
       <c r="CP176" s="9"/>
     </row>
-    <row r="177" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>23</v>
       </c>
@@ -17203,7 +17438,9 @@
       <c r="Y177" s="17">
         <v>131.66640603757583</v>
       </c>
-      <c r="Z177" s="9"/>
+      <c r="Z177" s="17">
+        <v>129.6081204188045</v>
+      </c>
       <c r="AA177" s="9"/>
       <c r="AB177" s="9"/>
       <c r="AC177" s="9"/>
@@ -17273,7 +17510,7 @@
       <c r="CO177" s="9"/>
       <c r="CP177" s="9"/>
     </row>
-    <row r="178" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>22</v>
       </c>
@@ -17349,7 +17586,9 @@
       <c r="Y178" s="17">
         <v>116.91527327792714</v>
       </c>
-      <c r="Z178" s="9"/>
+      <c r="Z178" s="17">
+        <v>116.3143056313926</v>
+      </c>
       <c r="AA178" s="9"/>
       <c r="AB178" s="9"/>
       <c r="AC178" s="9"/>
@@ -17419,7 +17658,7 @@
       <c r="CO178" s="9"/>
       <c r="CP178" s="9"/>
     </row>
-    <row r="179" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>21</v>
       </c>
@@ -17495,7 +17734,9 @@
       <c r="Y179" s="17">
         <v>125.55795298333506</v>
       </c>
-      <c r="Z179" s="9"/>
+      <c r="Z179" s="17">
+        <v>134.9871471429536</v>
+      </c>
       <c r="AA179" s="9"/>
       <c r="AB179" s="9"/>
       <c r="AC179" s="9"/>
@@ -17565,7 +17806,7 @@
       <c r="CO179" s="9"/>
       <c r="CP179" s="9"/>
     </row>
-    <row r="180" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>20</v>
       </c>
@@ -17641,7 +17882,9 @@
       <c r="Y180" s="17">
         <v>125.01242544389477</v>
       </c>
-      <c r="Z180" s="9"/>
+      <c r="Z180" s="17">
+        <v>127.08366292084989</v>
+      </c>
       <c r="AA180" s="9"/>
       <c r="AB180" s="9"/>
       <c r="AC180" s="9"/>
@@ -17711,7 +17954,7 @@
       <c r="CO180" s="9"/>
       <c r="CP180" s="9"/>
     </row>
-    <row r="181" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>19</v>
       </c>
@@ -17787,7 +18030,9 @@
       <c r="Y181" s="17">
         <v>110.85226645276578</v>
       </c>
-      <c r="Z181" s="9"/>
+      <c r="Z181" s="17">
+        <v>113.18215688040351</v>
+      </c>
       <c r="AA181" s="9"/>
       <c r="AB181" s="9"/>
       <c r="AC181" s="9"/>
@@ -17857,7 +18102,7 @@
       <c r="CO181" s="9"/>
       <c r="CP181" s="9"/>
     </row>
-    <row r="182" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>18</v>
       </c>
@@ -17933,7 +18178,9 @@
       <c r="Y182" s="17">
         <v>123.71236608086014</v>
       </c>
-      <c r="Z182" s="9"/>
+      <c r="Z182" s="17">
+        <v>119.73165798120841</v>
+      </c>
       <c r="AA182" s="9"/>
       <c r="AB182" s="9"/>
       <c r="AC182" s="9"/>
@@ -18003,7 +18250,7 @@
       <c r="CO182" s="9"/>
       <c r="CP182" s="9"/>
     </row>
-    <row r="183" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>17</v>
       </c>
@@ -18079,7 +18326,9 @@
       <c r="Y183" s="17">
         <v>113.49749220183718</v>
       </c>
-      <c r="Z183" s="9"/>
+      <c r="Z183" s="17">
+        <v>115.21969478641594</v>
+      </c>
       <c r="AA183" s="9"/>
       <c r="AB183" s="9"/>
       <c r="AC183" s="9"/>
@@ -18149,7 +18398,7 @@
       <c r="CO183" s="9"/>
       <c r="CP183" s="9"/>
     </row>
-    <row r="184" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>16</v>
       </c>
@@ -18225,7 +18474,9 @@
       <c r="Y184" s="17">
         <v>116.40095571438242</v>
       </c>
-      <c r="Z184" s="9"/>
+      <c r="Z184" s="17">
+        <v>119.83550636889579</v>
+      </c>
       <c r="AA184" s="9"/>
       <c r="AB184" s="9"/>
       <c r="AC184" s="9"/>
@@ -18295,7 +18546,7 @@
       <c r="CO184" s="9"/>
       <c r="CP184" s="9"/>
     </row>
-    <row r="185" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>15</v>
       </c>
@@ -18371,7 +18622,9 @@
       <c r="Y185" s="17">
         <v>121.55236468909236</v>
       </c>
-      <c r="Z185" s="9"/>
+      <c r="Z185" s="17">
+        <v>125.02574312453318</v>
+      </c>
       <c r="AA185" s="9"/>
       <c r="AB185" s="9"/>
       <c r="AC185" s="9"/>
@@ -18441,7 +18694,7 @@
       <c r="CO185" s="9"/>
       <c r="CP185" s="9"/>
     </row>
-    <row r="186" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>14</v>
       </c>
@@ -18517,7 +18770,9 @@
       <c r="Y186" s="17">
         <v>123.30802656968163</v>
       </c>
-      <c r="Z186" s="9"/>
+      <c r="Z186" s="17">
+        <v>127.04882127271647</v>
+      </c>
       <c r="AA186" s="9"/>
       <c r="AB186" s="9"/>
       <c r="AC186" s="9"/>
@@ -18587,7 +18842,7 @@
       <c r="CO186" s="9"/>
       <c r="CP186" s="9"/>
     </row>
-    <row r="187" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
         <v>13</v>
       </c>
@@ -18663,7 +18918,9 @@
       <c r="Y187" s="17">
         <v>121.62790024266388</v>
       </c>
-      <c r="Z187" s="9"/>
+      <c r="Z187" s="17">
+        <v>126.93401412518807</v>
+      </c>
       <c r="AA187" s="9"/>
       <c r="AB187" s="9"/>
       <c r="AC187" s="9"/>
@@ -18733,7 +18990,7 @@
       <c r="CO187" s="9"/>
       <c r="CP187" s="9"/>
     </row>
-    <row r="188" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>12</v>
       </c>
@@ -18809,7 +19066,9 @@
       <c r="Y188" s="17">
         <v>106.39269059203542</v>
       </c>
-      <c r="Z188" s="9"/>
+      <c r="Z188" s="17">
+        <v>108.57113042117921</v>
+      </c>
       <c r="AA188" s="9"/>
       <c r="AB188" s="9"/>
       <c r="AC188" s="9"/>
@@ -18879,7 +19138,7 @@
       <c r="CO188" s="9"/>
       <c r="CP188" s="9"/>
     </row>
-    <row r="189" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>11</v>
       </c>
@@ -18955,7 +19214,9 @@
       <c r="Y189" s="17">
         <v>108.40260131509982</v>
       </c>
-      <c r="Z189" s="9"/>
+      <c r="Z189" s="17">
+        <v>112.89313333464568</v>
+      </c>
       <c r="AA189" s="9"/>
       <c r="AB189" s="9"/>
       <c r="AC189" s="9"/>
@@ -19025,7 +19286,7 @@
       <c r="CO189" s="9"/>
       <c r="CP189" s="9"/>
     </row>
-    <row r="190" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>10</v>
       </c>
@@ -19101,7 +19362,9 @@
       <c r="Y190" s="17">
         <v>106.51054849173323</v>
       </c>
-      <c r="Z190" s="9"/>
+      <c r="Z190" s="17">
+        <v>110.18532851032032</v>
+      </c>
       <c r="AA190" s="9"/>
       <c r="AB190" s="9"/>
       <c r="AC190" s="9"/>
@@ -19171,7 +19434,7 @@
       <c r="CO190" s="9"/>
       <c r="CP190" s="9"/>
     </row>
-    <row r="191" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>9</v>
       </c>
@@ -19247,7 +19510,9 @@
       <c r="Y191" s="17">
         <v>137.27497328159745</v>
       </c>
-      <c r="Z191" s="9"/>
+      <c r="Z191" s="17">
+        <v>126.37891089499529</v>
+      </c>
       <c r="AA191" s="9"/>
       <c r="AB191" s="9"/>
       <c r="AC191" s="9"/>
@@ -19317,7 +19582,7 @@
       <c r="CO191" s="9"/>
       <c r="CP191" s="9"/>
     </row>
-    <row r="192" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>8</v>
       </c>
@@ -19393,7 +19658,9 @@
       <c r="Y192" s="17">
         <v>126.72825807148482</v>
       </c>
-      <c r="Z192" s="9"/>
+      <c r="Z192" s="17">
+        <v>137.56271204962846</v>
+      </c>
       <c r="AA192" s="9"/>
       <c r="AB192" s="9"/>
       <c r="AC192" s="9"/>
@@ -19463,7 +19730,7 @@
       <c r="CO192" s="9"/>
       <c r="CP192" s="9"/>
     </row>
-    <row r="193" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>7</v>
       </c>
@@ -19539,7 +19806,9 @@
       <c r="Y193" s="17">
         <v>120.14737337425461</v>
       </c>
-      <c r="Z193" s="9"/>
+      <c r="Z193" s="17">
+        <v>127.75066824396382</v>
+      </c>
       <c r="AA193" s="9"/>
       <c r="AB193" s="9"/>
       <c r="AC193" s="9"/>
@@ -19609,7 +19878,7 @@
       <c r="CO193" s="9"/>
       <c r="CP193" s="9"/>
     </row>
-    <row r="194" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>6</v>
       </c>
@@ -19685,7 +19954,9 @@
       <c r="Y194" s="17">
         <v>115.68035021063037</v>
       </c>
-      <c r="Z194" s="9"/>
+      <c r="Z194" s="17">
+        <v>119.04091395359005</v>
+      </c>
       <c r="AA194" s="9"/>
       <c r="AB194" s="9"/>
       <c r="AC194" s="9"/>
@@ -19755,7 +20026,7 @@
       <c r="CO194" s="9"/>
       <c r="CP194" s="9"/>
     </row>
-    <row r="195" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>5</v>
       </c>
@@ -19831,7 +20102,9 @@
       <c r="Y195" s="17">
         <v>118.92982474788624</v>
       </c>
-      <c r="Z195" s="9"/>
+      <c r="Z195" s="17">
+        <v>117.95992771775157</v>
+      </c>
       <c r="AA195" s="9"/>
       <c r="AB195" s="9"/>
       <c r="AC195" s="9"/>
@@ -19901,7 +20174,7 @@
       <c r="CO195" s="9"/>
       <c r="CP195" s="9"/>
     </row>
-    <row r="196" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
         <v>4</v>
       </c>
@@ -19977,7 +20250,9 @@
       <c r="Y196" s="17">
         <v>103.4851224924336</v>
       </c>
-      <c r="Z196" s="9"/>
+      <c r="Z196" s="17">
+        <v>106.30023389722891</v>
+      </c>
       <c r="AA196" s="9"/>
       <c r="AB196" s="9"/>
       <c r="AC196" s="9"/>
@@ -20047,7 +20322,7 @@
       <c r="CO196" s="9"/>
       <c r="CP196" s="9"/>
     </row>
-    <row r="197" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="10" t="s">
         <v>3</v>
       </c>
@@ -20123,7 +20398,9 @@
       <c r="Y197" s="17">
         <v>118.16642313569989</v>
       </c>
-      <c r="Z197" s="9"/>
+      <c r="Z197" s="17">
+        <v>123.20409514626813</v>
+      </c>
       <c r="AA197" s="9"/>
       <c r="AB197" s="9"/>
       <c r="AC197" s="9"/>
@@ -20193,7 +20470,7 @@
       <c r="CO197" s="9"/>
       <c r="CP197" s="9"/>
     </row>
-    <row r="198" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
         <v>2</v>
       </c>
@@ -20269,7 +20546,9 @@
       <c r="Y198" s="17">
         <v>119.22600356010975</v>
       </c>
-      <c r="Z198" s="9"/>
+      <c r="Z198" s="17">
+        <v>123.35501547176477</v>
+      </c>
       <c r="AA198" s="9"/>
       <c r="AB198" s="9"/>
       <c r="AC198" s="9"/>
@@ -20339,7 +20618,7 @@
       <c r="CO198" s="9"/>
       <c r="CP198" s="9"/>
     </row>
-    <row r="199" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -20434,7 +20713,7 @@
       <c r="CO199" s="9"/>
       <c r="CP199" s="9"/>
     </row>
-    <row r="200" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
         <v>1</v>
       </c>
@@ -20510,7 +20789,9 @@
       <c r="Y200" s="20">
         <v>112.07198294033091</v>
       </c>
-      <c r="Z200" s="9"/>
+      <c r="Z200" s="20">
+        <v>115.88109541601793</v>
+      </c>
       <c r="AA200" s="9"/>
       <c r="AB200" s="9"/>
       <c r="AC200" s="9"/>
@@ -20580,7 +20861,7 @@
       <c r="CO200" s="9"/>
       <c r="CP200" s="9"/>
     </row>
-    <row r="201" spans="1:94" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -20606,13 +20887,14 @@
       <c r="W201" s="14"/>
       <c r="X201" s="14"/>
       <c r="Y201" s="14"/>
+      <c r="Z201" s="14"/>
     </row>
-    <row r="202" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
@@ -20707,7 +20989,7 @@
       <c r="CO203" s="9"/>
       <c r="CP203" s="9"/>
     </row>
-    <row r="204" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
@@ -20802,37 +21084,37 @@
       <c r="CO204" s="9"/>
       <c r="CP204" s="9"/>
     </row>
-    <row r="205" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="210" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="211" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="5" t="s">
         <v>26</v>
@@ -20860,8 +21142,9 @@
       <c r="W213" s="5"/>
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
+      <c r="Z213" s="5"/>
     </row>
-    <row r="214" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>59</v>
       </c>
@@ -20937,11 +21220,14 @@
       <c r="Y214" s="16">
         <v>2023</v>
       </c>
+      <c r="Z214" s="16">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="215" spans="1:94" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7"/>
     </row>
-    <row r="216" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>25</v>
       </c>
@@ -21017,7 +21303,9 @@
       <c r="Y216" s="20">
         <v>14.205753007364397</v>
       </c>
-      <c r="Z216" s="9"/>
+      <c r="Z216" s="20">
+        <v>14.145721133060734</v>
+      </c>
       <c r="AA216" s="9"/>
       <c r="AB216" s="9"/>
       <c r="AC216" s="9"/>
@@ -21087,7 +21375,7 @@
       <c r="CO216" s="9"/>
       <c r="CP216" s="9"/>
     </row>
-    <row r="217" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="10" t="s">
         <v>24</v>
       </c>
@@ -21163,7 +21451,9 @@
       <c r="Y217" s="20">
         <v>1.0182057879245037</v>
       </c>
-      <c r="Z217" s="9"/>
+      <c r="Z217" s="20">
+        <v>0.93392188820044342</v>
+      </c>
       <c r="AA217" s="9"/>
       <c r="AB217" s="9"/>
       <c r="AC217" s="9"/>
@@ -21233,7 +21523,7 @@
       <c r="CO217" s="9"/>
       <c r="CP217" s="9"/>
     </row>
-    <row r="218" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10" t="s">
         <v>23</v>
       </c>
@@ -21309,7 +21599,9 @@
       <c r="Y218" s="20">
         <v>2.9102159649526258</v>
       </c>
-      <c r="Z218" s="9"/>
+      <c r="Z218" s="20">
+        <v>2.7148969611483706</v>
+      </c>
       <c r="AA218" s="9"/>
       <c r="AB218" s="9"/>
       <c r="AC218" s="9"/>
@@ -21379,7 +21671,7 @@
       <c r="CO218" s="9"/>
       <c r="CP218" s="9"/>
     </row>
-    <row r="219" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="10" t="s">
         <v>22</v>
       </c>
@@ -21455,7 +21747,9 @@
       <c r="Y219" s="20">
         <v>0.22853651103005285</v>
       </c>
-      <c r="Z219" s="9"/>
+      <c r="Z219" s="20">
+        <v>0.22515054045571214</v>
+      </c>
       <c r="AA219" s="9"/>
       <c r="AB219" s="9"/>
       <c r="AC219" s="9"/>
@@ -21525,7 +21819,7 @@
       <c r="CO219" s="9"/>
       <c r="CP219" s="9"/>
     </row>
-    <row r="220" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="10" t="s">
         <v>21</v>
       </c>
@@ -21601,7 +21895,9 @@
       <c r="Y220" s="20">
         <v>0.13772567010707593</v>
       </c>
-      <c r="Z220" s="9"/>
+      <c r="Z220" s="20">
+        <v>0.20215237239038791</v>
+      </c>
       <c r="AA220" s="9"/>
       <c r="AB220" s="9"/>
       <c r="AC220" s="9"/>
@@ -21671,7 +21967,7 @@
       <c r="CO220" s="9"/>
       <c r="CP220" s="9"/>
     </row>
-    <row r="221" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="10" t="s">
         <v>20</v>
       </c>
@@ -21747,7 +22043,9 @@
       <c r="Y221" s="20">
         <v>0.86365129724211631</v>
       </c>
-      <c r="Z221" s="9"/>
+      <c r="Z221" s="20">
+        <v>0.69192281046900517</v>
+      </c>
       <c r="AA221" s="9"/>
       <c r="AB221" s="9"/>
       <c r="AC221" s="9"/>
@@ -21817,7 +22115,7 @@
       <c r="CO221" s="9"/>
       <c r="CP221" s="9"/>
     </row>
-    <row r="222" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="10" t="s">
         <v>19</v>
       </c>
@@ -21893,7 +22191,9 @@
       <c r="Y222" s="20">
         <v>6.7136685357236257</v>
       </c>
-      <c r="Z222" s="9"/>
+      <c r="Z222" s="20">
+        <v>6.8135450529729535</v>
+      </c>
       <c r="AA222" s="9"/>
       <c r="AB222" s="9"/>
       <c r="AC222" s="9"/>
@@ -21963,7 +22263,7 @@
       <c r="CO222" s="9"/>
       <c r="CP222" s="9"/>
     </row>
-    <row r="223" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="10" t="s">
         <v>18</v>
       </c>
@@ -22039,7 +22339,9 @@
       <c r="Y223" s="20">
         <v>0.29635617654338597</v>
       </c>
-      <c r="Z223" s="9"/>
+      <c r="Z223" s="20">
+        <v>0.33328745017265032</v>
+      </c>
       <c r="AA223" s="9"/>
       <c r="AB223" s="9"/>
       <c r="AC223" s="9"/>
@@ -22109,7 +22411,7 @@
       <c r="CO223" s="9"/>
       <c r="CP223" s="9"/>
     </row>
-    <row r="224" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="10" t="s">
         <v>17</v>
       </c>
@@ -22185,7 +22487,9 @@
       <c r="Y224" s="20">
         <v>2.0373930638410096</v>
       </c>
-      <c r="Z224" s="9"/>
+      <c r="Z224" s="20">
+        <v>2.2308440572512125</v>
+      </c>
       <c r="AA224" s="9"/>
       <c r="AB224" s="9"/>
       <c r="AC224" s="9"/>
@@ -22255,7 +22559,7 @@
       <c r="CO224" s="9"/>
       <c r="CP224" s="9"/>
     </row>
-    <row r="225" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>16</v>
       </c>
@@ -22331,7 +22635,9 @@
       <c r="Y225" s="20">
         <v>16.8913993635297</v>
       </c>
-      <c r="Z225" s="9"/>
+      <c r="Z225" s="20">
+        <v>17.23786929128843</v>
+      </c>
       <c r="AA225" s="9"/>
       <c r="AB225" s="9"/>
       <c r="AC225" s="9"/>
@@ -22401,7 +22707,7 @@
       <c r="CO225" s="9"/>
       <c r="CP225" s="9"/>
     </row>
-    <row r="226" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="10" t="s">
         <v>15</v>
       </c>
@@ -22477,7 +22783,9 @@
       <c r="Y226" s="20">
         <v>2.8750358885275542</v>
       </c>
-      <c r="Z226" s="9"/>
+      <c r="Z226" s="20">
+        <v>3.3244845834099701</v>
+      </c>
       <c r="AA226" s="9"/>
       <c r="AB226" s="9"/>
       <c r="AC226" s="9"/>
@@ -22547,7 +22855,7 @@
       <c r="CO226" s="9"/>
       <c r="CP226" s="9"/>
     </row>
-    <row r="227" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
         <v>14</v>
       </c>
@@ -22623,7 +22931,9 @@
       <c r="Y227" s="20">
         <v>1.809427998127761</v>
       </c>
-      <c r="Z227" s="9"/>
+      <c r="Z227" s="20">
+        <v>1.9015554863383264</v>
+      </c>
       <c r="AA227" s="9"/>
       <c r="AB227" s="9"/>
       <c r="AC227" s="9"/>
@@ -22693,7 +23003,7 @@
       <c r="CO227" s="9"/>
       <c r="CP227" s="9"/>
     </row>
-    <row r="228" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
         <v>13</v>
       </c>
@@ -22769,7 +23079,9 @@
       <c r="Y228" s="20">
         <v>6.7503604979771756</v>
       </c>
-      <c r="Z228" s="9"/>
+      <c r="Z228" s="20">
+        <v>6.2644390888076673</v>
+      </c>
       <c r="AA228" s="9"/>
       <c r="AB228" s="9"/>
       <c r="AC228" s="9"/>
@@ -22839,7 +23151,7 @@
       <c r="CO228" s="9"/>
       <c r="CP228" s="9"/>
     </row>
-    <row r="229" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
         <v>12</v>
       </c>
@@ -22915,7 +23227,9 @@
       <c r="Y229" s="20">
         <v>5.4565749788972138</v>
       </c>
-      <c r="Z229" s="9"/>
+      <c r="Z229" s="20">
+        <v>5.7473901327324652</v>
+      </c>
       <c r="AA229" s="9"/>
       <c r="AB229" s="9"/>
       <c r="AC229" s="9"/>
@@ -22985,7 +23299,7 @@
       <c r="CO229" s="9"/>
       <c r="CP229" s="9"/>
     </row>
-    <row r="230" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>11</v>
       </c>
@@ -23061,7 +23375,9 @@
       <c r="Y230" s="20">
         <v>51.561371978793758</v>
       </c>
-      <c r="Z230" s="9"/>
+      <c r="Z230" s="20">
+        <v>50.775437486305805</v>
+      </c>
       <c r="AA230" s="9"/>
       <c r="AB230" s="9"/>
       <c r="AC230" s="9"/>
@@ -23131,7 +23447,7 @@
       <c r="CO230" s="9"/>
       <c r="CP230" s="9"/>
     </row>
-    <row r="231" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="10" t="s">
         <v>10</v>
       </c>
@@ -23207,7 +23523,9 @@
       <c r="Y231" s="20">
         <v>45.35844436799961</v>
       </c>
-      <c r="Z231" s="9"/>
+      <c r="Z231" s="20">
+        <v>44.166234576272323</v>
+      </c>
       <c r="AA231" s="9"/>
       <c r="AB231" s="9"/>
       <c r="AC231" s="9"/>
@@ -23277,7 +23595,7 @@
       <c r="CO231" s="9"/>
       <c r="CP231" s="9"/>
     </row>
-    <row r="232" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
         <v>9</v>
       </c>
@@ -23353,7 +23671,9 @@
       <c r="Y232" s="20">
         <v>8.2943577857265791E-2</v>
       </c>
-      <c r="Z232" s="9"/>
+      <c r="Z232" s="20">
+        <v>0.75001384823091766</v>
+      </c>
       <c r="AA232" s="9"/>
       <c r="AB232" s="9"/>
       <c r="AC232" s="9"/>
@@ -23423,7 +23743,7 @@
       <c r="CO232" s="9"/>
       <c r="CP232" s="9"/>
     </row>
-    <row r="233" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
         <v>8</v>
       </c>
@@ -23499,7 +23819,9 @@
       <c r="Y233" s="20">
         <v>4.056420351519832</v>
       </c>
-      <c r="Z233" s="9"/>
+      <c r="Z233" s="20">
+        <v>5.1389901600423222</v>
+      </c>
       <c r="AA233" s="9"/>
       <c r="AB233" s="9"/>
       <c r="AC233" s="9"/>
@@ -23569,7 +23891,7 @@
       <c r="CO233" s="9"/>
       <c r="CP233" s="9"/>
     </row>
-    <row r="234" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
         <v>7</v>
       </c>
@@ -23645,7 +23967,9 @@
       <c r="Y234" s="20">
         <v>2.0635636814170586</v>
       </c>
-      <c r="Z234" s="9"/>
+      <c r="Z234" s="20">
+        <v>0.72019890176023693</v>
+      </c>
       <c r="AA234" s="9"/>
       <c r="AB234" s="9"/>
       <c r="AC234" s="9"/>
@@ -23715,7 +24039,7 @@
       <c r="CO234" s="9"/>
       <c r="CP234" s="9"/>
     </row>
-    <row r="235" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>6</v>
       </c>
@@ -23791,7 +24115,9 @@
       <c r="Y235" s="20">
         <v>17.341475650312134</v>
       </c>
-      <c r="Z235" s="9"/>
+      <c r="Z235" s="20">
+        <v>17.840972089345026</v>
+      </c>
       <c r="AA235" s="9"/>
       <c r="AB235" s="9"/>
       <c r="AC235" s="9"/>
@@ -23861,7 +24187,7 @@
       <c r="CO235" s="9"/>
       <c r="CP235" s="9"/>
     </row>
-    <row r="236" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
         <v>5</v>
       </c>
@@ -23937,7 +24263,9 @@
       <c r="Y236" s="20">
         <v>1.6131141404399614</v>
       </c>
-      <c r="Z236" s="9"/>
+      <c r="Z236" s="20">
+        <v>1.5759773944656041</v>
+      </c>
       <c r="AA236" s="9"/>
       <c r="AB236" s="9"/>
       <c r="AC236" s="9"/>
@@ -24007,7 +24335,7 @@
       <c r="CO236" s="9"/>
       <c r="CP236" s="9"/>
     </row>
-    <row r="237" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="10" t="s">
         <v>4</v>
       </c>
@@ -24083,7 +24411,9 @@
       <c r="Y237" s="20">
         <v>2.923590292976384</v>
       </c>
-      <c r="Z237" s="9"/>
+      <c r="Z237" s="20">
+        <v>3.5117922657907821</v>
+      </c>
       <c r="AA237" s="9"/>
       <c r="AB237" s="9"/>
       <c r="AC237" s="9"/>
@@ -24153,7 +24483,7 @@
       <c r="CO237" s="9"/>
       <c r="CP237" s="9"/>
     </row>
-    <row r="238" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="10" t="s">
         <v>3</v>
       </c>
@@ -24229,7 +24559,9 @@
       <c r="Y238" s="20">
         <v>9.2346890189882878</v>
       </c>
-      <c r="Z238" s="9"/>
+      <c r="Z238" s="20">
+        <v>9.0245597520786358</v>
+      </c>
       <c r="AA238" s="9"/>
       <c r="AB238" s="9"/>
       <c r="AC238" s="9"/>
@@ -24299,7 +24631,7 @@
       <c r="CO238" s="9"/>
       <c r="CP238" s="9"/>
     </row>
-    <row r="239" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="10" t="s">
         <v>2</v>
       </c>
@@ -24375,7 +24707,9 @@
       <c r="Y239" s="20">
         <v>3.5700821979075017</v>
       </c>
-      <c r="Z239" s="9"/>
+      <c r="Z239" s="20">
+        <v>3.7286426770100016</v>
+      </c>
       <c r="AA239" s="9"/>
       <c r="AB239" s="9"/>
       <c r="AC239" s="9"/>
@@ -24445,7 +24779,7 @@
       <c r="CO239" s="9"/>
       <c r="CP239" s="9"/>
     </row>
-    <row r="240" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
@@ -24540,7 +24874,7 @@
       <c r="CO240" s="9"/>
       <c r="CP240" s="9"/>
     </row>
-    <row r="241" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="12" t="s">
         <v>1</v>
       </c>
@@ -24616,7 +24950,9 @@
       <c r="Y241" s="20">
         <v>100</v>
       </c>
-      <c r="Z241" s="9"/>
+      <c r="Z241" s="20">
+        <v>100</v>
+      </c>
       <c r="AA241" s="9"/>
       <c r="AB241" s="9"/>
       <c r="AC241" s="9"/>
@@ -24686,7 +25022,7 @@
       <c r="CO241" s="9"/>
       <c r="CP241" s="9"/>
     </row>
-    <row r="242" spans="1:94" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" s="14"/>
@@ -24712,13 +25048,14 @@
       <c r="W242" s="14"/>
       <c r="X242" s="14"/>
       <c r="Y242" s="14"/>
+      <c r="Z242" s="14"/>
     </row>
-    <row r="243" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -24813,7 +25150,7 @@
       <c r="CO244" s="9"/>
       <c r="CP244" s="9"/>
     </row>
-    <row r="245" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -24908,37 +25245,37 @@
       <c r="CO245" s="9"/>
       <c r="CP245" s="9"/>
     </row>
-    <row r="246" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="250" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="251" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="252" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="5" t="s">
         <v>26</v>
@@ -24966,8 +25303,9 @@
       <c r="W254" s="5"/>
       <c r="X254" s="5"/>
       <c r="Y254" s="5"/>
+      <c r="Z254" s="5"/>
     </row>
-    <row r="255" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>59</v>
       </c>
@@ -25043,11 +25381,14 @@
       <c r="Y255" s="16">
         <v>2023</v>
       </c>
+      <c r="Z255" s="16">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="256" spans="1:94" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="7"/>
     </row>
-    <row r="257" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>25</v>
       </c>
@@ -25123,7 +25464,9 @@
       <c r="Y257" s="20">
         <v>13.629542043529524</v>
       </c>
-      <c r="Z257" s="9"/>
+      <c r="Z257" s="20">
+        <v>13.844235652581585</v>
+      </c>
       <c r="AA257" s="9"/>
       <c r="AB257" s="9"/>
       <c r="AC257" s="9"/>
@@ -25193,7 +25536,7 @@
       <c r="CO257" s="9"/>
       <c r="CP257" s="9"/>
     </row>
-    <row r="258" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
         <v>24</v>
       </c>
@@ -25269,7 +25612,9 @@
       <c r="Y258" s="20">
         <v>0.96835199433586849</v>
       </c>
-      <c r="Z258" s="9"/>
+      <c r="Z258" s="20">
+        <v>0.84585797314073352</v>
+      </c>
       <c r="AA258" s="9"/>
       <c r="AB258" s="9"/>
       <c r="AC258" s="9"/>
@@ -25339,7 +25684,7 @@
       <c r="CO258" s="9"/>
       <c r="CP258" s="9"/>
     </row>
-    <row r="259" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
         <v>23</v>
       </c>
@@ -25415,7 +25760,9 @@
       <c r="Y259" s="20">
         <v>2.477121414582923</v>
       </c>
-      <c r="Z259" s="9"/>
+      <c r="Z259" s="20">
+        <v>2.4273574277823275</v>
+      </c>
       <c r="AA259" s="9"/>
       <c r="AB259" s="9"/>
       <c r="AC259" s="9"/>
@@ -25485,7 +25832,7 @@
       <c r="CO259" s="9"/>
       <c r="CP259" s="9"/>
     </row>
-    <row r="260" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
         <v>22</v>
       </c>
@@ -25561,7 +25908,9 @@
       <c r="Y260" s="20">
         <v>0.21906923917902102</v>
       </c>
-      <c r="Z260" s="9"/>
+      <c r="Z260" s="20">
+        <v>0.22431197194435767</v>
+      </c>
       <c r="AA260" s="9"/>
       <c r="AB260" s="9"/>
       <c r="AC260" s="9"/>
@@ -25631,7 +25980,7 @@
       <c r="CO260" s="9"/>
       <c r="CP260" s="9"/>
     </row>
-    <row r="261" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
         <v>21</v>
       </c>
@@ -25707,7 +26056,9 @@
       <c r="Y261" s="20">
         <v>0.12293278588839789</v>
       </c>
-      <c r="Z261" s="9"/>
+      <c r="Z261" s="20">
+        <v>0.17353976915103472</v>
+      </c>
       <c r="AA261" s="9"/>
       <c r="AB261" s="9"/>
       <c r="AC261" s="9"/>
@@ -25777,7 +26128,7 @@
       <c r="CO261" s="9"/>
       <c r="CP261" s="9"/>
     </row>
-    <row r="262" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="10" t="s">
         <v>20</v>
       </c>
@@ -25853,7 +26204,9 @@
       <c r="Y262" s="20">
         <v>0.77425194421455901</v>
       </c>
-      <c r="Z262" s="9"/>
+      <c r="Z262" s="20">
+        <v>0.63092903822276636</v>
+      </c>
       <c r="AA262" s="9"/>
       <c r="AB262" s="9"/>
       <c r="AC262" s="9"/>
@@ -25923,7 +26276,7 @@
       <c r="CO262" s="9"/>
       <c r="CP262" s="9"/>
     </row>
-    <row r="263" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
         <v>19</v>
       </c>
@@ -25999,7 +26352,9 @@
       <c r="Y263" s="20">
         <v>6.7875395756861563</v>
       </c>
-      <c r="Z263" s="9"/>
+      <c r="Z263" s="20">
+        <v>6.9760206570299177</v>
+      </c>
       <c r="AA263" s="9"/>
       <c r="AB263" s="9"/>
       <c r="AC263" s="9"/>
@@ -26069,7 +26424,7 @@
       <c r="CO263" s="9"/>
       <c r="CP263" s="9"/>
     </row>
-    <row r="264" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="10" t="s">
         <v>18</v>
       </c>
@@ -26145,7 +26500,9 @@
       <c r="Y264" s="20">
         <v>0.26847133729641398</v>
       </c>
-      <c r="Z264" s="9"/>
+      <c r="Z264" s="20">
+        <v>0.32256894680669829</v>
+      </c>
       <c r="AA264" s="9"/>
       <c r="AB264" s="9"/>
       <c r="AC264" s="9"/>
@@ -26215,7 +26572,7 @@
       <c r="CO264" s="9"/>
       <c r="CP264" s="9"/>
     </row>
-    <row r="265" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="10" t="s">
         <v>17</v>
       </c>
@@ -26291,7 +26648,9 @@
       <c r="Y265" s="20">
         <v>2.0118037523461871</v>
       </c>
-      <c r="Z265" s="9"/>
+      <c r="Z265" s="20">
+        <v>2.2436498685037494</v>
+      </c>
       <c r="AA265" s="9"/>
       <c r="AB265" s="9"/>
       <c r="AC265" s="9"/>
@@ -26361,7 +26720,7 @@
       <c r="CO265" s="9"/>
       <c r="CP265" s="9"/>
     </row>
-    <row r="266" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>16</v>
       </c>
@@ -26437,7 +26796,9 @@
       <c r="Y266" s="20">
         <v>16.263205140281446</v>
       </c>
-      <c r="Z266" s="9"/>
+      <c r="Z266" s="20">
+        <v>16.669042728984678</v>
+      </c>
       <c r="AA266" s="9"/>
       <c r="AB266" s="9"/>
       <c r="AC266" s="9"/>
@@ -26507,7 +26868,7 @@
       <c r="CO266" s="9"/>
       <c r="CP266" s="9"/>
     </row>
-    <row r="267" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="10" t="s">
         <v>15</v>
       </c>
@@ -26583,7 +26944,9 @@
       <c r="Y267" s="20">
         <v>2.6507997098703351</v>
       </c>
-      <c r="Z267" s="9"/>
+      <c r="Z267" s="20">
+        <v>3.0813247383419604</v>
+      </c>
       <c r="AA267" s="9"/>
       <c r="AB267" s="9"/>
       <c r="AC267" s="9"/>
@@ -26653,7 +27016,7 @@
       <c r="CO267" s="9"/>
       <c r="CP267" s="9"/>
     </row>
-    <row r="268" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="10" t="s">
         <v>14</v>
       </c>
@@ -26729,7 +27092,9 @@
       <c r="Y268" s="20">
         <v>1.6445497456999414</v>
       </c>
-      <c r="Z268" s="9"/>
+      <c r="Z268" s="20">
+        <v>1.7344067465074917</v>
+      </c>
       <c r="AA268" s="9"/>
       <c r="AB268" s="9"/>
       <c r="AC268" s="9"/>
@@ -26799,7 +27164,7 @@
       <c r="CO268" s="9"/>
       <c r="CP268" s="9"/>
     </row>
-    <row r="269" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="10" t="s">
         <v>13</v>
       </c>
@@ -26875,7 +27240,9 @@
       <c r="Y269" s="20">
         <v>6.2200061421845714</v>
       </c>
-      <c r="Z269" s="9"/>
+      <c r="Z269" s="20">
+        <v>5.7189561740481052</v>
+      </c>
       <c r="AA269" s="9"/>
       <c r="AB269" s="9"/>
       <c r="AC269" s="9"/>
@@ -26945,7 +27312,7 @@
       <c r="CO269" s="9"/>
       <c r="CP269" s="9"/>
     </row>
-    <row r="270" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="10" t="s">
         <v>12</v>
       </c>
@@ -27021,7 +27388,9 @@
       <c r="Y270" s="20">
         <v>5.7478495425266019</v>
       </c>
-      <c r="Z270" s="9"/>
+      <c r="Z270" s="20">
+        <v>6.1343550700871203</v>
+      </c>
       <c r="AA270" s="9"/>
       <c r="AB270" s="9"/>
       <c r="AC270" s="9"/>
@@ -27091,7 +27460,7 @@
       <c r="CO270" s="9"/>
       <c r="CP270" s="9"/>
     </row>
-    <row r="271" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>11</v>
       </c>
@@ -27167,7 +27536,9 @@
       <c r="Y271" s="20">
         <v>53.306702336325849</v>
       </c>
-      <c r="Z271" s="9"/>
+      <c r="Z271" s="20">
+        <v>52.119319770310128</v>
+      </c>
       <c r="AA271" s="9"/>
       <c r="AB271" s="9"/>
       <c r="AC271" s="9"/>
@@ -27237,7 +27608,7 @@
       <c r="CO271" s="9"/>
       <c r="CP271" s="9"/>
     </row>
-    <row r="272" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="10" t="s">
         <v>10</v>
       </c>
@@ -27313,7 +27684,9 @@
       <c r="Y272" s="20">
         <v>47.726829646407715</v>
       </c>
-      <c r="Z272" s="9"/>
+      <c r="Z272" s="20">
+        <v>46.449302391650725</v>
+      </c>
       <c r="AA272" s="9"/>
       <c r="AB272" s="9"/>
       <c r="AC272" s="9"/>
@@ -27383,7 +27756,7 @@
       <c r="CO272" s="9"/>
       <c r="CP272" s="9"/>
     </row>
-    <row r="273" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="10" t="s">
         <v>9</v>
       </c>
@@ -27459,7 +27832,9 @@
       <c r="Y273" s="20">
         <v>6.7715556742895672E-2</v>
       </c>
-      <c r="Z273" s="9"/>
+      <c r="Z273" s="20">
+        <v>0.68771305033950525</v>
+      </c>
       <c r="AA273" s="9"/>
       <c r="AB273" s="9"/>
       <c r="AC273" s="9"/>
@@ -27529,7 +27904,7 @@
       <c r="CO273" s="9"/>
       <c r="CP273" s="9"/>
     </row>
-    <row r="274" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="10" t="s">
         <v>8</v>
       </c>
@@ -27605,7 +27980,9 @@
       <c r="Y274" s="20">
         <v>3.5872904698011783</v>
       </c>
-      <c r="Z274" s="9"/>
+      <c r="Z274" s="20">
+        <v>4.3290205623672122</v>
+      </c>
       <c r="AA274" s="9"/>
       <c r="AB274" s="9"/>
       <c r="AC274" s="9"/>
@@ -27675,7 +28052,7 @@
       <c r="CO274" s="9"/>
       <c r="CP274" s="9"/>
     </row>
-    <row r="275" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="10" t="s">
         <v>7</v>
       </c>
@@ -27751,7 +28128,9 @@
       <c r="Y275" s="20">
         <v>1.9248666633740616</v>
       </c>
-      <c r="Z275" s="9"/>
+      <c r="Z275" s="20">
+        <v>0.65328376595268944</v>
+      </c>
       <c r="AA275" s="9"/>
       <c r="AB275" s="9"/>
       <c r="AC275" s="9"/>
@@ -27821,7 +28200,7 @@
       <c r="CO275" s="9"/>
       <c r="CP275" s="9"/>
     </row>
-    <row r="276" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>6</v>
       </c>
@@ -27897,7 +28276,9 @@
       <c r="Y276" s="20">
         <v>16.800550479863169</v>
       </c>
-      <c r="Z276" s="9"/>
+      <c r="Z276" s="20">
+        <v>17.36740184812361</v>
+      </c>
       <c r="AA276" s="9"/>
       <c r="AB276" s="9"/>
       <c r="AC276" s="9"/>
@@ -27967,7 +28348,7 @@
       <c r="CO276" s="9"/>
       <c r="CP276" s="9"/>
     </row>
-    <row r="277" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="10" t="s">
         <v>5</v>
       </c>
@@ -28043,7 +28424,9 @@
       <c r="Y277" s="20">
         <v>1.5200972574493514</v>
       </c>
-      <c r="Z277" s="9"/>
+      <c r="Z277" s="20">
+        <v>1.5482036175754026</v>
+      </c>
       <c r="AA277" s="9"/>
       <c r="AB277" s="9"/>
       <c r="AC277" s="9"/>
@@ -28113,7 +28496,7 @@
       <c r="CO277" s="9"/>
       <c r="CP277" s="9"/>
     </row>
-    <row r="278" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="10" t="s">
         <v>4</v>
       </c>
@@ -28189,7 +28572,9 @@
       <c r="Y278" s="20">
         <v>3.1661803508318114</v>
       </c>
-      <c r="Z278" s="9"/>
+      <c r="Z278" s="20">
+        <v>3.8283108109317525</v>
+      </c>
       <c r="AA278" s="9"/>
       <c r="AB278" s="9"/>
       <c r="AC278" s="9"/>
@@ -28259,7 +28644,7 @@
       <c r="CO278" s="9"/>
       <c r="CP278" s="9"/>
     </row>
-    <row r="279" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="10" t="s">
         <v>3</v>
       </c>
@@ -28335,7 +28720,9 @@
       <c r="Y279" s="20">
         <v>8.7584093918693071</v>
       </c>
-      <c r="Z279" s="9"/>
+      <c r="Z279" s="20">
+        <v>8.4881583560727609</v>
+      </c>
       <c r="AA279" s="9"/>
       <c r="AB279" s="9"/>
       <c r="AC279" s="9"/>
@@ -28405,7 +28792,7 @@
       <c r="CO279" s="9"/>
       <c r="CP279" s="9"/>
     </row>
-    <row r="280" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="10" t="s">
         <v>2</v>
       </c>
@@ -28481,7 +28868,9 @@
       <c r="Y280" s="20">
         <v>3.3558634797126992</v>
       </c>
-      <c r="Z280" s="9"/>
+      <c r="Z280" s="20">
+        <v>3.5027290635436943</v>
+      </c>
       <c r="AA280" s="9"/>
       <c r="AB280" s="9"/>
       <c r="AC280" s="9"/>
@@ -28551,7 +28940,7 @@
       <c r="CO280" s="9"/>
       <c r="CP280" s="9"/>
     </row>
-    <row r="281" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
@@ -28646,7 +29035,7 @@
       <c r="CO281" s="9"/>
       <c r="CP281" s="9"/>
     </row>
-    <row r="282" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="12" t="s">
         <v>1</v>
       </c>
@@ -28722,7 +29111,9 @@
       <c r="Y282" s="20">
         <v>100</v>
       </c>
-      <c r="Z282" s="9"/>
+      <c r="Z282" s="20">
+        <v>100</v>
+      </c>
       <c r="AA282" s="9"/>
       <c r="AB282" s="9"/>
       <c r="AC282" s="9"/>
@@ -28792,7 +29183,7 @@
       <c r="CO282" s="9"/>
       <c r="CP282" s="9"/>
     </row>
-    <row r="283" spans="1:94" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:94" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" s="14"/>
@@ -28818,13 +29209,14 @@
       <c r="W283" s="14"/>
       <c r="X283" s="14"/>
       <c r="Y283" s="14"/>
+      <c r="Z283" s="14"/>
     </row>
-    <row r="284" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
       <c r="D285" s="9"/>
@@ -28913,7 +29305,7 @@
       <c r="CI285" s="9"/>
       <c r="CJ285" s="9"/>
     </row>
-    <row r="286" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>
@@ -29007,12 +29399,12 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="41" max="24" man="1"/>
-    <brk id="82" max="24" man="1"/>
-    <brk id="123" max="24" man="1"/>
-    <brk id="164" max="24" man="1"/>
-    <brk id="204" max="24" man="1"/>
-    <brk id="245" max="24" man="1"/>
+    <brk id="41" max="25" man="1"/>
+    <brk id="82" max="25" man="1"/>
+    <brk id="123" max="25" man="1"/>
+    <brk id="164" max="25" man="1"/>
+    <brk id="204" max="25" man="1"/>
+    <brk id="245" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A04EE6E-38DA-4324-ABF9-55D97535162B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CE3CCB-72CE-4897-9463-12CB0060E951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -697,10 +697,10 @@
   <dimension ref="A1:CP286"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -927,10 +927,10 @@
         <v>209197.68130840597</v>
       </c>
       <c r="Y12" s="8">
-        <v>210537.56756763221</v>
+        <v>210523.32919050124</v>
       </c>
       <c r="Z12" s="8">
-        <v>215015.00729722553</v>
+        <v>215954.55702907965</v>
       </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -1075,10 +1075,10 @@
         <v>10757.575764634381</v>
       </c>
       <c r="Y13" s="11">
-        <v>15090.405257769698</v>
+        <v>15090.171384782709</v>
       </c>
       <c r="Z13" s="11">
-        <v>14195.615742568225</v>
+        <v>14205.728076599577</v>
       </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -1223,10 +1223,10 @@
         <v>41521.831825543377</v>
       </c>
       <c r="Y14" s="11">
-        <v>43131.102592025985</v>
+        <v>43130.188759093107</v>
       </c>
       <c r="Z14" s="11">
-        <v>41266.442652275495</v>
+        <v>41326.850915300281</v>
       </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -1371,10 +1371,10 @@
         <v>3005.9705528855138</v>
       </c>
       <c r="Y15" s="11">
-        <v>3387.0447492446992</v>
+        <v>3385.5228856434037</v>
       </c>
       <c r="Z15" s="11">
-        <v>3422.2889482753785</v>
+        <v>3486.8644421907211</v>
       </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -1519,10 +1519,10 @@
         <v>1975.4021570315726</v>
       </c>
       <c r="Y16" s="11">
-        <v>2041.1749775554947</v>
+        <v>2040.7346634402234</v>
       </c>
       <c r="Z16" s="11">
-        <v>3072.716718774021</v>
+        <v>3088.5241726416871</v>
       </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -1667,10 +1667,10 @@
         <v>12493.282340473934</v>
       </c>
       <c r="Y17" s="11">
-        <v>12799.817317232137</v>
+        <v>12799.183406381009</v>
       </c>
       <c r="Z17" s="11">
-        <v>10517.228972823636</v>
+        <v>10547.421493688655</v>
       </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -1818,7 +1818,7 @@
         <v>99500.494076860137</v>
       </c>
       <c r="Z18" s="11">
-        <v>103565.90699791117</v>
+        <v>104012.32739671794</v>
       </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
@@ -1963,10 +1963,10 @@
         <v>3148.7476422661903</v>
       </c>
       <c r="Y19" s="11">
-        <v>4392.1718553562469</v>
+        <v>4391.9136997573205</v>
       </c>
       <c r="Z19" s="11">
-        <v>5065.9703281907205</v>
+        <v>5062.020651701283</v>
       </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -2111,10 +2111,10 @@
         <v>36486.103353131672</v>
       </c>
       <c r="Y20" s="11">
-        <v>30195.356741587806</v>
+        <v>30185.120314543332</v>
       </c>
       <c r="Z20" s="11">
-        <v>33908.836936406908</v>
+        <v>34224.819880239505</v>
       </c>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
@@ -2259,10 +2259,10 @@
         <v>225510.93280867892</v>
       </c>
       <c r="Y21" s="8">
-        <v>250340.41722162766</v>
+        <v>250336.73743927098</v>
       </c>
       <c r="Z21" s="8">
-        <v>262015.6693738696</v>
+        <v>263522.77394919586</v>
       </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
@@ -2407,10 +2407,10 @@
         <v>40746.191532799974</v>
       </c>
       <c r="Y22" s="11">
-        <v>42609.713284923557</v>
+        <v>42616.738227949878</v>
       </c>
       <c r="Z22" s="11">
-        <v>50532.1764961687</v>
+        <v>51072.773765695834</v>
       </c>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
@@ -2555,10 +2555,10 @@
         <v>23859.054476532838</v>
       </c>
       <c r="Y23" s="11">
-        <v>26816.781146138437</v>
+        <v>26818.019033281351</v>
       </c>
       <c r="Z23" s="11">
-        <v>28903.649585989548</v>
+        <v>29027.793876810487</v>
       </c>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
@@ -2703,10 +2703,10 @@
         <v>73741.257929054089</v>
       </c>
       <c r="Y24" s="11">
-        <v>100044.29041614191</v>
+        <v>100013.36470742949</v>
       </c>
       <c r="Z24" s="11">
-        <v>95219.494554079618</v>
+        <v>95048.061801988821</v>
       </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
@@ -2851,10 +2851,10 @@
         <v>87164.428870292002</v>
       </c>
       <c r="Y25" s="11">
-        <v>80869.63237442376</v>
+        <v>80888.615470610268</v>
       </c>
       <c r="Z25" s="11">
-        <v>87360.34873763175</v>
+        <v>88374.1445047007</v>
       </c>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
@@ -2999,10 +2999,10 @@
         <v>633489.48771007173</v>
       </c>
       <c r="Y26" s="8">
-        <v>764169.68753697618</v>
+        <v>764173.11633817758</v>
       </c>
       <c r="Z26" s="8">
-        <v>771786.81517494516</v>
+        <v>772713.25271270145</v>
       </c>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
@@ -3147,10 +3147,10 @@
         <v>560126.15859481401</v>
       </c>
       <c r="Y27" s="11">
-        <v>672238.67266591021</v>
+        <v>672228.79121549509</v>
       </c>
       <c r="Z27" s="11">
-        <v>671326.9094152865</v>
+        <v>672125.52533686941</v>
       </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
@@ -3298,7 +3298,7 @@
         <v>1229.2723320173461</v>
       </c>
       <c r="Z28" s="11">
-        <v>11400.212936015792</v>
+        <v>11399.459981060427</v>
       </c>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
@@ -3446,7 +3446,7 @@
         <v>60118.521939533122</v>
       </c>
       <c r="Z29" s="11">
-        <v>78112.667171093024</v>
+        <v>78126.653710682673</v>
       </c>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
@@ -3591,10 +3591,10 @@
         <v>32630.217925841043</v>
       </c>
       <c r="Y30" s="11">
-        <v>30583.220599515487</v>
+        <v>30596.530851132033</v>
       </c>
       <c r="Z30" s="11">
-        <v>10947.025652549763</v>
+        <v>11061.613684088932</v>
       </c>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
@@ -3739,10 +3739,10 @@
         <v>245478.47021998322</v>
       </c>
       <c r="Y31" s="8">
-        <v>257010.81101137761</v>
+        <v>257576.9573706488</v>
       </c>
       <c r="Z31" s="8">
-        <v>271182.8338687247</v>
+        <v>272365.88177931251</v>
       </c>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
@@ -3890,7 +3890,7 @@
         <v>23907.294964309072</v>
       </c>
       <c r="Z32" s="11">
-        <v>23954.86152906825</v>
+        <v>23999.448871735796</v>
       </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
@@ -4035,10 +4035,10 @@
         <v>37508.333861987216</v>
       </c>
       <c r="Y33" s="11">
-        <v>43329.317955091494</v>
+        <v>43063.1457463478</v>
       </c>
       <c r="Z33" s="11">
-        <v>53379.253878445816</v>
+        <v>53524.104869696173</v>
       </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -4183,10 +4183,10 @@
         <v>131714.20346066554</v>
       </c>
       <c r="Y34" s="11">
-        <v>136863.49201576298</v>
+        <v>136790.40963171292</v>
       </c>
       <c r="Z34" s="11">
-        <v>137173.33762591885</v>
+        <v>136773.02919710852</v>
       </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
@@ -4331,10 +4331,10 @@
         <v>53443.507403799333</v>
       </c>
       <c r="Y35" s="11">
-        <v>52910.706076214068</v>
+        <v>53816.107028279032</v>
       </c>
       <c r="Z35" s="11">
-        <v>56675.380835291762</v>
+        <v>58069.298840772011</v>
       </c>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
@@ -4574,10 +4574,10 @@
         <v>1313676.57204714</v>
       </c>
       <c r="Y37" s="13">
-        <v>1482058.4833376138</v>
+        <v>1482610.1403385985</v>
       </c>
       <c r="Z37" s="13">
-        <v>1520000.3257147651</v>
+        <v>1524556.4654702893</v>
       </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -5088,10 +5088,10 @@
         <v>185737.07065117144</v>
       </c>
       <c r="Y53" s="8">
-        <v>180239.32368872536</v>
+        <v>180224.17004580481</v>
       </c>
       <c r="Z53" s="8">
-        <v>181593.40508173365</v>
+        <v>182596.42988215672</v>
       </c>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
@@ -5236,10 +5236,10 @@
         <v>9387.1026211380267</v>
       </c>
       <c r="Y54" s="11">
-        <v>12805.647320673106</v>
+        <v>12805.398413954244</v>
       </c>
       <c r="Z54" s="11">
-        <v>11095.03142049714</v>
+        <v>11105.87878576653</v>
       </c>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
@@ -5384,10 +5384,10 @@
         <v>36698.546590302925</v>
       </c>
       <c r="Y55" s="11">
-        <v>32757.864279911271</v>
+        <v>32756.891704327238</v>
       </c>
       <c r="Z55" s="11">
-        <v>31839.395956773908</v>
+        <v>31905.214688160326</v>
       </c>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
@@ -5532,10 +5532,10 @@
         <v>2676.4795215991462</v>
       </c>
       <c r="Y56" s="11">
-        <v>2897.0079394102154</v>
+        <v>2895.3882479681561</v>
       </c>
       <c r="Z56" s="11">
-        <v>2942.2769019666666</v>
+        <v>3011.4892298247769</v>
       </c>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
@@ -5680,10 +5680,10 @@
         <v>1710.6805321339848</v>
       </c>
       <c r="Y57" s="11">
-        <v>1625.6835421858254</v>
+        <v>1625.2149239708183</v>
       </c>
       <c r="Z57" s="11">
-        <v>2276.3031768646561</v>
+        <v>2293.2225647191194</v>
       </c>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
@@ -5828,10 +5828,10 @@
         <v>10535.670889285499</v>
       </c>
       <c r="Y58" s="11">
-        <v>10238.836077119917</v>
+        <v>10238.1614174594</v>
       </c>
       <c r="Z58" s="11">
-        <v>8275.8308433193051</v>
+        <v>8308.5214859054868</v>
       </c>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
@@ -5979,7 +5979,7 @@
         <v>89759.548686591239</v>
       </c>
       <c r="Z59" s="11">
-        <v>91503.740388466365</v>
+        <v>91948.240515305821</v>
       </c>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
@@ -6124,10 +6124,10 @@
         <v>2887.136936665147</v>
       </c>
       <c r="Y60" s="11">
-        <v>3550.3094755179623</v>
+        <v>3550.0347252617994</v>
       </c>
       <c r="Z60" s="11">
-        <v>4231.1034638690226</v>
+        <v>4225.407975211192</v>
       </c>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
@@ -6272,10 +6272,10 @@
         <v>31250.655280610437</v>
       </c>
       <c r="Y61" s="11">
-        <v>26604.426367315835</v>
+        <v>26593.531926271913</v>
       </c>
       <c r="Z61" s="11">
-        <v>29429.7229299766</v>
+        <v>29798.454637263458</v>
       </c>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
@@ -6420,10 +6420,10 @@
         <v>203817.20109231723</v>
       </c>
       <c r="Y62" s="8">
-        <v>215067.32112741217</v>
+        <v>215072.54256610075</v>
       </c>
       <c r="Z62" s="8">
-        <v>218646.1069119976</v>
+        <v>220610.25141162949</v>
       </c>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
@@ -6568,10 +6568,10 @@
         <v>35170.647716245097</v>
       </c>
       <c r="Y63" s="11">
-        <v>35054.614851723396</v>
+        <v>35061.98716418304</v>
       </c>
       <c r="Z63" s="11">
-        <v>40417.417432052855</v>
+        <v>40976.996909762172</v>
       </c>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
@@ -6716,10 +6716,10 @@
         <v>20631.488205538968</v>
       </c>
       <c r="Y64" s="11">
-        <v>21747.798494678056</v>
+        <v>21749.097518746974</v>
       </c>
       <c r="Z64" s="11">
-        <v>22750.033645685275</v>
+        <v>22874.992103278953</v>
       </c>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
@@ -6864,10 +6864,10 @@
         <v>62750.129214180153</v>
       </c>
       <c r="Y65" s="11">
-        <v>82254.392467961879</v>
+        <v>82223.235300435015</v>
       </c>
       <c r="Z65" s="11">
-        <v>75014.955770775385</v>
+        <v>74826.896892775942</v>
       </c>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
@@ -7012,10 +7012,10 @@
         <v>85264.935956353002</v>
       </c>
       <c r="Y66" s="11">
-        <v>76010.515313048847</v>
+        <v>76038.222582735732</v>
       </c>
       <c r="Z66" s="11">
-        <v>80463.700063484066</v>
+        <v>81931.365505812428</v>
       </c>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
@@ -7160,10 +7160,10 @@
         <v>603381.46102559008</v>
       </c>
       <c r="Y67" s="8">
-        <v>704936.66966138757</v>
+        <v>704939.52107477409</v>
       </c>
       <c r="Z67" s="8">
-        <v>683643.71895601565</v>
+        <v>684679.19099006441</v>
       </c>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
@@ -7308,10 +7308,10 @@
         <v>536861.12979317608</v>
       </c>
       <c r="Y68" s="11">
-        <v>631147.50809689588</v>
+        <v>631134.3694199177</v>
       </c>
       <c r="Z68" s="11">
-        <v>609270.68829531851</v>
+        <v>610159.92901837616</v>
       </c>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
@@ -7459,7 +7459,7 @@
         <v>895.48174924477485</v>
       </c>
       <c r="Z69" s="11">
-        <v>9020.6608486188888</v>
+        <v>9020.1486802020863</v>
       </c>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
@@ -7607,7 +7607,7 @@
         <v>47438.923926202391</v>
       </c>
       <c r="Z70" s="11">
-        <v>56783.314320607707</v>
+        <v>56799.460445523328</v>
       </c>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
@@ -7752,10 +7752,10 @@
         <v>29832.908430189382</v>
       </c>
       <c r="Y71" s="11">
-        <v>25454.755889044605</v>
+        <v>25470.745979409323</v>
       </c>
       <c r="Z71" s="11">
-        <v>8569.0554914705954</v>
+        <v>8699.6528459627825</v>
       </c>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
@@ -7900,10 +7900,10 @@
         <v>221789.75408840791</v>
       </c>
       <c r="Y72" s="8">
-        <v>222173.2649870209</v>
+        <v>222611.90377261001</v>
       </c>
       <c r="Z72" s="8">
-        <v>227806.41114234854</v>
+        <v>228763.31405664555</v>
       </c>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
@@ -8051,7 +8051,7 @@
         <v>20102.018156496088</v>
       </c>
       <c r="Z73" s="11">
-        <v>20307.626490231673</v>
+        <v>20332.578488787141</v>
       </c>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
@@ -8196,10 +8196,10 @@
         <v>36095.19950144038</v>
       </c>
       <c r="Y74" s="11">
-        <v>41870.093895148602</v>
+        <v>41603.888785075804</v>
       </c>
       <c r="Z74" s="11">
-        <v>50215.556374083695</v>
+        <v>50359.957655373306</v>
       </c>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
@@ -8344,10 +8344,10 @@
         <v>119360.75571104462</v>
       </c>
       <c r="Y75" s="11">
-        <v>115822.65789545965</v>
+        <v>115763.6181716791</v>
       </c>
       <c r="Z75" s="11">
-        <v>111338.2939609811</v>
+        <v>110995.91117142486</v>
       </c>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
@@ -8492,10 +8492,10 @@
         <v>47935.773419685996</v>
       </c>
       <c r="Y76" s="11">
-        <v>44378.495039916575</v>
+        <v>45142.378659358998</v>
       </c>
       <c r="Z76" s="11">
-        <v>45944.934317052088</v>
+        <v>47074.866741060236</v>
       </c>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
@@ -8735,10 +8735,10 @@
         <v>1214725.4868574867</v>
       </c>
       <c r="Y78" s="13">
-        <v>1322416.5794645462</v>
+        <v>1322848.1374592895</v>
       </c>
       <c r="Z78" s="13">
-        <v>1311689.6420920955</v>
+        <v>1316649.1863404962</v>
       </c>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
@@ -9246,10 +9246,10 @@
         <v>1.8796674490261722</v>
       </c>
       <c r="X94" s="19">
-        <v>0.64048810237574116</v>
+        <v>0.63368191932345042</v>
       </c>
       <c r="Y94" s="19">
-        <v>2.1266702096551171</v>
+        <v>2.5798698222483978</v>
       </c>
       <c r="Z94" s="19"/>
       <c r="AA94" s="9"/>
@@ -9386,10 +9386,10 @@
         <v>-40.334215436732002</v>
       </c>
       <c r="X95" s="19">
-        <v>40.277006529477859</v>
+        <v>40.274832498896018</v>
       </c>
       <c r="Y95" s="19">
-        <v>-5.9295260791009383</v>
+        <v>-5.8610554223063787</v>
       </c>
       <c r="Z95" s="19"/>
       <c r="AA95" s="9"/>
@@ -9526,10 +9526,10 @@
         <v>13.514362062319506</v>
       </c>
       <c r="X96" s="19">
-        <v>3.8757219894441732</v>
+        <v>3.873521140173537</v>
       </c>
       <c r="Y96" s="19">
-        <v>-4.3232373570139799</v>
+        <v>-4.181149899124037</v>
       </c>
       <c r="Z96" s="19"/>
       <c r="AA96" s="9"/>
@@ -9666,10 +9666,10 @@
         <v>29.020923967103272</v>
       </c>
       <c r="X97" s="19">
-        <v>12.677243161726309</v>
+        <v>12.626615134121892</v>
       </c>
       <c r="Y97" s="19">
-        <v>1.0405590017238211</v>
+        <v>2.9933797516792851</v>
       </c>
       <c r="Z97" s="19"/>
       <c r="AA97" s="9"/>
@@ -9806,10 +9806,10 @@
         <v>13.389127902430232</v>
       </c>
       <c r="X98" s="19">
-        <v>3.3295914095162544</v>
+        <v>3.3073015626765141</v>
       </c>
       <c r="Y98" s="19">
-        <v>50.536664056792318</v>
+        <v>51.343740466245833</v>
       </c>
       <c r="Z98" s="19"/>
       <c r="AA98" s="9"/>
@@ -9946,10 +9946,10 @@
         <v>0.86428800439890097</v>
       </c>
       <c r="X99" s="19">
-        <v>2.4535984091637459</v>
+        <v>2.4485243955150366</v>
       </c>
       <c r="Y99" s="19">
-        <v>-17.832975954551316</v>
+        <v>-17.593012313346051</v>
       </c>
       <c r="Z99" s="19"/>
       <c r="AA99" s="9"/>
@@ -10089,7 +10089,7 @@
         <v>-0.30886424386173417</v>
       </c>
       <c r="Y100" s="19">
-        <v>4.0858218431665989</v>
+        <v>4.5344833326883816</v>
       </c>
       <c r="Z100" s="19"/>
       <c r="AA100" s="9"/>
@@ -10226,10 +10226,10 @@
         <v>-30.100784403480148</v>
       </c>
       <c r="X101" s="19">
-        <v>39.489484530273444</v>
+        <v>39.481285854855258</v>
       </c>
       <c r="Y101" s="19">
-        <v>15.340895006482441</v>
+        <v>15.257744066805998</v>
       </c>
       <c r="Z101" s="19"/>
       <c r="AA101" s="9"/>
@@ -10366,10 +10366,10 @@
         <v>8.2471080206547072</v>
       </c>
       <c r="X102" s="19">
-        <v>-17.241486575474269</v>
+        <v>-17.269542262718815</v>
       </c>
       <c r="Y102" s="19">
-        <v>12.298182884869036</v>
+        <v>13.383082537358064</v>
       </c>
       <c r="Z102" s="19"/>
       <c r="AA102" s="9"/>
@@ -10506,10 +10506,10 @@
         <v>23.946826368807422</v>
       </c>
       <c r="X103" s="19">
-        <v>11.010324024518042</v>
+        <v>11.00869227109888</v>
       </c>
       <c r="Y103" s="19">
-        <v>4.6637503771138142</v>
+        <v>5.2673197888598651</v>
       </c>
       <c r="Z103" s="19"/>
       <c r="AA103" s="9"/>
@@ -10646,10 +10646,10 @@
         <v>26.028426111671379</v>
       </c>
       <c r="X104" s="19">
-        <v>4.5734869493839057</v>
+        <v>4.5907276846822498</v>
       </c>
       <c r="Y104" s="19">
-        <v>18.593092045161256</v>
+        <v>19.842052417329597</v>
       </c>
       <c r="Z104" s="19"/>
       <c r="AA104" s="9"/>
@@ -10786,10 +10786,10 @@
         <v>16.867768693389777</v>
       </c>
       <c r="X105" s="19">
-        <v>12.396663382091461</v>
+        <v>12.401851714865202</v>
       </c>
       <c r="Y105" s="19">
-        <v>7.7819497742055148</v>
+        <v>8.239888415273299</v>
       </c>
       <c r="Z105" s="19"/>
       <c r="AA105" s="9"/>
@@ -10926,10 +10926,10 @@
         <v>39.575594302446177</v>
       </c>
       <c r="X106" s="19">
-        <v>35.669356918746587</v>
+        <v>35.627418783188659</v>
       </c>
       <c r="Y106" s="19">
-        <v>-4.8226598859297098</v>
+        <v>-4.9646393959104813</v>
       </c>
       <c r="Z106" s="19"/>
       <c r="AA106" s="9"/>
@@ -11066,10 +11066,10 @@
         <v>14.145133395570909</v>
       </c>
       <c r="X107" s="19">
-        <v>-7.221749258789302</v>
+        <v>-7.1999707690630004</v>
       </c>
       <c r="Y107" s="19">
-        <v>8.0261479774709272</v>
+        <v>9.2541193721014992</v>
       </c>
       <c r="Z107" s="19"/>
       <c r="AA107" s="9"/>
@@ -11206,10 +11206,10 @@
         <v>35.945642422591959</v>
       </c>
       <c r="X108" s="19">
-        <v>20.628629576677795</v>
+        <v>20.629170832889287</v>
       </c>
       <c r="Y108" s="19">
-        <v>0.99678484532932998</v>
+        <v>1.1175656656762669</v>
       </c>
       <c r="Z108" s="19"/>
       <c r="AA108" s="9"/>
@@ -11346,10 +11346,10 @@
         <v>33.846316744223572</v>
       </c>
       <c r="X109" s="19">
-        <v>20.015582623806097</v>
+        <v>20.013818476521863</v>
       </c>
       <c r="Y109" s="19">
-        <v>-0.13563088344916707</v>
+        <v>-1.5361716126278679E-2</v>
       </c>
       <c r="Z109" s="19"/>
       <c r="AA109" s="9"/>
@@ -11489,7 +11489,7 @@
         <v>-52.959402187682279</v>
       </c>
       <c r="Y110" s="19">
-        <v>827.3952271671991</v>
+        <v>827.33397508043572</v>
       </c>
       <c r="Z110" s="19"/>
       <c r="AA110" s="9"/>
@@ -11629,7 +11629,7 @@
         <v>57.70904226584446</v>
       </c>
       <c r="Y111" s="19">
-        <v>29.93111715164639</v>
+        <v>29.954382094193932</v>
       </c>
       <c r="Z111" s="19"/>
       <c r="AA111" s="9"/>
@@ -11766,10 +11766,10 @@
         <v>189.90226969942057</v>
       </c>
       <c r="X112" s="19">
-        <v>-6.2733179746999639</v>
+        <v>-6.2325267925914147</v>
       </c>
       <c r="Y112" s="19">
-        <v>-64.205778731088941</v>
+        <v>-63.846836957073954</v>
       </c>
       <c r="Z112" s="19"/>
       <c r="AA112" s="9"/>
@@ -11906,10 +11906,10 @@
         <v>12.635353176074531</v>
       </c>
       <c r="X113" s="19">
-        <v>4.6979031525900439</v>
+        <v>4.9285328932609218</v>
       </c>
       <c r="Y113" s="19">
-        <v>5.5141738207735216</v>
+        <v>5.7415556731585724</v>
       </c>
       <c r="Z113" s="19"/>
       <c r="AA113" s="9"/>
@@ -12049,7 +12049,7 @@
         <v>4.7994434922687503</v>
       </c>
       <c r="Y114" s="19">
-        <v>0.1989625544428435</v>
+        <v>0.38546354811073513</v>
       </c>
       <c r="Z114" s="19"/>
       <c r="AA114" s="9"/>
@@ -12186,10 +12186,10 @@
         <v>6.8034592490465684</v>
       </c>
       <c r="X115" s="19">
-        <v>15.519175323869945</v>
+        <v>14.809540473857481</v>
       </c>
       <c r="Y115" s="19">
-        <v>23.194309067524529</v>
+        <v>24.292138769810066</v>
       </c>
       <c r="Z115" s="19"/>
       <c r="AA115" s="9"/>
@@ -12326,10 +12326,10 @@
         <v>17.089339504104629</v>
       </c>
       <c r="X116" s="19">
-        <v>3.9094406068630292</v>
+        <v>3.8539550311772643</v>
       </c>
       <c r="Y116" s="19">
-        <v>0.22639025615404762</v>
+        <v>-1.2705886802436339E-2</v>
       </c>
       <c r="Z116" s="19"/>
       <c r="AA116" s="9"/>
@@ -12466,10 +12466,10 @@
         <v>4.6202178760565289</v>
       </c>
       <c r="X117" s="19">
-        <v>-0.99694304035776327</v>
+        <v>0.69718407825382656</v>
       </c>
       <c r="Y117" s="19">
-        <v>7.1151474592967077</v>
+        <v>7.9031948748318683</v>
       </c>
       <c r="Z117" s="19"/>
       <c r="AA117" s="9"/>
@@ -12695,10 +12695,10 @@
         <v>22.635071296655937</v>
       </c>
       <c r="X119" s="20">
-        <v>12.817607839963173</v>
+        <v>12.859601205204157</v>
       </c>
       <c r="Y119" s="20">
-        <v>2.5600772711550377</v>
+        <v>2.8292215188890424</v>
       </c>
       <c r="Z119" s="20"/>
       <c r="AA119" s="9"/>
@@ -13190,10 +13190,10 @@
         <v>-9.5077066890642641</v>
       </c>
       <c r="X135" s="19">
-        <v>-2.9599621352762995</v>
+        <v>-2.9681207881867948</v>
       </c>
       <c r="Y135" s="19">
-        <v>0.75126857186104701</v>
+        <v>1.3162828469394583</v>
       </c>
       <c r="Z135" s="19"/>
       <c r="AA135" s="9"/>
@@ -13330,10 +13330,10 @@
         <v>-49.141268979431807</v>
       </c>
       <c r="X136" s="19">
-        <v>36.417463806533306</v>
+        <v>36.414812224581908</v>
       </c>
       <c r="Y136" s="19">
-        <v>-13.358293082259038</v>
+        <v>-13.271899657067451</v>
       </c>
       <c r="Z136" s="19"/>
       <c r="AA136" s="9"/>
@@ -13470,10 +13470,10 @@
         <v>-1.4607730847410068</v>
       </c>
       <c r="X137" s="19">
-        <v>-10.737979229490591</v>
+        <v>-10.740629404155243</v>
       </c>
       <c r="Y137" s="19">
-        <v>-2.8038101485773979</v>
+        <v>-2.5999933811009441</v>
       </c>
       <c r="Z137" s="19"/>
       <c r="AA137" s="9"/>
@@ -13610,10 +13610,10 @@
         <v>21.103014476569541</v>
       </c>
       <c r="X138" s="19">
-        <v>8.2394958015336215</v>
+        <v>8.1789800595304314</v>
       </c>
       <c r="Y138" s="19">
-        <v>1.5626109249002411</v>
+        <v>4.0098588483977977</v>
       </c>
       <c r="Z138" s="19"/>
       <c r="AA138" s="9"/>
@@ -13750,10 +13750,10 @@
         <v>4.186969160046857</v>
       </c>
       <c r="X139" s="19">
-        <v>-4.9686068410523205</v>
+        <v>-4.9960005131146659</v>
       </c>
       <c r="Y139" s="19">
-        <v>40.021296752751454</v>
+        <v>41.102726223814557</v>
       </c>
       <c r="Z139" s="19"/>
       <c r="AA139" s="9"/>
@@ -13890,10 +13890,10 @@
         <v>-11.510543508231592</v>
       </c>
       <c r="X140" s="19">
-        <v>-2.8174267712505667</v>
+        <v>-2.8238303469469486</v>
       </c>
       <c r="Y140" s="19">
-        <v>-19.172152176429663</v>
+        <v>-18.847524012106788</v>
       </c>
       <c r="Z140" s="19"/>
       <c r="AA140" s="9"/>
@@ -14033,7 +14033,7 @@
         <v>-0.91758722589129604</v>
       </c>
       <c r="Y141" s="19">
-        <v>1.9431823437139144</v>
+        <v>2.4383944223658176</v>
       </c>
       <c r="Z141" s="19"/>
       <c r="AA141" s="9"/>
@@ -14170,10 +14170,10 @@
         <v>-43.015102047340449</v>
       </c>
       <c r="X142" s="19">
-        <v>22.969902481273635</v>
+        <v>22.960386124336281</v>
       </c>
       <c r="Y142" s="19">
-        <v>19.175623788451233</v>
+        <v>19.024412497812591</v>
       </c>
       <c r="Z142" s="19"/>
       <c r="AA142" s="9"/>
@@ -14310,10 +14310,10 @@
         <v>-2.2166430605366827</v>
       </c>
       <c r="X143" s="19">
-        <v>-14.867620763707208</v>
+        <v>-14.902482244038097</v>
       </c>
       <c r="Y143" s="19">
-        <v>10.619648488763175</v>
+        <v>12.051512073976838</v>
       </c>
       <c r="Z143" s="19"/>
       <c r="AA143" s="9"/>
@@ -14450,10 +14450,10 @@
         <v>9.9440344105631056</v>
       </c>
       <c r="X144" s="19">
-        <v>5.5197107873144091</v>
+        <v>5.5222726116651586</v>
       </c>
       <c r="Y144" s="19">
-        <v>1.66403048395496</v>
+        <v>2.5748097732311663</v>
       </c>
       <c r="Z144" s="19"/>
       <c r="AA144" s="9"/>
@@ -14590,10 +14590,10 @@
         <v>9.3596738830470372</v>
       </c>
       <c r="X145" s="19">
-        <v>-0.32991392554907861</v>
+        <v>-0.30895237681922083</v>
       </c>
       <c r="Y145" s="19">
-        <v>15.298421058150097</v>
+        <v>16.87014976613051</v>
       </c>
       <c r="Z145" s="19"/>
       <c r="AA145" s="9"/>
@@ -14730,10 +14730,10 @@
         <v>0.92474160142086248</v>
       </c>
       <c r="X146" s="19">
-        <v>5.4107114233252105</v>
+        <v>5.4170077411476427</v>
       </c>
       <c r="Y146" s="19">
-        <v>4.6084441662105604</v>
+        <v>5.1767416259984884</v>
       </c>
       <c r="Z146" s="19"/>
       <c r="AA146" s="9"/>
@@ -14870,10 +14870,10 @@
         <v>19.112182918816671</v>
       </c>
       <c r="X147" s="19">
-        <v>31.082427236459296</v>
+        <v>31.032774482087234</v>
       </c>
       <c r="Y147" s="19">
-        <v>-8.8012767220987769</v>
+        <v>-8.9954358772597942</v>
       </c>
       <c r="Z147" s="19"/>
       <c r="AA147" s="9"/>
@@ -15010,10 +15010,10 @@
         <v>6.4505415187772002</v>
       </c>
       <c r="X148" s="19">
-        <v>-10.853723795724747</v>
+        <v>-10.821228292882807</v>
       </c>
       <c r="Y148" s="19">
-        <v>5.8586430207647027</v>
+        <v>7.750237608019404</v>
       </c>
       <c r="Z148" s="19"/>
       <c r="AA148" s="9"/>
@@ -15150,10 +15150,10 @@
         <v>19.920600034162675</v>
       </c>
       <c r="X149" s="19">
-        <v>16.831012418442597</v>
+        <v>16.831484990699238</v>
       </c>
       <c r="Y149" s="19">
-        <v>-3.0205480324352862</v>
+        <v>-2.8740522383849481</v>
       </c>
       <c r="Z149" s="19"/>
       <c r="AA149" s="9"/>
@@ -15290,10 +15290,10 @@
         <v>17.494296650092636</v>
       </c>
       <c r="X150" s="19">
-        <v>17.562526521531424</v>
+        <v>17.560079207645401</v>
       </c>
       <c r="Y150" s="19">
-        <v>-3.4661976037175037</v>
+        <v>-3.323292379215431</v>
       </c>
       <c r="Z150" s="19"/>
       <c r="AA150" s="9"/>
@@ -15433,7 +15433,7 @@
         <v>-68.417637014787203</v>
       </c>
       <c r="Y151" s="19">
-        <v>907.35284177781068</v>
+        <v>907.29564704243671</v>
       </c>
       <c r="Z151" s="19"/>
       <c r="AA151" s="9"/>
@@ -15573,7 +15573,7 @@
         <v>40.136097396020546</v>
       </c>
       <c r="Y152" s="19">
-        <v>19.697728407460872</v>
+        <v>19.731764012780957</v>
       </c>
       <c r="Z152" s="19"/>
       <c r="AA152" s="9"/>
@@ -15710,10 +15710,10 @@
         <v>178.42824471476553</v>
       </c>
       <c r="X153" s="19">
-        <v>-14.675580664184622</v>
+        <v>-14.621981832538239</v>
       </c>
       <c r="Y153" s="19">
-        <v>-66.336131727907855</v>
+        <v>-65.844530611723641</v>
       </c>
       <c r="Z153" s="19"/>
       <c r="AA153" s="9"/>
@@ -15850,10 +15850,10 @@
         <v>-2.3888456692887559</v>
       </c>
       <c r="X154" s="19">
-        <v>0.17291641815884873</v>
+        <v>0.37068875772972376</v>
       </c>
       <c r="Y154" s="19">
-        <v>2.5354743540617903</v>
+        <v>2.7632890154513063</v>
       </c>
       <c r="Z154" s="19"/>
       <c r="AA154" s="9"/>
@@ -15993,7 +15993,7 @@
         <v>9.2618237990401013</v>
       </c>
       <c r="Y155" s="19">
-        <v>1.0228243360189282</v>
+        <v>1.1469511692613139</v>
       </c>
       <c r="Z155" s="19"/>
       <c r="AA155" s="9"/>
@@ -16130,10 +16130,10 @@
         <v>-6.2576886845755837</v>
       </c>
       <c r="X156" s="19">
-        <v>15.999064899136457</v>
+        <v>15.261556549689104</v>
       </c>
       <c r="Y156" s="19">
-        <v>19.931797859908954</v>
+        <v>21.046275062244874</v>
       </c>
       <c r="Z156" s="19"/>
       <c r="AA156" s="9"/>
@@ -16270,10 +16270,10 @@
         <v>3.0901846767269063</v>
       </c>
       <c r="X157" s="19">
-        <v>-2.9642052737586511</v>
+        <v>-3.0136685361423758</v>
       </c>
       <c r="Y157" s="19">
-        <v>-3.8717501531747729</v>
+        <v>-4.1184847843850747</v>
       </c>
       <c r="Z157" s="19"/>
       <c r="AA157" s="9"/>
@@ -16410,10 +16410,10 @@
         <v>-10.30413188428453</v>
       </c>
       <c r="X158" s="19">
-        <v>-7.4209262227289798</v>
+        <v>-5.8273697513344445</v>
       </c>
       <c r="Y158" s="19">
-        <v>3.5297259984291145</v>
+        <v>4.2808734034235414</v>
       </c>
       <c r="Z158" s="19"/>
       <c r="AA158" s="9"/>
@@ -16639,10 +16639,10 @@
         <v>8.360598848116723</v>
       </c>
       <c r="X160" s="20">
-        <v>8.8654674469421053</v>
+        <v>8.9009946503648223</v>
       </c>
       <c r="Y160" s="20">
-        <v>-0.81116174275386754</v>
+        <v>-0.4686064063785409</v>
       </c>
       <c r="Z160" s="20"/>
       <c r="AA160" s="9"/>
@@ -17140,10 +17140,10 @@
         <v>112.63108682342437</v>
       </c>
       <c r="Y175" s="17">
-        <v>116.81000752712107</v>
+        <v>116.81192879789417</v>
       </c>
       <c r="Z175" s="17">
-        <v>118.40463435357087</v>
+        <v>118.26877292642108</v>
       </c>
       <c r="AA175" s="9"/>
       <c r="AB175" s="9"/>
@@ -17288,10 +17288,10 @@
         <v>114.59953298486694</v>
       </c>
       <c r="Y176" s="17">
-        <v>117.84179963638495</v>
+        <v>117.84226384037152</v>
       </c>
       <c r="Z176" s="17">
-        <v>127.94570113918755</v>
+        <v>127.91178753729837</v>
       </c>
       <c r="AA176" s="9"/>
       <c r="AB176" s="9"/>
@@ -17436,10 +17436,10 @@
         <v>113.14298707544712</v>
       </c>
       <c r="Y177" s="17">
-        <v>131.66640603757583</v>
+        <v>131.66752556499597</v>
       </c>
       <c r="Z177" s="17">
-        <v>129.6081204188045</v>
+        <v>129.53008252483636</v>
       </c>
       <c r="AA177" s="9"/>
       <c r="AB177" s="9"/>
@@ -17584,10 +17584,10 @@
         <v>112.31061282656492</v>
       </c>
       <c r="Y178" s="17">
-        <v>116.91527327792714</v>
+        <v>116.92811449446204</v>
       </c>
       <c r="Z178" s="17">
-        <v>116.3143056313926</v>
+        <v>115.78538643465789</v>
       </c>
       <c r="AA178" s="9"/>
       <c r="AB178" s="9"/>
@@ -17732,10 +17732,10 @@
         <v>115.47463830475475</v>
       </c>
       <c r="Y179" s="17">
-        <v>125.55795298333506</v>
+        <v>125.56706398278594</v>
       </c>
       <c r="Z179" s="17">
-        <v>134.9871471429536</v>
+        <v>134.68052426128025</v>
       </c>
       <c r="AA179" s="9"/>
       <c r="AB179" s="9"/>
@@ -17880,10 +17880,10 @@
         <v>118.58079539271938</v>
       </c>
       <c r="Y180" s="17">
-        <v>125.01242544389477</v>
+        <v>125.01447168584619</v>
       </c>
       <c r="Z180" s="17">
-        <v>127.08366292084989</v>
+        <v>126.94703277329451</v>
       </c>
       <c r="AA180" s="9"/>
       <c r="AB180" s="9"/>
@@ -18031,7 +18031,7 @@
         <v>110.85226645276578</v>
       </c>
       <c r="Z181" s="17">
-        <v>113.18215688040351</v>
+        <v>113.12051955948404</v>
       </c>
       <c r="AA181" s="9"/>
       <c r="AB181" s="9"/>
@@ -18176,10 +18176,10 @@
         <v>109.06125034385181</v>
       </c>
       <c r="Y182" s="17">
-        <v>123.71236608086014</v>
+        <v>123.71466871872461</v>
       </c>
       <c r="Z182" s="17">
-        <v>119.73165798120841</v>
+        <v>119.79957157742327</v>
       </c>
       <c r="AA182" s="9"/>
       <c r="AB182" s="9"/>
@@ -18324,10 +18324,10 @@
         <v>116.7530825370231</v>
       </c>
       <c r="Y183" s="17">
-        <v>113.49749220183718</v>
+        <v>113.50549599138904</v>
       </c>
       <c r="Z183" s="17">
-        <v>115.21969478641594</v>
+        <v>114.85434495465682</v>
       </c>
       <c r="AA183" s="9"/>
       <c r="AB183" s="9"/>
@@ -18472,10 +18472,10 @@
         <v>110.64371976462168</v>
       </c>
       <c r="Y184" s="17">
-        <v>116.40095571438242</v>
+        <v>116.39641883265135</v>
       </c>
       <c r="Z184" s="17">
-        <v>119.83550636889579</v>
+        <v>119.45173547601706</v>
       </c>
       <c r="AA184" s="9"/>
       <c r="AB184" s="9"/>
@@ -18620,10 +18620,10 @@
         <v>115.85283234343042</v>
       </c>
       <c r="Y185" s="17">
-        <v>121.55236468909236</v>
+        <v>121.54684224938701</v>
       </c>
       <c r="Z185" s="17">
-        <v>125.02574312453318</v>
+        <v>124.63766897844212</v>
       </c>
       <c r="AA185" s="9"/>
       <c r="AB185" s="9"/>
@@ -18768,10 +18768,10 @@
         <v>115.64388491435804</v>
       </c>
       <c r="Y186" s="17">
-        <v>123.30802656968163</v>
+        <v>123.30635333335161</v>
       </c>
       <c r="Z186" s="17">
-        <v>127.04882127271647</v>
+        <v>126.89750337727801</v>
       </c>
       <c r="AA186" s="9"/>
       <c r="AB186" s="9"/>
@@ -18916,10 +18916,10 @@
         <v>117.51570690374002</v>
       </c>
       <c r="Y187" s="17">
-        <v>121.62790024266388</v>
+        <v>121.6363772867745</v>
       </c>
       <c r="Z187" s="17">
-        <v>126.93401412518807</v>
+        <v>127.02392555204986</v>
       </c>
       <c r="AA187" s="9"/>
       <c r="AB187" s="9"/>
@@ -19064,10 +19064,10 @@
         <v>102.22775387400907</v>
       </c>
       <c r="Y188" s="17">
-        <v>106.39269059203542</v>
+        <v>106.37888777923092</v>
       </c>
       <c r="Z188" s="17">
-        <v>108.57113042117921</v>
+        <v>107.86362946487351</v>
       </c>
       <c r="AA188" s="9"/>
       <c r="AB188" s="9"/>
@@ -19212,10 +19212,10 @@
         <v>104.98988262471735</v>
       </c>
       <c r="Y189" s="17">
-        <v>108.40260131509982</v>
+        <v>108.40264923338303</v>
       </c>
       <c r="Z189" s="17">
-        <v>112.89313333464568</v>
+        <v>112.85770954939312</v>
       </c>
       <c r="AA189" s="9"/>
       <c r="AB189" s="9"/>
@@ -19360,10 +19360,10 @@
         <v>104.33352826467446</v>
       </c>
       <c r="Y190" s="17">
-        <v>106.51054849173323</v>
+        <v>106.5112001162839</v>
       </c>
       <c r="Z190" s="17">
-        <v>110.18532851032032</v>
+        <v>110.15563188788609</v>
       </c>
       <c r="AA190" s="9"/>
       <c r="AB190" s="9"/>
@@ -19511,7 +19511,7 @@
         <v>137.27497328159745</v>
       </c>
       <c r="Z191" s="17">
-        <v>126.37891089499529</v>
+        <v>126.37773927253086</v>
       </c>
       <c r="AA191" s="9"/>
       <c r="AB191" s="9"/>
@@ -19659,7 +19659,7 @@
         <v>126.72825807148482</v>
       </c>
       <c r="Z192" s="17">
-        <v>137.56271204962846</v>
+        <v>137.54823214494155</v>
       </c>
       <c r="AA192" s="9"/>
       <c r="AB192" s="9"/>
@@ -19804,10 +19804,10 @@
         <v>109.37658995668329</v>
       </c>
       <c r="Y193" s="17">
-        <v>120.14737337425461</v>
+        <v>120.1242039627203</v>
       </c>
       <c r="Z193" s="17">
-        <v>127.75066824396382</v>
+        <v>127.1500585132228</v>
       </c>
       <c r="AA193" s="9"/>
       <c r="AB193" s="9"/>
@@ -19952,10 +19952,10 @@
         <v>110.68070805567183</v>
       </c>
       <c r="Y194" s="17">
-        <v>115.68035021063037</v>
+        <v>115.70673131377302</v>
       </c>
       <c r="Z194" s="17">
-        <v>119.04091395359005</v>
+        <v>119.0601224249926</v>
       </c>
       <c r="AA194" s="9"/>
       <c r="AB194" s="9"/>
@@ -20103,7 +20103,7 @@
         <v>118.92982474788624</v>
       </c>
       <c r="Z195" s="17">
-        <v>117.95992771775157</v>
+        <v>118.03445827085253</v>
       </c>
       <c r="AA195" s="9"/>
       <c r="AB195" s="9"/>
@@ -20248,10 +20248,10 @@
         <v>103.91502022447735</v>
       </c>
       <c r="Y196" s="17">
-        <v>103.4851224924336</v>
+        <v>103.50750135116087</v>
       </c>
       <c r="Z196" s="17">
-        <v>106.30023389722891</v>
+        <v>106.2830617054446</v>
       </c>
       <c r="AA196" s="9"/>
       <c r="AB196" s="9"/>
@@ -20396,10 +20396,10 @@
         <v>110.34967286863268</v>
       </c>
       <c r="Y197" s="17">
-        <v>118.16642313569989</v>
+        <v>118.16355759445145</v>
       </c>
       <c r="Z197" s="17">
-        <v>123.20409514626813</v>
+        <v>123.22348431905104</v>
       </c>
       <c r="AA197" s="9"/>
       <c r="AB197" s="9"/>
@@ -20544,10 +20544,10 @@
         <v>111.48981979677718</v>
       </c>
       <c r="Y198" s="17">
-        <v>119.22600356010975</v>
+        <v>119.21415890458795</v>
       </c>
       <c r="Z198" s="17">
-        <v>123.35501547176477</v>
+        <v>123.35520599598865</v>
       </c>
       <c r="AA198" s="9"/>
       <c r="AB198" s="9"/>
@@ -20787,10 +20787,10 @@
         <v>108.14596271011332</v>
       </c>
       <c r="Y200" s="20">
-        <v>112.07198294033091</v>
+        <v>112.07712346983033</v>
       </c>
       <c r="Z200" s="20">
-        <v>115.88109541601793</v>
+        <v>115.79063590261671</v>
       </c>
       <c r="AA200" s="9"/>
       <c r="AB200" s="9"/>
@@ -21301,10 +21301,10 @@
         <v>15.924595578530202</v>
       </c>
       <c r="Y216" s="20">
-        <v>14.205753007364397</v>
+        <v>14.199506900878333</v>
       </c>
       <c r="Z216" s="20">
-        <v>14.145721133060734</v>
+        <v>14.165074362297418</v>
       </c>
       <c r="AA216" s="9"/>
       <c r="AB216" s="9"/>
@@ -21449,10 +21449,10 @@
         <v>0.81889073715233729</v>
       </c>
       <c r="Y217" s="20">
-        <v>1.0182057879245037</v>
+        <v>1.017811154410182</v>
       </c>
       <c r="Z217" s="20">
-        <v>0.93392188820044342</v>
+        <v>0.93179415773343932</v>
       </c>
       <c r="AA217" s="9"/>
       <c r="AB217" s="9"/>
@@ -21597,10 +21597,10 @@
         <v>3.1607347431673163</v>
       </c>
       <c r="Y218" s="20">
-        <v>2.9102159649526258</v>
+        <v>2.9090714804664048</v>
       </c>
       <c r="Z218" s="20">
-        <v>2.7148969611483706</v>
+        <v>2.7107458366622015</v>
       </c>
       <c r="AA218" s="9"/>
       <c r="AB218" s="9"/>
@@ -21745,10 +21745,10 @@
         <v>0.22882120430915681</v>
       </c>
       <c r="Y219" s="20">
-        <v>0.22853651103005285</v>
+        <v>0.2283488284297191</v>
       </c>
       <c r="Z219" s="20">
-        <v>0.22515054045571214</v>
+        <v>0.22871336819362126</v>
       </c>
       <c r="AA219" s="9"/>
       <c r="AB219" s="9"/>
@@ -21893,10 +21893,10 @@
         <v>0.1503720321321744</v>
       </c>
       <c r="Y220" s="20">
-        <v>0.13772567010707593</v>
+        <v>0.13764472587339516</v>
       </c>
       <c r="Z220" s="20">
-        <v>0.20215237239038791</v>
+        <v>0.20258509557328536</v>
       </c>
       <c r="AA220" s="9"/>
       <c r="AB220" s="9"/>
@@ -22041,10 +22041,10 @@
         <v>0.95101660532815113</v>
       </c>
       <c r="Y221" s="20">
-        <v>0.86365129724211631</v>
+        <v>0.86328718913644631</v>
       </c>
       <c r="Z221" s="20">
-        <v>0.69192281046900517</v>
+        <v>0.69183541131977866</v>
       </c>
       <c r="AA221" s="9"/>
       <c r="AB221" s="9"/>
@@ -22189,10 +22189,10 @@
         <v>7.5976667161616858</v>
       </c>
       <c r="Y222" s="20">
-        <v>6.7136685357236257</v>
+        <v>6.7111704803351895</v>
       </c>
       <c r="Z222" s="20">
-        <v>6.8135450529729535</v>
+        <v>6.8224647464685813</v>
       </c>
       <c r="AA222" s="9"/>
       <c r="AB222" s="9"/>
@@ -22337,10 +22337,10 @@
         <v>0.23968971581486043</v>
       </c>
       <c r="Y223" s="20">
-        <v>0.29635617654338597</v>
+        <v>0.29622849461654799</v>
       </c>
       <c r="Z223" s="20">
-        <v>0.33328745017265032</v>
+        <v>0.33203234949646615</v>
       </c>
       <c r="AA223" s="9"/>
       <c r="AB223" s="9"/>
@@ -22485,10 +22485,10 @@
         <v>2.7774038244645203</v>
       </c>
       <c r="Y224" s="20">
-        <v>2.0373930638410096</v>
+        <v>2.0359445476104496</v>
       </c>
       <c r="Z224" s="20">
-        <v>2.2308440572512125</v>
+        <v>2.2449033968500447</v>
       </c>
       <c r="AA224" s="9"/>
       <c r="AB224" s="9"/>
@@ -22633,10 +22633,10 @@
         <v>17.166396783438007</v>
       </c>
       <c r="Y225" s="20">
-        <v>16.8913993635297</v>
+        <v>16.884866130896629</v>
       </c>
       <c r="Z225" s="20">
-        <v>17.23786929128843</v>
+        <v>17.285209168550235</v>
       </c>
       <c r="AA225" s="9"/>
       <c r="AB225" s="9"/>
@@ -22781,10 +22781,10 @@
         <v>3.1016912685977194</v>
       </c>
       <c r="Y226" s="20">
-        <v>2.8750358885275542</v>
+        <v>2.8744399534605276</v>
       </c>
       <c r="Z226" s="20">
-        <v>3.3244845834099701</v>
+        <v>3.3500086695667974</v>
       </c>
       <c r="AA226" s="9"/>
       <c r="AB226" s="9"/>
@@ -22929,10 +22929,10 @@
         <v>1.816204611105501</v>
       </c>
       <c r="Y227" s="20">
-        <v>1.809427998127761</v>
+        <v>1.8088382308754918</v>
       </c>
       <c r="Z227" s="20">
-        <v>1.9015554863383264</v>
+        <v>1.9040156618834125</v>
       </c>
       <c r="AA227" s="9"/>
       <c r="AB227" s="9"/>
@@ -23077,10 +23077,10 @@
         <v>5.6133495487508744</v>
       </c>
       <c r="Y228" s="20">
-        <v>6.7503604979771756</v>
+        <v>6.7457628938507348</v>
       </c>
       <c r="Z228" s="20">
-        <v>6.2644390888076673</v>
+        <v>6.2344730388630607</v>
       </c>
       <c r="AA228" s="9"/>
       <c r="AB228" s="9"/>
@@ -23225,10 +23225,10 @@
         <v>6.6351513549839103</v>
       </c>
       <c r="Y229" s="20">
-        <v>5.4565749788972138</v>
+        <v>5.4558250527098737</v>
       </c>
       <c r="Z229" s="20">
-        <v>5.7473901327324652</v>
+        <v>5.7967117982369638</v>
       </c>
       <c r="AA229" s="9"/>
       <c r="AB229" s="9"/>
@@ -23373,10 +23373,10 @@
         <v>48.222637229716817</v>
       </c>
       <c r="Y230" s="20">
-        <v>51.561371978793758</v>
+        <v>51.542418033351353</v>
       </c>
       <c r="Z230" s="20">
-        <v>50.775437486305805</v>
+        <v>50.684462675794549</v>
       </c>
       <c r="AA230" s="9"/>
       <c r="AB230" s="9"/>
@@ -23521,10 +23521,10 @@
         <v>42.638056467883359</v>
       </c>
       <c r="Y231" s="20">
-        <v>45.35844436799961</v>
+        <v>45.340900680874299</v>
       </c>
       <c r="Z231" s="20">
-        <v>44.166234576272323</v>
+        <v>44.086627196817844</v>
       </c>
       <c r="AA231" s="9"/>
       <c r="AB231" s="9"/>
@@ -23669,10 +23669,10 @@
         <v>0.19892383334240232</v>
       </c>
       <c r="Y232" s="20">
-        <v>8.2943577857265791E-2</v>
+        <v>8.29127157957118E-2</v>
       </c>
       <c r="Z232" s="20">
-        <v>0.75001384823091766</v>
+        <v>0.7477230420287494</v>
       </c>
       <c r="AA232" s="9"/>
       <c r="AB232" s="9"/>
@@ -23817,10 +23817,10 @@
         <v>2.9017717302498744</v>
       </c>
       <c r="Y233" s="20">
-        <v>4.056420351519832</v>
+        <v>4.0549110183344128</v>
       </c>
       <c r="Z233" s="20">
-        <v>5.1389901600423222</v>
+        <v>5.124549695611468</v>
       </c>
       <c r="AA233" s="9"/>
       <c r="AB233" s="9"/>
@@ -23965,10 +23965,10 @@
         <v>2.4838851982411803</v>
       </c>
       <c r="Y234" s="20">
-        <v>2.0635636814170586</v>
+        <v>2.0636936183469241</v>
       </c>
       <c r="Z234" s="20">
-        <v>0.72019890176023693</v>
+        <v>0.72556274133649012</v>
       </c>
       <c r="AA234" s="9"/>
       <c r="AB234" s="9"/>
@@ -24113,10 +24113,10 @@
         <v>18.686370408314968</v>
       </c>
       <c r="Y235" s="20">
-        <v>17.341475650312134</v>
+        <v>17.373208934873695</v>
       </c>
       <c r="Z235" s="20">
-        <v>17.840972089345026</v>
+        <v>17.865253793357802</v>
       </c>
       <c r="AA235" s="9"/>
       <c r="AB235" s="9"/>
@@ -24261,10 +24261,10 @@
         <v>1.7365328710994574</v>
       </c>
       <c r="Y236" s="20">
-        <v>1.6131141404399614</v>
+        <v>1.6125139248574898</v>
       </c>
       <c r="Z236" s="20">
-        <v>1.5759773944656041</v>
+        <v>1.5741921939462267</v>
       </c>
       <c r="AA236" s="9"/>
       <c r="AB236" s="9"/>
@@ -24409,10 +24409,10 @@
         <v>2.8552182980272609</v>
       </c>
       <c r="Y237" s="20">
-        <v>2.923590292976384</v>
+        <v>2.9045495221362132</v>
       </c>
       <c r="Z237" s="20">
-        <v>3.5117922657907821</v>
+        <v>3.5107984572539443</v>
       </c>
       <c r="AA237" s="9"/>
       <c r="AB237" s="9"/>
@@ -24557,10 +24557,10 @@
         <v>10.026379876396174</v>
       </c>
       <c r="Y238" s="20">
-        <v>9.2346890189882878</v>
+        <v>9.2263236241236495</v>
       </c>
       <c r="Z238" s="20">
-        <v>9.0245597520786358</v>
+        <v>8.9713324691399539</v>
       </c>
       <c r="AA238" s="9"/>
       <c r="AB238" s="9"/>
@@ -24705,10 +24705,10 @@
         <v>4.0682393627920739</v>
       </c>
       <c r="Y239" s="20">
-        <v>3.5700821979075017</v>
+        <v>3.6298218637563417</v>
       </c>
       <c r="Z239" s="20">
-        <v>3.7286426770100016</v>
+        <v>3.8089306730176777</v>
       </c>
       <c r="AA239" s="9"/>
       <c r="AB239" s="9"/>
@@ -25462,10 +25462,10 @@
         <v>15.290456375594463</v>
       </c>
       <c r="Y257" s="20">
-        <v>13.629542043529524</v>
+        <v>13.623950092408185</v>
       </c>
       <c r="Z257" s="20">
-        <v>13.844235652581585</v>
+        <v>13.868267400040438</v>
       </c>
       <c r="AA257" s="9"/>
       <c r="AB257" s="9"/>
@@ -25610,10 +25610,10 @@
         <v>0.77277563718718079</v>
       </c>
       <c r="Y258" s="20">
-        <v>0.96835199433586849</v>
+        <v>0.96801726905317798</v>
       </c>
       <c r="Z258" s="20">
-        <v>0.84585797314073352</v>
+        <v>0.84349566315643165</v>
       </c>
       <c r="AA258" s="9"/>
       <c r="AB258" s="9"/>
@@ -25758,10 +25758,10 @@
         <v>3.0211390958168356</v>
       </c>
       <c r="Y259" s="20">
-        <v>2.477121414582923</v>
+        <v>2.476239772105763</v>
       </c>
       <c r="Z259" s="20">
-        <v>2.4273574277823275</v>
+        <v>2.4232130334457502</v>
       </c>
       <c r="AA259" s="9"/>
       <c r="AB259" s="9"/>
@@ -25906,10 +25906,10 @@
         <v>0.22033616241338935</v>
       </c>
       <c r="Y260" s="20">
-        <v>0.21906923917902102</v>
+        <v>0.21887533164079925</v>
       </c>
       <c r="Z260" s="20">
-        <v>0.22431197194435767</v>
+        <v>0.22872373758076975</v>
       </c>
       <c r="AA260" s="9"/>
       <c r="AB260" s="9"/>
@@ -26054,10 +26054,10 @@
         <v>0.14082856996435808</v>
       </c>
       <c r="Y261" s="20">
-        <v>0.12293278588839789</v>
+        <v>0.12285725609382989</v>
       </c>
       <c r="Z261" s="20">
-        <v>0.17353976915103472</v>
+        <v>0.17417111471377716</v>
       </c>
       <c r="AA261" s="9"/>
       <c r="AB261" s="9"/>
@@ -26202,10 +26202,10 @@
         <v>0.86732936809792627</v>
       </c>
       <c r="Y262" s="20">
-        <v>0.77425194421455901</v>
+        <v>0.77394835639434678</v>
       </c>
       <c r="Z262" s="20">
-        <v>0.63092903822276636</v>
+        <v>0.63103532604597956</v>
       </c>
       <c r="AA262" s="9"/>
       <c r="AB262" s="9"/>
@@ -26350,10 +26350,10 @@
         <v>7.4577177526583451</v>
       </c>
       <c r="Y263" s="20">
-        <v>6.7875395756861563</v>
+        <v>6.7853252497287189</v>
       </c>
       <c r="Z263" s="20">
-        <v>6.9760206570299177</v>
+        <v>6.9835033864158902</v>
       </c>
       <c r="AA263" s="9"/>
       <c r="AB263" s="9"/>
@@ -26498,10 +26498,10 @@
         <v>0.2376781394563651</v>
       </c>
       <c r="Y264" s="20">
-        <v>0.26847133729641398</v>
+        <v>0.26836298322800123</v>
       </c>
       <c r="Z264" s="20">
-        <v>0.32256894680669829</v>
+        <v>0.32092132202316698</v>
       </c>
       <c r="AA264" s="9"/>
       <c r="AB264" s="9"/>
@@ -26646,10 +26646,10 @@
         <v>2.5726516500000636</v>
       </c>
       <c r="Y265" s="20">
-        <v>2.0118037523461871</v>
+        <v>2.010323874163547</v>
       </c>
       <c r="Z265" s="20">
-        <v>2.2436498685037494</v>
+        <v>2.2632038166586717</v>
       </c>
       <c r="AA265" s="9"/>
       <c r="AB265" s="9"/>
@@ -26794,10 +26794,10 @@
         <v>16.778869242267685</v>
       </c>
       <c r="Y266" s="20">
-        <v>16.263205140281446</v>
+        <v>16.258294242238335</v>
       </c>
       <c r="Z266" s="20">
-        <v>16.669042728984678</v>
+        <v>16.755431416381697</v>
       </c>
       <c r="AA266" s="9"/>
       <c r="AB266" s="9"/>
@@ -26942,10 +26942,10 @@
         <v>2.8953576834245984</v>
       </c>
       <c r="Y267" s="20">
-        <v>2.6507997098703351</v>
+        <v>2.6504922349986733</v>
       </c>
       <c r="Z267" s="20">
-        <v>3.0813247383419604</v>
+        <v>3.1122182989117944</v>
       </c>
       <c r="AA267" s="9"/>
       <c r="AB267" s="9"/>
@@ -27090,10 +27090,10 @@
         <v>1.6984486148317299</v>
       </c>
       <c r="Y268" s="20">
-        <v>1.6445497456999414</v>
+        <v>1.6441114367457994</v>
       </c>
       <c r="Z268" s="20">
-        <v>1.7344067465074917</v>
+        <v>1.7373642379909766</v>
       </c>
       <c r="AA268" s="9"/>
       <c r="AB268" s="9"/>
@@ -27238,10 +27238,10 @@
         <v>5.1657868294601847</v>
       </c>
       <c r="Y269" s="20">
-        <v>6.2200061421845714</v>
+        <v>6.2156216554347621</v>
       </c>
       <c r="Z269" s="20">
-        <v>5.7189561740481052</v>
+        <v>5.6831309105768968</v>
       </c>
       <c r="AA269" s="9"/>
       <c r="AB269" s="9"/>
@@ -27386,10 +27386,10 @@
         <v>7.0192761145511717</v>
       </c>
       <c r="Y270" s="20">
-        <v>5.7478495425266019</v>
+        <v>5.7480689150591031</v>
       </c>
       <c r="Z270" s="20">
-        <v>6.1343550700871203</v>
+        <v>6.22271796890203</v>
       </c>
       <c r="AA270" s="9"/>
       <c r="AB270" s="9"/>
@@ -27534,10 +27534,10 @@
         <v>49.672248384822083</v>
       </c>
       <c r="Y271" s="20">
-        <v>53.306702336325849</v>
+        <v>53.28952743046581</v>
       </c>
       <c r="Z271" s="20">
-        <v>52.119319770310128</v>
+        <v>52.001641598478209</v>
       </c>
       <c r="AA271" s="9"/>
       <c r="AB271" s="9"/>
@@ -27682,10 +27682,10 @@
         <v>44.196086737427734</v>
       </c>
       <c r="Y272" s="20">
-        <v>47.726829646407715</v>
+        <v>47.710266322187024</v>
       </c>
       <c r="Z272" s="20">
-        <v>46.449302391650725</v>
+        <v>46.341875675650464</v>
       </c>
       <c r="AA272" s="9"/>
       <c r="AB272" s="9"/>
@@ -27830,10 +27830,10 @@
         <v>0.23341780162861367</v>
       </c>
       <c r="Y273" s="20">
-        <v>6.7715556742895672E-2</v>
+        <v>6.7693465628236804E-2</v>
       </c>
       <c r="Z273" s="20">
-        <v>0.68771305033950525</v>
+        <v>0.68508367861242903</v>
       </c>
       <c r="AA273" s="9"/>
       <c r="AB273" s="9"/>
@@ -27978,10 +27978,10 @@
         <v>2.7868055491743404</v>
       </c>
       <c r="Y274" s="20">
-        <v>3.5872904698011783</v>
+        <v>3.5861201738028163</v>
       </c>
       <c r="Z274" s="20">
-        <v>4.3290205623672122</v>
+        <v>4.3139403445341538</v>
       </c>
       <c r="AA274" s="9"/>
       <c r="AB274" s="9"/>
@@ -28126,10 +28126,10 @@
         <v>2.4559382965914027</v>
       </c>
       <c r="Y275" s="20">
-        <v>1.9248666633740616</v>
+        <v>1.925447468847737</v>
       </c>
       <c r="Z275" s="20">
-        <v>0.65328376595268944</v>
+        <v>0.66074189968116392</v>
       </c>
       <c r="AA275" s="9"/>
       <c r="AB275" s="9"/>
@@ -28274,10 +28274,10 @@
         <v>18.258425997315769</v>
       </c>
       <c r="Y276" s="20">
-        <v>16.800550479863169</v>
+        <v>16.828228234887685</v>
       </c>
       <c r="Z276" s="20">
-        <v>17.36740184812361</v>
+        <v>17.37465958509965</v>
       </c>
       <c r="AA276" s="9"/>
       <c r="AB276" s="9"/>
@@ -28422,10 +28422,10 @@
         <v>1.5145829782359186</v>
       </c>
       <c r="Y277" s="20">
-        <v>1.5200972574493514</v>
+        <v>1.5196013500918375</v>
       </c>
       <c r="Z277" s="20">
-        <v>1.5482036175754026</v>
+        <v>1.5442669694954698</v>
       </c>
       <c r="AA277" s="9"/>
       <c r="AB277" s="9"/>
@@ -28570,10 +28570,10 @@
         <v>2.9714696770559419</v>
       </c>
       <c r="Y278" s="20">
-        <v>3.1661803508318114</v>
+        <v>3.1450238018236738</v>
       </c>
       <c r="Z278" s="20">
-        <v>3.8283108109317525</v>
+        <v>3.8248576900992224</v>
       </c>
       <c r="AA278" s="9"/>
       <c r="AB278" s="9"/>
@@ -28718,10 +28718,10 @@
         <v>9.8261505996579288</v>
       </c>
       <c r="Y279" s="20">
-        <v>8.7584093918693071</v>
+        <v>8.7510890247779258</v>
       </c>
       <c r="Z279" s="20">
-        <v>8.4881583560727609</v>
+        <v>8.4301811236391408</v>
       </c>
       <c r="AA279" s="9"/>
       <c r="AB279" s="9"/>
@@ -28866,10 +28866,10 @@
         <v>3.946222742365979</v>
       </c>
       <c r="Y280" s="20">
-        <v>3.3558634797126992</v>
+        <v>3.4125140581942457</v>
       </c>
       <c r="Z280" s="20">
-        <v>3.5027290635436943</v>
+        <v>3.575353801865814</v>
       </c>
       <c r="AA280" s="9"/>
       <c r="AB280" s="9"/>

--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CE3CCB-72CE-4897-9463-12CB0060E951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08234DE-1A4C-4C53-A932-29F7BC310FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$Z$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$AA$286</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="75">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -258,13 +258,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,15 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{83072B31-956C-4891-99BB-453C7D1A8247}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -696,18 +707,18 @@
   </sheetPr>
   <dimension ref="A1:CP286"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="26" width="11.21875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="27" width="11.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.2">
@@ -722,7 +733,7 @@
     </row>
     <row r="3" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.2">
@@ -732,7 +743,7 @@
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.2">
@@ -769,6 +780,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -848,6 +860,9 @@
       </c>
       <c r="Z10" s="6">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -932,7 +947,9 @@
       <c r="Z12" s="8">
         <v>215954.55702907965</v>
       </c>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="8">
+        <v>230659.94129716812</v>
+      </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -1080,7 +1097,9 @@
       <c r="Z13" s="11">
         <v>14205.728076599577</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="11">
+        <v>17769.753790109196</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -1228,7 +1247,9 @@
       <c r="Z14" s="11">
         <v>41326.850915300281</v>
       </c>
-      <c r="AA14" s="9"/>
+      <c r="AA14" s="11">
+        <v>42612.699746040307</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -1376,7 +1397,9 @@
       <c r="Z15" s="11">
         <v>3486.8644421907211</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="11">
+        <v>4472.8653470691297</v>
+      </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -1524,7 +1547,9 @@
       <c r="Z16" s="11">
         <v>3088.5241726416871</v>
       </c>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="11">
+        <v>3324.2375192632271</v>
+      </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -1672,7 +1697,9 @@
       <c r="Z17" s="11">
         <v>10547.421493688655</v>
       </c>
-      <c r="AA17" s="9"/>
+      <c r="AA17" s="11">
+        <v>12929.57501649189</v>
+      </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -1820,7 +1847,9 @@
       <c r="Z18" s="11">
         <v>104012.32739671794</v>
       </c>
-      <c r="AA18" s="9"/>
+      <c r="AA18" s="11">
+        <v>103248.49801227287</v>
+      </c>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -1968,7 +1997,9 @@
       <c r="Z19" s="11">
         <v>5062.020651701283</v>
       </c>
-      <c r="AA19" s="9"/>
+      <c r="AA19" s="11">
+        <v>6203.1357020780588</v>
+      </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -2116,7 +2147,9 @@
       <c r="Z20" s="11">
         <v>34224.819880239505</v>
       </c>
-      <c r="AA20" s="9"/>
+      <c r="AA20" s="11">
+        <v>40099.176163843447</v>
+      </c>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
@@ -2264,7 +2297,9 @@
       <c r="Z21" s="8">
         <v>263522.77394919586</v>
       </c>
-      <c r="AA21" s="9"/>
+      <c r="AA21" s="8">
+        <v>275666.74174753076</v>
+      </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2412,7 +2447,9 @@
       <c r="Z22" s="11">
         <v>51072.773765695834</v>
       </c>
-      <c r="AA22" s="9"/>
+      <c r="AA22" s="11">
+        <v>47898.365499980078</v>
+      </c>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
@@ -2560,7 +2597,9 @@
       <c r="Z23" s="11">
         <v>29027.793876810487</v>
       </c>
-      <c r="AA23" s="9"/>
+      <c r="AA23" s="11">
+        <v>31341.620077817148</v>
+      </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -2708,7 +2747,9 @@
       <c r="Z24" s="11">
         <v>95048.061801988821</v>
       </c>
-      <c r="AA24" s="9"/>
+      <c r="AA24" s="11">
+        <v>96586.025475088041</v>
+      </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
@@ -2856,7 +2897,9 @@
       <c r="Z25" s="11">
         <v>88374.1445047007</v>
       </c>
-      <c r="AA25" s="9"/>
+      <c r="AA25" s="11">
+        <v>99840.730694645521</v>
+      </c>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
@@ -3004,7 +3047,9 @@
       <c r="Z26" s="8">
         <v>772713.25271270145</v>
       </c>
-      <c r="AA26" s="9"/>
+      <c r="AA26" s="8">
+        <v>820230.24493764585</v>
+      </c>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
@@ -3152,7 +3197,9 @@
       <c r="Z27" s="11">
         <v>672125.52533686941</v>
       </c>
-      <c r="AA27" s="9"/>
+      <c r="AA27" s="11">
+        <v>734225.81844809372</v>
+      </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
@@ -3300,7 +3347,9 @@
       <c r="Z28" s="11">
         <v>11399.459981060427</v>
       </c>
-      <c r="AA28" s="9"/>
+      <c r="AA28" s="11">
+        <v>967.48816192991376</v>
+      </c>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
@@ -3448,7 +3497,9 @@
       <c r="Z29" s="11">
         <v>78126.653710682673</v>
       </c>
-      <c r="AA29" s="9"/>
+      <c r="AA29" s="11">
+        <v>54190.600224727743</v>
+      </c>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
@@ -3596,7 +3647,9 @@
       <c r="Z30" s="11">
         <v>11061.613684088932</v>
       </c>
-      <c r="AA30" s="9"/>
+      <c r="AA30" s="11">
+        <v>30846.338102894453</v>
+      </c>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
@@ -3744,7 +3797,9 @@
       <c r="Z31" s="8">
         <v>272365.88177931251</v>
       </c>
-      <c r="AA31" s="9"/>
+      <c r="AA31" s="8">
+        <v>302992.52694642113</v>
+      </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
@@ -3892,7 +3947,9 @@
       <c r="Z32" s="11">
         <v>23999.448871735796</v>
       </c>
-      <c r="AA32" s="9"/>
+      <c r="AA32" s="11">
+        <v>32126.306215130615</v>
+      </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
@@ -4040,7 +4097,9 @@
       <c r="Z33" s="11">
         <v>53524.104869696173</v>
       </c>
-      <c r="AA33" s="9"/>
+      <c r="AA33" s="11">
+        <v>47324.923227742642</v>
+      </c>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
@@ -4188,7 +4247,9 @@
       <c r="Z34" s="11">
         <v>136773.02919710852</v>
       </c>
-      <c r="AA34" s="9"/>
+      <c r="AA34" s="11">
+        <v>161737.4212168068</v>
+      </c>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
@@ -4336,7 +4397,9 @@
       <c r="Z35" s="11">
         <v>58069.298840772011</v>
       </c>
-      <c r="AA35" s="9"/>
+      <c r="AA35" s="11">
+        <v>61803.876286741026</v>
+      </c>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
@@ -4579,7 +4642,9 @@
       <c r="Z37" s="13">
         <v>1524556.4654702893</v>
       </c>
-      <c r="AA37" s="9"/>
+      <c r="AA37" s="13">
+        <v>1629549.454928766</v>
+      </c>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
@@ -4675,6 +4740,7 @@
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
     </row>
     <row r="39" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
@@ -4883,7 +4949,7 @@
     </row>
     <row r="44" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:94" x14ac:dyDescent="0.2">
@@ -4893,7 +4959,7 @@
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:94" x14ac:dyDescent="0.2">
@@ -4930,6 +4996,7 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
     </row>
     <row r="51" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
@@ -5009,6 +5076,9 @@
       </c>
       <c r="Z51" s="16">
         <v>2024</v>
+      </c>
+      <c r="AA51" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="52" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5093,7 +5163,9 @@
       <c r="Z53" s="8">
         <v>182596.42988215672</v>
       </c>
-      <c r="AA53" s="9"/>
+      <c r="AA53" s="8">
+        <v>189502.11141711482</v>
+      </c>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
       <c r="AD53" s="9"/>
@@ -5241,7 +5313,9 @@
       <c r="Z54" s="11">
         <v>11105.87878576653</v>
       </c>
-      <c r="AA54" s="9"/>
+      <c r="AA54" s="11">
+        <v>12943.976723531921</v>
+      </c>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
       <c r="AD54" s="9"/>
@@ -5389,7 +5463,9 @@
       <c r="Z55" s="11">
         <v>31905.214688160326</v>
       </c>
-      <c r="AA55" s="9"/>
+      <c r="AA55" s="11">
+        <v>31805.620683450776</v>
+      </c>
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
       <c r="AD55" s="9"/>
@@ -5537,7 +5613,9 @@
       <c r="Z56" s="11">
         <v>3011.4892298247769</v>
       </c>
-      <c r="AA56" s="9"/>
+      <c r="AA56" s="11">
+        <v>3510.4172863848034</v>
+      </c>
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
       <c r="AD56" s="9"/>
@@ -5685,7 +5763,9 @@
       <c r="Z57" s="11">
         <v>2293.2225647191194</v>
       </c>
-      <c r="AA57" s="9"/>
+      <c r="AA57" s="11">
+        <v>2262.970614099876</v>
+      </c>
       <c r="AB57" s="9"/>
       <c r="AC57" s="9"/>
       <c r="AD57" s="9"/>
@@ -5833,7 +5913,9 @@
       <c r="Z58" s="11">
         <v>8308.5214859054868</v>
       </c>
-      <c r="AA58" s="9"/>
+      <c r="AA58" s="11">
+        <v>9577.021459909136</v>
+      </c>
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
@@ -5981,7 +6063,9 @@
       <c r="Z59" s="11">
         <v>91948.240515305821</v>
       </c>
-      <c r="AA59" s="9"/>
+      <c r="AA59" s="11">
+        <v>91249.914327989638</v>
+      </c>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
       <c r="AD59" s="9"/>
@@ -6129,7 +6213,9 @@
       <c r="Z60" s="11">
         <v>4225.407975211192</v>
       </c>
-      <c r="AA60" s="9"/>
+      <c r="AA60" s="11">
+        <v>4621.3090846481145</v>
+      </c>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
       <c r="AD60" s="9"/>
@@ -6277,7 +6363,9 @@
       <c r="Z61" s="11">
         <v>29798.454637263458</v>
       </c>
-      <c r="AA61" s="9"/>
+      <c r="AA61" s="11">
+        <v>33530.881237100548</v>
+      </c>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
       <c r="AD61" s="9"/>
@@ -6425,7 +6513,9 @@
       <c r="Z62" s="8">
         <v>220610.25141162949</v>
       </c>
-      <c r="AA62" s="9"/>
+      <c r="AA62" s="8">
+        <v>225918.97357224859</v>
+      </c>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
       <c r="AD62" s="9"/>
@@ -6573,7 +6663,9 @@
       <c r="Z63" s="11">
         <v>40976.996909762172</v>
       </c>
-      <c r="AA63" s="9"/>
+      <c r="AA63" s="11">
+        <v>37137.182192159162</v>
+      </c>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
       <c r="AD63" s="9"/>
@@ -6721,7 +6813,9 @@
       <c r="Z64" s="11">
         <v>22874.992103278953</v>
       </c>
-      <c r="AA64" s="9"/>
+      <c r="AA64" s="11">
+        <v>23800.699180466734</v>
+      </c>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
       <c r="AD64" s="9"/>
@@ -6869,7 +6963,9 @@
       <c r="Z65" s="11">
         <v>74826.896892775942</v>
       </c>
-      <c r="AA65" s="9"/>
+      <c r="AA65" s="11">
+        <v>76764.311952497053</v>
+      </c>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
       <c r="AD65" s="9"/>
@@ -7017,7 +7113,9 @@
       <c r="Z66" s="11">
         <v>81931.365505812428</v>
       </c>
-      <c r="AA66" s="9"/>
+      <c r="AA66" s="11">
+        <v>88216.780247125658</v>
+      </c>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
       <c r="AD66" s="9"/>
@@ -7165,7 +7263,9 @@
       <c r="Z67" s="8">
         <v>684679.19099006441</v>
       </c>
-      <c r="AA67" s="9"/>
+      <c r="AA67" s="8">
+        <v>718920.55866227834</v>
+      </c>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
       <c r="AD67" s="9"/>
@@ -7313,7 +7413,9 @@
       <c r="Z68" s="11">
         <v>610159.92901837616</v>
       </c>
-      <c r="AA68" s="9"/>
+      <c r="AA68" s="11">
+        <v>655758.91287340771</v>
+      </c>
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
       <c r="AD68" s="9"/>
@@ -7461,7 +7563,9 @@
       <c r="Z69" s="11">
         <v>9020.1486802020863</v>
       </c>
-      <c r="AA69" s="9"/>
+      <c r="AA69" s="11">
+        <v>743.86072028897388</v>
+      </c>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
       <c r="AD69" s="9"/>
@@ -7609,7 +7713,9 @@
       <c r="Z70" s="11">
         <v>56799.460445523328</v>
       </c>
-      <c r="AA70" s="9"/>
+      <c r="AA70" s="11">
+        <v>37548.991156807031</v>
+      </c>
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
       <c r="AD70" s="9"/>
@@ -7757,7 +7863,9 @@
       <c r="Z71" s="11">
         <v>8699.6528459627825</v>
       </c>
-      <c r="AA71" s="9"/>
+      <c r="AA71" s="11">
+        <v>24868.793911774683</v>
+      </c>
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
       <c r="AD71" s="9"/>
@@ -7905,7 +8013,9 @@
       <c r="Z72" s="8">
         <v>228763.31405664555</v>
       </c>
-      <c r="AA72" s="9"/>
+      <c r="AA72" s="8">
+        <v>243489.21019055721</v>
+      </c>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
       <c r="AD72" s="9"/>
@@ -8053,7 +8163,9 @@
       <c r="Z73" s="11">
         <v>20332.578488787141</v>
       </c>
-      <c r="AA73" s="9"/>
+      <c r="AA73" s="11">
+        <v>25969.059827788431</v>
+      </c>
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
       <c r="AD73" s="9"/>
@@ -8201,7 +8313,9 @@
       <c r="Z74" s="11">
         <v>50359.957655373306</v>
       </c>
-      <c r="AA74" s="9"/>
+      <c r="AA74" s="11">
+        <v>45509.255013988033</v>
+      </c>
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
       <c r="AD74" s="9"/>
@@ -8349,7 +8463,9 @@
       <c r="Z75" s="11">
         <v>110995.91117142486</v>
       </c>
-      <c r="AA75" s="9"/>
+      <c r="AA75" s="11">
+        <v>122027.55023394919</v>
+      </c>
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
       <c r="AD75" s="9"/>
@@ -8497,7 +8613,9 @@
       <c r="Z76" s="11">
         <v>47074.866741060236</v>
       </c>
-      <c r="AA76" s="9"/>
+      <c r="AA76" s="11">
+        <v>49983.345114831558</v>
+      </c>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
       <c r="AD76" s="9"/>
@@ -8740,7 +8858,9 @@
       <c r="Z78" s="13">
         <v>1316649.1863404962</v>
       </c>
-      <c r="AA78" s="9"/>
+      <c r="AA78" s="13">
+        <v>1377830.8538421991</v>
+      </c>
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
       <c r="AD78" s="9"/>
@@ -8836,6 +8956,7 @@
       <c r="X79" s="14"/>
       <c r="Y79" s="14"/>
       <c r="Z79" s="14"/>
+      <c r="AA79" s="14"/>
     </row>
     <row r="80" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
@@ -9046,7 +9167,7 @@
     </row>
     <row r="85" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:94" x14ac:dyDescent="0.2">
@@ -9056,7 +9177,7 @@
     </row>
     <row r="88" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:94" x14ac:dyDescent="0.2">
@@ -9093,6 +9214,7 @@
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
     </row>
     <row r="92" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
@@ -9170,7 +9292,10 @@
       <c r="Y92" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z92" s="16"/>
+      <c r="Z92" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA92" s="16"/>
     </row>
     <row r="93" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
@@ -9251,8 +9376,10 @@
       <c r="Y94" s="19">
         <v>2.5798698222483978</v>
       </c>
-      <c r="Z94" s="19"/>
-      <c r="AA94" s="9"/>
+      <c r="Z94" s="19">
+        <v>6.8094808789370944</v>
+      </c>
+      <c r="AA94" s="19"/>
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
       <c r="AD94" s="9"/>
@@ -9391,8 +9518,10 @@
       <c r="Y95" s="19">
         <v>-5.8610554223063787</v>
       </c>
-      <c r="Z95" s="19"/>
-      <c r="AA95" s="9"/>
+      <c r="Z95" s="19">
+        <v>25.08865222741008</v>
+      </c>
+      <c r="AA95" s="19"/>
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
       <c r="AD95" s="9"/>
@@ -9531,8 +9660,10 @@
       <c r="Y96" s="19">
         <v>-4.181149899124037</v>
       </c>
-      <c r="Z96" s="19"/>
-      <c r="AA96" s="9"/>
+      <c r="Z96" s="19">
+        <v>3.1114125617153405</v>
+      </c>
+      <c r="AA96" s="19"/>
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
       <c r="AD96" s="9"/>
@@ -9671,8 +9802,10 @@
       <c r="Y97" s="19">
         <v>2.9933797516792851</v>
       </c>
-      <c r="Z97" s="19"/>
-      <c r="AA97" s="9"/>
+      <c r="Z97" s="19">
+        <v>28.277580652344653</v>
+      </c>
+      <c r="AA97" s="19"/>
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
       <c r="AD97" s="9"/>
@@ -9811,8 +9944,10 @@
       <c r="Y98" s="19">
         <v>51.343740466245833</v>
       </c>
-      <c r="Z98" s="19"/>
-      <c r="AA98" s="9"/>
+      <c r="Z98" s="19">
+        <v>7.6319087514192603</v>
+      </c>
+      <c r="AA98" s="19"/>
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
       <c r="AD98" s="9"/>
@@ -9951,8 +10086,10 @@
       <c r="Y99" s="19">
         <v>-17.593012313346051</v>
       </c>
-      <c r="Z99" s="19"/>
-      <c r="AA99" s="9"/>
+      <c r="Z99" s="19">
+        <v>22.585174245939285</v>
+      </c>
+      <c r="AA99" s="19"/>
       <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
       <c r="AD99" s="9"/>
@@ -10091,8 +10228,10 @@
       <c r="Y100" s="19">
         <v>4.5344833326883816</v>
       </c>
-      <c r="Z100" s="19"/>
-      <c r="AA100" s="9"/>
+      <c r="Z100" s="19">
+        <v>-0.73436428504452067</v>
+      </c>
+      <c r="AA100" s="19"/>
       <c r="AB100" s="9"/>
       <c r="AC100" s="9"/>
       <c r="AD100" s="9"/>
@@ -10231,8 +10370,10 @@
       <c r="Y101" s="19">
         <v>15.257744066805998</v>
       </c>
-      <c r="Z101" s="19"/>
-      <c r="AA101" s="9"/>
+      <c r="Z101" s="19">
+        <v>22.542678682933868</v>
+      </c>
+      <c r="AA101" s="19"/>
       <c r="AB101" s="9"/>
       <c r="AC101" s="9"/>
       <c r="AD101" s="9"/>
@@ -10371,8 +10512,10 @@
       <c r="Y102" s="19">
         <v>13.383082537358064</v>
       </c>
-      <c r="Z102" s="19"/>
-      <c r="AA102" s="9"/>
+      <c r="Z102" s="19">
+        <v>17.164023957349258</v>
+      </c>
+      <c r="AA102" s="19"/>
       <c r="AB102" s="9"/>
       <c r="AC102" s="9"/>
       <c r="AD102" s="9"/>
@@ -10511,8 +10654,10 @@
       <c r="Y103" s="19">
         <v>5.2673197888598651</v>
       </c>
-      <c r="Z103" s="19"/>
-      <c r="AA103" s="9"/>
+      <c r="Z103" s="19">
+        <v>4.6083181412913206</v>
+      </c>
+      <c r="AA103" s="19"/>
       <c r="AB103" s="9"/>
       <c r="AC103" s="9"/>
       <c r="AD103" s="9"/>
@@ -10651,8 +10796,10 @@
       <c r="Y104" s="19">
         <v>19.842052417329597</v>
       </c>
-      <c r="Z104" s="19"/>
-      <c r="AA104" s="9"/>
+      <c r="Z104" s="19">
+        <v>-6.2154608642930498</v>
+      </c>
+      <c r="AA104" s="19"/>
       <c r="AB104" s="9"/>
       <c r="AC104" s="9"/>
       <c r="AD104" s="9"/>
@@ -10791,8 +10938,10 @@
       <c r="Y105" s="19">
         <v>8.239888415273299</v>
       </c>
-      <c r="Z105" s="19"/>
-      <c r="AA105" s="9"/>
+      <c r="Z105" s="19">
+        <v>7.9710714869555233</v>
+      </c>
+      <c r="AA105" s="19"/>
       <c r="AB105" s="9"/>
       <c r="AC105" s="9"/>
       <c r="AD105" s="9"/>
@@ -10931,8 +11080,10 @@
       <c r="Y106" s="19">
         <v>-4.9646393959104813</v>
       </c>
-      <c r="Z106" s="19"/>
-      <c r="AA106" s="9"/>
+      <c r="Z106" s="19">
+        <v>1.6180905154102163</v>
+      </c>
+      <c r="AA106" s="19"/>
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
       <c r="AD106" s="9"/>
@@ -11071,8 +11222,10 @@
       <c r="Y107" s="19">
         <v>9.2541193721014992</v>
       </c>
-      <c r="Z107" s="19"/>
-      <c r="AA107" s="9"/>
+      <c r="Z107" s="19">
+        <v>12.975046326287099</v>
+      </c>
+      <c r="AA107" s="19"/>
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
       <c r="AD107" s="9"/>
@@ -11211,8 +11364,10 @@
       <c r="Y108" s="19">
         <v>1.1175656656762669</v>
       </c>
-      <c r="Z108" s="19"/>
-      <c r="AA108" s="9"/>
+      <c r="Z108" s="19">
+        <v>6.1493693887260719</v>
+      </c>
+      <c r="AA108" s="19"/>
       <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
       <c r="AD108" s="9"/>
@@ -11351,8 +11506,10 @@
       <c r="Y109" s="19">
         <v>-1.5361716126278679E-2</v>
       </c>
-      <c r="Z109" s="19"/>
-      <c r="AA109" s="9"/>
+      <c r="Z109" s="19">
+        <v>9.2393891870271858</v>
+      </c>
+      <c r="AA109" s="19"/>
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
       <c r="AD109" s="9"/>
@@ -11491,8 +11648,10 @@
       <c r="Y110" s="19">
         <v>827.33397508043572</v>
       </c>
-      <c r="Z110" s="19"/>
-      <c r="AA110" s="9"/>
+      <c r="Z110" s="19">
+        <v>-91.512859700921425</v>
+      </c>
+      <c r="AA110" s="19"/>
       <c r="AB110" s="9"/>
       <c r="AC110" s="9"/>
       <c r="AD110" s="9"/>
@@ -11631,8 +11790,10 @@
       <c r="Y111" s="19">
         <v>29.954382094193932</v>
       </c>
-      <c r="Z111" s="19"/>
-      <c r="AA111" s="9"/>
+      <c r="Z111" s="19">
+        <v>-30.637499942842211</v>
+      </c>
+      <c r="AA111" s="19"/>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
       <c r="AD111" s="9"/>
@@ -11771,8 +11932,10 @@
       <c r="Y112" s="19">
         <v>-63.846836957073954</v>
       </c>
-      <c r="Z112" s="19"/>
-      <c r="AA112" s="9"/>
+      <c r="Z112" s="19">
+        <v>178.85929651714332</v>
+      </c>
+      <c r="AA112" s="19"/>
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
       <c r="AD112" s="9"/>
@@ -11911,8 +12074,10 @@
       <c r="Y113" s="19">
         <v>5.7415556731585724</v>
       </c>
-      <c r="Z113" s="19"/>
-      <c r="AA113" s="9"/>
+      <c r="Z113" s="19">
+        <v>11.244670208702658</v>
+      </c>
+      <c r="AA113" s="19"/>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
       <c r="AD113" s="9"/>
@@ -12051,8 +12216,10 @@
       <c r="Y114" s="19">
         <v>0.38546354811073513</v>
       </c>
-      <c r="Z114" s="19"/>
-      <c r="AA114" s="9"/>
+      <c r="Z114" s="19">
+        <v>33.862683209220847</v>
+      </c>
+      <c r="AA114" s="19"/>
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
       <c r="AD114" s="9"/>
@@ -12191,8 +12358,10 @@
       <c r="Y115" s="19">
         <v>24.292138769810066</v>
       </c>
-      <c r="Z115" s="19"/>
-      <c r="AA115" s="9"/>
+      <c r="Z115" s="19">
+        <v>-11.582037022469351</v>
+      </c>
+      <c r="AA115" s="19"/>
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
       <c r="AD115" s="9"/>
@@ -12331,8 +12500,10 @@
       <c r="Y116" s="19">
         <v>-1.2705886802436339E-2</v>
       </c>
-      <c r="Z116" s="19"/>
-      <c r="AA116" s="9"/>
+      <c r="Z116" s="19">
+        <v>18.252423132137551</v>
+      </c>
+      <c r="AA116" s="19"/>
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
       <c r="AD116" s="9"/>
@@ -12471,8 +12642,10 @@
       <c r="Y117" s="19">
         <v>7.9031948748318683</v>
       </c>
-      <c r="Z117" s="19"/>
-      <c r="AA117" s="9"/>
+      <c r="Z117" s="19">
+        <v>6.4312425335276657</v>
+      </c>
+      <c r="AA117" s="19"/>
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
       <c r="AD117" s="9"/>
@@ -12700,8 +12873,10 @@
       <c r="Y119" s="20">
         <v>2.8292215188890424</v>
       </c>
-      <c r="Z119" s="20"/>
-      <c r="AA119" s="9"/>
+      <c r="Z119" s="20">
+        <v>6.886789163698765</v>
+      </c>
+      <c r="AA119" s="20"/>
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
       <c r="AD119" s="9"/>
@@ -12791,6 +12966,7 @@
       <c r="X120" s="14"/>
       <c r="Y120" s="14"/>
       <c r="Z120" s="14"/>
+      <c r="AA120" s="14"/>
     </row>
     <row r="121" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -12990,7 +13166,7 @@
     </row>
     <row r="126" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:88" x14ac:dyDescent="0.2">
@@ -13000,7 +13176,7 @@
     </row>
     <row r="129" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:88" x14ac:dyDescent="0.2">
@@ -13037,6 +13213,7 @@
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
+      <c r="AA132" s="5"/>
     </row>
     <row r="133" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
@@ -13114,7 +13291,10 @@
       <c r="Y133" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Z133" s="21"/>
+      <c r="Z133" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA133" s="21"/>
     </row>
     <row r="134" spans="1:88" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
@@ -13195,8 +13375,10 @@
       <c r="Y135" s="19">
         <v>1.3162828469394583</v>
       </c>
-      <c r="Z135" s="19"/>
-      <c r="AA135" s="9"/>
+      <c r="Z135" s="19">
+        <v>3.7819367768662744</v>
+      </c>
+      <c r="AA135" s="19"/>
       <c r="AB135" s="9"/>
       <c r="AC135" s="9"/>
       <c r="AD135" s="9"/>
@@ -13335,8 +13517,10 @@
       <c r="Y136" s="19">
         <v>-13.271899657067451</v>
       </c>
-      <c r="Z136" s="19"/>
-      <c r="AA136" s="9"/>
+      <c r="Z136" s="19">
+        <v>16.550675306497368</v>
+      </c>
+      <c r="AA136" s="19"/>
       <c r="AB136" s="9"/>
       <c r="AC136" s="9"/>
       <c r="AD136" s="9"/>
@@ -13475,8 +13659,10 @@
       <c r="Y137" s="19">
         <v>-2.5999933811009441</v>
       </c>
-      <c r="Z137" s="19"/>
-      <c r="AA137" s="9"/>
+      <c r="Z137" s="19">
+        <v>-0.3121558832403224</v>
+      </c>
+      <c r="AA137" s="19"/>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
       <c r="AD137" s="9"/>
@@ -13615,8 +13801,10 @@
       <c r="Y138" s="19">
         <v>4.0098588483977977</v>
       </c>
-      <c r="Z138" s="19"/>
-      <c r="AA138" s="9"/>
+      <c r="Z138" s="19">
+        <v>16.567486000574434</v>
+      </c>
+      <c r="AA138" s="19"/>
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
       <c r="AD138" s="9"/>
@@ -13755,8 +13943,10 @@
       <c r="Y139" s="19">
         <v>41.102726223814557</v>
       </c>
-      <c r="Z139" s="19"/>
-      <c r="AA139" s="9"/>
+      <c r="Z139" s="19">
+        <v>-1.319189470950846</v>
+      </c>
+      <c r="AA139" s="19"/>
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
       <c r="AD139" s="9"/>
@@ -13895,8 +14085,10 @@
       <c r="Y140" s="19">
         <v>-18.847524012106788</v>
       </c>
-      <c r="Z140" s="19"/>
-      <c r="AA140" s="9"/>
+      <c r="Z140" s="19">
+        <v>15.267457346719553</v>
+      </c>
+      <c r="AA140" s="19"/>
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
       <c r="AD140" s="9"/>
@@ -14035,8 +14227,10 @@
       <c r="Y141" s="19">
         <v>2.4383944223658176</v>
       </c>
-      <c r="Z141" s="19"/>
-      <c r="AA141" s="9"/>
+      <c r="Z141" s="19">
+        <v>-0.75947748798948567</v>
+      </c>
+      <c r="AA141" s="19"/>
       <c r="AB141" s="9"/>
       <c r="AC141" s="9"/>
       <c r="AD141" s="9"/>
@@ -14175,8 +14369,10 @@
       <c r="Y142" s="19">
         <v>19.024412497812591</v>
       </c>
-      <c r="Z142" s="19"/>
-      <c r="AA142" s="9"/>
+      <c r="Z142" s="19">
+        <v>9.3695357172495193</v>
+      </c>
+      <c r="AA142" s="19"/>
       <c r="AB142" s="9"/>
       <c r="AC142" s="9"/>
       <c r="AD142" s="9"/>
@@ -14315,8 +14511,10 @@
       <c r="Y143" s="19">
         <v>12.051512073976838</v>
       </c>
-      <c r="Z143" s="19"/>
-      <c r="AA143" s="9"/>
+      <c r="Z143" s="19">
+        <v>12.525571024645103</v>
+      </c>
+      <c r="AA143" s="19"/>
       <c r="AB143" s="9"/>
       <c r="AC143" s="9"/>
       <c r="AD143" s="9"/>
@@ -14455,8 +14653,10 @@
       <c r="Y144" s="19">
         <v>2.5748097732311663</v>
       </c>
-      <c r="Z144" s="19"/>
-      <c r="AA144" s="9"/>
+      <c r="Z144" s="19">
+        <v>2.4063805406366612</v>
+      </c>
+      <c r="AA144" s="19"/>
       <c r="AB144" s="9"/>
       <c r="AC144" s="9"/>
       <c r="AD144" s="9"/>
@@ -14595,8 +14795,10 @@
       <c r="Y145" s="19">
         <v>16.87014976613051</v>
       </c>
-      <c r="Z145" s="19"/>
-      <c r="AA145" s="9"/>
+      <c r="Z145" s="19">
+        <v>-9.3706591677737805</v>
+      </c>
+      <c r="AA145" s="19"/>
       <c r="AB145" s="9"/>
       <c r="AC145" s="9"/>
       <c r="AD145" s="9"/>
@@ -14735,8 +14937,10 @@
       <c r="Y146" s="19">
         <v>5.1767416259984884</v>
       </c>
-      <c r="Z146" s="19"/>
-      <c r="AA146" s="9"/>
+      <c r="Z146" s="19">
+        <v>4.0468082918161343</v>
+      </c>
+      <c r="AA146" s="19"/>
       <c r="AB146" s="9"/>
       <c r="AC146" s="9"/>
       <c r="AD146" s="9"/>
@@ -14875,8 +15079,10 @@
       <c r="Y147" s="19">
         <v>-8.9954358772597942</v>
       </c>
-      <c r="Z147" s="19"/>
-      <c r="AA147" s="9"/>
+      <c r="Z147" s="19">
+        <v>2.5891960513842349</v>
+      </c>
+      <c r="AA147" s="19"/>
       <c r="AB147" s="9"/>
       <c r="AC147" s="9"/>
       <c r="AD147" s="9"/>
@@ -15015,8 +15221,10 @@
       <c r="Y148" s="19">
         <v>7.750237608019404</v>
       </c>
-      <c r="Z148" s="19"/>
-      <c r="AA148" s="9"/>
+      <c r="Z148" s="19">
+        <v>7.6715610712814595</v>
+      </c>
+      <c r="AA148" s="19"/>
       <c r="AB148" s="9"/>
       <c r="AC148" s="9"/>
       <c r="AD148" s="9"/>
@@ -15155,8 +15363,10 @@
       <c r="Y149" s="19">
         <v>-2.8740522383849481</v>
       </c>
-      <c r="Z149" s="19"/>
-      <c r="AA149" s="9"/>
+      <c r="Z149" s="19">
+        <v>5.0010819844984695</v>
+      </c>
+      <c r="AA149" s="19"/>
       <c r="AB149" s="9"/>
       <c r="AC149" s="9"/>
       <c r="AD149" s="9"/>
@@ -15295,8 +15505,10 @@
       <c r="Y150" s="19">
         <v>-3.323292379215431</v>
       </c>
-      <c r="Z150" s="19"/>
-      <c r="AA150" s="9"/>
+      <c r="Z150" s="19">
+        <v>7.4732839189212399</v>
+      </c>
+      <c r="AA150" s="19"/>
       <c r="AB150" s="9"/>
       <c r="AC150" s="9"/>
       <c r="AD150" s="9"/>
@@ -15435,8 +15647,10 @@
       <c r="Y151" s="19">
         <v>907.29564704243671</v>
       </c>
-      <c r="Z151" s="19"/>
-      <c r="AA151" s="9"/>
+      <c r="Z151" s="19">
+        <v>-91.753343025025302</v>
+      </c>
+      <c r="AA151" s="19"/>
       <c r="AB151" s="9"/>
       <c r="AC151" s="9"/>
       <c r="AD151" s="9"/>
@@ -15575,8 +15789,10 @@
       <c r="Y152" s="19">
         <v>19.731764012780957</v>
       </c>
-      <c r="Z152" s="19"/>
-      <c r="AA152" s="9"/>
+      <c r="Z152" s="19">
+        <v>-33.891993229723596</v>
+      </c>
+      <c r="AA152" s="19"/>
       <c r="AB152" s="9"/>
       <c r="AC152" s="9"/>
       <c r="AD152" s="9"/>
@@ -15715,8 +15931,10 @@
       <c r="Y153" s="19">
         <v>-65.844530611723641</v>
       </c>
-      <c r="Z153" s="19"/>
-      <c r="AA153" s="9"/>
+      <c r="Z153" s="19">
+        <v>185.85961247080633</v>
+      </c>
+      <c r="AA153" s="19"/>
       <c r="AB153" s="9"/>
       <c r="AC153" s="9"/>
       <c r="AD153" s="9"/>
@@ -15855,8 +16073,10 @@
       <c r="Y154" s="19">
         <v>2.7632890154513063</v>
       </c>
-      <c r="Z154" s="19"/>
-      <c r="AA154" s="9"/>
+      <c r="Z154" s="19">
+        <v>6.4371755561581239</v>
+      </c>
+      <c r="AA154" s="19"/>
       <c r="AB154" s="9"/>
       <c r="AC154" s="9"/>
       <c r="AD154" s="9"/>
@@ -15995,8 +16215,10 @@
       <c r="Y155" s="19">
         <v>1.1469511692613139</v>
       </c>
-      <c r="Z155" s="19"/>
-      <c r="AA155" s="9"/>
+      <c r="Z155" s="19">
+        <v>27.721429144413023</v>
+      </c>
+      <c r="AA155" s="19"/>
       <c r="AB155" s="9"/>
       <c r="AC155" s="9"/>
       <c r="AD155" s="9"/>
@@ -16135,8 +16357,10 @@
       <c r="Y156" s="19">
         <v>21.046275062244874</v>
       </c>
-      <c r="Z156" s="19"/>
-      <c r="AA156" s="9"/>
+      <c r="Z156" s="19">
+        <v>-9.6320625894484095</v>
+      </c>
+      <c r="AA156" s="19"/>
       <c r="AB156" s="9"/>
       <c r="AC156" s="9"/>
       <c r="AD156" s="9"/>
@@ -16275,8 +16499,10 @@
       <c r="Y157" s="19">
         <v>-4.1184847843850747</v>
       </c>
-      <c r="Z157" s="19"/>
-      <c r="AA157" s="9"/>
+      <c r="Z157" s="19">
+        <v>9.9387796776466928</v>
+      </c>
+      <c r="AA157" s="19"/>
       <c r="AB157" s="9"/>
       <c r="AC157" s="9"/>
       <c r="AD157" s="9"/>
@@ -16415,8 +16641,10 @@
       <c r="Y158" s="19">
         <v>4.2808734034235414</v>
       </c>
-      <c r="Z158" s="19"/>
-      <c r="AA158" s="9"/>
+      <c r="Z158" s="19">
+        <v>6.1784102114822446</v>
+      </c>
+      <c r="AA158" s="19"/>
       <c r="AB158" s="9"/>
       <c r="AC158" s="9"/>
       <c r="AD158" s="9"/>
@@ -16644,8 +16872,10 @@
       <c r="Y160" s="20">
         <v>-0.4686064063785409</v>
       </c>
-      <c r="Z160" s="20"/>
-      <c r="AA160" s="9"/>
+      <c r="Z160" s="20">
+        <v>4.6467706156225148</v>
+      </c>
+      <c r="AA160" s="20"/>
       <c r="AB160" s="9"/>
       <c r="AC160" s="9"/>
       <c r="AD160" s="9"/>
@@ -16735,6 +16965,7 @@
       <c r="X161" s="14"/>
       <c r="Y161" s="14"/>
       <c r="Z161" s="14"/>
+      <c r="AA161" s="14"/>
     </row>
     <row r="162" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
@@ -16935,7 +17166,7 @@
     </row>
     <row r="166" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="168" spans="1:94" x14ac:dyDescent="0.2">
@@ -16945,7 +17176,7 @@
     </row>
     <row r="169" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="170" spans="1:94" x14ac:dyDescent="0.2">
@@ -16982,6 +17213,7 @@
       <c r="X172" s="5"/>
       <c r="Y172" s="5"/>
       <c r="Z172" s="5"/>
+      <c r="AA172" s="5"/>
     </row>
     <row r="173" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
@@ -17061,6 +17293,9 @@
       </c>
       <c r="Z173" s="16">
         <v>2024</v>
+      </c>
+      <c r="AA173" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="174" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -17145,7 +17380,9 @@
       <c r="Z175" s="17">
         <v>118.26877292642108</v>
       </c>
-      <c r="AA175" s="9"/>
+      <c r="AA175" s="17">
+        <v>121.71892944741943</v>
+      </c>
       <c r="AB175" s="9"/>
       <c r="AC175" s="9"/>
       <c r="AD175" s="9"/>
@@ -17293,7 +17530,9 @@
       <c r="Z176" s="17">
         <v>127.91178753729837</v>
       </c>
-      <c r="AA176" s="9"/>
+      <c r="AA176" s="17">
+        <v>137.28202831054307</v>
+      </c>
       <c r="AB176" s="9"/>
       <c r="AC176" s="9"/>
       <c r="AD176" s="9"/>
@@ -17441,7 +17680,9 @@
       <c r="Z177" s="17">
         <v>129.53008252483636</v>
       </c>
-      <c r="AA177" s="9"/>
+      <c r="AA177" s="17">
+        <v>133.97851961497079</v>
+      </c>
       <c r="AB177" s="9"/>
       <c r="AC177" s="9"/>
       <c r="AD177" s="9"/>
@@ -17589,7 +17830,9 @@
       <c r="Z178" s="17">
         <v>115.78538643465789</v>
       </c>
-      <c r="AA178" s="9"/>
+      <c r="AA178" s="17">
+        <v>127.4169132090704</v>
+      </c>
       <c r="AB178" s="9"/>
       <c r="AC178" s="9"/>
       <c r="AD178" s="9"/>
@@ -17737,7 +17980,9 @@
       <c r="Z179" s="17">
         <v>134.68052426128025</v>
       </c>
-      <c r="AA179" s="9"/>
+      <c r="AA179" s="17">
+        <v>146.89706965485644</v>
+      </c>
       <c r="AB179" s="9"/>
       <c r="AC179" s="9"/>
       <c r="AD179" s="9"/>
@@ -17885,7 +18130,9 @@
       <c r="Z180" s="17">
         <v>126.94703277329451</v>
       </c>
-      <c r="AA180" s="9"/>
+      <c r="AA180" s="17">
+        <v>135.00622370553361</v>
+      </c>
       <c r="AB180" s="9"/>
       <c r="AC180" s="9"/>
       <c r="AD180" s="9"/>
@@ -18033,7 +18280,9 @@
       <c r="Z181" s="17">
         <v>113.12051955948404</v>
       </c>
-      <c r="AA181" s="9"/>
+      <c r="AA181" s="17">
+        <v>113.14914515004956</v>
+      </c>
       <c r="AB181" s="9"/>
       <c r="AC181" s="9"/>
       <c r="AD181" s="9"/>
@@ -18181,7 +18430,9 @@
       <c r="Z182" s="17">
         <v>119.79957157742327</v>
       </c>
-      <c r="AA182" s="9"/>
+      <c r="AA182" s="17">
+        <v>134.22897253691031</v>
+      </c>
       <c r="AB182" s="9"/>
       <c r="AC182" s="9"/>
       <c r="AD182" s="9"/>
@@ -18329,7 +18580,9 @@
       <c r="Z183" s="17">
         <v>114.85434495465682</v>
       </c>
-      <c r="AA183" s="9"/>
+      <c r="AA183" s="17">
+        <v>119.58879303021523</v>
+      </c>
       <c r="AB183" s="9"/>
       <c r="AC183" s="9"/>
       <c r="AD183" s="9"/>
@@ -18477,7 +18730,9 @@
       <c r="Z184" s="17">
         <v>119.45173547601706</v>
       </c>
-      <c r="AA184" s="9"/>
+      <c r="AA184" s="17">
+        <v>122.0201815671639</v>
+      </c>
       <c r="AB184" s="9"/>
       <c r="AC184" s="9"/>
       <c r="AD184" s="9"/>
@@ -18625,7 +18880,9 @@
       <c r="Z185" s="17">
         <v>124.63766897844212</v>
       </c>
-      <c r="AA185" s="9"/>
+      <c r="AA185" s="17">
+        <v>128.97684388691434</v>
+      </c>
       <c r="AB185" s="9"/>
       <c r="AC185" s="9"/>
       <c r="AD185" s="9"/>
@@ -18773,7 +19030,9 @@
       <c r="Z186" s="17">
         <v>126.89750337727801</v>
       </c>
-      <c r="AA186" s="9"/>
+      <c r="AA186" s="17">
+        <v>131.68361080559876</v>
+      </c>
       <c r="AB186" s="9"/>
       <c r="AC186" s="9"/>
       <c r="AD186" s="9"/>
@@ -18921,7 +19180,9 @@
       <c r="Z187" s="17">
         <v>127.02392555204986</v>
       </c>
-      <c r="AA187" s="9"/>
+      <c r="AA187" s="17">
+        <v>125.82152177024261</v>
+      </c>
       <c r="AB187" s="9"/>
       <c r="AC187" s="9"/>
       <c r="AD187" s="9"/>
@@ -19069,7 +19330,9 @@
       <c r="Z188" s="17">
         <v>107.86362946487351</v>
       </c>
-      <c r="AA188" s="9"/>
+      <c r="AA188" s="17">
+        <v>113.17657526715116</v>
+      </c>
       <c r="AB188" s="9"/>
       <c r="AC188" s="9"/>
       <c r="AD188" s="9"/>
@@ -19217,7 +19480,9 @@
       <c r="Z189" s="17">
         <v>112.85770954939312</v>
       </c>
-      <c r="AA189" s="9"/>
+      <c r="AA189" s="17">
+        <v>114.09191670132206</v>
+      </c>
       <c r="AB189" s="9"/>
       <c r="AC189" s="9"/>
       <c r="AD189" s="9"/>
@@ -19365,7 +19630,9 @@
       <c r="Z190" s="17">
         <v>110.15563188788609</v>
       </c>
-      <c r="AA190" s="9"/>
+      <c r="AA190" s="17">
+        <v>111.96581610013645</v>
+      </c>
       <c r="AB190" s="9"/>
       <c r="AC190" s="9"/>
       <c r="AD190" s="9"/>
@@ -19513,7 +19780,9 @@
       <c r="Z191" s="17">
         <v>126.37773927253086</v>
       </c>
-      <c r="AA191" s="9"/>
+      <c r="AA191" s="17">
+        <v>130.06307975961755</v>
+      </c>
       <c r="AB191" s="9"/>
       <c r="AC191" s="9"/>
       <c r="AD191" s="9"/>
@@ -19661,7 +19930,9 @@
       <c r="Z192" s="17">
         <v>137.54823214494155</v>
       </c>
-      <c r="AA192" s="9"/>
+      <c r="AA192" s="17">
+        <v>144.31972352712293</v>
+      </c>
       <c r="AB192" s="9"/>
       <c r="AC192" s="9"/>
       <c r="AD192" s="9"/>
@@ -19809,7 +20080,9 @@
       <c r="Z193" s="17">
         <v>127.1500585132228</v>
       </c>
-      <c r="AA193" s="9"/>
+      <c r="AA193" s="17">
+        <v>124.03632525294913</v>
+      </c>
       <c r="AB193" s="9"/>
       <c r="AC193" s="9"/>
       <c r="AD193" s="9"/>
@@ -19957,7 +20230,9 @@
       <c r="Z194" s="17">
         <v>119.0601224249926</v>
       </c>
-      <c r="AA194" s="9"/>
+      <c r="AA194" s="17">
+        <v>124.43776326240329</v>
+      </c>
       <c r="AB194" s="9"/>
       <c r="AC194" s="9"/>
       <c r="AD194" s="9"/>
@@ -20105,7 +20380,9 @@
       <c r="Z195" s="17">
         <v>118.03445827085253</v>
       </c>
-      <c r="AA195" s="9"/>
+      <c r="AA195" s="17">
+        <v>123.70993185033817</v>
+      </c>
       <c r="AB195" s="9"/>
       <c r="AC195" s="9"/>
       <c r="AD195" s="9"/>
@@ -20253,7 +20530,9 @@
       <c r="Z196" s="17">
         <v>106.2830617054446</v>
       </c>
-      <c r="AA196" s="9"/>
+      <c r="AA196" s="17">
+        <v>103.98966806465309</v>
+      </c>
       <c r="AB196" s="9"/>
       <c r="AC196" s="9"/>
       <c r="AD196" s="9"/>
@@ -20401,7 +20680,9 @@
       <c r="Z197" s="17">
         <v>123.22348431905104</v>
       </c>
-      <c r="AA197" s="9"/>
+      <c r="AA197" s="17">
+        <v>132.54172595182524</v>
+      </c>
       <c r="AB197" s="9"/>
       <c r="AC197" s="9"/>
       <c r="AD197" s="9"/>
@@ -20549,7 +20830,9 @@
       <c r="Z198" s="17">
         <v>123.35520599598865</v>
       </c>
-      <c r="AA198" s="9"/>
+      <c r="AA198" s="17">
+        <v>123.64893975133722</v>
+      </c>
       <c r="AB198" s="9"/>
       <c r="AC198" s="9"/>
       <c r="AD198" s="9"/>
@@ -20792,7 +21075,9 @@
       <c r="Z200" s="20">
         <v>115.79063590261671</v>
       </c>
-      <c r="AA200" s="9"/>
+      <c r="AA200" s="20">
+        <v>118.26919468268751</v>
+      </c>
       <c r="AB200" s="9"/>
       <c r="AC200" s="9"/>
       <c r="AD200" s="9"/>
@@ -20888,6 +21173,7 @@
       <c r="X201" s="14"/>
       <c r="Y201" s="14"/>
       <c r="Z201" s="14"/>
+      <c r="AA201" s="14"/>
     </row>
     <row r="202" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
@@ -21096,7 +21382,7 @@
     </row>
     <row r="207" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="209" spans="1:94" x14ac:dyDescent="0.2">
@@ -21106,7 +21392,7 @@
     </row>
     <row r="210" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="211" spans="1:94" x14ac:dyDescent="0.2">
@@ -21143,6 +21429,7 @@
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
       <c r="Z213" s="5"/>
+      <c r="AA213" s="5"/>
     </row>
     <row r="214" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
@@ -21222,6 +21509,9 @@
       </c>
       <c r="Z214" s="16">
         <v>2024</v>
+      </c>
+      <c r="AA214" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="215" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21306,7 +21596,9 @@
       <c r="Z216" s="20">
         <v>14.165074362297418</v>
       </c>
-      <c r="AA216" s="9"/>
+      <c r="AA216" s="20">
+        <v>14.154829152285602</v>
+      </c>
       <c r="AB216" s="9"/>
       <c r="AC216" s="9"/>
       <c r="AD216" s="9"/>
@@ -21454,7 +21746,9 @@
       <c r="Z217" s="20">
         <v>0.93179415773343932</v>
       </c>
-      <c r="AA217" s="9"/>
+      <c r="AA217" s="20">
+        <v>1.0904703589303451</v>
+      </c>
       <c r="AB217" s="9"/>
       <c r="AC217" s="9"/>
       <c r="AD217" s="9"/>
@@ -21602,7 +21896,9 @@
       <c r="Z218" s="20">
         <v>2.7107458366622015</v>
       </c>
-      <c r="AA218" s="9"/>
+      <c r="AA218" s="20">
+        <v>2.614998864695584</v>
+      </c>
       <c r="AB218" s="9"/>
       <c r="AC218" s="9"/>
       <c r="AD218" s="9"/>
@@ -21750,7 +22046,9 @@
       <c r="Z219" s="20">
         <v>0.22871336819362126</v>
       </c>
-      <c r="AA219" s="9"/>
+      <c r="AA219" s="20">
+        <v>0.27448478679431404</v>
+      </c>
       <c r="AB219" s="9"/>
       <c r="AC219" s="9"/>
       <c r="AD219" s="9"/>
@@ -21898,7 +22196,9 @@
       <c r="Z220" s="20">
         <v>0.20258509557328536</v>
       </c>
-      <c r="AA220" s="9"/>
+      <c r="AA220" s="20">
+        <v>0.20399733860231584</v>
+      </c>
       <c r="AB220" s="9"/>
       <c r="AC220" s="9"/>
       <c r="AD220" s="9"/>
@@ -22046,7 +22346,9 @@
       <c r="Z221" s="20">
         <v>0.69183541131977866</v>
       </c>
-      <c r="AA221" s="9"/>
+      <c r="AA221" s="20">
+        <v>0.79344477563321902</v>
+      </c>
       <c r="AB221" s="9"/>
       <c r="AC221" s="9"/>
       <c r="AD221" s="9"/>
@@ -22194,7 +22496,9 @@
       <c r="Z222" s="20">
         <v>6.8224647464685813</v>
       </c>
-      <c r="AA222" s="9"/>
+      <c r="AA222" s="20">
+        <v>6.3360150070920236</v>
+      </c>
       <c r="AB222" s="9"/>
       <c r="AC222" s="9"/>
       <c r="AD222" s="9"/>
@@ -22342,7 +22646,9 @@
       <c r="Z223" s="20">
         <v>0.33203234949646615</v>
       </c>
-      <c r="AA223" s="9"/>
+      <c r="AA223" s="20">
+        <v>0.38066569156989605</v>
+      </c>
       <c r="AB223" s="9"/>
       <c r="AC223" s="9"/>
       <c r="AD223" s="9"/>
@@ -22490,7 +22796,9 @@
       <c r="Z224" s="20">
         <v>2.2449033968500447</v>
       </c>
-      <c r="AA224" s="9"/>
+      <c r="AA224" s="20">
+        <v>2.460752328967907</v>
+      </c>
       <c r="AB224" s="9"/>
       <c r="AC224" s="9"/>
       <c r="AD224" s="9"/>
@@ -22638,7 +22946,9 @@
       <c r="Z225" s="20">
         <v>17.285209168550235</v>
       </c>
-      <c r="AA225" s="9"/>
+      <c r="AA225" s="20">
+        <v>16.916745970105048</v>
+      </c>
       <c r="AB225" s="9"/>
       <c r="AC225" s="9"/>
       <c r="AD225" s="9"/>
@@ -22786,7 +23096,9 @@
       <c r="Z226" s="20">
         <v>3.3500086695667974</v>
       </c>
-      <c r="AA226" s="9"/>
+      <c r="AA226" s="20">
+        <v>2.9393624940382006</v>
+      </c>
       <c r="AB226" s="9"/>
       <c r="AC226" s="9"/>
       <c r="AD226" s="9"/>
@@ -22934,7 +23246,9 @@
       <c r="Z227" s="20">
         <v>1.9040156618834125</v>
       </c>
-      <c r="AA227" s="9"/>
+      <c r="AA227" s="20">
+        <v>1.9233304017267285</v>
+      </c>
       <c r="AB227" s="9"/>
       <c r="AC227" s="9"/>
       <c r="AD227" s="9"/>
@@ -23082,7 +23396,9 @@
       <c r="Z228" s="20">
         <v>6.2344730388630607</v>
       </c>
-      <c r="AA228" s="9"/>
+      <c r="AA228" s="20">
+        <v>5.9271613502095395</v>
+      </c>
       <c r="AB228" s="9"/>
       <c r="AC228" s="9"/>
       <c r="AD228" s="9"/>
@@ -23230,7 +23546,9 @@
       <c r="Z229" s="20">
         <v>5.7967117982369638</v>
       </c>
-      <c r="AA229" s="9"/>
+      <c r="AA229" s="20">
+        <v>6.1268917241305783</v>
+      </c>
       <c r="AB229" s="9"/>
       <c r="AC229" s="9"/>
       <c r="AD229" s="9"/>
@@ -23378,7 +23696,9 @@
       <c r="Z230" s="20">
         <v>50.684462675794549</v>
       </c>
-      <c r="AA230" s="9"/>
+      <c r="AA230" s="20">
+        <v>50.334786861286233</v>
+      </c>
       <c r="AB230" s="9"/>
       <c r="AC230" s="9"/>
       <c r="AD230" s="9"/>
@@ -23526,7 +23846,9 @@
       <c r="Z231" s="20">
         <v>44.086627196817844</v>
       </c>
-      <c r="AA231" s="9"/>
+      <c r="AA231" s="20">
+        <v>45.056982850525984</v>
+      </c>
       <c r="AB231" s="9"/>
       <c r="AC231" s="9"/>
       <c r="AD231" s="9"/>
@@ -23674,7 +23996,9 @@
       <c r="Z232" s="20">
         <v>0.7477230420287494</v>
       </c>
-      <c r="AA232" s="9"/>
+      <c r="AA232" s="20">
+        <v>5.9371512721116314E-2</v>
+      </c>
       <c r="AB232" s="9"/>
       <c r="AC232" s="9"/>
       <c r="AD232" s="9"/>
@@ -23822,7 +24146,9 @@
       <c r="Z233" s="20">
         <v>5.124549695611468</v>
       </c>
-      <c r="AA233" s="9"/>
+      <c r="AA233" s="20">
+        <v>3.3254958946365107</v>
+      </c>
       <c r="AB233" s="9"/>
       <c r="AC233" s="9"/>
       <c r="AD233" s="9"/>
@@ -23970,7 +24296,9 @@
       <c r="Z234" s="20">
         <v>0.72556274133649012</v>
       </c>
-      <c r="AA234" s="9"/>
+      <c r="AA234" s="20">
+        <v>1.8929366034026178</v>
+      </c>
       <c r="AB234" s="9"/>
       <c r="AC234" s="9"/>
       <c r="AD234" s="9"/>
@@ -24118,7 +24446,9 @@
       <c r="Z235" s="20">
         <v>17.865253793357802</v>
       </c>
-      <c r="AA235" s="9"/>
+      <c r="AA235" s="20">
+        <v>18.593638016323112</v>
+      </c>
       <c r="AB235" s="9"/>
       <c r="AC235" s="9"/>
       <c r="AD235" s="9"/>
@@ -24266,7 +24596,9 @@
       <c r="Z236" s="20">
         <v>1.5741921939462267</v>
       </c>
-      <c r="AA236" s="9"/>
+      <c r="AA236" s="20">
+        <v>1.9714839655808409</v>
+      </c>
       <c r="AB236" s="9"/>
       <c r="AC236" s="9"/>
       <c r="AD236" s="9"/>
@@ -24414,7 +24746,9 @@
       <c r="Z237" s="20">
         <v>3.5107984572539443</v>
       </c>
-      <c r="AA237" s="9"/>
+      <c r="AA237" s="20">
+        <v>2.9041722596759976</v>
+      </c>
       <c r="AB237" s="9"/>
       <c r="AC237" s="9"/>
       <c r="AD237" s="9"/>
@@ -24562,7 +24896,9 @@
       <c r="Z238" s="20">
         <v>8.9713324691399539</v>
       </c>
-      <c r="AA238" s="9"/>
+      <c r="AA238" s="20">
+        <v>9.925284607203098</v>
+      </c>
       <c r="AB238" s="9"/>
       <c r="AC238" s="9"/>
       <c r="AD238" s="9"/>
@@ -24710,7 +25046,9 @@
       <c r="Z239" s="20">
         <v>3.8089306730176777</v>
       </c>
-      <c r="AA239" s="9"/>
+      <c r="AA239" s="20">
+        <v>3.7926971838631749</v>
+      </c>
       <c r="AB239" s="9"/>
       <c r="AC239" s="9"/>
       <c r="AD239" s="9"/>
@@ -24953,7 +25291,9 @@
       <c r="Z241" s="20">
         <v>100</v>
       </c>
-      <c r="AA241" s="9"/>
+      <c r="AA241" s="20">
+        <v>100</v>
+      </c>
       <c r="AB241" s="9"/>
       <c r="AC241" s="9"/>
       <c r="AD241" s="9"/>
@@ -25049,6 +25389,7 @@
       <c r="X242" s="14"/>
       <c r="Y242" s="14"/>
       <c r="Z242" s="14"/>
+      <c r="AA242" s="14"/>
     </row>
     <row r="243" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
@@ -25257,7 +25598,7 @@
     </row>
     <row r="248" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="250" spans="1:94" x14ac:dyDescent="0.2">
@@ -25267,7 +25608,7 @@
     </row>
     <row r="251" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="252" spans="1:94" x14ac:dyDescent="0.2">
@@ -25304,6 +25645,7 @@
       <c r="X254" s="5"/>
       <c r="Y254" s="5"/>
       <c r="Z254" s="5"/>
+      <c r="AA254" s="5"/>
     </row>
     <row r="255" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
@@ -25383,6 +25725,9 @@
       </c>
       <c r="Z255" s="16">
         <v>2024</v>
+      </c>
+      <c r="AA255" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="256" spans="1:94" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25467,7 +25812,9 @@
       <c r="Z257" s="20">
         <v>13.868267400040438</v>
       </c>
-      <c r="AA257" s="9"/>
+      <c r="AA257" s="20">
+        <v>13.753655674691274</v>
+      </c>
       <c r="AB257" s="9"/>
       <c r="AC257" s="9"/>
       <c r="AD257" s="9"/>
@@ -25615,7 +25962,9 @@
       <c r="Z258" s="20">
         <v>0.84349566315643165</v>
       </c>
-      <c r="AA258" s="9"/>
+      <c r="AA258" s="20">
+        <v>0.93944599131573625</v>
+      </c>
       <c r="AB258" s="9"/>
       <c r="AC258" s="9"/>
       <c r="AD258" s="9"/>
@@ -25763,7 +26112,9 @@
       <c r="Z259" s="20">
         <v>2.4232130334457502</v>
       </c>
-      <c r="AA259" s="9"/>
+      <c r="AA259" s="20">
+        <v>2.3083835432163595</v>
+      </c>
       <c r="AB259" s="9"/>
       <c r="AC259" s="9"/>
       <c r="AD259" s="9"/>
@@ -25911,7 +26262,9 @@
       <c r="Z260" s="20">
         <v>0.22872373758076975</v>
       </c>
-      <c r="AA260" s="9"/>
+      <c r="AA260" s="20">
+        <v>0.25477853661033245</v>
+      </c>
       <c r="AB260" s="9"/>
       <c r="AC260" s="9"/>
       <c r="AD260" s="9"/>
@@ -26059,7 +26412,9 @@
       <c r="Z261" s="20">
         <v>0.17417111471377716</v>
       </c>
-      <c r="AA261" s="9"/>
+      <c r="AA261" s="20">
+        <v>0.16424154008377656</v>
+      </c>
       <c r="AB261" s="9"/>
       <c r="AC261" s="9"/>
       <c r="AD261" s="9"/>
@@ -26207,7 +26562,9 @@
       <c r="Z262" s="20">
         <v>0.63103532604597956</v>
       </c>
-      <c r="AA262" s="9"/>
+      <c r="AA262" s="20">
+        <v>0.69507961976630106</v>
+      </c>
       <c r="AB262" s="9"/>
       <c r="AC262" s="9"/>
       <c r="AD262" s="9"/>
@@ -26355,7 +26712,9 @@
       <c r="Z263" s="20">
         <v>6.9835033864158902</v>
       </c>
-      <c r="AA263" s="9"/>
+      <c r="AA263" s="20">
+        <v>6.6227225260293343</v>
+      </c>
       <c r="AB263" s="9"/>
       <c r="AC263" s="9"/>
       <c r="AD263" s="9"/>
@@ -26503,7 +26862,9 @@
       <c r="Z264" s="20">
         <v>0.32092132202316698</v>
       </c>
-      <c r="AA264" s="9"/>
+      <c r="AA264" s="20">
+        <v>0.33540467407600866</v>
+      </c>
       <c r="AB264" s="9"/>
       <c r="AC264" s="9"/>
       <c r="AD264" s="9"/>
@@ -26651,7 +27012,9 @@
       <c r="Z265" s="20">
         <v>2.2632038166586717</v>
       </c>
-      <c r="AA265" s="9"/>
+      <c r="AA265" s="20">
+        <v>2.4335992435934224</v>
+      </c>
       <c r="AB265" s="9"/>
       <c r="AC265" s="9"/>
       <c r="AD265" s="9"/>
@@ -26799,7 +27162,9 @@
       <c r="Z266" s="20">
         <v>16.755431416381697</v>
       </c>
-      <c r="AA266" s="9"/>
+      <c r="AA266" s="20">
+        <v>16.396713206287565</v>
+      </c>
       <c r="AB266" s="9"/>
       <c r="AC266" s="9"/>
       <c r="AD266" s="9"/>
@@ -26947,7 +27312,9 @@
       <c r="Z267" s="20">
         <v>3.1122182989117944</v>
       </c>
-      <c r="AA267" s="9"/>
+      <c r="AA267" s="20">
+        <v>2.6953368106541493</v>
+      </c>
       <c r="AB267" s="9"/>
       <c r="AC267" s="9"/>
       <c r="AD267" s="9"/>
@@ -27095,7 +27462,9 @@
       <c r="Z268" s="20">
         <v>1.7373642379909766</v>
       </c>
-      <c r="AA268" s="9"/>
+      <c r="AA268" s="20">
+        <v>1.7274035571272373</v>
+      </c>
       <c r="AB268" s="9"/>
       <c r="AC268" s="9"/>
       <c r="AD268" s="9"/>
@@ -27243,7 +27612,9 @@
       <c r="Z269" s="20">
         <v>5.6831309105768968</v>
       </c>
-      <c r="AA269" s="9"/>
+      <c r="AA269" s="20">
+        <v>5.5713886605480791</v>
+      </c>
       <c r="AB269" s="9"/>
       <c r="AC269" s="9"/>
       <c r="AD269" s="9"/>
@@ -27391,7 +27762,9 @@
       <c r="Z270" s="20">
         <v>6.22271796890203</v>
       </c>
-      <c r="AA270" s="9"/>
+      <c r="AA270" s="20">
+        <v>6.4025841779581025</v>
+      </c>
       <c r="AB270" s="9"/>
       <c r="AC270" s="9"/>
       <c r="AD270" s="9"/>
@@ -27539,7 +27912,9 @@
       <c r="Z271" s="20">
         <v>52.001641598478209</v>
       </c>
-      <c r="AA271" s="9"/>
+      <c r="AA271" s="20">
+        <v>52.177707928190678</v>
+      </c>
       <c r="AB271" s="9"/>
       <c r="AC271" s="9"/>
       <c r="AD271" s="9"/>
@@ -27687,7 +28062,9 @@
       <c r="Z272" s="20">
         <v>46.341875675650464</v>
       </c>
-      <c r="AA272" s="9"/>
+      <c r="AA272" s="20">
+        <v>47.593571521843039</v>
+      </c>
       <c r="AB272" s="9"/>
       <c r="AC272" s="9"/>
       <c r="AD272" s="9"/>
@@ -27835,7 +28212,9 @@
       <c r="Z273" s="20">
         <v>0.68508367861242903</v>
       </c>
-      <c r="AA273" s="9"/>
+      <c r="AA273" s="20">
+        <v>5.3987811218964551E-2</v>
+      </c>
       <c r="AB273" s="9"/>
       <c r="AC273" s="9"/>
       <c r="AD273" s="9"/>
@@ -27983,7 +28362,9 @@
       <c r="Z274" s="20">
         <v>4.3139403445341538</v>
       </c>
-      <c r="AA274" s="9"/>
+      <c r="AA274" s="20">
+        <v>2.7252250196095158</v>
+      </c>
       <c r="AB274" s="9"/>
       <c r="AC274" s="9"/>
       <c r="AD274" s="9"/>
@@ -28131,7 +28512,9 @@
       <c r="Z275" s="20">
         <v>0.66074189968116392</v>
       </c>
-      <c r="AA275" s="9"/>
+      <c r="AA275" s="20">
+        <v>1.8049235755191522</v>
+      </c>
       <c r="AB275" s="9"/>
       <c r="AC275" s="9"/>
       <c r="AD275" s="9"/>
@@ -28279,7 +28662,9 @@
       <c r="Z276" s="20">
         <v>17.37465958509965</v>
       </c>
-      <c r="AA276" s="9"/>
+      <c r="AA276" s="20">
+        <v>17.67192319083048</v>
+      </c>
       <c r="AB276" s="9"/>
       <c r="AC276" s="9"/>
       <c r="AD276" s="9"/>
@@ -28427,7 +28812,9 @@
       <c r="Z277" s="20">
         <v>1.5442669694954698</v>
       </c>
-      <c r="AA277" s="9"/>
+      <c r="AA277" s="20">
+        <v>1.884778509304788</v>
+      </c>
       <c r="AB277" s="9"/>
       <c r="AC277" s="9"/>
       <c r="AD277" s="9"/>
@@ -28575,7 +28962,9 @@
       <c r="Z278" s="20">
         <v>3.8248576900992224</v>
       </c>
-      <c r="AA278" s="9"/>
+      <c r="AA278" s="20">
+        <v>3.302963849813755</v>
+      </c>
       <c r="AB278" s="9"/>
       <c r="AC278" s="9"/>
       <c r="AD278" s="9"/>
@@ -28723,7 +29112,9 @@
       <c r="Z279" s="20">
         <v>8.4301811236391408</v>
       </c>
-      <c r="AA279" s="9"/>
+      <c r="AA279" s="20">
+        <v>8.8564971450352505</v>
+      </c>
       <c r="AB279" s="9"/>
       <c r="AC279" s="9"/>
       <c r="AD279" s="9"/>
@@ -28871,7 +29262,9 @@
       <c r="Z280" s="20">
         <v>3.575353801865814</v>
       </c>
-      <c r="AA280" s="9"/>
+      <c r="AA280" s="20">
+        <v>3.6276836866766868</v>
+      </c>
       <c r="AB280" s="9"/>
       <c r="AC280" s="9"/>
       <c r="AD280" s="9"/>
@@ -29114,7 +29507,9 @@
       <c r="Z282" s="20">
         <v>100</v>
       </c>
-      <c r="AA282" s="9"/>
+      <c r="AA282" s="20">
+        <v>100</v>
+      </c>
       <c r="AB282" s="9"/>
       <c r="AC282" s="9"/>
       <c r="AD282" s="9"/>
@@ -29210,6 +29605,7 @@
       <c r="X283" s="14"/>
       <c r="Y283" s="14"/>
       <c r="Z283" s="14"/>
+      <c r="AA283" s="14"/>
     </row>
     <row r="284" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
@@ -29399,12 +29795,12 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="41" max="25" man="1"/>
-    <brk id="82" max="25" man="1"/>
-    <brk id="123" max="25" man="1"/>
-    <brk id="164" max="25" man="1"/>
-    <brk id="204" max="25" man="1"/>
-    <brk id="245" max="25" man="1"/>
+    <brk id="41" max="26" man="1"/>
+    <brk id="82" max="26" man="1"/>
+    <brk id="123" max="26" man="1"/>
+    <brk id="164" max="26" man="1"/>
+    <brk id="204" max="26" man="1"/>
+    <brk id="245" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>